--- a/Resources/Dante Level Models.xlsx
+++ b/Resources/Dante Level Models.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="150" windowWidth="11040" windowHeight="6060" activeTab="2"/>
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Key" sheetId="4" r:id="rId1"/>
     <sheet name="Template" sheetId="6" r:id="rId2"/>
-    <sheet name="1-1" sheetId="5" r:id="rId3"/>
+    <sheet name="TRIAL" sheetId="8" r:id="rId3"/>
+    <sheet name="1-1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -107,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +187,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -450,11 +463,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -502,10 +581,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,10 +602,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,17 +950,17 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -866,17 +968,17 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
@@ -884,17 +986,17 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -902,17 +1004,17 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -920,17 +1022,17 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -938,17 +1040,17 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
@@ -956,17 +1058,17 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
@@ -974,17 +1076,17 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
@@ -992,17 +1094,17 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
@@ -1010,17 +1112,17 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
@@ -1028,17 +1130,17 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
@@ -1055,149 +1157,154 @@
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
     <mergeCell ref="E12:M12"/>
     <mergeCell ref="B14:M23"/>
     <mergeCell ref="E7:M7"/>
@@ -1205,11 +1312,6 @@
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3508,305 +3610,305 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="50"/>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="50"/>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="50"/>
-      <c r="AU29" s="50"/>
-      <c r="AV29" s="50"/>
-      <c r="AW29" s="50"/>
-      <c r="AX29" s="50"/>
-      <c r="AY29" s="50"/>
-      <c r="AZ29" s="50"/>
-      <c r="BA29" s="50"/>
-      <c r="BB29" s="50"/>
-      <c r="BC29" s="50"/>
-      <c r="BD29" s="50"/>
-      <c r="BE29" s="50"/>
-      <c r="BF29" s="50"/>
-      <c r="BG29" s="50"/>
-      <c r="BH29" s="50"/>
-      <c r="BI29" s="50"/>
-      <c r="BJ29" s="50"/>
-      <c r="BK29" s="50"/>
-      <c r="BL29" s="50"/>
-      <c r="BM29" s="50"/>
-      <c r="BN29" s="50"/>
-      <c r="BO29" s="50"/>
-      <c r="BP29" s="50"/>
-      <c r="BQ29" s="50"/>
-      <c r="BR29" s="50"/>
-      <c r="BS29" s="50"/>
-      <c r="BT29" s="50"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="55"/>
+      <c r="AR29" s="55"/>
+      <c r="AS29" s="55"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="55"/>
+      <c r="AV29" s="55"/>
+      <c r="AW29" s="55"/>
+      <c r="AX29" s="55"/>
+      <c r="AY29" s="55"/>
+      <c r="AZ29" s="55"/>
+      <c r="BA29" s="55"/>
+      <c r="BB29" s="55"/>
+      <c r="BC29" s="55"/>
+      <c r="BD29" s="55"/>
+      <c r="BE29" s="55"/>
+      <c r="BF29" s="55"/>
+      <c r="BG29" s="55"/>
+      <c r="BH29" s="55"/>
+      <c r="BI29" s="55"/>
+      <c r="BJ29" s="55"/>
+      <c r="BK29" s="55"/>
+      <c r="BL29" s="55"/>
+      <c r="BM29" s="55"/>
+      <c r="BN29" s="55"/>
+      <c r="BO29" s="55"/>
+      <c r="BP29" s="55"/>
+      <c r="BQ29" s="55"/>
+      <c r="BR29" s="55"/>
+      <c r="BS29" s="55"/>
+      <c r="BT29" s="55"/>
     </row>
     <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>28</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="50"/>
-      <c r="AI30" s="50"/>
-      <c r="AJ30" s="50"/>
-      <c r="AK30" s="50"/>
-      <c r="AL30" s="50"/>
-      <c r="AM30" s="50"/>
-      <c r="AN30" s="50"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="50"/>
-      <c r="AQ30" s="50"/>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="50"/>
-      <c r="AU30" s="50"/>
-      <c r="AV30" s="50"/>
-      <c r="AW30" s="50"/>
-      <c r="AX30" s="50"/>
-      <c r="AY30" s="50"/>
-      <c r="AZ30" s="50"/>
-      <c r="BA30" s="50"/>
-      <c r="BB30" s="50"/>
-      <c r="BC30" s="50"/>
-      <c r="BD30" s="50"/>
-      <c r="BE30" s="50"/>
-      <c r="BF30" s="50"/>
-      <c r="BG30" s="50"/>
-      <c r="BH30" s="50"/>
-      <c r="BI30" s="50"/>
-      <c r="BJ30" s="50"/>
-      <c r="BK30" s="50"/>
-      <c r="BL30" s="50"/>
-      <c r="BM30" s="50"/>
-      <c r="BN30" s="50"/>
-      <c r="BO30" s="50"/>
-      <c r="BP30" s="50"/>
-      <c r="BQ30" s="50"/>
-      <c r="BR30" s="50"/>
-      <c r="BS30" s="50"/>
-      <c r="BT30" s="50"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="55"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="55"/>
+      <c r="AX30" s="55"/>
+      <c r="AY30" s="55"/>
+      <c r="AZ30" s="55"/>
+      <c r="BA30" s="55"/>
+      <c r="BB30" s="55"/>
+      <c r="BC30" s="55"/>
+      <c r="BD30" s="55"/>
+      <c r="BE30" s="55"/>
+      <c r="BF30" s="55"/>
+      <c r="BG30" s="55"/>
+      <c r="BH30" s="55"/>
+      <c r="BI30" s="55"/>
+      <c r="BJ30" s="55"/>
+      <c r="BK30" s="55"/>
+      <c r="BL30" s="55"/>
+      <c r="BM30" s="55"/>
+      <c r="BN30" s="55"/>
+      <c r="BO30" s="55"/>
+      <c r="BP30" s="55"/>
+      <c r="BQ30" s="55"/>
+      <c r="BR30" s="55"/>
+      <c r="BS30" s="55"/>
+      <c r="BT30" s="55"/>
     </row>
     <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="50"/>
-      <c r="AK31" s="50"/>
-      <c r="AL31" s="50"/>
-      <c r="AM31" s="50"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="50"/>
-      <c r="AU31" s="50"/>
-      <c r="AV31" s="50"/>
-      <c r="AW31" s="50"/>
-      <c r="AX31" s="50"/>
-      <c r="AY31" s="50"/>
-      <c r="AZ31" s="50"/>
-      <c r="BA31" s="50"/>
-      <c r="BB31" s="50"/>
-      <c r="BC31" s="50"/>
-      <c r="BD31" s="50"/>
-      <c r="BE31" s="50"/>
-      <c r="BF31" s="50"/>
-      <c r="BG31" s="50"/>
-      <c r="BH31" s="50"/>
-      <c r="BI31" s="50"/>
-      <c r="BJ31" s="50"/>
-      <c r="BK31" s="50"/>
-      <c r="BL31" s="50"/>
-      <c r="BM31" s="50"/>
-      <c r="BN31" s="50"/>
-      <c r="BO31" s="50"/>
-      <c r="BP31" s="50"/>
-      <c r="BQ31" s="50"/>
-      <c r="BR31" s="50"/>
-      <c r="BS31" s="50"/>
-      <c r="BT31" s="50"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="55"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="55"/>
+      <c r="AY31" s="55"/>
+      <c r="AZ31" s="55"/>
+      <c r="BA31" s="55"/>
+      <c r="BB31" s="55"/>
+      <c r="BC31" s="55"/>
+      <c r="BD31" s="55"/>
+      <c r="BE31" s="55"/>
+      <c r="BF31" s="55"/>
+      <c r="BG31" s="55"/>
+      <c r="BH31" s="55"/>
+      <c r="BI31" s="55"/>
+      <c r="BJ31" s="55"/>
+      <c r="BK31" s="55"/>
+      <c r="BL31" s="55"/>
+      <c r="BM31" s="55"/>
+      <c r="BN31" s="55"/>
+      <c r="BO31" s="55"/>
+      <c r="BP31" s="55"/>
+      <c r="BQ31" s="55"/>
+      <c r="BR31" s="55"/>
+      <c r="BS31" s="55"/>
+      <c r="BT31" s="55"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>30</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="52"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="52"/>
-      <c r="AO32" s="52"/>
-      <c r="AP32" s="52"/>
-      <c r="AQ32" s="52"/>
-      <c r="AR32" s="52"/>
-      <c r="AS32" s="52"/>
-      <c r="AT32" s="52"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="52"/>
-      <c r="AW32" s="52"/>
-      <c r="AX32" s="52"/>
-      <c r="AY32" s="52"/>
-      <c r="AZ32" s="52"/>
-      <c r="BA32" s="52"/>
-      <c r="BB32" s="52"/>
-      <c r="BC32" s="52"/>
-      <c r="BD32" s="52"/>
-      <c r="BE32" s="52"/>
-      <c r="BF32" s="52"/>
-      <c r="BG32" s="52"/>
-      <c r="BH32" s="52"/>
-      <c r="BI32" s="52"/>
-      <c r="BJ32" s="52"/>
-      <c r="BK32" s="52"/>
-      <c r="BL32" s="52"/>
-      <c r="BM32" s="52"/>
-      <c r="BN32" s="52"/>
-      <c r="BO32" s="52"/>
-      <c r="BP32" s="52"/>
-      <c r="BQ32" s="52"/>
-      <c r="BR32" s="52"/>
-      <c r="BS32" s="52"/>
-      <c r="BT32" s="52"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
+      <c r="BP32" s="57"/>
+      <c r="BQ32" s="57"/>
+      <c r="BR32" s="57"/>
+      <c r="BS32" s="57"/>
+      <c r="BT32" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3818,10 +3920,2612 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BT32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2:BF23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.28515625" style="46"/>
+    <col min="12" max="43" width="3.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.85546875" style="46" customWidth="1"/>
+    <col min="45" max="45" width="4" style="46" customWidth="1"/>
+    <col min="46" max="47" width="3.85546875" style="46" customWidth="1"/>
+    <col min="48" max="72" width="3.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="73" max="151" width="3.28515625" style="46"/>
+    <col min="152" max="152" width="3.85546875" style="46" customWidth="1"/>
+    <col min="153" max="16384" width="3.28515625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46">
+        <v>1</v>
+      </c>
+      <c r="D1" s="46">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46">
+        <v>3</v>
+      </c>
+      <c r="F1" s="46">
+        <v>4</v>
+      </c>
+      <c r="G1" s="46">
+        <v>5</v>
+      </c>
+      <c r="H1" s="46">
+        <v>6</v>
+      </c>
+      <c r="I1" s="46">
+        <v>7</v>
+      </c>
+      <c r="J1" s="46">
+        <v>8</v>
+      </c>
+      <c r="K1" s="46">
+        <v>9</v>
+      </c>
+      <c r="L1" s="46">
+        <v>10</v>
+      </c>
+      <c r="M1" s="46">
+        <v>11</v>
+      </c>
+      <c r="N1" s="46">
+        <v>12</v>
+      </c>
+      <c r="O1" s="46">
+        <v>13</v>
+      </c>
+      <c r="P1" s="46">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="46">
+        <v>15</v>
+      </c>
+      <c r="R1" s="46">
+        <v>16</v>
+      </c>
+      <c r="S1" s="46">
+        <v>17</v>
+      </c>
+      <c r="T1" s="46">
+        <v>18</v>
+      </c>
+      <c r="U1" s="46">
+        <v>19</v>
+      </c>
+      <c r="V1" s="46">
+        <v>20</v>
+      </c>
+      <c r="W1" s="46">
+        <v>21</v>
+      </c>
+      <c r="X1" s="46">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="46">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="46">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="46">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="46">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="46">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="46">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="46">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="46">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="46">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="46">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="46">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="46">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="46">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="46">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="46">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="46">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="46">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="46">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="46">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="46">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="46">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="46">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="46">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="46">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="46">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="46">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="46">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="46">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="46">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="46">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="46">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="46">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="46">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="46">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="46">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="46">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="46">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="46">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="46">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="46">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="46">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="46">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="46">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="46">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="46">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="46">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="46">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="71"/>
+    </row>
+    <row r="3" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="58"/>
+    </row>
+    <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="69"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="58"/>
+    </row>
+    <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="69"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="58"/>
+    </row>
+    <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="40"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="58"/>
+    </row>
+    <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="58"/>
+    </row>
+    <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="40"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="58"/>
+    </row>
+    <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="69"/>
+      <c r="BF9" s="40"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="58"/>
+    </row>
+    <row r="10" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="69"/>
+      <c r="BF10" s="40"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="58"/>
+    </row>
+    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="69"/>
+      <c r="BF11" s="40"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="58"/>
+    </row>
+    <row r="12" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="58"/>
+    </row>
+    <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="69"/>
+      <c r="BF13" s="40"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="58"/>
+    </row>
+    <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="69"/>
+      <c r="BF14" s="40"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="58"/>
+    </row>
+    <row r="15" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="69"/>
+      <c r="BF15" s="40"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="45"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="40"/>
+      <c r="BT15" s="58"/>
+    </row>
+    <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="69"/>
+      <c r="BF16" s="40"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="40"/>
+      <c r="BT16" s="58"/>
+    </row>
+    <row r="17" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="69"/>
+      <c r="BF17" s="40"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="39"/>
+      <c r="BQ17" s="39"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="58"/>
+    </row>
+    <row r="18" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="69"/>
+      <c r="BF18" s="40"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="39"/>
+      <c r="BQ18" s="39"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="58"/>
+    </row>
+    <row r="19" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="69"/>
+      <c r="BF19" s="40"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="40"/>
+      <c r="BN19" s="40"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="58"/>
+    </row>
+    <row r="20" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="69"/>
+      <c r="BF20" s="40"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="39"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="40"/>
+      <c r="BN20" s="40"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="58"/>
+    </row>
+    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A21" s="46">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="69"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="40"/>
+      <c r="BB21" s="40"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="69"/>
+      <c r="BF21" s="40"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="39"/>
+      <c r="BK21" s="39"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="58"/>
+    </row>
+    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="40"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="69"/>
+      <c r="BF22" s="40"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="58"/>
+    </row>
+    <row r="23" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="69"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="69"/>
+      <c r="BF23" s="40"/>
+      <c r="BG23" s="40"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="58"/>
+    </row>
+    <row r="24" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46">
+        <v>22</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="40"/>
+      <c r="AX24" s="40"/>
+      <c r="AY24" s="40"/>
+      <c r="AZ24" s="40"/>
+      <c r="BA24" s="40"/>
+      <c r="BB24" s="40"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="19"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="40"/>
+      <c r="BJ24" s="40"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="40"/>
+      <c r="BN24" s="40"/>
+      <c r="BO24" s="40"/>
+      <c r="BP24" s="40"/>
+      <c r="BQ24" s="40"/>
+      <c r="BR24" s="40"/>
+      <c r="BS24" s="63"/>
+      <c r="BT24" s="58"/>
+    </row>
+    <row r="25" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="58"/>
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
+        <v>24</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="58"/>
+    </row>
+    <row r="27" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="58"/>
+    </row>
+    <row r="28" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46">
+        <v>26</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="47"/>
+      <c r="BA28" s="47"/>
+      <c r="BB28" s="47"/>
+      <c r="BC28" s="47"/>
+      <c r="BD28" s="47"/>
+      <c r="BE28" s="47"/>
+      <c r="BF28" s="47"/>
+      <c r="BG28" s="47"/>
+      <c r="BH28" s="47"/>
+      <c r="BI28" s="47"/>
+      <c r="BJ28" s="47"/>
+      <c r="BK28" s="47"/>
+      <c r="BL28" s="47"/>
+      <c r="BM28" s="47"/>
+      <c r="BN28" s="47"/>
+      <c r="BO28" s="47"/>
+      <c r="BP28" s="47"/>
+      <c r="BQ28" s="47"/>
+      <c r="BR28" s="47"/>
+      <c r="BS28" s="47"/>
+      <c r="BT28" s="72"/>
+    </row>
+    <row r="29" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="55"/>
+      <c r="AR29" s="55"/>
+      <c r="AS29" s="55"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="55"/>
+      <c r="AV29" s="55"/>
+      <c r="AW29" s="55"/>
+      <c r="AX29" s="55"/>
+      <c r="AY29" s="55"/>
+      <c r="AZ29" s="55"/>
+      <c r="BA29" s="55"/>
+      <c r="BB29" s="55"/>
+      <c r="BC29" s="55"/>
+      <c r="BD29" s="55"/>
+      <c r="BE29" s="55"/>
+      <c r="BF29" s="55"/>
+      <c r="BG29" s="55"/>
+      <c r="BH29" s="55"/>
+      <c r="BI29" s="55"/>
+      <c r="BJ29" s="55"/>
+      <c r="BK29" s="55"/>
+      <c r="BL29" s="55"/>
+      <c r="BM29" s="55"/>
+      <c r="BN29" s="55"/>
+      <c r="BO29" s="55"/>
+      <c r="BP29" s="55"/>
+      <c r="BQ29" s="55"/>
+      <c r="BR29" s="55"/>
+      <c r="BS29" s="55"/>
+      <c r="BT29" s="73"/>
+    </row>
+    <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46">
+        <v>28</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="55"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="55"/>
+      <c r="AX30" s="55"/>
+      <c r="AY30" s="55"/>
+      <c r="AZ30" s="55"/>
+      <c r="BA30" s="55"/>
+      <c r="BB30" s="55"/>
+      <c r="BC30" s="55"/>
+      <c r="BD30" s="55"/>
+      <c r="BE30" s="55"/>
+      <c r="BF30" s="55"/>
+      <c r="BG30" s="55"/>
+      <c r="BH30" s="55"/>
+      <c r="BI30" s="55"/>
+      <c r="BJ30" s="55"/>
+      <c r="BK30" s="55"/>
+      <c r="BL30" s="55"/>
+      <c r="BM30" s="55"/>
+      <c r="BN30" s="55"/>
+      <c r="BO30" s="55"/>
+      <c r="BP30" s="55"/>
+      <c r="BQ30" s="55"/>
+      <c r="BR30" s="55"/>
+      <c r="BS30" s="55"/>
+      <c r="BT30" s="73"/>
+    </row>
+    <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="55"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="55"/>
+      <c r="AY31" s="55"/>
+      <c r="AZ31" s="55"/>
+      <c r="BA31" s="55"/>
+      <c r="BB31" s="55"/>
+      <c r="BC31" s="55"/>
+      <c r="BD31" s="55"/>
+      <c r="BE31" s="55"/>
+      <c r="BF31" s="55"/>
+      <c r="BG31" s="55"/>
+      <c r="BH31" s="55"/>
+      <c r="BI31" s="55"/>
+      <c r="BJ31" s="55"/>
+      <c r="BK31" s="55"/>
+      <c r="BL31" s="55"/>
+      <c r="BM31" s="55"/>
+      <c r="BN31" s="55"/>
+      <c r="BO31" s="55"/>
+      <c r="BP31" s="55"/>
+      <c r="BQ31" s="55"/>
+      <c r="BR31" s="55"/>
+      <c r="BS31" s="55"/>
+      <c r="BT31" s="73"/>
+    </row>
+    <row r="32" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="46">
+        <v>30</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
+      <c r="BP32" s="57"/>
+      <c r="BQ32" s="57"/>
+      <c r="BR32" s="57"/>
+      <c r="BS32" s="57"/>
+      <c r="BT32" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B29:BT32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CO315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:BT32"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B29" sqref="B1:BT32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5806,7 +8510,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="54"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -5903,7 +8607,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="54"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -6001,7 +8705,7 @@
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="56"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -6093,10 +8797,10 @@
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -6190,77 +8894,77 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="50"/>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="50"/>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="50"/>
-      <c r="AU29" s="50"/>
-      <c r="AV29" s="50"/>
-      <c r="AW29" s="50"/>
-      <c r="AX29" s="50"/>
-      <c r="AY29" s="50"/>
-      <c r="AZ29" s="50"/>
-      <c r="BA29" s="50"/>
-      <c r="BB29" s="50"/>
-      <c r="BC29" s="50"/>
-      <c r="BD29" s="50"/>
-      <c r="BE29" s="50"/>
-      <c r="BF29" s="50"/>
-      <c r="BG29" s="50"/>
-      <c r="BH29" s="50"/>
-      <c r="BI29" s="50"/>
-      <c r="BJ29" s="50"/>
-      <c r="BK29" s="50"/>
-      <c r="BL29" s="50"/>
-      <c r="BM29" s="50"/>
-      <c r="BN29" s="50"/>
-      <c r="BO29" s="50"/>
-      <c r="BP29" s="50"/>
-      <c r="BQ29" s="50"/>
-      <c r="BR29" s="50"/>
-      <c r="BS29" s="50"/>
-      <c r="BT29" s="50"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="55"/>
+      <c r="AR29" s="55"/>
+      <c r="AS29" s="55"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="55"/>
+      <c r="AV29" s="55"/>
+      <c r="AW29" s="55"/>
+      <c r="AX29" s="55"/>
+      <c r="AY29" s="55"/>
+      <c r="AZ29" s="55"/>
+      <c r="BA29" s="55"/>
+      <c r="BB29" s="55"/>
+      <c r="BC29" s="55"/>
+      <c r="BD29" s="55"/>
+      <c r="BE29" s="55"/>
+      <c r="BF29" s="55"/>
+      <c r="BG29" s="55"/>
+      <c r="BH29" s="55"/>
+      <c r="BI29" s="55"/>
+      <c r="BJ29" s="55"/>
+      <c r="BK29" s="55"/>
+      <c r="BL29" s="55"/>
+      <c r="BM29" s="55"/>
+      <c r="BN29" s="55"/>
+      <c r="BO29" s="55"/>
+      <c r="BP29" s="55"/>
+      <c r="BQ29" s="55"/>
+      <c r="BR29" s="55"/>
+      <c r="BS29" s="55"/>
+      <c r="BT29" s="55"/>
       <c r="BU29" s="20"/>
       <c r="BV29" s="20"/>
       <c r="BW29" s="20"/>
@@ -6287,77 +8991,77 @@
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="50"/>
-      <c r="AI30" s="50"/>
-      <c r="AJ30" s="50"/>
-      <c r="AK30" s="50"/>
-      <c r="AL30" s="50"/>
-      <c r="AM30" s="50"/>
-      <c r="AN30" s="50"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="50"/>
-      <c r="AQ30" s="50"/>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="50"/>
-      <c r="AU30" s="50"/>
-      <c r="AV30" s="50"/>
-      <c r="AW30" s="50"/>
-      <c r="AX30" s="50"/>
-      <c r="AY30" s="50"/>
-      <c r="AZ30" s="50"/>
-      <c r="BA30" s="50"/>
-      <c r="BB30" s="50"/>
-      <c r="BC30" s="50"/>
-      <c r="BD30" s="50"/>
-      <c r="BE30" s="50"/>
-      <c r="BF30" s="50"/>
-      <c r="BG30" s="50"/>
-      <c r="BH30" s="50"/>
-      <c r="BI30" s="50"/>
-      <c r="BJ30" s="50"/>
-      <c r="BK30" s="50"/>
-      <c r="BL30" s="50"/>
-      <c r="BM30" s="50"/>
-      <c r="BN30" s="50"/>
-      <c r="BO30" s="50"/>
-      <c r="BP30" s="50"/>
-      <c r="BQ30" s="50"/>
-      <c r="BR30" s="50"/>
-      <c r="BS30" s="50"/>
-      <c r="BT30" s="50"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="55"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="55"/>
+      <c r="AX30" s="55"/>
+      <c r="AY30" s="55"/>
+      <c r="AZ30" s="55"/>
+      <c r="BA30" s="55"/>
+      <c r="BB30" s="55"/>
+      <c r="BC30" s="55"/>
+      <c r="BD30" s="55"/>
+      <c r="BE30" s="55"/>
+      <c r="BF30" s="55"/>
+      <c r="BG30" s="55"/>
+      <c r="BH30" s="55"/>
+      <c r="BI30" s="55"/>
+      <c r="BJ30" s="55"/>
+      <c r="BK30" s="55"/>
+      <c r="BL30" s="55"/>
+      <c r="BM30" s="55"/>
+      <c r="BN30" s="55"/>
+      <c r="BO30" s="55"/>
+      <c r="BP30" s="55"/>
+      <c r="BQ30" s="55"/>
+      <c r="BR30" s="55"/>
+      <c r="BS30" s="55"/>
+      <c r="BT30" s="55"/>
       <c r="BU30" s="20"/>
       <c r="BV30" s="20"/>
       <c r="BW30" s="20"/>
@@ -6384,77 +9088,77 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="50"/>
-      <c r="AK31" s="50"/>
-      <c r="AL31" s="50"/>
-      <c r="AM31" s="50"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="50"/>
-      <c r="AU31" s="50"/>
-      <c r="AV31" s="50"/>
-      <c r="AW31" s="50"/>
-      <c r="AX31" s="50"/>
-      <c r="AY31" s="50"/>
-      <c r="AZ31" s="50"/>
-      <c r="BA31" s="50"/>
-      <c r="BB31" s="50"/>
-      <c r="BC31" s="50"/>
-      <c r="BD31" s="50"/>
-      <c r="BE31" s="50"/>
-      <c r="BF31" s="50"/>
-      <c r="BG31" s="50"/>
-      <c r="BH31" s="50"/>
-      <c r="BI31" s="50"/>
-      <c r="BJ31" s="50"/>
-      <c r="BK31" s="50"/>
-      <c r="BL31" s="50"/>
-      <c r="BM31" s="50"/>
-      <c r="BN31" s="50"/>
-      <c r="BO31" s="50"/>
-      <c r="BP31" s="50"/>
-      <c r="BQ31" s="50"/>
-      <c r="BR31" s="50"/>
-      <c r="BS31" s="50"/>
-      <c r="BT31" s="50"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="55"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="55"/>
+      <c r="AY31" s="55"/>
+      <c r="AZ31" s="55"/>
+      <c r="BA31" s="55"/>
+      <c r="BB31" s="55"/>
+      <c r="BC31" s="55"/>
+      <c r="BD31" s="55"/>
+      <c r="BE31" s="55"/>
+      <c r="BF31" s="55"/>
+      <c r="BG31" s="55"/>
+      <c r="BH31" s="55"/>
+      <c r="BI31" s="55"/>
+      <c r="BJ31" s="55"/>
+      <c r="BK31" s="55"/>
+      <c r="BL31" s="55"/>
+      <c r="BM31" s="55"/>
+      <c r="BN31" s="55"/>
+      <c r="BO31" s="55"/>
+      <c r="BP31" s="55"/>
+      <c r="BQ31" s="55"/>
+      <c r="BR31" s="55"/>
+      <c r="BS31" s="55"/>
+      <c r="BT31" s="55"/>
       <c r="BU31" s="20"/>
       <c r="BV31" s="20"/>
       <c r="BW31" s="20"/>
@@ -6481,77 +9185,77 @@
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="52"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="52"/>
-      <c r="AO32" s="52"/>
-      <c r="AP32" s="52"/>
-      <c r="AQ32" s="52"/>
-      <c r="AR32" s="52"/>
-      <c r="AS32" s="52"/>
-      <c r="AT32" s="52"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="52"/>
-      <c r="AW32" s="52"/>
-      <c r="AX32" s="52"/>
-      <c r="AY32" s="52"/>
-      <c r="AZ32" s="52"/>
-      <c r="BA32" s="52"/>
-      <c r="BB32" s="52"/>
-      <c r="BC32" s="52"/>
-      <c r="BD32" s="52"/>
-      <c r="BE32" s="52"/>
-      <c r="BF32" s="52"/>
-      <c r="BG32" s="52"/>
-      <c r="BH32" s="52"/>
-      <c r="BI32" s="52"/>
-      <c r="BJ32" s="52"/>
-      <c r="BK32" s="52"/>
-      <c r="BL32" s="52"/>
-      <c r="BM32" s="52"/>
-      <c r="BN32" s="52"/>
-      <c r="BO32" s="52"/>
-      <c r="BP32" s="52"/>
-      <c r="BQ32" s="52"/>
-      <c r="BR32" s="52"/>
-      <c r="BS32" s="52"/>
-      <c r="BT32" s="52"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
+      <c r="BP32" s="57"/>
+      <c r="BQ32" s="57"/>
+      <c r="BR32" s="57"/>
+      <c r="BS32" s="57"/>
+      <c r="BT32" s="57"/>
       <c r="BU32" s="20"/>
       <c r="BV32" s="20"/>
       <c r="BW32" s="20"/>

--- a/Resources/Dante Level Models.xlsx
+++ b/Resources/Dante Level Models.xlsx
@@ -757,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -821,11 +821,50 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,17 +883,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,13 +901,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,28 +913,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1240,17 +1248,17 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -1258,17 +1266,17 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
@@ -1276,17 +1284,17 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -1294,17 +1302,17 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1312,17 +1320,17 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -1330,17 +1338,17 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
@@ -1348,17 +1356,17 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
@@ -1366,17 +1374,17 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
@@ -1384,17 +1392,17 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
@@ -1402,17 +1410,17 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
@@ -1420,17 +1428,17 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
@@ -1447,149 +1455,154 @@
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
     <mergeCell ref="E12:M12"/>
     <mergeCell ref="B14:M23"/>
     <mergeCell ref="E7:M7"/>
@@ -1597,11 +1610,6 @@
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3900,305 +3908,305 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="67"/>
-      <c r="AN29" s="67"/>
-      <c r="AO29" s="67"/>
-      <c r="AP29" s="67"/>
-      <c r="AQ29" s="67"/>
-      <c r="AR29" s="67"/>
-      <c r="AS29" s="67"/>
-      <c r="AT29" s="67"/>
-      <c r="AU29" s="67"/>
-      <c r="AV29" s="67"/>
-      <c r="AW29" s="67"/>
-      <c r="AX29" s="67"/>
-      <c r="AY29" s="67"/>
-      <c r="AZ29" s="67"/>
-      <c r="BA29" s="67"/>
-      <c r="BB29" s="67"/>
-      <c r="BC29" s="67"/>
-      <c r="BD29" s="67"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="67"/>
-      <c r="BG29" s="67"/>
-      <c r="BH29" s="67"/>
-      <c r="BI29" s="67"/>
-      <c r="BJ29" s="67"/>
-      <c r="BK29" s="67"/>
-      <c r="BL29" s="67"/>
-      <c r="BM29" s="67"/>
-      <c r="BN29" s="67"/>
-      <c r="BO29" s="67"/>
-      <c r="BP29" s="67"/>
-      <c r="BQ29" s="67"/>
-      <c r="BR29" s="67"/>
-      <c r="BS29" s="67"/>
-      <c r="BT29" s="67"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="106"/>
+      <c r="AJ29" s="106"/>
+      <c r="AK29" s="106"/>
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="106"/>
+      <c r="AN29" s="106"/>
+      <c r="AO29" s="106"/>
+      <c r="AP29" s="106"/>
+      <c r="AQ29" s="106"/>
+      <c r="AR29" s="106"/>
+      <c r="AS29" s="106"/>
+      <c r="AT29" s="106"/>
+      <c r="AU29" s="106"/>
+      <c r="AV29" s="106"/>
+      <c r="AW29" s="106"/>
+      <c r="AX29" s="106"/>
+      <c r="AY29" s="106"/>
+      <c r="AZ29" s="106"/>
+      <c r="BA29" s="106"/>
+      <c r="BB29" s="106"/>
+      <c r="BC29" s="106"/>
+      <c r="BD29" s="106"/>
+      <c r="BE29" s="106"/>
+      <c r="BF29" s="106"/>
+      <c r="BG29" s="106"/>
+      <c r="BH29" s="106"/>
+      <c r="BI29" s="106"/>
+      <c r="BJ29" s="106"/>
+      <c r="BK29" s="106"/>
+      <c r="BL29" s="106"/>
+      <c r="BM29" s="106"/>
+      <c r="BN29" s="106"/>
+      <c r="BO29" s="106"/>
+      <c r="BP29" s="106"/>
+      <c r="BQ29" s="106"/>
+      <c r="BR29" s="106"/>
+      <c r="BS29" s="106"/>
+      <c r="BT29" s="106"/>
     </row>
     <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>28</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="67"/>
-      <c r="AN30" s="67"/>
-      <c r="AO30" s="67"/>
-      <c r="AP30" s="67"/>
-      <c r="AQ30" s="67"/>
-      <c r="AR30" s="67"/>
-      <c r="AS30" s="67"/>
-      <c r="AT30" s="67"/>
-      <c r="AU30" s="67"/>
-      <c r="AV30" s="67"/>
-      <c r="AW30" s="67"/>
-      <c r="AX30" s="67"/>
-      <c r="AY30" s="67"/>
-      <c r="AZ30" s="67"/>
-      <c r="BA30" s="67"/>
-      <c r="BB30" s="67"/>
-      <c r="BC30" s="67"/>
-      <c r="BD30" s="67"/>
-      <c r="BE30" s="67"/>
-      <c r="BF30" s="67"/>
-      <c r="BG30" s="67"/>
-      <c r="BH30" s="67"/>
-      <c r="BI30" s="67"/>
-      <c r="BJ30" s="67"/>
-      <c r="BK30" s="67"/>
-      <c r="BL30" s="67"/>
-      <c r="BM30" s="67"/>
-      <c r="BN30" s="67"/>
-      <c r="BO30" s="67"/>
-      <c r="BP30" s="67"/>
-      <c r="BQ30" s="67"/>
-      <c r="BR30" s="67"/>
-      <c r="BS30" s="67"/>
-      <c r="BT30" s="67"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="106"/>
+      <c r="AJ30" s="106"/>
+      <c r="AK30" s="106"/>
+      <c r="AL30" s="106"/>
+      <c r="AM30" s="106"/>
+      <c r="AN30" s="106"/>
+      <c r="AO30" s="106"/>
+      <c r="AP30" s="106"/>
+      <c r="AQ30" s="106"/>
+      <c r="AR30" s="106"/>
+      <c r="AS30" s="106"/>
+      <c r="AT30" s="106"/>
+      <c r="AU30" s="106"/>
+      <c r="AV30" s="106"/>
+      <c r="AW30" s="106"/>
+      <c r="AX30" s="106"/>
+      <c r="AY30" s="106"/>
+      <c r="AZ30" s="106"/>
+      <c r="BA30" s="106"/>
+      <c r="BB30" s="106"/>
+      <c r="BC30" s="106"/>
+      <c r="BD30" s="106"/>
+      <c r="BE30" s="106"/>
+      <c r="BF30" s="106"/>
+      <c r="BG30" s="106"/>
+      <c r="BH30" s="106"/>
+      <c r="BI30" s="106"/>
+      <c r="BJ30" s="106"/>
+      <c r="BK30" s="106"/>
+      <c r="BL30" s="106"/>
+      <c r="BM30" s="106"/>
+      <c r="BN30" s="106"/>
+      <c r="BO30" s="106"/>
+      <c r="BP30" s="106"/>
+      <c r="BQ30" s="106"/>
+      <c r="BR30" s="106"/>
+      <c r="BS30" s="106"/>
+      <c r="BT30" s="106"/>
     </row>
     <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
-      <c r="AB31" s="67"/>
-      <c r="AC31" s="67"/>
-      <c r="AD31" s="67"/>
-      <c r="AE31" s="67"/>
-      <c r="AF31" s="67"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="67"/>
-      <c r="AM31" s="67"/>
-      <c r="AN31" s="67"/>
-      <c r="AO31" s="67"/>
-      <c r="AP31" s="67"/>
-      <c r="AQ31" s="67"/>
-      <c r="AR31" s="67"/>
-      <c r="AS31" s="67"/>
-      <c r="AT31" s="67"/>
-      <c r="AU31" s="67"/>
-      <c r="AV31" s="67"/>
-      <c r="AW31" s="67"/>
-      <c r="AX31" s="67"/>
-      <c r="AY31" s="67"/>
-      <c r="AZ31" s="67"/>
-      <c r="BA31" s="67"/>
-      <c r="BB31" s="67"/>
-      <c r="BC31" s="67"/>
-      <c r="BD31" s="67"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="67"/>
-      <c r="BG31" s="67"/>
-      <c r="BH31" s="67"/>
-      <c r="BI31" s="67"/>
-      <c r="BJ31" s="67"/>
-      <c r="BK31" s="67"/>
-      <c r="BL31" s="67"/>
-      <c r="BM31" s="67"/>
-      <c r="BN31" s="67"/>
-      <c r="BO31" s="67"/>
-      <c r="BP31" s="67"/>
-      <c r="BQ31" s="67"/>
-      <c r="BR31" s="67"/>
-      <c r="BS31" s="67"/>
-      <c r="BT31" s="67"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="106"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
+      <c r="AI31" s="106"/>
+      <c r="AJ31" s="106"/>
+      <c r="AK31" s="106"/>
+      <c r="AL31" s="106"/>
+      <c r="AM31" s="106"/>
+      <c r="AN31" s="106"/>
+      <c r="AO31" s="106"/>
+      <c r="AP31" s="106"/>
+      <c r="AQ31" s="106"/>
+      <c r="AR31" s="106"/>
+      <c r="AS31" s="106"/>
+      <c r="AT31" s="106"/>
+      <c r="AU31" s="106"/>
+      <c r="AV31" s="106"/>
+      <c r="AW31" s="106"/>
+      <c r="AX31" s="106"/>
+      <c r="AY31" s="106"/>
+      <c r="AZ31" s="106"/>
+      <c r="BA31" s="106"/>
+      <c r="BB31" s="106"/>
+      <c r="BC31" s="106"/>
+      <c r="BD31" s="106"/>
+      <c r="BE31" s="106"/>
+      <c r="BF31" s="106"/>
+      <c r="BG31" s="106"/>
+      <c r="BH31" s="106"/>
+      <c r="BI31" s="106"/>
+      <c r="BJ31" s="106"/>
+      <c r="BK31" s="106"/>
+      <c r="BL31" s="106"/>
+      <c r="BM31" s="106"/>
+      <c r="BN31" s="106"/>
+      <c r="BO31" s="106"/>
+      <c r="BP31" s="106"/>
+      <c r="BQ31" s="106"/>
+      <c r="BR31" s="106"/>
+      <c r="BS31" s="106"/>
+      <c r="BT31" s="106"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>30</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69"/>
-      <c r="AG32" s="69"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="69"/>
-      <c r="AK32" s="69"/>
-      <c r="AL32" s="69"/>
-      <c r="AM32" s="69"/>
-      <c r="AN32" s="69"/>
-      <c r="AO32" s="69"/>
-      <c r="AP32" s="69"/>
-      <c r="AQ32" s="69"/>
-      <c r="AR32" s="69"/>
-      <c r="AS32" s="69"/>
-      <c r="AT32" s="69"/>
-      <c r="AU32" s="69"/>
-      <c r="AV32" s="69"/>
-      <c r="AW32" s="69"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="69"/>
-      <c r="AZ32" s="69"/>
-      <c r="BA32" s="69"/>
-      <c r="BB32" s="69"/>
-      <c r="BC32" s="69"/>
-      <c r="BD32" s="69"/>
-      <c r="BE32" s="69"/>
-      <c r="BF32" s="69"/>
-      <c r="BG32" s="69"/>
-      <c r="BH32" s="69"/>
-      <c r="BI32" s="69"/>
-      <c r="BJ32" s="69"/>
-      <c r="BK32" s="69"/>
-      <c r="BL32" s="69"/>
-      <c r="BM32" s="69"/>
-      <c r="BN32" s="69"/>
-      <c r="BO32" s="69"/>
-      <c r="BP32" s="69"/>
-      <c r="BQ32" s="69"/>
-      <c r="BR32" s="69"/>
-      <c r="BS32" s="69"/>
-      <c r="BT32" s="69"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="108"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="108"/>
+      <c r="AK32" s="108"/>
+      <c r="AL32" s="108"/>
+      <c r="AM32" s="108"/>
+      <c r="AN32" s="108"/>
+      <c r="AO32" s="108"/>
+      <c r="AP32" s="108"/>
+      <c r="AQ32" s="108"/>
+      <c r="AR32" s="108"/>
+      <c r="AS32" s="108"/>
+      <c r="AT32" s="108"/>
+      <c r="AU32" s="108"/>
+      <c r="AV32" s="108"/>
+      <c r="AW32" s="108"/>
+      <c r="AX32" s="108"/>
+      <c r="AY32" s="108"/>
+      <c r="AZ32" s="108"/>
+      <c r="BA32" s="108"/>
+      <c r="BB32" s="108"/>
+      <c r="BC32" s="108"/>
+      <c r="BD32" s="108"/>
+      <c r="BE32" s="108"/>
+      <c r="BF32" s="108"/>
+      <c r="BG32" s="108"/>
+      <c r="BH32" s="108"/>
+      <c r="BI32" s="108"/>
+      <c r="BJ32" s="108"/>
+      <c r="BK32" s="108"/>
+      <c r="BL32" s="108"/>
+      <c r="BM32" s="108"/>
+      <c r="BN32" s="108"/>
+      <c r="BO32" s="108"/>
+      <c r="BP32" s="108"/>
+      <c r="BQ32" s="108"/>
+      <c r="BR32" s="108"/>
+      <c r="BS32" s="108"/>
+      <c r="BT32" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6501,305 +6509,305 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="67"/>
-      <c r="AN29" s="67"/>
-      <c r="AO29" s="67"/>
-      <c r="AP29" s="67"/>
-      <c r="AQ29" s="67"/>
-      <c r="AR29" s="67"/>
-      <c r="AS29" s="67"/>
-      <c r="AT29" s="67"/>
-      <c r="AU29" s="67"/>
-      <c r="AV29" s="67"/>
-      <c r="AW29" s="67"/>
-      <c r="AX29" s="67"/>
-      <c r="AY29" s="67"/>
-      <c r="AZ29" s="67"/>
-      <c r="BA29" s="67"/>
-      <c r="BB29" s="67"/>
-      <c r="BC29" s="67"/>
-      <c r="BD29" s="67"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="67"/>
-      <c r="BG29" s="67"/>
-      <c r="BH29" s="67"/>
-      <c r="BI29" s="67"/>
-      <c r="BJ29" s="67"/>
-      <c r="BK29" s="67"/>
-      <c r="BL29" s="67"/>
-      <c r="BM29" s="67"/>
-      <c r="BN29" s="67"/>
-      <c r="BO29" s="67"/>
-      <c r="BP29" s="67"/>
-      <c r="BQ29" s="67"/>
-      <c r="BR29" s="67"/>
-      <c r="BS29" s="67"/>
-      <c r="BT29" s="70"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="106"/>
+      <c r="AJ29" s="106"/>
+      <c r="AK29" s="106"/>
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="106"/>
+      <c r="AN29" s="106"/>
+      <c r="AO29" s="106"/>
+      <c r="AP29" s="106"/>
+      <c r="AQ29" s="106"/>
+      <c r="AR29" s="106"/>
+      <c r="AS29" s="106"/>
+      <c r="AT29" s="106"/>
+      <c r="AU29" s="106"/>
+      <c r="AV29" s="106"/>
+      <c r="AW29" s="106"/>
+      <c r="AX29" s="106"/>
+      <c r="AY29" s="106"/>
+      <c r="AZ29" s="106"/>
+      <c r="BA29" s="106"/>
+      <c r="BB29" s="106"/>
+      <c r="BC29" s="106"/>
+      <c r="BD29" s="106"/>
+      <c r="BE29" s="106"/>
+      <c r="BF29" s="106"/>
+      <c r="BG29" s="106"/>
+      <c r="BH29" s="106"/>
+      <c r="BI29" s="106"/>
+      <c r="BJ29" s="106"/>
+      <c r="BK29" s="106"/>
+      <c r="BL29" s="106"/>
+      <c r="BM29" s="106"/>
+      <c r="BN29" s="106"/>
+      <c r="BO29" s="106"/>
+      <c r="BP29" s="106"/>
+      <c r="BQ29" s="106"/>
+      <c r="BR29" s="106"/>
+      <c r="BS29" s="106"/>
+      <c r="BT29" s="109"/>
     </row>
     <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="67"/>
-      <c r="AN30" s="67"/>
-      <c r="AO30" s="67"/>
-      <c r="AP30" s="67"/>
-      <c r="AQ30" s="67"/>
-      <c r="AR30" s="67"/>
-      <c r="AS30" s="67"/>
-      <c r="AT30" s="67"/>
-      <c r="AU30" s="67"/>
-      <c r="AV30" s="67"/>
-      <c r="AW30" s="67"/>
-      <c r="AX30" s="67"/>
-      <c r="AY30" s="67"/>
-      <c r="AZ30" s="67"/>
-      <c r="BA30" s="67"/>
-      <c r="BB30" s="67"/>
-      <c r="BC30" s="67"/>
-      <c r="BD30" s="67"/>
-      <c r="BE30" s="67"/>
-      <c r="BF30" s="67"/>
-      <c r="BG30" s="67"/>
-      <c r="BH30" s="67"/>
-      <c r="BI30" s="67"/>
-      <c r="BJ30" s="67"/>
-      <c r="BK30" s="67"/>
-      <c r="BL30" s="67"/>
-      <c r="BM30" s="67"/>
-      <c r="BN30" s="67"/>
-      <c r="BO30" s="67"/>
-      <c r="BP30" s="67"/>
-      <c r="BQ30" s="67"/>
-      <c r="BR30" s="67"/>
-      <c r="BS30" s="67"/>
-      <c r="BT30" s="70"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="106"/>
+      <c r="AJ30" s="106"/>
+      <c r="AK30" s="106"/>
+      <c r="AL30" s="106"/>
+      <c r="AM30" s="106"/>
+      <c r="AN30" s="106"/>
+      <c r="AO30" s="106"/>
+      <c r="AP30" s="106"/>
+      <c r="AQ30" s="106"/>
+      <c r="AR30" s="106"/>
+      <c r="AS30" s="106"/>
+      <c r="AT30" s="106"/>
+      <c r="AU30" s="106"/>
+      <c r="AV30" s="106"/>
+      <c r="AW30" s="106"/>
+      <c r="AX30" s="106"/>
+      <c r="AY30" s="106"/>
+      <c r="AZ30" s="106"/>
+      <c r="BA30" s="106"/>
+      <c r="BB30" s="106"/>
+      <c r="BC30" s="106"/>
+      <c r="BD30" s="106"/>
+      <c r="BE30" s="106"/>
+      <c r="BF30" s="106"/>
+      <c r="BG30" s="106"/>
+      <c r="BH30" s="106"/>
+      <c r="BI30" s="106"/>
+      <c r="BJ30" s="106"/>
+      <c r="BK30" s="106"/>
+      <c r="BL30" s="106"/>
+      <c r="BM30" s="106"/>
+      <c r="BN30" s="106"/>
+      <c r="BO30" s="106"/>
+      <c r="BP30" s="106"/>
+      <c r="BQ30" s="106"/>
+      <c r="BR30" s="106"/>
+      <c r="BS30" s="106"/>
+      <c r="BT30" s="109"/>
     </row>
     <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
-      <c r="AB31" s="67"/>
-      <c r="AC31" s="67"/>
-      <c r="AD31" s="67"/>
-      <c r="AE31" s="67"/>
-      <c r="AF31" s="67"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="67"/>
-      <c r="AM31" s="67"/>
-      <c r="AN31" s="67"/>
-      <c r="AO31" s="67"/>
-      <c r="AP31" s="67"/>
-      <c r="AQ31" s="67"/>
-      <c r="AR31" s="67"/>
-      <c r="AS31" s="67"/>
-      <c r="AT31" s="67"/>
-      <c r="AU31" s="67"/>
-      <c r="AV31" s="67"/>
-      <c r="AW31" s="67"/>
-      <c r="AX31" s="67"/>
-      <c r="AY31" s="67"/>
-      <c r="AZ31" s="67"/>
-      <c r="BA31" s="67"/>
-      <c r="BB31" s="67"/>
-      <c r="BC31" s="67"/>
-      <c r="BD31" s="67"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="67"/>
-      <c r="BG31" s="67"/>
-      <c r="BH31" s="67"/>
-      <c r="BI31" s="67"/>
-      <c r="BJ31" s="67"/>
-      <c r="BK31" s="67"/>
-      <c r="BL31" s="67"/>
-      <c r="BM31" s="67"/>
-      <c r="BN31" s="67"/>
-      <c r="BO31" s="67"/>
-      <c r="BP31" s="67"/>
-      <c r="BQ31" s="67"/>
-      <c r="BR31" s="67"/>
-      <c r="BS31" s="67"/>
-      <c r="BT31" s="70"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="106"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
+      <c r="AI31" s="106"/>
+      <c r="AJ31" s="106"/>
+      <c r="AK31" s="106"/>
+      <c r="AL31" s="106"/>
+      <c r="AM31" s="106"/>
+      <c r="AN31" s="106"/>
+      <c r="AO31" s="106"/>
+      <c r="AP31" s="106"/>
+      <c r="AQ31" s="106"/>
+      <c r="AR31" s="106"/>
+      <c r="AS31" s="106"/>
+      <c r="AT31" s="106"/>
+      <c r="AU31" s="106"/>
+      <c r="AV31" s="106"/>
+      <c r="AW31" s="106"/>
+      <c r="AX31" s="106"/>
+      <c r="AY31" s="106"/>
+      <c r="AZ31" s="106"/>
+      <c r="BA31" s="106"/>
+      <c r="BB31" s="106"/>
+      <c r="BC31" s="106"/>
+      <c r="BD31" s="106"/>
+      <c r="BE31" s="106"/>
+      <c r="BF31" s="106"/>
+      <c r="BG31" s="106"/>
+      <c r="BH31" s="106"/>
+      <c r="BI31" s="106"/>
+      <c r="BJ31" s="106"/>
+      <c r="BK31" s="106"/>
+      <c r="BL31" s="106"/>
+      <c r="BM31" s="106"/>
+      <c r="BN31" s="106"/>
+      <c r="BO31" s="106"/>
+      <c r="BP31" s="106"/>
+      <c r="BQ31" s="106"/>
+      <c r="BR31" s="106"/>
+      <c r="BS31" s="106"/>
+      <c r="BT31" s="109"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69"/>
-      <c r="AG32" s="69"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="69"/>
-      <c r="AK32" s="69"/>
-      <c r="AL32" s="69"/>
-      <c r="AM32" s="69"/>
-      <c r="AN32" s="69"/>
-      <c r="AO32" s="69"/>
-      <c r="AP32" s="69"/>
-      <c r="AQ32" s="69"/>
-      <c r="AR32" s="69"/>
-      <c r="AS32" s="69"/>
-      <c r="AT32" s="69"/>
-      <c r="AU32" s="69"/>
-      <c r="AV32" s="69"/>
-      <c r="AW32" s="69"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="69"/>
-      <c r="AZ32" s="69"/>
-      <c r="BA32" s="69"/>
-      <c r="BB32" s="69"/>
-      <c r="BC32" s="69"/>
-      <c r="BD32" s="69"/>
-      <c r="BE32" s="69"/>
-      <c r="BF32" s="69"/>
-      <c r="BG32" s="69"/>
-      <c r="BH32" s="69"/>
-      <c r="BI32" s="69"/>
-      <c r="BJ32" s="69"/>
-      <c r="BK32" s="69"/>
-      <c r="BL32" s="69"/>
-      <c r="BM32" s="69"/>
-      <c r="BN32" s="69"/>
-      <c r="BO32" s="69"/>
-      <c r="BP32" s="69"/>
-      <c r="BQ32" s="69"/>
-      <c r="BR32" s="69"/>
-      <c r="BS32" s="69"/>
-      <c r="BT32" s="71"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="108"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="108"/>
+      <c r="AK32" s="108"/>
+      <c r="AL32" s="108"/>
+      <c r="AM32" s="108"/>
+      <c r="AN32" s="108"/>
+      <c r="AO32" s="108"/>
+      <c r="AP32" s="108"/>
+      <c r="AQ32" s="108"/>
+      <c r="AR32" s="108"/>
+      <c r="AS32" s="108"/>
+      <c r="AT32" s="108"/>
+      <c r="AU32" s="108"/>
+      <c r="AV32" s="108"/>
+      <c r="AW32" s="108"/>
+      <c r="AX32" s="108"/>
+      <c r="AY32" s="108"/>
+      <c r="AZ32" s="108"/>
+      <c r="BA32" s="108"/>
+      <c r="BB32" s="108"/>
+      <c r="BC32" s="108"/>
+      <c r="BD32" s="108"/>
+      <c r="BE32" s="108"/>
+      <c r="BF32" s="108"/>
+      <c r="BG32" s="108"/>
+      <c r="BH32" s="108"/>
+      <c r="BI32" s="108"/>
+      <c r="BJ32" s="108"/>
+      <c r="BK32" s="108"/>
+      <c r="BL32" s="108"/>
+      <c r="BM32" s="108"/>
+      <c r="BN32" s="108"/>
+      <c r="BO32" s="108"/>
+      <c r="BP32" s="108"/>
+      <c r="BQ32" s="108"/>
+      <c r="BR32" s="108"/>
+      <c r="BS32" s="108"/>
+      <c r="BT32" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6815,7 +6823,7 @@
   <dimension ref="A1:BT315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6975,7 +6983,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="75"/>
+      <c r="Z2" s="66"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -6983,14 +6991,14 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="78"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="69"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7179,7 +7187,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="72"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="1"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
@@ -7224,7 +7232,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="1"/>
       <c r="D8" s="24"/>
-      <c r="E8" s="102"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="24"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
@@ -7241,8 +7249,8 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
       <c r="Z8" s="39"/>
@@ -7250,7 +7258,7 @@
       <c r="AB8" s="52"/>
       <c r="AC8" s="52"/>
       <c r="AD8" s="52"/>
-      <c r="AE8" s="116"/>
+      <c r="AE8" s="96"/>
       <c r="AF8" s="52"/>
       <c r="AG8" s="52"/>
       <c r="AH8" s="39"/>
@@ -7267,17 +7275,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="105"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="86"/>
       <c r="N9" s="48"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -7286,18 +7294,18 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
       <c r="Z9" s="39"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="105"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="86"/>
       <c r="AH9" s="48"/>
       <c r="AI9" s="39"/>
       <c r="AJ9" s="39"/>
@@ -7312,32 +7320,32 @@
         <v>8</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="80"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="19"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="80"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="19"/>
       <c r="M10" s="27"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="80"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="71"/>
       <c r="AC10" s="19"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
@@ -7357,32 +7365,32 @@
         <v>9</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="19"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="80"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="80"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="19"/>
       <c r="M11" s="27"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="80"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="71"/>
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
@@ -7402,37 +7410,37 @@
         <v>10</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="115"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="92"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="77"/>
       <c r="AH12" s="22"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -7446,45 +7454,45 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
+      <c r="AN13" s="19"/>
       <c r="AO13" s="14"/>
     </row>
     <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7529,7 +7537,7 @@
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
+      <c r="AN14" s="19"/>
       <c r="AO14" s="14"/>
     </row>
     <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7574,7 +7582,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
+      <c r="AN15" s="19"/>
       <c r="AO15" s="14"/>
     </row>
     <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7619,7 +7627,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
+      <c r="AN16" s="19"/>
       <c r="AO16" s="14"/>
     </row>
     <row r="17" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7738,13 +7746,13 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="105"/>
-      <c r="AD19" s="22"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="128"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -7783,13 +7791,13 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="80"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="71"/>
       <c r="Z20" s="27"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="80"/>
+      <c r="AA20" s="126"/>
+      <c r="AB20" s="127"/>
       <c r="AC20" s="27"/>
-      <c r="AD20" s="22"/>
+      <c r="AD20" s="128"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -7828,13 +7836,13 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="80"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="71"/>
       <c r="Z21" s="27"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="80"/>
+      <c r="AA21" s="100"/>
+      <c r="AB21" s="71"/>
       <c r="AC21" s="27"/>
-      <c r="AD21" s="22"/>
+      <c r="AD21" s="128"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -7865,21 +7873,21 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="107"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="53"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="80"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="71"/>
       <c r="Z22" s="27"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="80"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="71"/>
       <c r="AC22" s="27"/>
-      <c r="AD22" s="22"/>
+      <c r="AD22" s="128"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -7909,22 +7917,22 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="80"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="127"/>
       <c r="R23" s="19"/>
       <c r="S23" s="27"/>
-      <c r="T23" s="119"/>
+      <c r="T23" s="99"/>
       <c r="U23" s="22"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="80"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="71"/>
       <c r="Z23" s="27"/>
-      <c r="AA23" s="120"/>
-      <c r="AB23" s="80"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="71"/>
       <c r="AC23" s="27"/>
-      <c r="AD23" s="22"/>
+      <c r="AD23" s="128"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -7946,30 +7954,30 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="73"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="73"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="80"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="71"/>
       <c r="R24" s="19"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="120"/>
+      <c r="T24" s="100"/>
       <c r="U24" s="22"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="80"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="71"/>
       <c r="Z24" s="27"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="80"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="71"/>
       <c r="AC24" s="27"/>
-      <c r="AD24" s="22"/>
+      <c r="AD24" s="128"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -7986,35 +7994,35 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="80"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="19"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="80"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="71"/>
       <c r="R25" s="19"/>
       <c r="S25" s="27"/>
-      <c r="T25" s="120"/>
+      <c r="T25" s="100"/>
       <c r="U25" s="22"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="80"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="71"/>
       <c r="Z25" s="27"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="80"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="71"/>
       <c r="AC25" s="27"/>
-      <c r="AD25" s="22"/>
+      <c r="AD25" s="128"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
@@ -8052,7 +8060,7 @@
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="19"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8065,22 +8073,22 @@
       <c r="L26" s="19"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="80"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="71"/>
       <c r="R26" s="19"/>
       <c r="S26" s="27"/>
-      <c r="T26" s="120"/>
+      <c r="T26" s="100"/>
       <c r="U26" s="22"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="80"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="71"/>
       <c r="Z26" s="27"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="80"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="71"/>
       <c r="AC26" s="27"/>
-      <c r="AD26" s="22"/>
+      <c r="AD26" s="128"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -8131,22 +8139,22 @@
       <c r="L27" s="19"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="80"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="71"/>
       <c r="R27" s="19"/>
       <c r="S27" s="27"/>
-      <c r="T27" s="120"/>
+      <c r="T27" s="100"/>
       <c r="U27" s="22"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="80"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="71"/>
       <c r="Z27" s="27"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="80"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="71"/>
       <c r="AC27" s="27"/>
-      <c r="AD27" s="22"/>
+      <c r="AD27" s="128"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -8184,45 +8192,45 @@
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="81"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="121"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="101"/>
       <c r="U28" s="37"/>
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="37"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="129"/>
       <c r="AE28" s="25"/>
       <c r="AF28" s="25"/>
       <c r="AG28" s="25"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="20"/>
       <c r="AQ28" s="20"/>
@@ -8250,48 +8258,48 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="84"/>
-      <c r="AK29" s="84"/>
-      <c r="AL29" s="84"/>
-      <c r="AM29" s="84"/>
-      <c r="AN29" s="84"/>
-      <c r="AO29" s="84"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="112"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="112"/>
+      <c r="AI29" s="112"/>
+      <c r="AJ29" s="112"/>
+      <c r="AK29" s="112"/>
+      <c r="AL29" s="112"/>
+      <c r="AM29" s="112"/>
+      <c r="AN29" s="112"/>
+      <c r="AO29" s="112"/>
       <c r="AP29" s="20"/>
       <c r="AQ29" s="20"/>
       <c r="AR29" s="20"/>
@@ -8318,46 +8326,46 @@
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="86"/>
-      <c r="AA30" s="86"/>
-      <c r="AB30" s="86"/>
-      <c r="AC30" s="86"/>
-      <c r="AD30" s="86"/>
-      <c r="AE30" s="86"/>
-      <c r="AF30" s="86"/>
-      <c r="AG30" s="86"/>
-      <c r="AH30" s="86"/>
-      <c r="AI30" s="86"/>
-      <c r="AJ30" s="86"/>
-      <c r="AK30" s="86"/>
-      <c r="AL30" s="86"/>
-      <c r="AM30" s="86"/>
-      <c r="AN30" s="86"/>
-      <c r="AO30" s="86"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="114"/>
+      <c r="AA30" s="114"/>
+      <c r="AB30" s="114"/>
+      <c r="AC30" s="114"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="114"/>
+      <c r="AL30" s="114"/>
+      <c r="AM30" s="114"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
       <c r="AP30" s="20"/>
       <c r="AQ30" s="20"/>
       <c r="AR30" s="20"/>
@@ -8384,46 +8392,46 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86"/>
-      <c r="AC31" s="86"/>
-      <c r="AD31" s="86"/>
-      <c r="AE31" s="86"/>
-      <c r="AF31" s="86"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="86"/>
-      <c r="AJ31" s="86"/>
-      <c r="AK31" s="86"/>
-      <c r="AL31" s="86"/>
-      <c r="AM31" s="86"/>
-      <c r="AN31" s="86"/>
-      <c r="AO31" s="86"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="114"/>
+      <c r="AJ31" s="114"/>
+      <c r="AK31" s="114"/>
+      <c r="AL31" s="114"/>
+      <c r="AM31" s="114"/>
+      <c r="AN31" s="114"/>
+      <c r="AO31" s="114"/>
       <c r="AP31" s="20"/>
       <c r="AQ31" s="20"/>
       <c r="AR31" s="20"/>
@@ -8450,46 +8458,46 @@
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="88"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="88"/>
-      <c r="AA32" s="88"/>
-      <c r="AB32" s="88"/>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="88"/>
-      <c r="AE32" s="88"/>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="88"/>
-      <c r="AI32" s="88"/>
-      <c r="AJ32" s="88"/>
-      <c r="AK32" s="88"/>
-      <c r="AL32" s="88"/>
-      <c r="AM32" s="88"/>
-      <c r="AN32" s="88"/>
-      <c r="AO32" s="88"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="116"/>
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="116"/>
+      <c r="AJ32" s="116"/>
+      <c r="AK32" s="116"/>
+      <c r="AL32" s="116"/>
+      <c r="AM32" s="116"/>
+      <c r="AN32" s="116"/>
+      <c r="AO32" s="116"/>
       <c r="AP32" s="20"/>
       <c r="AQ32" s="20"/>
       <c r="AR32" s="20"/>
@@ -8988,13 +8996,13 @@
       <c r="A38" s="46">
         <v>0</v>
       </c>
-      <c r="B38" s="90"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="59"/>
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
@@ -9064,7 +9072,7 @@
       <c r="A39" s="46">
         <v>1</v>
       </c>
-      <c r="B39" s="79"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="19"/>
@@ -9140,7 +9148,7 @@
       <c r="A40" s="46">
         <v>2</v>
       </c>
-      <c r="B40" s="79"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
       <c r="E40" s="19"/>
@@ -9216,7 +9224,7 @@
       <c r="A41" s="46">
         <v>3</v>
       </c>
-      <c r="B41" s="79"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="19"/>
@@ -9292,7 +9300,7 @@
       <c r="A42" s="46">
         <v>4</v>
       </c>
-      <c r="B42" s="79"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="19"/>
@@ -9368,7 +9376,7 @@
       <c r="A43" s="46">
         <v>5</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="19"/>
@@ -9444,7 +9452,7 @@
       <c r="A44" s="46">
         <v>6</v>
       </c>
-      <c r="B44" s="79"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
       <c r="E44" s="19"/>
@@ -9520,7 +9528,7 @@
       <c r="A45" s="46">
         <v>7</v>
       </c>
-      <c r="B45" s="79"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="19"/>
@@ -9536,8 +9544,8 @@
       <c r="O45" s="39"/>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
       <c r="T45" s="19"/>
       <c r="U45" s="19"/>
       <c r="V45" s="39"/>
@@ -9596,7 +9604,7 @@
       <c r="A46" s="46">
         <v>8</v>
       </c>
-      <c r="B46" s="79"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="19"/>
@@ -9672,7 +9680,7 @@
       <c r="A47" s="46">
         <v>9</v>
       </c>
-      <c r="B47" s="79"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="19"/>
@@ -9748,7 +9756,7 @@
       <c r="A48" s="46">
         <v>10</v>
       </c>
-      <c r="B48" s="79"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="19"/>
@@ -9824,7 +9832,7 @@
       <c r="A49" s="46">
         <v>11</v>
       </c>
-      <c r="B49" s="79"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="19"/>
@@ -9900,7 +9908,7 @@
       <c r="A50" s="46">
         <v>12</v>
       </c>
-      <c r="B50" s="79"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="19"/>
@@ -9976,7 +9984,7 @@
       <c r="A51" s="46">
         <v>13</v>
       </c>
-      <c r="B51" s="79"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
       <c r="E51" s="19"/>
@@ -10052,7 +10060,7 @@
       <c r="A52" s="46">
         <v>14</v>
       </c>
-      <c r="B52" s="79"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="19"/>
@@ -10066,8 +10074,8 @@
       <c r="M52" s="39"/>
       <c r="N52" s="39"/>
       <c r="O52" s="39"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
+      <c r="P52" s="79"/>
+      <c r="Q52" s="79"/>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
       <c r="T52" s="39"/>
@@ -10128,7 +10136,7 @@
       <c r="A53" s="46">
         <v>15</v>
       </c>
-      <c r="B53" s="79"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="19"/>
@@ -10142,8 +10150,8 @@
       <c r="M53" s="39"/>
       <c r="N53" s="39"/>
       <c r="O53" s="39"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="94"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="79"/>
       <c r="R53" s="39"/>
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
@@ -10172,8 +10180,8 @@
       <c r="AQ53" s="19"/>
       <c r="AR53" s="19"/>
       <c r="AS53" s="19"/>
-      <c r="AT53" s="73"/>
-      <c r="AU53" s="73"/>
+      <c r="AT53" s="64"/>
+      <c r="AU53" s="64"/>
       <c r="AV53" s="19"/>
       <c r="AW53" s="19"/>
       <c r="AX53" s="19"/>
@@ -10204,7 +10212,7 @@
       <c r="A54" s="46">
         <v>16</v>
       </c>
-      <c r="B54" s="79"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="19"/>
@@ -10218,8 +10226,8 @@
       <c r="M54" s="39"/>
       <c r="N54" s="39"/>
       <c r="O54" s="39"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
@@ -10280,7 +10288,7 @@
       <c r="A55" s="46">
         <v>17</v>
       </c>
-      <c r="B55" s="79"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="19"/>
@@ -10294,8 +10302,8 @@
       <c r="M55" s="39"/>
       <c r="N55" s="39"/>
       <c r="O55" s="39"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
       <c r="R55" s="39"/>
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
@@ -10341,7 +10349,7 @@
       <c r="BH55" s="19"/>
       <c r="BI55" s="19"/>
       <c r="BJ55" s="19"/>
-      <c r="BK55" s="73"/>
+      <c r="BK55" s="64"/>
       <c r="BL55" s="19"/>
       <c r="BM55" s="19"/>
       <c r="BN55" s="19"/>
@@ -10356,7 +10364,7 @@
       <c r="A56" s="46">
         <v>18</v>
       </c>
-      <c r="B56" s="79"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
       <c r="E56" s="19"/>
@@ -10366,12 +10374,12 @@
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
       <c r="K56" s="39"/>
-      <c r="L56" s="95"/>
+      <c r="L56" s="80"/>
       <c r="M56" s="39"/>
       <c r="N56" s="39"/>
       <c r="O56" s="39"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
+      <c r="P56" s="79"/>
+      <c r="Q56" s="79"/>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
@@ -10432,7 +10440,7 @@
       <c r="A57" s="46">
         <v>19</v>
       </c>
-      <c r="B57" s="79"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="19"/>
@@ -10446,8 +10454,8 @@
       <c r="M57" s="39"/>
       <c r="N57" s="39"/>
       <c r="O57" s="39"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="79"/>
       <c r="R57" s="39"/>
       <c r="S57" s="40"/>
       <c r="T57" s="39"/>
@@ -10508,7 +10516,7 @@
       <c r="A58" s="46">
         <v>20</v>
       </c>
-      <c r="B58" s="79"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
       <c r="E58" s="19"/>
@@ -10522,8 +10530,8 @@
       <c r="M58" s="39"/>
       <c r="N58" s="39"/>
       <c r="O58" s="39"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="94"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
       <c r="T58" s="39"/>
@@ -10578,21 +10586,21 @@
       <c r="BQ58" s="39"/>
       <c r="BR58" s="51"/>
       <c r="BS58" s="51"/>
-      <c r="BT58" s="93"/>
+      <c r="BT58" s="78"/>
     </row>
     <row r="59" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>21</v>
       </c>
-      <c r="B59" s="79"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
       <c r="M59" s="19"/>
@@ -10654,13 +10662,13 @@
       <c r="BQ59" s="39"/>
       <c r="BR59" s="51"/>
       <c r="BS59" s="51"/>
-      <c r="BT59" s="93"/>
+      <c r="BT59" s="78"/>
     </row>
     <row r="60" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="46">
         <v>22</v>
       </c>
-      <c r="B60" s="79"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="19"/>
@@ -10730,13 +10738,13 @@
       <c r="BQ60" s="39"/>
       <c r="BR60" s="51"/>
       <c r="BS60" s="51"/>
-      <c r="BT60" s="93"/>
+      <c r="BT60" s="78"/>
     </row>
     <row r="61" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>23</v>
       </c>
-      <c r="B61" s="79"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="39"/>
       <c r="D61" s="39"/>
       <c r="E61" s="19"/>
@@ -10812,7 +10820,7 @@
       <c r="A62" s="46">
         <v>24</v>
       </c>
-      <c r="B62" s="79"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
@@ -10888,7 +10896,7 @@
       <c r="A63" s="3">
         <v>25</v>
       </c>
-      <c r="B63" s="79"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
@@ -10964,383 +10972,383 @@
       <c r="A64" s="46">
         <v>26</v>
       </c>
-      <c r="B64" s="91"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="89"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="89"/>
-      <c r="Q64" s="89"/>
-      <c r="R64" s="89"/>
-      <c r="S64" s="89"/>
-      <c r="T64" s="89"/>
-      <c r="U64" s="89"/>
-      <c r="V64" s="89"/>
-      <c r="W64" s="89"/>
-      <c r="X64" s="89"/>
-      <c r="Y64" s="89"/>
-      <c r="Z64" s="89"/>
-      <c r="AA64" s="89"/>
-      <c r="AB64" s="89"/>
-      <c r="AC64" s="89"/>
-      <c r="AD64" s="89"/>
-      <c r="AE64" s="89"/>
-      <c r="AF64" s="89"/>
-      <c r="AG64" s="89"/>
-      <c r="AH64" s="82"/>
-      <c r="AI64" s="82"/>
-      <c r="AJ64" s="82"/>
-      <c r="AK64" s="82"/>
-      <c r="AL64" s="89"/>
-      <c r="AM64" s="89"/>
-      <c r="AN64" s="89"/>
-      <c r="AO64" s="89"/>
-      <c r="AP64" s="82"/>
-      <c r="AQ64" s="82"/>
-      <c r="AR64" s="82"/>
-      <c r="AS64" s="82"/>
-      <c r="AT64" s="82"/>
-      <c r="AU64" s="82"/>
-      <c r="AV64" s="82"/>
-      <c r="AW64" s="82"/>
-      <c r="AX64" s="82"/>
-      <c r="AY64" s="82"/>
-      <c r="AZ64" s="82"/>
-      <c r="BA64" s="89"/>
-      <c r="BB64" s="89"/>
-      <c r="BC64" s="89"/>
-      <c r="BD64" s="89"/>
-      <c r="BE64" s="89"/>
-      <c r="BF64" s="89"/>
-      <c r="BG64" s="82"/>
-      <c r="BH64" s="82"/>
-      <c r="BI64" s="82"/>
-      <c r="BJ64" s="82"/>
-      <c r="BK64" s="82"/>
-      <c r="BL64" s="82"/>
-      <c r="BM64" s="82"/>
-      <c r="BN64" s="82"/>
-      <c r="BO64" s="89"/>
-      <c r="BP64" s="89"/>
-      <c r="BQ64" s="89"/>
-      <c r="BR64" s="82"/>
-      <c r="BS64" s="82"/>
-      <c r="BT64" s="92"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="74"/>
+      <c r="O64" s="74"/>
+      <c r="P64" s="74"/>
+      <c r="Q64" s="74"/>
+      <c r="R64" s="74"/>
+      <c r="S64" s="74"/>
+      <c r="T64" s="74"/>
+      <c r="U64" s="74"/>
+      <c r="V64" s="74"/>
+      <c r="W64" s="74"/>
+      <c r="X64" s="74"/>
+      <c r="Y64" s="74"/>
+      <c r="Z64" s="74"/>
+      <c r="AA64" s="74"/>
+      <c r="AB64" s="74"/>
+      <c r="AC64" s="74"/>
+      <c r="AD64" s="74"/>
+      <c r="AE64" s="74"/>
+      <c r="AF64" s="74"/>
+      <c r="AG64" s="74"/>
+      <c r="AH64" s="73"/>
+      <c r="AI64" s="73"/>
+      <c r="AJ64" s="73"/>
+      <c r="AK64" s="73"/>
+      <c r="AL64" s="74"/>
+      <c r="AM64" s="74"/>
+      <c r="AN64" s="74"/>
+      <c r="AO64" s="74"/>
+      <c r="AP64" s="73"/>
+      <c r="AQ64" s="73"/>
+      <c r="AR64" s="73"/>
+      <c r="AS64" s="73"/>
+      <c r="AT64" s="73"/>
+      <c r="AU64" s="73"/>
+      <c r="AV64" s="73"/>
+      <c r="AW64" s="73"/>
+      <c r="AX64" s="73"/>
+      <c r="AY64" s="73"/>
+      <c r="AZ64" s="73"/>
+      <c r="BA64" s="74"/>
+      <c r="BB64" s="74"/>
+      <c r="BC64" s="74"/>
+      <c r="BD64" s="74"/>
+      <c r="BE64" s="74"/>
+      <c r="BF64" s="74"/>
+      <c r="BG64" s="73"/>
+      <c r="BH64" s="73"/>
+      <c r="BI64" s="73"/>
+      <c r="BJ64" s="73"/>
+      <c r="BK64" s="73"/>
+      <c r="BL64" s="73"/>
+      <c r="BM64" s="73"/>
+      <c r="BN64" s="73"/>
+      <c r="BO64" s="74"/>
+      <c r="BP64" s="74"/>
+      <c r="BQ64" s="74"/>
+      <c r="BR64" s="73"/>
+      <c r="BS64" s="73"/>
+      <c r="BT64" s="77"/>
     </row>
     <row r="65" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>27</v>
       </c>
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="84"/>
-      <c r="S65" s="84"/>
-      <c r="T65" s="84"/>
-      <c r="U65" s="84"/>
-      <c r="V65" s="84"/>
-      <c r="W65" s="84"/>
-      <c r="X65" s="84"/>
-      <c r="Y65" s="84"/>
-      <c r="Z65" s="84"/>
-      <c r="AA65" s="84"/>
-      <c r="AB65" s="84"/>
-      <c r="AC65" s="84"/>
-      <c r="AD65" s="84"/>
-      <c r="AE65" s="84"/>
-      <c r="AF65" s="84"/>
-      <c r="AG65" s="84"/>
-      <c r="AH65" s="84"/>
-      <c r="AI65" s="84"/>
-      <c r="AJ65" s="84"/>
-      <c r="AK65" s="84"/>
-      <c r="AL65" s="84"/>
-      <c r="AM65" s="84"/>
-      <c r="AN65" s="84"/>
-      <c r="AO65" s="84"/>
-      <c r="AP65" s="84"/>
-      <c r="AQ65" s="84"/>
-      <c r="AR65" s="84"/>
-      <c r="AS65" s="84"/>
-      <c r="AT65" s="84"/>
-      <c r="AU65" s="84"/>
-      <c r="AV65" s="84"/>
-      <c r="AW65" s="84"/>
-      <c r="AX65" s="84"/>
-      <c r="AY65" s="84"/>
-      <c r="AZ65" s="84"/>
-      <c r="BA65" s="84"/>
-      <c r="BB65" s="84"/>
-      <c r="BC65" s="84"/>
-      <c r="BD65" s="84"/>
-      <c r="BE65" s="84"/>
-      <c r="BF65" s="84"/>
-      <c r="BG65" s="84"/>
-      <c r="BH65" s="84"/>
-      <c r="BI65" s="84"/>
-      <c r="BJ65" s="84"/>
-      <c r="BK65" s="84"/>
-      <c r="BL65" s="84"/>
-      <c r="BM65" s="84"/>
-      <c r="BN65" s="84"/>
-      <c r="BO65" s="84"/>
-      <c r="BP65" s="84"/>
-      <c r="BQ65" s="84"/>
-      <c r="BR65" s="84"/>
-      <c r="BS65" s="84"/>
-      <c r="BT65" s="97"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="112"/>
+      <c r="K65" s="112"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="112"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="112"/>
+      <c r="P65" s="112"/>
+      <c r="Q65" s="112"/>
+      <c r="R65" s="112"/>
+      <c r="S65" s="112"/>
+      <c r="T65" s="112"/>
+      <c r="U65" s="112"/>
+      <c r="V65" s="112"/>
+      <c r="W65" s="112"/>
+      <c r="X65" s="112"/>
+      <c r="Y65" s="112"/>
+      <c r="Z65" s="112"/>
+      <c r="AA65" s="112"/>
+      <c r="AB65" s="112"/>
+      <c r="AC65" s="112"/>
+      <c r="AD65" s="112"/>
+      <c r="AE65" s="112"/>
+      <c r="AF65" s="112"/>
+      <c r="AG65" s="112"/>
+      <c r="AH65" s="112"/>
+      <c r="AI65" s="112"/>
+      <c r="AJ65" s="112"/>
+      <c r="AK65" s="112"/>
+      <c r="AL65" s="112"/>
+      <c r="AM65" s="112"/>
+      <c r="AN65" s="112"/>
+      <c r="AO65" s="112"/>
+      <c r="AP65" s="112"/>
+      <c r="AQ65" s="112"/>
+      <c r="AR65" s="112"/>
+      <c r="AS65" s="112"/>
+      <c r="AT65" s="112"/>
+      <c r="AU65" s="112"/>
+      <c r="AV65" s="112"/>
+      <c r="AW65" s="112"/>
+      <c r="AX65" s="112"/>
+      <c r="AY65" s="112"/>
+      <c r="AZ65" s="112"/>
+      <c r="BA65" s="112"/>
+      <c r="BB65" s="112"/>
+      <c r="BC65" s="112"/>
+      <c r="BD65" s="112"/>
+      <c r="BE65" s="112"/>
+      <c r="BF65" s="112"/>
+      <c r="BG65" s="112"/>
+      <c r="BH65" s="112"/>
+      <c r="BI65" s="112"/>
+      <c r="BJ65" s="112"/>
+      <c r="BK65" s="112"/>
+      <c r="BL65" s="112"/>
+      <c r="BM65" s="112"/>
+      <c r="BN65" s="112"/>
+      <c r="BO65" s="112"/>
+      <c r="BP65" s="112"/>
+      <c r="BQ65" s="112"/>
+      <c r="BR65" s="112"/>
+      <c r="BS65" s="112"/>
+      <c r="BT65" s="118"/>
     </row>
     <row r="66" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46">
         <v>28</v>
       </c>
-      <c r="B66" s="85"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="86"/>
-      <c r="K66" s="86"/>
-      <c r="L66" s="86"/>
-      <c r="M66" s="86"/>
-      <c r="N66" s="86"/>
-      <c r="O66" s="86"/>
-      <c r="P66" s="86"/>
-      <c r="Q66" s="86"/>
-      <c r="R66" s="86"/>
-      <c r="S66" s="86"/>
-      <c r="T66" s="86"/>
-      <c r="U66" s="86"/>
-      <c r="V66" s="86"/>
-      <c r="W66" s="86"/>
-      <c r="X66" s="86"/>
-      <c r="Y66" s="86"/>
-      <c r="Z66" s="86"/>
-      <c r="AA66" s="86"/>
-      <c r="AB66" s="86"/>
-      <c r="AC66" s="86"/>
-      <c r="AD66" s="86"/>
-      <c r="AE66" s="86"/>
-      <c r="AF66" s="86"/>
-      <c r="AG66" s="86"/>
-      <c r="AH66" s="86"/>
-      <c r="AI66" s="86"/>
-      <c r="AJ66" s="86"/>
-      <c r="AK66" s="86"/>
-      <c r="AL66" s="86"/>
-      <c r="AM66" s="86"/>
-      <c r="AN66" s="86"/>
-      <c r="AO66" s="86"/>
-      <c r="AP66" s="86"/>
-      <c r="AQ66" s="86"/>
-      <c r="AR66" s="86"/>
-      <c r="AS66" s="86"/>
-      <c r="AT66" s="86"/>
-      <c r="AU66" s="86"/>
-      <c r="AV66" s="86"/>
-      <c r="AW66" s="86"/>
-      <c r="AX66" s="86"/>
-      <c r="AY66" s="86"/>
-      <c r="AZ66" s="86"/>
-      <c r="BA66" s="86"/>
-      <c r="BB66" s="86"/>
-      <c r="BC66" s="86"/>
-      <c r="BD66" s="86"/>
-      <c r="BE66" s="86"/>
-      <c r="BF66" s="86"/>
-      <c r="BG66" s="86"/>
-      <c r="BH66" s="86"/>
-      <c r="BI66" s="86"/>
-      <c r="BJ66" s="86"/>
-      <c r="BK66" s="86"/>
-      <c r="BL66" s="86"/>
-      <c r="BM66" s="86"/>
-      <c r="BN66" s="86"/>
-      <c r="BO66" s="86"/>
-      <c r="BP66" s="86"/>
-      <c r="BQ66" s="86"/>
-      <c r="BR66" s="86"/>
-      <c r="BS66" s="86"/>
-      <c r="BT66" s="98"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
+      <c r="O66" s="114"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="114"/>
+      <c r="R66" s="114"/>
+      <c r="S66" s="114"/>
+      <c r="T66" s="114"/>
+      <c r="U66" s="114"/>
+      <c r="V66" s="114"/>
+      <c r="W66" s="114"/>
+      <c r="X66" s="114"/>
+      <c r="Y66" s="114"/>
+      <c r="Z66" s="114"/>
+      <c r="AA66" s="114"/>
+      <c r="AB66" s="114"/>
+      <c r="AC66" s="114"/>
+      <c r="AD66" s="114"/>
+      <c r="AE66" s="114"/>
+      <c r="AF66" s="114"/>
+      <c r="AG66" s="114"/>
+      <c r="AH66" s="114"/>
+      <c r="AI66" s="114"/>
+      <c r="AJ66" s="114"/>
+      <c r="AK66" s="114"/>
+      <c r="AL66" s="114"/>
+      <c r="AM66" s="114"/>
+      <c r="AN66" s="114"/>
+      <c r="AO66" s="114"/>
+      <c r="AP66" s="114"/>
+      <c r="AQ66" s="114"/>
+      <c r="AR66" s="114"/>
+      <c r="AS66" s="114"/>
+      <c r="AT66" s="114"/>
+      <c r="AU66" s="114"/>
+      <c r="AV66" s="114"/>
+      <c r="AW66" s="114"/>
+      <c r="AX66" s="114"/>
+      <c r="AY66" s="114"/>
+      <c r="AZ66" s="114"/>
+      <c r="BA66" s="114"/>
+      <c r="BB66" s="114"/>
+      <c r="BC66" s="114"/>
+      <c r="BD66" s="114"/>
+      <c r="BE66" s="114"/>
+      <c r="BF66" s="114"/>
+      <c r="BG66" s="114"/>
+      <c r="BH66" s="114"/>
+      <c r="BI66" s="114"/>
+      <c r="BJ66" s="114"/>
+      <c r="BK66" s="114"/>
+      <c r="BL66" s="114"/>
+      <c r="BM66" s="114"/>
+      <c r="BN66" s="114"/>
+      <c r="BO66" s="114"/>
+      <c r="BP66" s="114"/>
+      <c r="BQ66" s="114"/>
+      <c r="BR66" s="114"/>
+      <c r="BS66" s="114"/>
+      <c r="BT66" s="119"/>
     </row>
     <row r="67" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>29</v>
       </c>
-      <c r="B67" s="85"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="86"/>
-      <c r="O67" s="86"/>
-      <c r="P67" s="86"/>
-      <c r="Q67" s="86"/>
-      <c r="R67" s="86"/>
-      <c r="S67" s="86"/>
-      <c r="T67" s="86"/>
-      <c r="U67" s="86"/>
-      <c r="V67" s="86"/>
-      <c r="W67" s="86"/>
-      <c r="X67" s="86"/>
-      <c r="Y67" s="86"/>
-      <c r="Z67" s="86"/>
-      <c r="AA67" s="86"/>
-      <c r="AB67" s="86"/>
-      <c r="AC67" s="86"/>
-      <c r="AD67" s="86"/>
-      <c r="AE67" s="86"/>
-      <c r="AF67" s="86"/>
-      <c r="AG67" s="86"/>
-      <c r="AH67" s="86"/>
-      <c r="AI67" s="86"/>
-      <c r="AJ67" s="86"/>
-      <c r="AK67" s="86"/>
-      <c r="AL67" s="86"/>
-      <c r="AM67" s="86"/>
-      <c r="AN67" s="86"/>
-      <c r="AO67" s="86"/>
-      <c r="AP67" s="86"/>
-      <c r="AQ67" s="86"/>
-      <c r="AR67" s="86"/>
-      <c r="AS67" s="86"/>
-      <c r="AT67" s="86"/>
-      <c r="AU67" s="86"/>
-      <c r="AV67" s="86"/>
-      <c r="AW67" s="86"/>
-      <c r="AX67" s="86"/>
-      <c r="AY67" s="86"/>
-      <c r="AZ67" s="86"/>
-      <c r="BA67" s="86"/>
-      <c r="BB67" s="86"/>
-      <c r="BC67" s="86"/>
-      <c r="BD67" s="86"/>
-      <c r="BE67" s="86"/>
-      <c r="BF67" s="86"/>
-      <c r="BG67" s="86"/>
-      <c r="BH67" s="86"/>
-      <c r="BI67" s="86"/>
-      <c r="BJ67" s="86"/>
-      <c r="BK67" s="86"/>
-      <c r="BL67" s="86"/>
-      <c r="BM67" s="86"/>
-      <c r="BN67" s="86"/>
-      <c r="BO67" s="86"/>
-      <c r="BP67" s="86"/>
-      <c r="BQ67" s="86"/>
-      <c r="BR67" s="86"/>
-      <c r="BS67" s="86"/>
-      <c r="BT67" s="98"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="114"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="114"/>
+      <c r="O67" s="114"/>
+      <c r="P67" s="114"/>
+      <c r="Q67" s="114"/>
+      <c r="R67" s="114"/>
+      <c r="S67" s="114"/>
+      <c r="T67" s="114"/>
+      <c r="U67" s="114"/>
+      <c r="V67" s="114"/>
+      <c r="W67" s="114"/>
+      <c r="X67" s="114"/>
+      <c r="Y67" s="114"/>
+      <c r="Z67" s="114"/>
+      <c r="AA67" s="114"/>
+      <c r="AB67" s="114"/>
+      <c r="AC67" s="114"/>
+      <c r="AD67" s="114"/>
+      <c r="AE67" s="114"/>
+      <c r="AF67" s="114"/>
+      <c r="AG67" s="114"/>
+      <c r="AH67" s="114"/>
+      <c r="AI67" s="114"/>
+      <c r="AJ67" s="114"/>
+      <c r="AK67" s="114"/>
+      <c r="AL67" s="114"/>
+      <c r="AM67" s="114"/>
+      <c r="AN67" s="114"/>
+      <c r="AO67" s="114"/>
+      <c r="AP67" s="114"/>
+      <c r="AQ67" s="114"/>
+      <c r="AR67" s="114"/>
+      <c r="AS67" s="114"/>
+      <c r="AT67" s="114"/>
+      <c r="AU67" s="114"/>
+      <c r="AV67" s="114"/>
+      <c r="AW67" s="114"/>
+      <c r="AX67" s="114"/>
+      <c r="AY67" s="114"/>
+      <c r="AZ67" s="114"/>
+      <c r="BA67" s="114"/>
+      <c r="BB67" s="114"/>
+      <c r="BC67" s="114"/>
+      <c r="BD67" s="114"/>
+      <c r="BE67" s="114"/>
+      <c r="BF67" s="114"/>
+      <c r="BG67" s="114"/>
+      <c r="BH67" s="114"/>
+      <c r="BI67" s="114"/>
+      <c r="BJ67" s="114"/>
+      <c r="BK67" s="114"/>
+      <c r="BL67" s="114"/>
+      <c r="BM67" s="114"/>
+      <c r="BN67" s="114"/>
+      <c r="BO67" s="114"/>
+      <c r="BP67" s="114"/>
+      <c r="BQ67" s="114"/>
+      <c r="BR67" s="114"/>
+      <c r="BS67" s="114"/>
+      <c r="BT67" s="119"/>
     </row>
     <row r="68" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="46">
         <v>30</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="88"/>
-      <c r="T68" s="88"/>
-      <c r="U68" s="88"/>
-      <c r="V68" s="88"/>
-      <c r="W68" s="88"/>
-      <c r="X68" s="88"/>
-      <c r="Y68" s="88"/>
-      <c r="Z68" s="88"/>
-      <c r="AA68" s="88"/>
-      <c r="AB68" s="88"/>
-      <c r="AC68" s="88"/>
-      <c r="AD68" s="88"/>
-      <c r="AE68" s="88"/>
-      <c r="AF68" s="88"/>
-      <c r="AG68" s="88"/>
-      <c r="AH68" s="88"/>
-      <c r="AI68" s="88"/>
-      <c r="AJ68" s="88"/>
-      <c r="AK68" s="88"/>
-      <c r="AL68" s="88"/>
-      <c r="AM68" s="88"/>
-      <c r="AN68" s="88"/>
-      <c r="AO68" s="88"/>
-      <c r="AP68" s="88"/>
-      <c r="AQ68" s="88"/>
-      <c r="AR68" s="88"/>
-      <c r="AS68" s="88"/>
-      <c r="AT68" s="88"/>
-      <c r="AU68" s="88"/>
-      <c r="AV68" s="88"/>
-      <c r="AW68" s="88"/>
-      <c r="AX68" s="88"/>
-      <c r="AY68" s="88"/>
-      <c r="AZ68" s="88"/>
-      <c r="BA68" s="88"/>
-      <c r="BB68" s="88"/>
-      <c r="BC68" s="88"/>
-      <c r="BD68" s="88"/>
-      <c r="BE68" s="88"/>
-      <c r="BF68" s="88"/>
-      <c r="BG68" s="88"/>
-      <c r="BH68" s="88"/>
-      <c r="BI68" s="88"/>
-      <c r="BJ68" s="88"/>
-      <c r="BK68" s="88"/>
-      <c r="BL68" s="88"/>
-      <c r="BM68" s="88"/>
-      <c r="BN68" s="88"/>
-      <c r="BO68" s="88"/>
-      <c r="BP68" s="88"/>
-      <c r="BQ68" s="88"/>
-      <c r="BR68" s="88"/>
-      <c r="BS68" s="88"/>
-      <c r="BT68" s="99"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="116"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="116"/>
+      <c r="P68" s="116"/>
+      <c r="Q68" s="116"/>
+      <c r="R68" s="116"/>
+      <c r="S68" s="116"/>
+      <c r="T68" s="116"/>
+      <c r="U68" s="116"/>
+      <c r="V68" s="116"/>
+      <c r="W68" s="116"/>
+      <c r="X68" s="116"/>
+      <c r="Y68" s="116"/>
+      <c r="Z68" s="116"/>
+      <c r="AA68" s="116"/>
+      <c r="AB68" s="116"/>
+      <c r="AC68" s="116"/>
+      <c r="AD68" s="116"/>
+      <c r="AE68" s="116"/>
+      <c r="AF68" s="116"/>
+      <c r="AG68" s="116"/>
+      <c r="AH68" s="116"/>
+      <c r="AI68" s="116"/>
+      <c r="AJ68" s="116"/>
+      <c r="AK68" s="116"/>
+      <c r="AL68" s="116"/>
+      <c r="AM68" s="116"/>
+      <c r="AN68" s="116"/>
+      <c r="AO68" s="116"/>
+      <c r="AP68" s="116"/>
+      <c r="AQ68" s="116"/>
+      <c r="AR68" s="116"/>
+      <c r="AS68" s="116"/>
+      <c r="AT68" s="116"/>
+      <c r="AU68" s="116"/>
+      <c r="AV68" s="116"/>
+      <c r="AW68" s="116"/>
+      <c r="AX68" s="116"/>
+      <c r="AY68" s="116"/>
+      <c r="AZ68" s="116"/>
+      <c r="BA68" s="116"/>
+      <c r="BB68" s="116"/>
+      <c r="BC68" s="116"/>
+      <c r="BD68" s="116"/>
+      <c r="BE68" s="116"/>
+      <c r="BF68" s="116"/>
+      <c r="BG68" s="116"/>
+      <c r="BH68" s="116"/>
+      <c r="BI68" s="116"/>
+      <c r="BJ68" s="116"/>
+      <c r="BK68" s="116"/>
+      <c r="BL68" s="116"/>
+      <c r="BM68" s="116"/>
+      <c r="BN68" s="116"/>
+      <c r="BO68" s="116"/>
+      <c r="BP68" s="116"/>
+      <c r="BQ68" s="116"/>
+      <c r="BR68" s="116"/>
+      <c r="BS68" s="116"/>
+      <c r="BT68" s="120"/>
     </row>
     <row r="69" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>

--- a/Resources/Dante Level Models.xlsx
+++ b/Resources/Dante Level Models.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,27 @@
       <b/>
       <sz val="22"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -757,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -804,7 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -860,11 +880,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -913,15 +942,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,17 +1272,17 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -1266,17 +1290,17 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
@@ -1284,17 +1308,17 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -1302,17 +1326,17 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1320,17 +1344,17 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -1338,17 +1362,17 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
@@ -1356,17 +1380,17 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
@@ -1374,17 +1398,17 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
@@ -1392,17 +1416,17 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
@@ -1410,17 +1434,17 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
@@ -1428,17 +1452,17 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
@@ -1455,154 +1479,149 @@
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
     <mergeCell ref="E12:M12"/>
     <mergeCell ref="B14:M23"/>
     <mergeCell ref="E7:M7"/>
@@ -1610,6 +1629,11 @@
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3908,305 +3932,305 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="106"/>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="106"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="106"/>
-      <c r="AL29" s="106"/>
-      <c r="AM29" s="106"/>
-      <c r="AN29" s="106"/>
-      <c r="AO29" s="106"/>
-      <c r="AP29" s="106"/>
-      <c r="AQ29" s="106"/>
-      <c r="AR29" s="106"/>
-      <c r="AS29" s="106"/>
-      <c r="AT29" s="106"/>
-      <c r="AU29" s="106"/>
-      <c r="AV29" s="106"/>
-      <c r="AW29" s="106"/>
-      <c r="AX29" s="106"/>
-      <c r="AY29" s="106"/>
-      <c r="AZ29" s="106"/>
-      <c r="BA29" s="106"/>
-      <c r="BB29" s="106"/>
-      <c r="BC29" s="106"/>
-      <c r="BD29" s="106"/>
-      <c r="BE29" s="106"/>
-      <c r="BF29" s="106"/>
-      <c r="BG29" s="106"/>
-      <c r="BH29" s="106"/>
-      <c r="BI29" s="106"/>
-      <c r="BJ29" s="106"/>
-      <c r="BK29" s="106"/>
-      <c r="BL29" s="106"/>
-      <c r="BM29" s="106"/>
-      <c r="BN29" s="106"/>
-      <c r="BO29" s="106"/>
-      <c r="BP29" s="106"/>
-      <c r="BQ29" s="106"/>
-      <c r="BR29" s="106"/>
-      <c r="BS29" s="106"/>
-      <c r="BT29" s="106"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="114"/>
+      <c r="AJ29" s="114"/>
+      <c r="AK29" s="114"/>
+      <c r="AL29" s="114"/>
+      <c r="AM29" s="114"/>
+      <c r="AN29" s="114"/>
+      <c r="AO29" s="114"/>
+      <c r="AP29" s="114"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="114"/>
+      <c r="AU29" s="114"/>
+      <c r="AV29" s="114"/>
+      <c r="AW29" s="114"/>
+      <c r="AX29" s="114"/>
+      <c r="AY29" s="114"/>
+      <c r="AZ29" s="114"/>
+      <c r="BA29" s="114"/>
+      <c r="BB29" s="114"/>
+      <c r="BC29" s="114"/>
+      <c r="BD29" s="114"/>
+      <c r="BE29" s="114"/>
+      <c r="BF29" s="114"/>
+      <c r="BG29" s="114"/>
+      <c r="BH29" s="114"/>
+      <c r="BI29" s="114"/>
+      <c r="BJ29" s="114"/>
+      <c r="BK29" s="114"/>
+      <c r="BL29" s="114"/>
+      <c r="BM29" s="114"/>
+      <c r="BN29" s="114"/>
+      <c r="BO29" s="114"/>
+      <c r="BP29" s="114"/>
+      <c r="BQ29" s="114"/>
+      <c r="BR29" s="114"/>
+      <c r="BS29" s="114"/>
+      <c r="BT29" s="114"/>
     </row>
     <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>28</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="106"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="106"/>
-      <c r="AF30" s="106"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="106"/>
-      <c r="AJ30" s="106"/>
-      <c r="AK30" s="106"/>
-      <c r="AL30" s="106"/>
-      <c r="AM30" s="106"/>
-      <c r="AN30" s="106"/>
-      <c r="AO30" s="106"/>
-      <c r="AP30" s="106"/>
-      <c r="AQ30" s="106"/>
-      <c r="AR30" s="106"/>
-      <c r="AS30" s="106"/>
-      <c r="AT30" s="106"/>
-      <c r="AU30" s="106"/>
-      <c r="AV30" s="106"/>
-      <c r="AW30" s="106"/>
-      <c r="AX30" s="106"/>
-      <c r="AY30" s="106"/>
-      <c r="AZ30" s="106"/>
-      <c r="BA30" s="106"/>
-      <c r="BB30" s="106"/>
-      <c r="BC30" s="106"/>
-      <c r="BD30" s="106"/>
-      <c r="BE30" s="106"/>
-      <c r="BF30" s="106"/>
-      <c r="BG30" s="106"/>
-      <c r="BH30" s="106"/>
-      <c r="BI30" s="106"/>
-      <c r="BJ30" s="106"/>
-      <c r="BK30" s="106"/>
-      <c r="BL30" s="106"/>
-      <c r="BM30" s="106"/>
-      <c r="BN30" s="106"/>
-      <c r="BO30" s="106"/>
-      <c r="BP30" s="106"/>
-      <c r="BQ30" s="106"/>
-      <c r="BR30" s="106"/>
-      <c r="BS30" s="106"/>
-      <c r="BT30" s="106"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="114"/>
+      <c r="AA30" s="114"/>
+      <c r="AB30" s="114"/>
+      <c r="AC30" s="114"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="114"/>
+      <c r="AL30" s="114"/>
+      <c r="AM30" s="114"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="114"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
+      <c r="AX30" s="114"/>
+      <c r="AY30" s="114"/>
+      <c r="AZ30" s="114"/>
+      <c r="BA30" s="114"/>
+      <c r="BB30" s="114"/>
+      <c r="BC30" s="114"/>
+      <c r="BD30" s="114"/>
+      <c r="BE30" s="114"/>
+      <c r="BF30" s="114"/>
+      <c r="BG30" s="114"/>
+      <c r="BH30" s="114"/>
+      <c r="BI30" s="114"/>
+      <c r="BJ30" s="114"/>
+      <c r="BK30" s="114"/>
+      <c r="BL30" s="114"/>
+      <c r="BM30" s="114"/>
+      <c r="BN30" s="114"/>
+      <c r="BO30" s="114"/>
+      <c r="BP30" s="114"/>
+      <c r="BQ30" s="114"/>
+      <c r="BR30" s="114"/>
+      <c r="BS30" s="114"/>
+      <c r="BT30" s="114"/>
     </row>
     <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="106"/>
-      <c r="AD31" s="106"/>
-      <c r="AE31" s="106"/>
-      <c r="AF31" s="106"/>
-      <c r="AG31" s="106"/>
-      <c r="AH31" s="106"/>
-      <c r="AI31" s="106"/>
-      <c r="AJ31" s="106"/>
-      <c r="AK31" s="106"/>
-      <c r="AL31" s="106"/>
-      <c r="AM31" s="106"/>
-      <c r="AN31" s="106"/>
-      <c r="AO31" s="106"/>
-      <c r="AP31" s="106"/>
-      <c r="AQ31" s="106"/>
-      <c r="AR31" s="106"/>
-      <c r="AS31" s="106"/>
-      <c r="AT31" s="106"/>
-      <c r="AU31" s="106"/>
-      <c r="AV31" s="106"/>
-      <c r="AW31" s="106"/>
-      <c r="AX31" s="106"/>
-      <c r="AY31" s="106"/>
-      <c r="AZ31" s="106"/>
-      <c r="BA31" s="106"/>
-      <c r="BB31" s="106"/>
-      <c r="BC31" s="106"/>
-      <c r="BD31" s="106"/>
-      <c r="BE31" s="106"/>
-      <c r="BF31" s="106"/>
-      <c r="BG31" s="106"/>
-      <c r="BH31" s="106"/>
-      <c r="BI31" s="106"/>
-      <c r="BJ31" s="106"/>
-      <c r="BK31" s="106"/>
-      <c r="BL31" s="106"/>
-      <c r="BM31" s="106"/>
-      <c r="BN31" s="106"/>
-      <c r="BO31" s="106"/>
-      <c r="BP31" s="106"/>
-      <c r="BQ31" s="106"/>
-      <c r="BR31" s="106"/>
-      <c r="BS31" s="106"/>
-      <c r="BT31" s="106"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="114"/>
+      <c r="AJ31" s="114"/>
+      <c r="AK31" s="114"/>
+      <c r="AL31" s="114"/>
+      <c r="AM31" s="114"/>
+      <c r="AN31" s="114"/>
+      <c r="AO31" s="114"/>
+      <c r="AP31" s="114"/>
+      <c r="AQ31" s="114"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="114"/>
+      <c r="AU31" s="114"/>
+      <c r="AV31" s="114"/>
+      <c r="AW31" s="114"/>
+      <c r="AX31" s="114"/>
+      <c r="AY31" s="114"/>
+      <c r="AZ31" s="114"/>
+      <c r="BA31" s="114"/>
+      <c r="BB31" s="114"/>
+      <c r="BC31" s="114"/>
+      <c r="BD31" s="114"/>
+      <c r="BE31" s="114"/>
+      <c r="BF31" s="114"/>
+      <c r="BG31" s="114"/>
+      <c r="BH31" s="114"/>
+      <c r="BI31" s="114"/>
+      <c r="BJ31" s="114"/>
+      <c r="BK31" s="114"/>
+      <c r="BL31" s="114"/>
+      <c r="BM31" s="114"/>
+      <c r="BN31" s="114"/>
+      <c r="BO31" s="114"/>
+      <c r="BP31" s="114"/>
+      <c r="BQ31" s="114"/>
+      <c r="BR31" s="114"/>
+      <c r="BS31" s="114"/>
+      <c r="BT31" s="114"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>30</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="108"/>
-      <c r="AJ32" s="108"/>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="108"/>
-      <c r="AM32" s="108"/>
-      <c r="AN32" s="108"/>
-      <c r="AO32" s="108"/>
-      <c r="AP32" s="108"/>
-      <c r="AQ32" s="108"/>
-      <c r="AR32" s="108"/>
-      <c r="AS32" s="108"/>
-      <c r="AT32" s="108"/>
-      <c r="AU32" s="108"/>
-      <c r="AV32" s="108"/>
-      <c r="AW32" s="108"/>
-      <c r="AX32" s="108"/>
-      <c r="AY32" s="108"/>
-      <c r="AZ32" s="108"/>
-      <c r="BA32" s="108"/>
-      <c r="BB32" s="108"/>
-      <c r="BC32" s="108"/>
-      <c r="BD32" s="108"/>
-      <c r="BE32" s="108"/>
-      <c r="BF32" s="108"/>
-      <c r="BG32" s="108"/>
-      <c r="BH32" s="108"/>
-      <c r="BI32" s="108"/>
-      <c r="BJ32" s="108"/>
-      <c r="BK32" s="108"/>
-      <c r="BL32" s="108"/>
-      <c r="BM32" s="108"/>
-      <c r="BN32" s="108"/>
-      <c r="BO32" s="108"/>
-      <c r="BP32" s="108"/>
-      <c r="BQ32" s="108"/>
-      <c r="BR32" s="108"/>
-      <c r="BS32" s="108"/>
-      <c r="BT32" s="108"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="116"/>
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="116"/>
+      <c r="AJ32" s="116"/>
+      <c r="AK32" s="116"/>
+      <c r="AL32" s="116"/>
+      <c r="AM32" s="116"/>
+      <c r="AN32" s="116"/>
+      <c r="AO32" s="116"/>
+      <c r="AP32" s="116"/>
+      <c r="AQ32" s="116"/>
+      <c r="AR32" s="116"/>
+      <c r="AS32" s="116"/>
+      <c r="AT32" s="116"/>
+      <c r="AU32" s="116"/>
+      <c r="AV32" s="116"/>
+      <c r="AW32" s="116"/>
+      <c r="AX32" s="116"/>
+      <c r="AY32" s="116"/>
+      <c r="AZ32" s="116"/>
+      <c r="BA32" s="116"/>
+      <c r="BB32" s="116"/>
+      <c r="BC32" s="116"/>
+      <c r="BD32" s="116"/>
+      <c r="BE32" s="116"/>
+      <c r="BF32" s="116"/>
+      <c r="BG32" s="116"/>
+      <c r="BH32" s="116"/>
+      <c r="BI32" s="116"/>
+      <c r="BJ32" s="116"/>
+      <c r="BK32" s="116"/>
+      <c r="BL32" s="116"/>
+      <c r="BM32" s="116"/>
+      <c r="BN32" s="116"/>
+      <c r="BO32" s="116"/>
+      <c r="BP32" s="116"/>
+      <c r="BQ32" s="116"/>
+      <c r="BR32" s="116"/>
+      <c r="BS32" s="116"/>
+      <c r="BT32" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4472,10 +4496,10 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="59"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="57"/>
+      <c r="T2" s="56"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -4495,9 +4519,9 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="59"/>
+      <c r="AN2" s="58"/>
       <c r="AO2" s="2"/>
-      <c r="AP2" s="57"/>
+      <c r="AP2" s="56"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
@@ -4512,8 +4536,8 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="59"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="58"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
@@ -4527,7 +4551,7 @@
       <c r="BQ2" s="2"/>
       <c r="BR2" s="2"/>
       <c r="BS2" s="2"/>
-      <c r="BT2" s="60"/>
+      <c r="BT2" s="59"/>
     </row>
     <row r="3" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
@@ -4551,7 +4575,7 @@
       <c r="Q3" s="39"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="58"/>
+      <c r="T3" s="57"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -4573,7 +4597,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="39"/>
       <c r="AO3" s="1"/>
-      <c r="AP3" s="58"/>
+      <c r="AP3" s="57"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
@@ -4588,7 +4612,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
-      <c r="BE3" s="58"/>
+      <c r="BE3" s="57"/>
       <c r="BF3" s="39"/>
       <c r="BG3" s="1"/>
       <c r="BH3" s="1"/>
@@ -4603,7 +4627,7 @@
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
       <c r="BS3" s="1"/>
-      <c r="BT3" s="47"/>
+      <c r="BT3" s="46"/>
     </row>
     <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
@@ -4627,7 +4651,7 @@
       <c r="Q4" s="39"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="58"/>
+      <c r="T4" s="57"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -4649,7 +4673,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="39"/>
       <c r="AO4" s="1"/>
-      <c r="AP4" s="58"/>
+      <c r="AP4" s="57"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
@@ -4664,7 +4688,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="58"/>
+      <c r="BE4" s="57"/>
       <c r="BF4" s="39"/>
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
@@ -4679,7 +4703,7 @@
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
-      <c r="BT4" s="47"/>
+      <c r="BT4" s="46"/>
     </row>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
@@ -4703,7 +4727,7 @@
       <c r="Q5" s="39"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="58"/>
+      <c r="T5" s="57"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -4725,7 +4749,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="39"/>
       <c r="AO5" s="1"/>
-      <c r="AP5" s="58"/>
+      <c r="AP5" s="57"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
@@ -4740,7 +4764,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="58"/>
+      <c r="BE5" s="57"/>
       <c r="BF5" s="39"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
@@ -4755,7 +4779,7 @@
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
-      <c r="BT5" s="47"/>
+      <c r="BT5" s="46"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
@@ -4779,7 +4803,7 @@
       <c r="Q6" s="39"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="58"/>
+      <c r="T6" s="57"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -4801,7 +4825,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="39"/>
       <c r="AO6" s="1"/>
-      <c r="AP6" s="58"/>
+      <c r="AP6" s="57"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
@@ -4816,7 +4840,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="58"/>
+      <c r="BE6" s="57"/>
       <c r="BF6" s="39"/>
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
@@ -4831,7 +4855,7 @@
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1"/>
       <c r="BS6" s="1"/>
-      <c r="BT6" s="47"/>
+      <c r="BT6" s="46"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
@@ -4855,7 +4879,7 @@
       <c r="Q7" s="39"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="58"/>
+      <c r="T7" s="57"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -4877,7 +4901,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="39"/>
       <c r="AO7" s="1"/>
-      <c r="AP7" s="58"/>
+      <c r="AP7" s="57"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
@@ -4892,7 +4916,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
-      <c r="BE7" s="58"/>
+      <c r="BE7" s="57"/>
       <c r="BF7" s="39"/>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
@@ -4907,7 +4931,7 @@
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1"/>
       <c r="BS7" s="1"/>
-      <c r="BT7" s="47"/>
+      <c r="BT7" s="46"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -4931,7 +4955,7 @@
       <c r="Q8" s="39"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="58"/>
+      <c r="T8" s="57"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -4953,7 +4977,7 @@
       <c r="AM8" s="28"/>
       <c r="AN8" s="39"/>
       <c r="AO8" s="28"/>
-      <c r="AP8" s="58"/>
+      <c r="AP8" s="57"/>
       <c r="AQ8" s="28"/>
       <c r="AR8" s="28"/>
       <c r="AS8" s="28"/>
@@ -4968,7 +4992,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
-      <c r="BE8" s="58"/>
+      <c r="BE8" s="57"/>
       <c r="BF8" s="39"/>
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
@@ -4983,7 +5007,7 @@
       <c r="BQ8" s="1"/>
       <c r="BR8" s="1"/>
       <c r="BS8" s="1"/>
-      <c r="BT8" s="47"/>
+      <c r="BT8" s="46"/>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -5007,7 +5031,7 @@
       <c r="Q9" s="39"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="58"/>
+      <c r="T9" s="57"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -5029,7 +5053,7 @@
       <c r="AM9" s="28"/>
       <c r="AN9" s="39"/>
       <c r="AO9" s="28"/>
-      <c r="AP9" s="58"/>
+      <c r="AP9" s="57"/>
       <c r="AQ9" s="28"/>
       <c r="AR9" s="28"/>
       <c r="AS9" s="28"/>
@@ -5044,7 +5068,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
-      <c r="BE9" s="58"/>
+      <c r="BE9" s="57"/>
       <c r="BF9" s="39"/>
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
@@ -5059,7 +5083,7 @@
       <c r="BQ9" s="1"/>
       <c r="BR9" s="1"/>
       <c r="BS9" s="1"/>
-      <c r="BT9" s="47"/>
+      <c r="BT9" s="46"/>
     </row>
     <row r="10" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
@@ -5083,7 +5107,7 @@
       <c r="Q10" s="39"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="58"/>
+      <c r="T10" s="57"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -5105,7 +5129,7 @@
       <c r="AM10" s="28"/>
       <c r="AN10" s="39"/>
       <c r="AO10" s="28"/>
-      <c r="AP10" s="58"/>
+      <c r="AP10" s="57"/>
       <c r="AQ10" s="28"/>
       <c r="AR10" s="28"/>
       <c r="AS10" s="28"/>
@@ -5120,7 +5144,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
-      <c r="BE10" s="58"/>
+      <c r="BE10" s="57"/>
       <c r="BF10" s="39"/>
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
@@ -5135,7 +5159,7 @@
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
-      <c r="BT10" s="47"/>
+      <c r="BT10" s="46"/>
     </row>
     <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -5156,10 +5180,10 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="59"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="57"/>
+      <c r="T11" s="56"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -5181,7 +5205,7 @@
       <c r="AM11" s="28"/>
       <c r="AN11" s="39"/>
       <c r="AO11" s="28"/>
-      <c r="AP11" s="58"/>
+      <c r="AP11" s="57"/>
       <c r="AQ11" s="28"/>
       <c r="AR11" s="28"/>
       <c r="AS11" s="28"/>
@@ -5196,7 +5220,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
-      <c r="BE11" s="58"/>
+      <c r="BE11" s="57"/>
       <c r="BF11" s="39"/>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
@@ -5211,7 +5235,7 @@
       <c r="BQ11" s="1"/>
       <c r="BR11" s="1"/>
       <c r="BS11" s="1"/>
-      <c r="BT11" s="47"/>
+      <c r="BT11" s="46"/>
     </row>
     <row r="12" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -5235,7 +5259,7 @@
       <c r="Q12" s="39"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="58"/>
+      <c r="T12" s="57"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -5257,7 +5281,7 @@
       <c r="AM12" s="28"/>
       <c r="AN12" s="39"/>
       <c r="AO12" s="28"/>
-      <c r="AP12" s="58"/>
+      <c r="AP12" s="57"/>
       <c r="AQ12" s="28"/>
       <c r="AR12" s="28"/>
       <c r="AS12" s="28"/>
@@ -5272,7 +5296,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
-      <c r="BE12" s="58"/>
+      <c r="BE12" s="57"/>
       <c r="BF12" s="39"/>
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
@@ -5287,7 +5311,7 @@
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
-      <c r="BT12" s="47"/>
+      <c r="BT12" s="46"/>
     </row>
     <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -5311,7 +5335,7 @@
       <c r="Q13" s="39"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="58"/>
+      <c r="T13" s="57"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -5333,7 +5357,7 @@
       <c r="AM13" s="28"/>
       <c r="AN13" s="39"/>
       <c r="AO13" s="28"/>
-      <c r="AP13" s="58"/>
+      <c r="AP13" s="57"/>
       <c r="AQ13" s="28"/>
       <c r="AR13" s="28"/>
       <c r="AS13" s="28"/>
@@ -5348,7 +5372,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
-      <c r="BE13" s="58"/>
+      <c r="BE13" s="57"/>
       <c r="BF13" s="39"/>
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
@@ -5363,7 +5387,7 @@
       <c r="BQ13" s="1"/>
       <c r="BR13" s="1"/>
       <c r="BS13" s="1"/>
-      <c r="BT13" s="47"/>
+      <c r="BT13" s="46"/>
     </row>
     <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
@@ -5387,7 +5411,7 @@
       <c r="Q14" s="39"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="58"/>
+      <c r="T14" s="57"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -5409,7 +5433,7 @@
       <c r="AM14" s="28"/>
       <c r="AN14" s="39"/>
       <c r="AO14" s="28"/>
-      <c r="AP14" s="58"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="28"/>
       <c r="AR14" s="28"/>
       <c r="AS14" s="28"/>
@@ -5424,7 +5448,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
-      <c r="BE14" s="58"/>
+      <c r="BE14" s="57"/>
       <c r="BF14" s="39"/>
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
@@ -5439,7 +5463,7 @@
       <c r="BQ14" s="1"/>
       <c r="BR14" s="1"/>
       <c r="BS14" s="1"/>
-      <c r="BT14" s="47"/>
+      <c r="BT14" s="46"/>
     </row>
     <row r="15" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
@@ -5463,7 +5487,7 @@
       <c r="Q15" s="39"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="58"/>
+      <c r="T15" s="57"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -5485,7 +5509,7 @@
       <c r="AM15" s="28"/>
       <c r="AN15" s="39"/>
       <c r="AO15" s="28"/>
-      <c r="AP15" s="58"/>
+      <c r="AP15" s="57"/>
       <c r="AQ15" s="28"/>
       <c r="AR15" s="28"/>
       <c r="AS15" s="28"/>
@@ -5500,7 +5524,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
-      <c r="BE15" s="58"/>
+      <c r="BE15" s="57"/>
       <c r="BF15" s="39"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
@@ -5515,7 +5539,7 @@
       <c r="BQ15" s="1"/>
       <c r="BR15" s="1"/>
       <c r="BS15" s="39"/>
-      <c r="BT15" s="47"/>
+      <c r="BT15" s="46"/>
     </row>
     <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
@@ -5539,7 +5563,7 @@
       <c r="Q16" s="39"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="58"/>
+      <c r="T16" s="57"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -5561,7 +5585,7 @@
       <c r="AM16" s="28"/>
       <c r="AN16" s="39"/>
       <c r="AO16" s="28"/>
-      <c r="AP16" s="58"/>
+      <c r="AP16" s="57"/>
       <c r="AQ16" s="28"/>
       <c r="AR16" s="28"/>
       <c r="AS16" s="28"/>
@@ -5576,7 +5600,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
-      <c r="BE16" s="58"/>
+      <c r="BE16" s="57"/>
       <c r="BF16" s="39"/>
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
@@ -5591,7 +5615,7 @@
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
       <c r="BS16" s="39"/>
-      <c r="BT16" s="47"/>
+      <c r="BT16" s="46"/>
     </row>
     <row r="17" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
@@ -5615,7 +5639,7 @@
       <c r="Q17" s="39"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="58"/>
+      <c r="T17" s="57"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -5637,7 +5661,7 @@
       <c r="AM17" s="28"/>
       <c r="AN17" s="39"/>
       <c r="AO17" s="28"/>
-      <c r="AP17" s="58"/>
+      <c r="AP17" s="57"/>
       <c r="AQ17" s="28"/>
       <c r="AR17" s="28"/>
       <c r="AS17" s="28"/>
@@ -5652,7 +5676,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
-      <c r="BE17" s="58"/>
+      <c r="BE17" s="57"/>
       <c r="BF17" s="39"/>
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
@@ -5667,7 +5691,7 @@
       <c r="BQ17" s="38"/>
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
-      <c r="BT17" s="47"/>
+      <c r="BT17" s="46"/>
     </row>
     <row r="18" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
@@ -5691,7 +5715,7 @@
       <c r="Q18" s="39"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="58"/>
+      <c r="T18" s="57"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -5713,7 +5737,7 @@
       <c r="AM18" s="28"/>
       <c r="AN18" s="39"/>
       <c r="AO18" s="28"/>
-      <c r="AP18" s="58"/>
+      <c r="AP18" s="57"/>
       <c r="AQ18" s="28"/>
       <c r="AR18" s="28"/>
       <c r="AS18" s="28"/>
@@ -5728,7 +5752,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
-      <c r="BE18" s="58"/>
+      <c r="BE18" s="57"/>
       <c r="BF18" s="39"/>
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
@@ -5743,7 +5767,7 @@
       <c r="BQ18" s="38"/>
       <c r="BR18" s="1"/>
       <c r="BS18" s="1"/>
-      <c r="BT18" s="47"/>
+      <c r="BT18" s="46"/>
     </row>
     <row r="19" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
@@ -5767,7 +5791,7 @@
       <c r="Q19" s="39"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="58"/>
+      <c r="T19" s="57"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -5789,7 +5813,7 @@
       <c r="AM19" s="28"/>
       <c r="AN19" s="39"/>
       <c r="AO19" s="28"/>
-      <c r="AP19" s="58"/>
+      <c r="AP19" s="57"/>
       <c r="AQ19" s="28"/>
       <c r="AR19" s="28"/>
       <c r="AS19" s="28"/>
@@ -5804,7 +5828,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
-      <c r="BE19" s="58"/>
+      <c r="BE19" s="57"/>
       <c r="BF19" s="39"/>
       <c r="BG19" s="1"/>
       <c r="BH19" s="1"/>
@@ -5819,7 +5843,7 @@
       <c r="BQ19" s="1"/>
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
-      <c r="BT19" s="47"/>
+      <c r="BT19" s="46"/>
     </row>
     <row r="20" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
@@ -5843,7 +5867,7 @@
       <c r="Q20" s="39"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="58"/>
+      <c r="T20" s="57"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -5865,9 +5889,9 @@
       <c r="AM20" s="28"/>
       <c r="AN20" s="39"/>
       <c r="AO20" s="28"/>
-      <c r="AP20" s="58"/>
+      <c r="AP20" s="57"/>
       <c r="AQ20" s="28"/>
-      <c r="AR20" s="51"/>
+      <c r="AR20" s="50"/>
       <c r="AS20" s="28"/>
       <c r="AT20" s="28"/>
       <c r="AU20" s="1"/>
@@ -5880,7 +5904,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
-      <c r="BE20" s="58"/>
+      <c r="BE20" s="57"/>
       <c r="BF20" s="39"/>
       <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
@@ -5895,7 +5919,7 @@
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
       <c r="BS20" s="1"/>
-      <c r="BT20" s="47"/>
+      <c r="BT20" s="46"/>
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
@@ -5919,14 +5943,14 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
-      <c r="T21" s="58"/>
+      <c r="T21" s="57"/>
       <c r="U21" s="39"/>
       <c r="V21" s="39"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="48"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="47"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="39"/>
       <c r="AD21" s="39"/>
@@ -5941,9 +5965,9 @@
       <c r="AM21" s="28"/>
       <c r="AN21" s="39"/>
       <c r="AO21" s="1"/>
-      <c r="AP21" s="58"/>
+      <c r="AP21" s="57"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="51"/>
+      <c r="AR21" s="50"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
@@ -5956,7 +5980,7 @@
       <c r="BB21" s="39"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
-      <c r="BE21" s="58"/>
+      <c r="BE21" s="57"/>
       <c r="BF21" s="39"/>
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
@@ -5971,7 +5995,7 @@
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
       <c r="BS21" s="1"/>
-      <c r="BT21" s="47"/>
+      <c r="BT21" s="46"/>
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
@@ -5995,18 +6019,18 @@
       <c r="Q22" s="39"/>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="58"/>
+      <c r="T22" s="57"/>
       <c r="U22" s="39"/>
       <c r="V22" s="39"/>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="48"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="47"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="39"/>
       <c r="AD22" s="39"/>
-      <c r="AE22" s="50"/>
+      <c r="AE22" s="49"/>
       <c r="AF22" s="39"/>
       <c r="AG22" s="39"/>
       <c r="AH22" s="39"/>
@@ -6017,9 +6041,9 @@
       <c r="AM22" s="28"/>
       <c r="AN22" s="39"/>
       <c r="AO22" s="1"/>
-      <c r="AP22" s="58"/>
+      <c r="AP22" s="57"/>
       <c r="AQ22" s="1"/>
-      <c r="AR22" s="51"/>
+      <c r="AR22" s="50"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
@@ -6032,7 +6056,7 @@
       <c r="BB22" s="39"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
-      <c r="BE22" s="58"/>
+      <c r="BE22" s="57"/>
       <c r="BF22" s="39"/>
       <c r="BG22" s="1"/>
       <c r="BH22" s="1"/>
@@ -6047,7 +6071,7 @@
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
       <c r="BS22" s="1"/>
-      <c r="BT22" s="47"/>
+      <c r="BT22" s="46"/>
     </row>
     <row r="23" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -6071,18 +6095,18 @@
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
-      <c r="T23" s="58"/>
+      <c r="T23" s="57"/>
       <c r="U23" s="39"/>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="48"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="47"/>
       <c r="AB23" s="39"/>
       <c r="AC23" s="39"/>
       <c r="AD23" s="39"/>
-      <c r="AE23" s="50"/>
+      <c r="AE23" s="49"/>
       <c r="AF23" s="39"/>
       <c r="AG23" s="39"/>
       <c r="AH23" s="39"/>
@@ -6093,7 +6117,7 @@
       <c r="AM23" s="28"/>
       <c r="AN23" s="39"/>
       <c r="AO23" s="1"/>
-      <c r="AP23" s="58"/>
+      <c r="AP23" s="57"/>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="39"/>
@@ -6108,7 +6132,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
-      <c r="BE23" s="58"/>
+      <c r="BE23" s="57"/>
       <c r="BF23" s="39"/>
       <c r="BG23" s="39"/>
       <c r="BH23" s="1"/>
@@ -6123,7 +6147,7 @@
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
       <c r="BS23" s="1"/>
-      <c r="BT23" s="47"/>
+      <c r="BT23" s="46"/>
     </row>
     <row r="24" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
@@ -6131,47 +6155,47 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="52"/>
       <c r="R24" s="45"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="62"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="61"/>
       <c r="AA24" s="45"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="54"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="52"/>
       <c r="AG24" s="45"/>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="54"/>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="52"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="51"/>
       <c r="AM24" s="3"/>
-      <c r="AN24" s="54"/>
-      <c r="AO24" s="54"/>
-      <c r="AP24" s="54"/>
-      <c r="AQ24" s="54"/>
-      <c r="AR24" s="54"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="53"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="53"/>
       <c r="AS24" s="19"/>
       <c r="AT24" s="19"/>
       <c r="AU24" s="19"/>
@@ -6198,8 +6222,8 @@
       <c r="BP24" s="39"/>
       <c r="BQ24" s="39"/>
       <c r="BR24" s="39"/>
-      <c r="BS24" s="52"/>
-      <c r="BT24" s="47"/>
+      <c r="BS24" s="51"/>
+      <c r="BT24" s="46"/>
     </row>
     <row r="25" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -6275,7 +6299,7 @@
       <c r="BQ25" s="1"/>
       <c r="BR25" s="1"/>
       <c r="BS25" s="1"/>
-      <c r="BT25" s="47"/>
+      <c r="BT25" s="46"/>
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
@@ -6351,7 +6375,7 @@
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
       <c r="BS26" s="1"/>
-      <c r="BT26" s="47"/>
+      <c r="BT26" s="46"/>
     </row>
     <row r="27" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -6427,7 +6451,7 @@
       <c r="BQ27" s="1"/>
       <c r="BR27" s="1"/>
       <c r="BS27" s="1"/>
-      <c r="BT27" s="47"/>
+      <c r="BT27" s="46"/>
     </row>
     <row r="28" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
@@ -6457,8 +6481,8 @@
       <c r="W28" s="42"/>
       <c r="X28" s="42"/>
       <c r="Y28" s="42"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="56"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="55"/>
       <c r="AB28" s="42"/>
       <c r="AC28" s="42"/>
       <c r="AD28" s="42"/>
@@ -6503,311 +6527,311 @@
       <c r="BQ28" s="42"/>
       <c r="BR28" s="42"/>
       <c r="BS28" s="42"/>
-      <c r="BT28" s="61"/>
+      <c r="BT28" s="60"/>
     </row>
     <row r="29" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="106"/>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="106"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="106"/>
-      <c r="AL29" s="106"/>
-      <c r="AM29" s="106"/>
-      <c r="AN29" s="106"/>
-      <c r="AO29" s="106"/>
-      <c r="AP29" s="106"/>
-      <c r="AQ29" s="106"/>
-      <c r="AR29" s="106"/>
-      <c r="AS29" s="106"/>
-      <c r="AT29" s="106"/>
-      <c r="AU29" s="106"/>
-      <c r="AV29" s="106"/>
-      <c r="AW29" s="106"/>
-      <c r="AX29" s="106"/>
-      <c r="AY29" s="106"/>
-      <c r="AZ29" s="106"/>
-      <c r="BA29" s="106"/>
-      <c r="BB29" s="106"/>
-      <c r="BC29" s="106"/>
-      <c r="BD29" s="106"/>
-      <c r="BE29" s="106"/>
-      <c r="BF29" s="106"/>
-      <c r="BG29" s="106"/>
-      <c r="BH29" s="106"/>
-      <c r="BI29" s="106"/>
-      <c r="BJ29" s="106"/>
-      <c r="BK29" s="106"/>
-      <c r="BL29" s="106"/>
-      <c r="BM29" s="106"/>
-      <c r="BN29" s="106"/>
-      <c r="BO29" s="106"/>
-      <c r="BP29" s="106"/>
-      <c r="BQ29" s="106"/>
-      <c r="BR29" s="106"/>
-      <c r="BS29" s="106"/>
-      <c r="BT29" s="109"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="114"/>
+      <c r="AJ29" s="114"/>
+      <c r="AK29" s="114"/>
+      <c r="AL29" s="114"/>
+      <c r="AM29" s="114"/>
+      <c r="AN29" s="114"/>
+      <c r="AO29" s="114"/>
+      <c r="AP29" s="114"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="114"/>
+      <c r="AU29" s="114"/>
+      <c r="AV29" s="114"/>
+      <c r="AW29" s="114"/>
+      <c r="AX29" s="114"/>
+      <c r="AY29" s="114"/>
+      <c r="AZ29" s="114"/>
+      <c r="BA29" s="114"/>
+      <c r="BB29" s="114"/>
+      <c r="BC29" s="114"/>
+      <c r="BD29" s="114"/>
+      <c r="BE29" s="114"/>
+      <c r="BF29" s="114"/>
+      <c r="BG29" s="114"/>
+      <c r="BH29" s="114"/>
+      <c r="BI29" s="114"/>
+      <c r="BJ29" s="114"/>
+      <c r="BK29" s="114"/>
+      <c r="BL29" s="114"/>
+      <c r="BM29" s="114"/>
+      <c r="BN29" s="114"/>
+      <c r="BO29" s="114"/>
+      <c r="BP29" s="114"/>
+      <c r="BQ29" s="114"/>
+      <c r="BR29" s="114"/>
+      <c r="BS29" s="114"/>
+      <c r="BT29" s="117"/>
     </row>
     <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="106"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="106"/>
-      <c r="AF30" s="106"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="106"/>
-      <c r="AJ30" s="106"/>
-      <c r="AK30" s="106"/>
-      <c r="AL30" s="106"/>
-      <c r="AM30" s="106"/>
-      <c r="AN30" s="106"/>
-      <c r="AO30" s="106"/>
-      <c r="AP30" s="106"/>
-      <c r="AQ30" s="106"/>
-      <c r="AR30" s="106"/>
-      <c r="AS30" s="106"/>
-      <c r="AT30" s="106"/>
-      <c r="AU30" s="106"/>
-      <c r="AV30" s="106"/>
-      <c r="AW30" s="106"/>
-      <c r="AX30" s="106"/>
-      <c r="AY30" s="106"/>
-      <c r="AZ30" s="106"/>
-      <c r="BA30" s="106"/>
-      <c r="BB30" s="106"/>
-      <c r="BC30" s="106"/>
-      <c r="BD30" s="106"/>
-      <c r="BE30" s="106"/>
-      <c r="BF30" s="106"/>
-      <c r="BG30" s="106"/>
-      <c r="BH30" s="106"/>
-      <c r="BI30" s="106"/>
-      <c r="BJ30" s="106"/>
-      <c r="BK30" s="106"/>
-      <c r="BL30" s="106"/>
-      <c r="BM30" s="106"/>
-      <c r="BN30" s="106"/>
-      <c r="BO30" s="106"/>
-      <c r="BP30" s="106"/>
-      <c r="BQ30" s="106"/>
-      <c r="BR30" s="106"/>
-      <c r="BS30" s="106"/>
-      <c r="BT30" s="109"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="114"/>
+      <c r="AA30" s="114"/>
+      <c r="AB30" s="114"/>
+      <c r="AC30" s="114"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="114"/>
+      <c r="AL30" s="114"/>
+      <c r="AM30" s="114"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="114"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
+      <c r="AX30" s="114"/>
+      <c r="AY30" s="114"/>
+      <c r="AZ30" s="114"/>
+      <c r="BA30" s="114"/>
+      <c r="BB30" s="114"/>
+      <c r="BC30" s="114"/>
+      <c r="BD30" s="114"/>
+      <c r="BE30" s="114"/>
+      <c r="BF30" s="114"/>
+      <c r="BG30" s="114"/>
+      <c r="BH30" s="114"/>
+      <c r="BI30" s="114"/>
+      <c r="BJ30" s="114"/>
+      <c r="BK30" s="114"/>
+      <c r="BL30" s="114"/>
+      <c r="BM30" s="114"/>
+      <c r="BN30" s="114"/>
+      <c r="BO30" s="114"/>
+      <c r="BP30" s="114"/>
+      <c r="BQ30" s="114"/>
+      <c r="BR30" s="114"/>
+      <c r="BS30" s="114"/>
+      <c r="BT30" s="117"/>
     </row>
     <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="106"/>
-      <c r="AD31" s="106"/>
-      <c r="AE31" s="106"/>
-      <c r="AF31" s="106"/>
-      <c r="AG31" s="106"/>
-      <c r="AH31" s="106"/>
-      <c r="AI31" s="106"/>
-      <c r="AJ31" s="106"/>
-      <c r="AK31" s="106"/>
-      <c r="AL31" s="106"/>
-      <c r="AM31" s="106"/>
-      <c r="AN31" s="106"/>
-      <c r="AO31" s="106"/>
-      <c r="AP31" s="106"/>
-      <c r="AQ31" s="106"/>
-      <c r="AR31" s="106"/>
-      <c r="AS31" s="106"/>
-      <c r="AT31" s="106"/>
-      <c r="AU31" s="106"/>
-      <c r="AV31" s="106"/>
-      <c r="AW31" s="106"/>
-      <c r="AX31" s="106"/>
-      <c r="AY31" s="106"/>
-      <c r="AZ31" s="106"/>
-      <c r="BA31" s="106"/>
-      <c r="BB31" s="106"/>
-      <c r="BC31" s="106"/>
-      <c r="BD31" s="106"/>
-      <c r="BE31" s="106"/>
-      <c r="BF31" s="106"/>
-      <c r="BG31" s="106"/>
-      <c r="BH31" s="106"/>
-      <c r="BI31" s="106"/>
-      <c r="BJ31" s="106"/>
-      <c r="BK31" s="106"/>
-      <c r="BL31" s="106"/>
-      <c r="BM31" s="106"/>
-      <c r="BN31" s="106"/>
-      <c r="BO31" s="106"/>
-      <c r="BP31" s="106"/>
-      <c r="BQ31" s="106"/>
-      <c r="BR31" s="106"/>
-      <c r="BS31" s="106"/>
-      <c r="BT31" s="109"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="114"/>
+      <c r="AJ31" s="114"/>
+      <c r="AK31" s="114"/>
+      <c r="AL31" s="114"/>
+      <c r="AM31" s="114"/>
+      <c r="AN31" s="114"/>
+      <c r="AO31" s="114"/>
+      <c r="AP31" s="114"/>
+      <c r="AQ31" s="114"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="114"/>
+      <c r="AU31" s="114"/>
+      <c r="AV31" s="114"/>
+      <c r="AW31" s="114"/>
+      <c r="AX31" s="114"/>
+      <c r="AY31" s="114"/>
+      <c r="AZ31" s="114"/>
+      <c r="BA31" s="114"/>
+      <c r="BB31" s="114"/>
+      <c r="BC31" s="114"/>
+      <c r="BD31" s="114"/>
+      <c r="BE31" s="114"/>
+      <c r="BF31" s="114"/>
+      <c r="BG31" s="114"/>
+      <c r="BH31" s="114"/>
+      <c r="BI31" s="114"/>
+      <c r="BJ31" s="114"/>
+      <c r="BK31" s="114"/>
+      <c r="BL31" s="114"/>
+      <c r="BM31" s="114"/>
+      <c r="BN31" s="114"/>
+      <c r="BO31" s="114"/>
+      <c r="BP31" s="114"/>
+      <c r="BQ31" s="114"/>
+      <c r="BR31" s="114"/>
+      <c r="BS31" s="114"/>
+      <c r="BT31" s="117"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="108"/>
-      <c r="AJ32" s="108"/>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="108"/>
-      <c r="AM32" s="108"/>
-      <c r="AN32" s="108"/>
-      <c r="AO32" s="108"/>
-      <c r="AP32" s="108"/>
-      <c r="AQ32" s="108"/>
-      <c r="AR32" s="108"/>
-      <c r="AS32" s="108"/>
-      <c r="AT32" s="108"/>
-      <c r="AU32" s="108"/>
-      <c r="AV32" s="108"/>
-      <c r="AW32" s="108"/>
-      <c r="AX32" s="108"/>
-      <c r="AY32" s="108"/>
-      <c r="AZ32" s="108"/>
-      <c r="BA32" s="108"/>
-      <c r="BB32" s="108"/>
-      <c r="BC32" s="108"/>
-      <c r="BD32" s="108"/>
-      <c r="BE32" s="108"/>
-      <c r="BF32" s="108"/>
-      <c r="BG32" s="108"/>
-      <c r="BH32" s="108"/>
-      <c r="BI32" s="108"/>
-      <c r="BJ32" s="108"/>
-      <c r="BK32" s="108"/>
-      <c r="BL32" s="108"/>
-      <c r="BM32" s="108"/>
-      <c r="BN32" s="108"/>
-      <c r="BO32" s="108"/>
-      <c r="BP32" s="108"/>
-      <c r="BQ32" s="108"/>
-      <c r="BR32" s="108"/>
-      <c r="BS32" s="108"/>
-      <c r="BT32" s="110"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="116"/>
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="116"/>
+      <c r="AJ32" s="116"/>
+      <c r="AK32" s="116"/>
+      <c r="AL32" s="116"/>
+      <c r="AM32" s="116"/>
+      <c r="AN32" s="116"/>
+      <c r="AO32" s="116"/>
+      <c r="AP32" s="116"/>
+      <c r="AQ32" s="116"/>
+      <c r="AR32" s="116"/>
+      <c r="AS32" s="116"/>
+      <c r="AT32" s="116"/>
+      <c r="AU32" s="116"/>
+      <c r="AV32" s="116"/>
+      <c r="AW32" s="116"/>
+      <c r="AX32" s="116"/>
+      <c r="AY32" s="116"/>
+      <c r="AZ32" s="116"/>
+      <c r="BA32" s="116"/>
+      <c r="BB32" s="116"/>
+      <c r="BC32" s="116"/>
+      <c r="BD32" s="116"/>
+      <c r="BE32" s="116"/>
+      <c r="BF32" s="116"/>
+      <c r="BG32" s="116"/>
+      <c r="BH32" s="116"/>
+      <c r="BI32" s="116"/>
+      <c r="BJ32" s="116"/>
+      <c r="BK32" s="116"/>
+      <c r="BL32" s="116"/>
+      <c r="BM32" s="116"/>
+      <c r="BN32" s="116"/>
+      <c r="BO32" s="116"/>
+      <c r="BP32" s="116"/>
+      <c r="BQ32" s="116"/>
+      <c r="BR32" s="116"/>
+      <c r="BS32" s="116"/>
+      <c r="BT32" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6822,18 +6846,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A37" sqref="A37"/>
+      <selection pane="topRight" activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="41" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="130"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>0</v>
       </c>
@@ -6955,8 +6979,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="130">
         <v>0</v>
       </c>
       <c r="B2" s="17"/>
@@ -6983,7 +7007,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="66"/>
+      <c r="Z2" s="65"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -6991,17 +7015,17 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="69"/>
-    </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="68"/>
+    </row>
+    <row r="3" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="130">
         <v>1</v>
       </c>
       <c r="B3" s="15"/>
@@ -7043,10 +7067,10 @@
       <c r="AL3" s="39"/>
       <c r="AM3" s="39"/>
       <c r="AN3" s="19"/>
-      <c r="AO3" s="47"/>
-    </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="AO3" s="46"/>
+    </row>
+    <row r="4" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="130">
         <v>2</v>
       </c>
       <c r="B4" s="15"/>
@@ -7088,10 +7112,10 @@
       <c r="AL4" s="39"/>
       <c r="AM4" s="39"/>
       <c r="AN4" s="19"/>
-      <c r="AO4" s="47"/>
-    </row>
-    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="AO4" s="46"/>
+    </row>
+    <row r="5" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="130">
         <v>3</v>
       </c>
       <c r="B5" s="15"/>
@@ -7133,10 +7157,10 @@
       <c r="AL5" s="39"/>
       <c r="AM5" s="39"/>
       <c r="AN5" s="19"/>
-      <c r="AO5" s="47"/>
-    </row>
-    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="AO5" s="46"/>
+    </row>
+    <row r="6" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="130">
         <v>4</v>
       </c>
       <c r="B6" s="15"/>
@@ -7178,16 +7202,16 @@
       <c r="AL6" s="39"/>
       <c r="AM6" s="39"/>
       <c r="AN6" s="19"/>
-      <c r="AO6" s="47"/>
-    </row>
-    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="AO6" s="46"/>
+    </row>
+    <row r="7" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="130">
         <v>5</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="63"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="1"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
@@ -7223,24 +7247,24 @@
       <c r="AL7" s="39"/>
       <c r="AM7" s="39"/>
       <c r="AN7" s="19"/>
-      <c r="AO7" s="47"/>
-    </row>
-    <row r="8" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="AO7" s="46"/>
+    </row>
+    <row r="8" spans="1:41" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="130">
         <v>6</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="1"/>
       <c r="D8" s="24"/>
-      <c r="E8" s="83"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="24"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -7249,18 +7273,18 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
       <c r="Z8" s="39"/>
       <c r="AA8" s="39"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="96"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
       <c r="AJ8" s="39"/>
@@ -7268,25 +7292,25 @@
       <c r="AL8" s="39"/>
       <c r="AM8" s="39"/>
       <c r="AN8" s="19"/>
-      <c r="AO8" s="47"/>
-    </row>
-    <row r="9" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="AO8" s="46"/>
+    </row>
+    <row r="9" spans="1:41" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="130">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="48"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="47"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -7294,58 +7318,58 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
       <c r="Z9" s="39"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="48"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="47"/>
       <c r="AI9" s="39"/>
       <c r="AJ9" s="39"/>
       <c r="AK9" s="39"/>
       <c r="AL9" s="39"/>
       <c r="AM9" s="39"/>
       <c r="AN9" s="19"/>
-      <c r="AO9" s="47"/>
-    </row>
-    <row r="10" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="AO9" s="46"/>
+    </row>
+    <row r="10" spans="1:41" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="130">
         <v>8</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="71"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="19"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="71"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="19"/>
       <c r="M10" s="27"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="125"/>
-      <c r="AB10" s="71"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="70"/>
       <c r="AC10" s="19"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
@@ -7360,37 +7384,37 @@
       <c r="AN10" s="19"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:41" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="130">
         <v>9</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="71"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="19"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="71"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="71"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="19"/>
       <c r="M11" s="27"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="71"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="70"/>
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
@@ -7405,42 +7429,42 @@
       <c r="AN11" s="19"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:41" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="130">
         <v>10</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="77"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="76"/>
       <c r="AH12" s="22"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -7450,42 +7474,42 @@
       <c r="AN12" s="19"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="130">
         <v>11</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -7495,8 +7519,8 @@
       <c r="AN13" s="19"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="130">
         <v>12</v>
       </c>
       <c r="B14" s="15"/>
@@ -7540,8 +7564,8 @@
       <c r="AN14" s="19"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="130">
         <v>13</v>
       </c>
       <c r="B15" s="15"/>
@@ -7585,8 +7609,8 @@
       <c r="AN15" s="19"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="130">
         <v>14</v>
       </c>
       <c r="B16" s="15"/>
@@ -7630,8 +7654,8 @@
       <c r="AN16" s="19"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="130">
         <v>15</v>
       </c>
       <c r="B17" s="15"/>
@@ -7675,8 +7699,8 @@
       <c r="AN17" s="19"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:62" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="130">
         <v>16</v>
       </c>
       <c r="B18" s="15"/>
@@ -7720,8 +7744,8 @@
       <c r="AN18" s="19"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:62" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="130">
         <v>17</v>
       </c>
       <c r="B19" s="15"/>
@@ -7746,13 +7770,13 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="128"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="108"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -7765,8 +7789,8 @@
       <c r="AN19" s="19"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="130">
         <v>18</v>
       </c>
       <c r="B20" s="15"/>
@@ -7791,13 +7815,13 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="71"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="70"/>
       <c r="Z20" s="27"/>
-      <c r="AA20" s="126"/>
-      <c r="AB20" s="127"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="107"/>
       <c r="AC20" s="27"/>
-      <c r="AD20" s="128"/>
+      <c r="AD20" s="108"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -7810,8 +7834,8 @@
       <c r="AN20" s="19"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:62" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="130">
         <v>19</v>
       </c>
       <c r="B21" s="15"/>
@@ -7836,13 +7860,13 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="71"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="70"/>
       <c r="Z21" s="27"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="71"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="70"/>
       <c r="AC21" s="27"/>
-      <c r="AD21" s="128"/>
+      <c r="AD21" s="108"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -7855,8 +7879,8 @@
       <c r="AN21" s="19"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:62" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="130">
         <v>20</v>
       </c>
       <c r="B22" s="15"/>
@@ -7873,21 +7897,21 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="53"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="52"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="71"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="70"/>
       <c r="Z22" s="27"/>
-      <c r="AA22" s="100"/>
-      <c r="AB22" s="71"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="70"/>
       <c r="AC22" s="27"/>
-      <c r="AD22" s="128"/>
+      <c r="AD22" s="108"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -7900,8 +7924,8 @@
       <c r="AN22" s="19"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="131">
         <v>21</v>
       </c>
       <c r="B23" s="15"/>
@@ -7917,22 +7941,22 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="127"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="107"/>
       <c r="R23" s="19"/>
       <c r="S23" s="27"/>
-      <c r="T23" s="99"/>
+      <c r="T23" s="98"/>
       <c r="U23" s="22"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="71"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="70"/>
       <c r="Z23" s="27"/>
-      <c r="AA23" s="100"/>
-      <c r="AB23" s="71"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="70"/>
       <c r="AC23" s="27"/>
-      <c r="AD23" s="128"/>
+      <c r="AD23" s="108"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -7945,8 +7969,8 @@
       <c r="AN23" s="19"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+    <row r="24" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="130">
         <v>22</v>
       </c>
       <c r="B24" s="15"/>
@@ -7956,28 +7980,28 @@
       <c r="F24" s="1"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="71"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="70"/>
       <c r="R24" s="19"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="100"/>
+      <c r="T24" s="99"/>
       <c r="U24" s="22"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="71"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="70"/>
       <c r="Z24" s="27"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="71"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="70"/>
       <c r="AC24" s="27"/>
-      <c r="AD24" s="128"/>
+      <c r="AD24" s="108"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -7990,39 +8014,39 @@
       <c r="AN24" s="19"/>
       <c r="AO24" s="14"/>
     </row>
-    <row r="25" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="131">
         <v>23</v>
       </c>
-      <c r="B25" s="71"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="19"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="71"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="70"/>
       <c r="R25" s="19"/>
       <c r="S25" s="27"/>
-      <c r="T25" s="100"/>
+      <c r="T25" s="99"/>
       <c r="U25" s="22"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="71"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="70"/>
       <c r="Z25" s="27"/>
-      <c r="AA25" s="100"/>
-      <c r="AB25" s="71"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="70"/>
       <c r="AC25" s="27"/>
-      <c r="AD25" s="128"/>
+      <c r="AD25" s="108"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
@@ -8056,11 +8080,11 @@
       <c r="BI25" s="20"/>
       <c r="BJ25" s="20"/>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+    <row r="26" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="130">
         <v>24</v>
       </c>
-      <c r="B26" s="71"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="19"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8073,22 +8097,22 @@
       <c r="L26" s="19"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="71"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="70"/>
       <c r="R26" s="19"/>
       <c r="S26" s="27"/>
-      <c r="T26" s="100"/>
+      <c r="T26" s="99"/>
       <c r="U26" s="22"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="71"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="70"/>
       <c r="Z26" s="27"/>
-      <c r="AA26" s="100"/>
-      <c r="AB26" s="71"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="70"/>
       <c r="AC26" s="27"/>
-      <c r="AD26" s="128"/>
+      <c r="AD26" s="108"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -8122,8 +8146,8 @@
       <c r="BI26" s="20"/>
       <c r="BJ26" s="20"/>
     </row>
-    <row r="27" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="131">
         <v>25</v>
       </c>
       <c r="B27" s="15"/>
@@ -8139,22 +8163,22 @@
       <c r="L27" s="19"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="71"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="70"/>
       <c r="R27" s="19"/>
       <c r="S27" s="27"/>
-      <c r="T27" s="100"/>
+      <c r="T27" s="99"/>
       <c r="U27" s="22"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="71"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="70"/>
       <c r="Z27" s="27"/>
-      <c r="AA27" s="100"/>
-      <c r="AB27" s="71"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="70"/>
       <c r="AC27" s="27"/>
-      <c r="AD27" s="128"/>
+      <c r="AD27" s="108"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -8188,49 +8212,49 @@
       <c r="BI27" s="20"/>
       <c r="BJ27" s="20"/>
     </row>
-    <row r="28" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+    <row r="28" spans="1:62" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="130">
         <v>26</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="101"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="100"/>
       <c r="U28" s="37"/>
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="129"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="109"/>
       <c r="AE28" s="25"/>
       <c r="AF28" s="25"/>
       <c r="AG28" s="25"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="72"/>
+      <c r="AN28" s="72"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="20"/>
       <c r="AQ28" s="20"/>
@@ -8254,52 +8278,52 @@
       <c r="BI28" s="20"/>
       <c r="BJ28" s="20"/>
     </row>
-    <row r="29" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="131">
         <v>27</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="112"/>
-      <c r="AB29" s="112"/>
-      <c r="AC29" s="112"/>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="112"/>
-      <c r="AI29" s="112"/>
-      <c r="AJ29" s="112"/>
-      <c r="AK29" s="112"/>
-      <c r="AL29" s="112"/>
-      <c r="AM29" s="112"/>
-      <c r="AN29" s="112"/>
-      <c r="AO29" s="112"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="120"/>
+      <c r="AC29" s="120"/>
+      <c r="AD29" s="120"/>
+      <c r="AE29" s="120"/>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="120"/>
+      <c r="AH29" s="120"/>
+      <c r="AI29" s="120"/>
+      <c r="AJ29" s="120"/>
+      <c r="AK29" s="120"/>
+      <c r="AL29" s="120"/>
+      <c r="AM29" s="120"/>
+      <c r="AN29" s="120"/>
+      <c r="AO29" s="120"/>
       <c r="AP29" s="20"/>
       <c r="AQ29" s="20"/>
       <c r="AR29" s="20"/>
@@ -8322,50 +8346,50 @@
       <c r="BI29" s="20"/>
       <c r="BJ29" s="20"/>
     </row>
-    <row r="30" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+    <row r="30" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="130">
         <v>28</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="114"/>
-      <c r="AD30" s="114"/>
-      <c r="AE30" s="114"/>
-      <c r="AF30" s="114"/>
-      <c r="AG30" s="114"/>
-      <c r="AH30" s="114"/>
-      <c r="AI30" s="114"/>
-      <c r="AJ30" s="114"/>
-      <c r="AK30" s="114"/>
-      <c r="AL30" s="114"/>
-      <c r="AM30" s="114"/>
-      <c r="AN30" s="114"/>
-      <c r="AO30" s="114"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="122"/>
+      <c r="AB30" s="122"/>
+      <c r="AC30" s="122"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="122"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="122"/>
+      <c r="AH30" s="122"/>
+      <c r="AI30" s="122"/>
+      <c r="AJ30" s="122"/>
+      <c r="AK30" s="122"/>
+      <c r="AL30" s="122"/>
+      <c r="AM30" s="122"/>
+      <c r="AN30" s="122"/>
+      <c r="AO30" s="122"/>
       <c r="AP30" s="20"/>
       <c r="AQ30" s="20"/>
       <c r="AR30" s="20"/>
@@ -8388,50 +8412,50 @@
       <c r="BI30" s="20"/>
       <c r="BJ30" s="20"/>
     </row>
-    <row r="31" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="131">
         <v>29</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="114"/>
-      <c r="AD31" s="114"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="114"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="114"/>
-      <c r="AJ31" s="114"/>
-      <c r="AK31" s="114"/>
-      <c r="AL31" s="114"/>
-      <c r="AM31" s="114"/>
-      <c r="AN31" s="114"/>
-      <c r="AO31" s="114"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="122"/>
+      <c r="AF31" s="122"/>
+      <c r="AG31" s="122"/>
+      <c r="AH31" s="122"/>
+      <c r="AI31" s="122"/>
+      <c r="AJ31" s="122"/>
+      <c r="AK31" s="122"/>
+      <c r="AL31" s="122"/>
+      <c r="AM31" s="122"/>
+      <c r="AN31" s="122"/>
+      <c r="AO31" s="122"/>
       <c r="AP31" s="20"/>
       <c r="AQ31" s="20"/>
       <c r="AR31" s="20"/>
@@ -8454,50 +8478,50 @@
       <c r="BI31" s="20"/>
       <c r="BJ31" s="20"/>
     </row>
-    <row r="32" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
+    <row r="32" spans="1:62" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="130">
         <v>30</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="116"/>
-      <c r="AJ32" s="116"/>
-      <c r="AK32" s="116"/>
-      <c r="AL32" s="116"/>
-      <c r="AM32" s="116"/>
-      <c r="AN32" s="116"/>
-      <c r="AO32" s="116"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="124"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="124"/>
+      <c r="W32" s="124"/>
+      <c r="X32" s="124"/>
+      <c r="Y32" s="124"/>
+      <c r="Z32" s="124"/>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="124"/>
+      <c r="AE32" s="124"/>
+      <c r="AF32" s="124"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="124"/>
+      <c r="AJ32" s="124"/>
+      <c r="AK32" s="124"/>
+      <c r="AL32" s="124"/>
+      <c r="AM32" s="124"/>
+      <c r="AN32" s="124"/>
+      <c r="AO32" s="124"/>
       <c r="AP32" s="20"/>
       <c r="AQ32" s="20"/>
       <c r="AR32" s="20"/>
@@ -8520,8 +8544,7 @@
       <c r="BI32" s="20"/>
       <c r="BJ32" s="20"/>
     </row>
-    <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+    <row r="33" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -8584,8 +8607,7 @@
       <c r="BI33" s="20"/>
       <c r="BJ33" s="20"/>
     </row>
-    <row r="34" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+    <row r="34" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -8648,8 +8670,7 @@
       <c r="BI34" s="20"/>
       <c r="BJ34" s="20"/>
     </row>
-    <row r="35" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+    <row r="35" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -8712,8 +8733,7 @@
       <c r="BI35" s="20"/>
       <c r="BJ35" s="20"/>
     </row>
-    <row r="36" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+    <row r="36" spans="1:72" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -8776,303 +8796,303 @@
       <c r="BI36" s="20"/>
       <c r="BJ36" s="20"/>
     </row>
-    <row r="37" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46">
+    <row r="37" spans="1:72" s="132" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="130"/>
+      <c r="B37" s="132">
         <v>0</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="132">
         <v>1</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="132">
         <v>2</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="132">
         <v>3</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="132">
         <v>4</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="132">
         <v>5</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="132">
         <v>6</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="132">
         <v>7</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="132">
         <v>8</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="132">
         <v>9</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="132">
         <v>10</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="132">
         <v>11</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="132">
         <v>12</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="132">
         <v>13</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="132">
         <v>14</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="132">
         <v>15</v>
       </c>
-      <c r="R37" s="46">
+      <c r="R37" s="132">
         <v>16</v>
       </c>
-      <c r="S37" s="46">
+      <c r="S37" s="132">
         <v>17</v>
       </c>
-      <c r="T37" s="46">
+      <c r="T37" s="132">
         <v>18</v>
       </c>
-      <c r="U37" s="46">
+      <c r="U37" s="132">
         <v>19</v>
       </c>
-      <c r="V37" s="46">
+      <c r="V37" s="132">
         <v>20</v>
       </c>
-      <c r="W37" s="46">
+      <c r="W37" s="132">
         <v>21</v>
       </c>
-      <c r="X37" s="46">
+      <c r="X37" s="132">
         <v>22</v>
       </c>
-      <c r="Y37" s="46">
+      <c r="Y37" s="132">
         <v>23</v>
       </c>
-      <c r="Z37" s="46">
+      <c r="Z37" s="132">
         <v>24</v>
       </c>
-      <c r="AA37" s="46">
+      <c r="AA37" s="132">
         <v>25</v>
       </c>
-      <c r="AB37" s="46">
+      <c r="AB37" s="132">
         <v>26</v>
       </c>
-      <c r="AC37" s="46">
+      <c r="AC37" s="132">
         <v>27</v>
       </c>
-      <c r="AD37" s="46">
+      <c r="AD37" s="132">
         <v>28</v>
       </c>
-      <c r="AE37" s="46">
+      <c r="AE37" s="132">
         <v>29</v>
       </c>
-      <c r="AF37" s="46">
+      <c r="AF37" s="132">
         <v>30</v>
       </c>
-      <c r="AG37" s="46">
+      <c r="AG37" s="132">
         <v>31</v>
       </c>
-      <c r="AH37" s="46">
+      <c r="AH37" s="132">
         <v>32</v>
       </c>
-      <c r="AI37" s="46">
+      <c r="AI37" s="132">
         <v>33</v>
       </c>
-      <c r="AJ37" s="46">
+      <c r="AJ37" s="132">
         <v>34</v>
       </c>
-      <c r="AK37" s="46">
+      <c r="AK37" s="132">
         <v>35</v>
       </c>
-      <c r="AL37" s="46">
+      <c r="AL37" s="132">
         <v>36</v>
       </c>
-      <c r="AM37" s="46">
+      <c r="AM37" s="132">
         <v>37</v>
       </c>
-      <c r="AN37" s="46">
+      <c r="AN37" s="132">
         <v>38</v>
       </c>
-      <c r="AO37" s="46">
+      <c r="AO37" s="132">
         <v>39</v>
       </c>
-      <c r="AP37" s="46">
+      <c r="AP37" s="132">
         <v>40</v>
       </c>
-      <c r="AQ37" s="46">
+      <c r="AQ37" s="132">
         <v>41</v>
       </c>
-      <c r="AR37" s="46">
+      <c r="AR37" s="132">
         <v>42</v>
       </c>
-      <c r="AS37" s="46">
+      <c r="AS37" s="132">
         <v>43</v>
       </c>
-      <c r="AT37" s="46">
+      <c r="AT37" s="132">
         <v>44</v>
       </c>
-      <c r="AU37" s="46">
+      <c r="AU37" s="132">
         <v>45</v>
       </c>
-      <c r="AV37" s="46">
+      <c r="AV37" s="132">
         <v>46</v>
       </c>
-      <c r="AW37" s="46">
+      <c r="AW37" s="132">
         <v>47</v>
       </c>
-      <c r="AX37" s="46">
+      <c r="AX37" s="132">
         <v>48</v>
       </c>
-      <c r="AY37" s="46">
+      <c r="AY37" s="132">
         <v>49</v>
       </c>
-      <c r="AZ37" s="46">
+      <c r="AZ37" s="132">
         <v>50</v>
       </c>
-      <c r="BA37" s="46">
+      <c r="BA37" s="132">
         <v>51</v>
       </c>
-      <c r="BB37" s="46">
+      <c r="BB37" s="132">
         <v>52</v>
       </c>
-      <c r="BC37" s="46">
+      <c r="BC37" s="132">
         <v>53</v>
       </c>
-      <c r="BD37" s="46">
+      <c r="BD37" s="132">
         <v>54</v>
       </c>
-      <c r="BE37" s="46">
+      <c r="BE37" s="132">
         <v>55</v>
       </c>
-      <c r="BF37" s="46">
+      <c r="BF37" s="132">
         <v>56</v>
       </c>
-      <c r="BG37" s="46">
+      <c r="BG37" s="132">
         <v>57</v>
       </c>
-      <c r="BH37" s="46">
+      <c r="BH37" s="132">
         <v>58</v>
       </c>
-      <c r="BI37" s="46">
+      <c r="BI37" s="132">
         <v>59</v>
       </c>
-      <c r="BJ37" s="46">
+      <c r="BJ37" s="132">
         <v>60</v>
       </c>
-      <c r="BK37" s="46">
+      <c r="BK37" s="132">
         <v>61</v>
       </c>
-      <c r="BL37" s="46">
+      <c r="BL37" s="132">
         <v>62</v>
       </c>
-      <c r="BM37" s="46">
+      <c r="BM37" s="132">
         <v>63</v>
       </c>
-      <c r="BN37" s="46">
+      <c r="BN37" s="132">
         <v>64</v>
       </c>
-      <c r="BO37" s="46">
+      <c r="BO37" s="132">
         <v>65</v>
       </c>
-      <c r="BP37" s="46">
+      <c r="BP37" s="132">
         <v>66</v>
       </c>
-      <c r="BQ37" s="46">
+      <c r="BQ37" s="132">
         <v>67</v>
       </c>
-      <c r="BR37" s="46">
+      <c r="BR37" s="132">
         <v>68</v>
       </c>
-      <c r="BS37" s="46">
+      <c r="BS37" s="132">
         <v>69</v>
       </c>
-      <c r="BT37" s="46">
+      <c r="BT37" s="132">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46">
+    <row r="38" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="130">
         <v>0</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="59"/>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="59"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="59"/>
-      <c r="AN38" s="59"/>
-      <c r="AO38" s="59"/>
-      <c r="AP38" s="59"/>
-      <c r="AQ38" s="59"/>
-      <c r="AR38" s="59"/>
-      <c r="AS38" s="59"/>
-      <c r="AT38" s="59"/>
-      <c r="AU38" s="59"/>
-      <c r="AV38" s="59"/>
-      <c r="AW38" s="59"/>
-      <c r="AX38" s="59"/>
-      <c r="AY38" s="59"/>
-      <c r="AZ38" s="59"/>
-      <c r="BA38" s="59"/>
-      <c r="BB38" s="59"/>
-      <c r="BC38" s="59"/>
-      <c r="BD38" s="59"/>
-      <c r="BE38" s="59"/>
-      <c r="BF38" s="59"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="59"/>
-      <c r="BM38" s="59"/>
-      <c r="BN38" s="59"/>
-      <c r="BO38" s="59"/>
-      <c r="BP38" s="59"/>
-      <c r="BQ38" s="59"/>
-      <c r="BR38" s="59"/>
-      <c r="BS38" s="59"/>
-      <c r="BT38" s="60"/>
-    </row>
-    <row r="39" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46">
+      <c r="B38" s="74"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="58"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
+      <c r="AH38" s="58"/>
+      <c r="AI38" s="58"/>
+      <c r="AJ38" s="58"/>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="58"/>
+      <c r="AM38" s="58"/>
+      <c r="AN38" s="58"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="58"/>
+      <c r="AQ38" s="58"/>
+      <c r="AR38" s="58"/>
+      <c r="AS38" s="58"/>
+      <c r="AT38" s="58"/>
+      <c r="AU38" s="58"/>
+      <c r="AV38" s="58"/>
+      <c r="AW38" s="58"/>
+      <c r="AX38" s="58"/>
+      <c r="AY38" s="58"/>
+      <c r="AZ38" s="58"/>
+      <c r="BA38" s="58"/>
+      <c r="BB38" s="58"/>
+      <c r="BC38" s="58"/>
+      <c r="BD38" s="58"/>
+      <c r="BE38" s="58"/>
+      <c r="BF38" s="58"/>
+      <c r="BG38" s="58"/>
+      <c r="BH38" s="58"/>
+      <c r="BI38" s="58"/>
+      <c r="BJ38" s="58"/>
+      <c r="BK38" s="58"/>
+      <c r="BL38" s="58"/>
+      <c r="BM38" s="58"/>
+      <c r="BN38" s="58"/>
+      <c r="BO38" s="58"/>
+      <c r="BP38" s="58"/>
+      <c r="BQ38" s="58"/>
+      <c r="BR38" s="58"/>
+      <c r="BS38" s="58"/>
+      <c r="BT38" s="59"/>
+    </row>
+    <row r="39" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="130">
         <v>1</v>
       </c>
-      <c r="B39" s="70"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="19"/>
@@ -9142,13 +9162,13 @@
       <c r="BQ39" s="39"/>
       <c r="BR39" s="39"/>
       <c r="BS39" s="39"/>
-      <c r="BT39" s="47"/>
-    </row>
-    <row r="40" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46">
+      <c r="BT39" s="46"/>
+    </row>
+    <row r="40" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="130">
         <v>2</v>
       </c>
-      <c r="B40" s="70"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
       <c r="E40" s="19"/>
@@ -9218,13 +9238,13 @@
       <c r="BQ40" s="39"/>
       <c r="BR40" s="39"/>
       <c r="BS40" s="39"/>
-      <c r="BT40" s="47"/>
-    </row>
-    <row r="41" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
+      <c r="BT40" s="46"/>
+    </row>
+    <row r="41" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="130">
         <v>3</v>
       </c>
-      <c r="B41" s="70"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="19"/>
@@ -9294,13 +9314,13 @@
       <c r="BQ41" s="39"/>
       <c r="BR41" s="39"/>
       <c r="BS41" s="39"/>
-      <c r="BT41" s="47"/>
-    </row>
-    <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46">
+      <c r="BT41" s="46"/>
+    </row>
+    <row r="42" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="130">
         <v>4</v>
       </c>
-      <c r="B42" s="70"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="19"/>
@@ -9313,13 +9333,13 @@
       <c r="L42" s="39"/>
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
       <c r="V42" s="39"/>
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
@@ -9370,13 +9390,13 @@
       <c r="BQ42" s="39"/>
       <c r="BR42" s="39"/>
       <c r="BS42" s="39"/>
-      <c r="BT42" s="47"/>
-    </row>
-    <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46">
+      <c r="BT42" s="46"/>
+    </row>
+    <row r="43" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="130">
         <v>5</v>
       </c>
-      <c r="B43" s="70"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="19"/>
@@ -9389,18 +9409,18 @@
       <c r="L43" s="39"/>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
       <c r="V43" s="39"/>
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="39"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
       <c r="AA43" s="39"/>
       <c r="AB43" s="39"/>
       <c r="AC43" s="39"/>
@@ -9446,13 +9466,13 @@
       <c r="BQ43" s="39"/>
       <c r="BR43" s="39"/>
       <c r="BS43" s="39"/>
-      <c r="BT43" s="47"/>
-    </row>
-    <row r="44" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
+      <c r="BT43" s="46"/>
+    </row>
+    <row r="44" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="130">
         <v>6</v>
       </c>
-      <c r="B44" s="70"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
       <c r="E44" s="19"/>
@@ -9465,18 +9485,18 @@
       <c r="L44" s="39"/>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="V44" s="39"/>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
       <c r="AA44" s="39"/>
       <c r="AB44" s="39"/>
       <c r="AC44" s="39"/>
@@ -9522,13 +9542,13 @@
       <c r="BQ44" s="39"/>
       <c r="BR44" s="39"/>
       <c r="BS44" s="39"/>
-      <c r="BT44" s="47"/>
-    </row>
-    <row r="45" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
+      <c r="BT44" s="46"/>
+    </row>
+    <row r="45" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="130">
         <v>7</v>
       </c>
-      <c r="B45" s="70"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="19"/>
@@ -9541,16 +9561,16 @@
       <c r="L45" s="39"/>
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
       <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
       <c r="Y45" s="39"/>
       <c r="Z45" s="39"/>
       <c r="AA45" s="39"/>
@@ -9598,13 +9618,13 @@
       <c r="BQ45" s="39"/>
       <c r="BR45" s="39"/>
       <c r="BS45" s="39"/>
-      <c r="BT45" s="47"/>
-    </row>
-    <row r="46" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46">
+      <c r="BT45" s="46"/>
+    </row>
+    <row r="46" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="130">
         <v>8</v>
       </c>
-      <c r="B46" s="70"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="19"/>
@@ -9618,20 +9638,20 @@
       <c r="M46" s="39"/>
       <c r="N46" s="39"/>
       <c r="O46" s="39"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
       <c r="V46" s="39"/>
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
       <c r="Y46" s="39"/>
       <c r="Z46" s="39"/>
       <c r="AA46" s="39"/>
-      <c r="AB46" s="39"/>
-      <c r="AC46" s="39"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="39"/>
       <c r="AE46" s="39"/>
       <c r="AF46" s="39"/>
@@ -9674,13 +9694,13 @@
       <c r="BQ46" s="39"/>
       <c r="BR46" s="39"/>
       <c r="BS46" s="39"/>
-      <c r="BT46" s="47"/>
-    </row>
-    <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46">
+      <c r="BT46" s="46"/>
+    </row>
+    <row r="47" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="130">
         <v>9</v>
       </c>
-      <c r="B47" s="70"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="19"/>
@@ -9694,20 +9714,20 @@
       <c r="M47" s="39"/>
       <c r="N47" s="39"/>
       <c r="O47" s="39"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
       <c r="V47" s="39"/>
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="39"/>
       <c r="AE47" s="39"/>
       <c r="AF47" s="39"/>
@@ -9750,13 +9770,13 @@
       <c r="BQ47" s="39"/>
       <c r="BR47" s="39"/>
       <c r="BS47" s="39"/>
-      <c r="BT47" s="47"/>
-    </row>
-    <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46">
+      <c r="BT47" s="46"/>
+    </row>
+    <row r="48" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="130">
         <v>10</v>
       </c>
-      <c r="B48" s="70"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="19"/>
@@ -9770,23 +9790,23 @@
       <c r="M48" s="39"/>
       <c r="N48" s="39"/>
       <c r="O48" s="39"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
       <c r="V48" s="39"/>
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="39"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="39"/>
-      <c r="AD48" s="39"/>
-      <c r="AE48" s="39"/>
-      <c r="AF48" s="39"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="39"/>
       <c r="AH48" s="39"/>
       <c r="AI48" s="39"/>
@@ -9826,13 +9846,13 @@
       <c r="BQ48" s="39"/>
       <c r="BR48" s="39"/>
       <c r="BS48" s="39"/>
-      <c r="BT48" s="47"/>
-    </row>
-    <row r="49" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46">
+      <c r="BT48" s="46"/>
+    </row>
+    <row r="49" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="130">
         <v>11</v>
       </c>
-      <c r="B49" s="70"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="19"/>
@@ -9846,28 +9866,28 @@
       <c r="M49" s="39"/>
       <c r="N49" s="39"/>
       <c r="O49" s="39"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
       <c r="V49" s="39"/>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39"/>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="39"/>
-      <c r="AH49" s="19"/>
-      <c r="AI49" s="19"/>
-      <c r="AJ49" s="19"/>
-      <c r="AK49" s="19"/>
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
       <c r="AL49" s="39"/>
       <c r="AM49" s="39"/>
       <c r="AN49" s="39"/>
@@ -9902,13 +9922,13 @@
       <c r="BQ49" s="39"/>
       <c r="BR49" s="39"/>
       <c r="BS49" s="39"/>
-      <c r="BT49" s="47"/>
-    </row>
-    <row r="50" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46">
+      <c r="BT49" s="46"/>
+    </row>
+    <row r="50" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="130">
         <v>12</v>
       </c>
-      <c r="B50" s="70"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="19"/>
@@ -9921,22 +9941,22 @@
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
       <c r="V50" s="39"/>
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
       <c r="AE50" s="39"/>
       <c r="AF50" s="39"/>
       <c r="AG50" s="39"/>
@@ -9945,8 +9965,8 @@
       <c r="AJ50" s="19"/>
       <c r="AK50" s="19"/>
       <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="39"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
       <c r="AO50" s="39"/>
       <c r="AP50" s="39"/>
       <c r="AQ50" s="39"/>
@@ -9978,13 +9998,13 @@
       <c r="BQ50" s="39"/>
       <c r="BR50" s="39"/>
       <c r="BS50" s="39"/>
-      <c r="BT50" s="47"/>
-    </row>
-    <row r="51" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46">
+      <c r="BT50" s="46"/>
+    </row>
+    <row r="51" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="130">
         <v>13</v>
       </c>
-      <c r="B51" s="70"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
       <c r="E51" s="19"/>
@@ -9997,18 +10017,18 @@
       <c r="L51" s="39"/>
       <c r="M51" s="39"/>
       <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
       <c r="V51" s="39"/>
       <c r="W51" s="39"/>
       <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
       <c r="AA51" s="39"/>
       <c r="AB51" s="39"/>
       <c r="AC51" s="19"/>
@@ -10021,17 +10041,17 @@
       <c r="AJ51" s="19"/>
       <c r="AK51" s="19"/>
       <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="39"/>
+      <c r="AM51" s="19"/>
+      <c r="AN51" s="19"/>
       <c r="AO51" s="39"/>
       <c r="AP51" s="39"/>
       <c r="AQ51" s="39"/>
-      <c r="AR51" s="38"/>
+      <c r="AR51" s="39"/>
       <c r="AS51" s="39"/>
       <c r="AT51" s="39"/>
       <c r="AU51" s="39"/>
       <c r="AV51" s="39"/>
-      <c r="AW51" s="38"/>
+      <c r="AW51" s="39"/>
       <c r="AX51" s="39"/>
       <c r="AY51" s="39"/>
       <c r="AZ51" s="39"/>
@@ -10054,13 +10074,13 @@
       <c r="BQ51" s="39"/>
       <c r="BR51" s="39"/>
       <c r="BS51" s="39"/>
-      <c r="BT51" s="47"/>
-    </row>
-    <row r="52" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46">
+      <c r="BT51" s="46"/>
+    </row>
+    <row r="52" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="130">
         <v>14</v>
       </c>
-      <c r="B52" s="70"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="19"/>
@@ -10073,22 +10093,22 @@
       <c r="L52" s="39"/>
       <c r="M52" s="39"/>
       <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="19"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
       <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
       <c r="Z52" s="39"/>
       <c r="AA52" s="39"/>
       <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
       <c r="AE52" s="39"/>
       <c r="AF52" s="39"/>
       <c r="AG52" s="39"/>
@@ -10097,8 +10117,8 @@
       <c r="AJ52" s="19"/>
       <c r="AK52" s="19"/>
       <c r="AL52" s="39"/>
-      <c r="AM52" s="39"/>
-      <c r="AN52" s="39"/>
+      <c r="AM52" s="19"/>
+      <c r="AN52" s="19"/>
       <c r="AO52" s="39"/>
       <c r="AP52" s="39"/>
       <c r="AQ52" s="39"/>
@@ -10121,22 +10141,22 @@
       <c r="BH52" s="39"/>
       <c r="BI52" s="39"/>
       <c r="BJ52" s="39"/>
-      <c r="BK52" s="39"/>
-      <c r="BL52" s="39"/>
-      <c r="BM52" s="39"/>
-      <c r="BN52" s="39"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
       <c r="BO52" s="39"/>
       <c r="BP52" s="39"/>
       <c r="BQ52" s="39"/>
       <c r="BR52" s="39"/>
       <c r="BS52" s="39"/>
-      <c r="BT52" s="47"/>
-    </row>
-    <row r="53" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46">
+      <c r="BT52" s="46"/>
+    </row>
+    <row r="53" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="130">
         <v>15</v>
       </c>
-      <c r="B53" s="70"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="19"/>
@@ -10149,17 +10169,17 @@
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
       <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
       <c r="U53" s="19"/>
       <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
       <c r="Z53" s="39"/>
       <c r="AA53" s="39"/>
       <c r="AB53" s="39"/>
@@ -10180,8 +10200,8 @@
       <c r="AQ53" s="19"/>
       <c r="AR53" s="19"/>
       <c r="AS53" s="19"/>
-      <c r="AT53" s="64"/>
-      <c r="AU53" s="64"/>
+      <c r="AT53" s="19"/>
+      <c r="AU53" s="19"/>
       <c r="AV53" s="19"/>
       <c r="AW53" s="19"/>
       <c r="AX53" s="19"/>
@@ -10195,24 +10215,24 @@
       <c r="BF53" s="39"/>
       <c r="BG53" s="39"/>
       <c r="BH53" s="39"/>
-      <c r="BI53" s="38"/>
-      <c r="BJ53" s="38"/>
-      <c r="BK53" s="39"/>
-      <c r="BL53" s="39"/>
-      <c r="BM53" s="38"/>
-      <c r="BN53" s="38"/>
+      <c r="BI53" s="129"/>
+      <c r="BJ53" s="39"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
       <c r="BO53" s="39"/>
       <c r="BP53" s="39"/>
       <c r="BQ53" s="39"/>
       <c r="BR53" s="39"/>
       <c r="BS53" s="39"/>
-      <c r="BT53" s="47"/>
-    </row>
-    <row r="54" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46">
+      <c r="BT53" s="46"/>
+    </row>
+    <row r="54" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="130">
         <v>16</v>
       </c>
-      <c r="B54" s="70"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="19"/>
@@ -10225,12 +10245,12 @@
       <c r="L54" s="39"/>
       <c r="M54" s="39"/>
       <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
       <c r="U54" s="19"/>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
@@ -10271,24 +10291,24 @@
       <c r="BF54" s="39"/>
       <c r="BG54" s="39"/>
       <c r="BH54" s="39"/>
-      <c r="BI54" s="38"/>
-      <c r="BJ54" s="38"/>
-      <c r="BK54" s="39"/>
-      <c r="BL54" s="39"/>
-      <c r="BM54" s="38"/>
-      <c r="BN54" s="38"/>
+      <c r="BI54" s="129"/>
+      <c r="BJ54" s="39"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="1"/>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
       <c r="BO54" s="39"/>
       <c r="BP54" s="39"/>
       <c r="BQ54" s="39"/>
       <c r="BR54" s="39"/>
       <c r="BS54" s="39"/>
-      <c r="BT54" s="47"/>
-    </row>
-    <row r="55" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46">
+      <c r="BT54" s="46"/>
+    </row>
+    <row r="55" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="130">
         <v>17</v>
       </c>
-      <c r="B55" s="70"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="19"/>
@@ -10301,12 +10321,12 @@
       <c r="L55" s="39"/>
       <c r="M55" s="39"/>
       <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="1"/>
       <c r="R55" s="39"/>
       <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
+      <c r="T55" s="19"/>
       <c r="U55" s="19"/>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
@@ -10341,30 +10361,30 @@
       <c r="AZ55" s="19"/>
       <c r="BA55" s="39"/>
       <c r="BB55" s="39"/>
-      <c r="BC55" s="39"/>
-      <c r="BD55" s="39"/>
-      <c r="BE55" s="39"/>
-      <c r="BF55" s="39"/>
+      <c r="BC55" s="19"/>
+      <c r="BD55" s="19"/>
+      <c r="BE55" s="19"/>
+      <c r="BF55" s="19"/>
       <c r="BG55" s="19"/>
       <c r="BH55" s="19"/>
       <c r="BI55" s="19"/>
       <c r="BJ55" s="19"/>
-      <c r="BK55" s="64"/>
-      <c r="BL55" s="19"/>
-      <c r="BM55" s="19"/>
-      <c r="BN55" s="19"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
       <c r="BO55" s="39"/>
       <c r="BP55" s="39"/>
       <c r="BQ55" s="39"/>
       <c r="BR55" s="39"/>
       <c r="BS55" s="39"/>
-      <c r="BT55" s="47"/>
-    </row>
-    <row r="56" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46">
+      <c r="BT55" s="46"/>
+    </row>
+    <row r="56" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="130">
         <v>18</v>
       </c>
-      <c r="B56" s="70"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
       <c r="E56" s="19"/>
@@ -10374,15 +10394,15 @@
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
       <c r="K56" s="39"/>
-      <c r="L56" s="80"/>
+      <c r="L56" s="79"/>
       <c r="M56" s="39"/>
       <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="79"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="1"/>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
+      <c r="T56" s="19"/>
       <c r="U56" s="19"/>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
@@ -10417,30 +10437,30 @@
       <c r="AZ56" s="19"/>
       <c r="BA56" s="39"/>
       <c r="BB56" s="39"/>
-      <c r="BC56" s="39"/>
-      <c r="BD56" s="39"/>
-      <c r="BE56" s="39"/>
-      <c r="BF56" s="39"/>
+      <c r="BC56" s="19"/>
+      <c r="BD56" s="19"/>
+      <c r="BE56" s="19"/>
+      <c r="BF56" s="19"/>
       <c r="BG56" s="19"/>
       <c r="BH56" s="19"/>
       <c r="BI56" s="19"/>
       <c r="BJ56" s="19"/>
-      <c r="BK56" s="19"/>
-      <c r="BL56" s="19"/>
-      <c r="BM56" s="19"/>
-      <c r="BN56" s="19"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
       <c r="BO56" s="39"/>
       <c r="BP56" s="39"/>
       <c r="BQ56" s="39"/>
       <c r="BR56" s="39"/>
       <c r="BS56" s="39"/>
-      <c r="BT56" s="47"/>
-    </row>
-    <row r="57" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="46">
+      <c r="BT56" s="46"/>
+    </row>
+    <row r="57" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="130">
         <v>19</v>
       </c>
-      <c r="B57" s="70"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="19"/>
@@ -10453,12 +10473,12 @@
       <c r="L57" s="39"/>
       <c r="M57" s="39"/>
       <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="39"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="19"/>
       <c r="U57" s="19"/>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
@@ -10493,30 +10513,30 @@
       <c r="AZ57" s="19"/>
       <c r="BA57" s="39"/>
       <c r="BB57" s="39"/>
-      <c r="BC57" s="39"/>
-      <c r="BD57" s="39"/>
-      <c r="BE57" s="39"/>
-      <c r="BF57" s="39"/>
+      <c r="BC57" s="19"/>
+      <c r="BD57" s="19"/>
+      <c r="BE57" s="19"/>
+      <c r="BF57" s="19"/>
       <c r="BG57" s="19"/>
       <c r="BH57" s="19"/>
       <c r="BI57" s="19"/>
       <c r="BJ57" s="19"/>
-      <c r="BK57" s="19"/>
-      <c r="BL57" s="19"/>
-      <c r="BM57" s="19"/>
-      <c r="BN57" s="19"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
       <c r="BO57" s="39"/>
       <c r="BP57" s="39"/>
       <c r="BQ57" s="39"/>
       <c r="BR57" s="39"/>
       <c r="BS57" s="39"/>
-      <c r="BT57" s="47"/>
-    </row>
-    <row r="58" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46">
+      <c r="BT57" s="46"/>
+    </row>
+    <row r="58" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="130">
         <v>20</v>
       </c>
-      <c r="B58" s="70"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
       <c r="E58" s="19"/>
@@ -10529,12 +10549,12 @@
       <c r="L58" s="39"/>
       <c r="M58" s="39"/>
       <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="1"/>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
+      <c r="T58" s="19"/>
       <c r="U58" s="19"/>
       <c r="V58" s="39"/>
       <c r="W58" s="39"/>
@@ -10569,38 +10589,38 @@
       <c r="AZ58" s="19"/>
       <c r="BA58" s="39"/>
       <c r="BB58" s="39"/>
-      <c r="BC58" s="39"/>
-      <c r="BD58" s="39"/>
-      <c r="BE58" s="39"/>
-      <c r="BF58" s="39"/>
+      <c r="BC58" s="19"/>
+      <c r="BD58" s="19"/>
+      <c r="BE58" s="19"/>
+      <c r="BF58" s="19"/>
       <c r="BG58" s="19"/>
       <c r="BH58" s="19"/>
       <c r="BI58" s="19"/>
       <c r="BJ58" s="19"/>
-      <c r="BK58" s="19"/>
-      <c r="BL58" s="19"/>
-      <c r="BM58" s="19"/>
-      <c r="BN58" s="19"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="1"/>
+      <c r="BM58" s="1"/>
+      <c r="BN58" s="1"/>
       <c r="BO58" s="39"/>
       <c r="BP58" s="39"/>
       <c r="BQ58" s="39"/>
-      <c r="BR58" s="51"/>
-      <c r="BS58" s="51"/>
-      <c r="BT58" s="78"/>
-    </row>
-    <row r="59" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="BR58" s="50"/>
+      <c r="BS58" s="50"/>
+      <c r="BT58" s="77"/>
+    </row>
+    <row r="59" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="131">
         <v>21</v>
       </c>
-      <c r="B59" s="70"/>
+      <c r="B59" s="69"/>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
       <c r="M59" s="19"/>
@@ -10645,30 +10665,30 @@
       <c r="AZ59" s="19"/>
       <c r="BA59" s="39"/>
       <c r="BB59" s="39"/>
-      <c r="BC59" s="39"/>
-      <c r="BD59" s="39"/>
-      <c r="BE59" s="39"/>
-      <c r="BF59" s="39"/>
+      <c r="BC59" s="19"/>
+      <c r="BD59" s="19"/>
+      <c r="BE59" s="19"/>
+      <c r="BF59" s="19"/>
       <c r="BG59" s="19"/>
       <c r="BH59" s="19"/>
       <c r="BI59" s="19"/>
       <c r="BJ59" s="19"/>
-      <c r="BK59" s="19"/>
-      <c r="BL59" s="19"/>
-      <c r="BM59" s="19"/>
-      <c r="BN59" s="19"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="1"/>
+      <c r="BM59" s="1"/>
+      <c r="BN59" s="1"/>
       <c r="BO59" s="39"/>
       <c r="BP59" s="39"/>
       <c r="BQ59" s="39"/>
-      <c r="BR59" s="51"/>
-      <c r="BS59" s="51"/>
-      <c r="BT59" s="78"/>
-    </row>
-    <row r="60" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46">
+      <c r="BR59" s="50"/>
+      <c r="BS59" s="50"/>
+      <c r="BT59" s="77"/>
+    </row>
+    <row r="60" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="130">
         <v>22</v>
       </c>
-      <c r="B60" s="70"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="19"/>
@@ -10721,49 +10741,49 @@
       <c r="AZ60" s="19"/>
       <c r="BA60" s="39"/>
       <c r="BB60" s="39"/>
-      <c r="BC60" s="39"/>
-      <c r="BD60" s="39"/>
-      <c r="BE60" s="39"/>
-      <c r="BF60" s="39"/>
+      <c r="BC60" s="19"/>
+      <c r="BD60" s="19"/>
+      <c r="BE60" s="19"/>
+      <c r="BF60" s="19"/>
       <c r="BG60" s="19"/>
       <c r="BH60" s="19"/>
       <c r="BI60" s="19"/>
       <c r="BJ60" s="19"/>
-      <c r="BK60" s="19"/>
-      <c r="BL60" s="19"/>
-      <c r="BM60" s="19"/>
-      <c r="BN60" s="19"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="1"/>
+      <c r="BM60" s="1"/>
+      <c r="BN60" s="1"/>
       <c r="BO60" s="39"/>
       <c r="BP60" s="39"/>
       <c r="BQ60" s="39"/>
-      <c r="BR60" s="51"/>
-      <c r="BS60" s="51"/>
-      <c r="BT60" s="78"/>
-    </row>
-    <row r="61" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="BR60" s="50"/>
+      <c r="BS60" s="50"/>
+      <c r="BT60" s="77"/>
+    </row>
+    <row r="61" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="131">
         <v>23</v>
       </c>
-      <c r="B61" s="70"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="39"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
       <c r="X61" s="39"/>
@@ -10797,30 +10817,30 @@
       <c r="AZ61" s="19"/>
       <c r="BA61" s="39"/>
       <c r="BB61" s="39"/>
-      <c r="BC61" s="39"/>
-      <c r="BD61" s="39"/>
-      <c r="BE61" s="39"/>
-      <c r="BF61" s="39"/>
+      <c r="BC61" s="19"/>
+      <c r="BD61" s="19"/>
+      <c r="BE61" s="19"/>
+      <c r="BF61" s="19"/>
       <c r="BG61" s="19"/>
       <c r="BH61" s="19"/>
       <c r="BI61" s="19"/>
       <c r="BJ61" s="19"/>
-      <c r="BK61" s="19"/>
-      <c r="BL61" s="19"/>
-      <c r="BM61" s="19"/>
-      <c r="BN61" s="19"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
       <c r="BO61" s="39"/>
       <c r="BP61" s="39"/>
       <c r="BQ61" s="39"/>
       <c r="BR61" s="39"/>
       <c r="BS61" s="39"/>
-      <c r="BT61" s="47"/>
-    </row>
-    <row r="62" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46">
+      <c r="BT61" s="46"/>
+    </row>
+    <row r="62" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="130">
         <v>24</v>
       </c>
-      <c r="B62" s="70"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
@@ -10873,18 +10893,18 @@
       <c r="AZ62" s="19"/>
       <c r="BA62" s="39"/>
       <c r="BB62" s="39"/>
-      <c r="BC62" s="39"/>
-      <c r="BD62" s="39"/>
-      <c r="BE62" s="39"/>
-      <c r="BF62" s="39"/>
+      <c r="BC62" s="19"/>
+      <c r="BD62" s="19"/>
+      <c r="BE62" s="19"/>
+      <c r="BF62" s="19"/>
       <c r="BG62" s="19"/>
       <c r="BH62" s="19"/>
       <c r="BI62" s="19"/>
       <c r="BJ62" s="19"/>
-      <c r="BK62" s="19"/>
-      <c r="BL62" s="19"/>
-      <c r="BM62" s="19"/>
-      <c r="BN62" s="19"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
       <c r="BO62" s="39"/>
       <c r="BP62" s="39"/>
       <c r="BQ62" s="39"/>
@@ -10892,11 +10912,11 @@
       <c r="BS62" s="19"/>
       <c r="BT62" s="27"/>
     </row>
-    <row r="63" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="131">
         <v>25</v>
       </c>
-      <c r="B63" s="70"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
@@ -10949,18 +10969,18 @@
       <c r="AZ63" s="19"/>
       <c r="BA63" s="39"/>
       <c r="BB63" s="39"/>
-      <c r="BC63" s="39"/>
-      <c r="BD63" s="39"/>
-      <c r="BE63" s="39"/>
-      <c r="BF63" s="39"/>
+      <c r="BC63" s="19"/>
+      <c r="BD63" s="19"/>
+      <c r="BE63" s="19"/>
+      <c r="BF63" s="19"/>
       <c r="BG63" s="19"/>
       <c r="BH63" s="19"/>
       <c r="BI63" s="19"/>
       <c r="BJ63" s="19"/>
-      <c r="BK63" s="19"/>
-      <c r="BL63" s="19"/>
-      <c r="BM63" s="19"/>
-      <c r="BN63" s="19"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
       <c r="BO63" s="39"/>
       <c r="BP63" s="39"/>
       <c r="BQ63" s="39"/>
@@ -10968,390 +10988,389 @@
       <c r="BS63" s="19"/>
       <c r="BT63" s="27"/>
     </row>
-    <row r="64" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46">
+    <row r="64" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="130">
         <v>26</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="74"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="74"/>
-      <c r="O64" s="74"/>
-      <c r="P64" s="74"/>
-      <c r="Q64" s="74"/>
-      <c r="R64" s="74"/>
-      <c r="S64" s="74"/>
-      <c r="T64" s="74"/>
-      <c r="U64" s="74"/>
-      <c r="V64" s="74"/>
-      <c r="W64" s="74"/>
-      <c r="X64" s="74"/>
-      <c r="Y64" s="74"/>
-      <c r="Z64" s="74"/>
-      <c r="AA64" s="74"/>
-      <c r="AB64" s="74"/>
-      <c r="AC64" s="74"/>
-      <c r="AD64" s="74"/>
-      <c r="AE64" s="74"/>
-      <c r="AF64" s="74"/>
-      <c r="AG64" s="74"/>
-      <c r="AH64" s="73"/>
-      <c r="AI64" s="73"/>
-      <c r="AJ64" s="73"/>
-      <c r="AK64" s="73"/>
-      <c r="AL64" s="74"/>
-      <c r="AM64" s="74"/>
-      <c r="AN64" s="74"/>
-      <c r="AO64" s="74"/>
-      <c r="AP64" s="73"/>
-      <c r="AQ64" s="73"/>
-      <c r="AR64" s="73"/>
-      <c r="AS64" s="73"/>
-      <c r="AT64" s="73"/>
-      <c r="AU64" s="73"/>
-      <c r="AV64" s="73"/>
-      <c r="AW64" s="73"/>
-      <c r="AX64" s="73"/>
-      <c r="AY64" s="73"/>
-      <c r="AZ64" s="73"/>
-      <c r="BA64" s="74"/>
-      <c r="BB64" s="74"/>
-      <c r="BC64" s="74"/>
-      <c r="BD64" s="74"/>
-      <c r="BE64" s="74"/>
-      <c r="BF64" s="74"/>
-      <c r="BG64" s="73"/>
-      <c r="BH64" s="73"/>
-      <c r="BI64" s="73"/>
-      <c r="BJ64" s="73"/>
-      <c r="BK64" s="73"/>
-      <c r="BL64" s="73"/>
-      <c r="BM64" s="73"/>
-      <c r="BN64" s="73"/>
-      <c r="BO64" s="74"/>
-      <c r="BP64" s="74"/>
-      <c r="BQ64" s="74"/>
-      <c r="BR64" s="73"/>
-      <c r="BS64" s="73"/>
-      <c r="BT64" s="77"/>
-    </row>
-    <row r="65" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="B64" s="75"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="73"/>
+      <c r="U64" s="73"/>
+      <c r="V64" s="73"/>
+      <c r="W64" s="73"/>
+      <c r="X64" s="73"/>
+      <c r="Y64" s="73"/>
+      <c r="Z64" s="73"/>
+      <c r="AA64" s="73"/>
+      <c r="AB64" s="73"/>
+      <c r="AC64" s="73"/>
+      <c r="AD64" s="73"/>
+      <c r="AE64" s="73"/>
+      <c r="AF64" s="73"/>
+      <c r="AG64" s="73"/>
+      <c r="AH64" s="72"/>
+      <c r="AI64" s="72"/>
+      <c r="AJ64" s="72"/>
+      <c r="AK64" s="72"/>
+      <c r="AL64" s="73"/>
+      <c r="AM64" s="73"/>
+      <c r="AN64" s="73"/>
+      <c r="AO64" s="73"/>
+      <c r="AP64" s="72"/>
+      <c r="AQ64" s="72"/>
+      <c r="AR64" s="72"/>
+      <c r="AS64" s="72"/>
+      <c r="AT64" s="72"/>
+      <c r="AU64" s="72"/>
+      <c r="AV64" s="72"/>
+      <c r="AW64" s="72"/>
+      <c r="AX64" s="72"/>
+      <c r="AY64" s="72"/>
+      <c r="AZ64" s="72"/>
+      <c r="BA64" s="73"/>
+      <c r="BB64" s="73"/>
+      <c r="BC64" s="72"/>
+      <c r="BD64" s="72"/>
+      <c r="BE64" s="72"/>
+      <c r="BF64" s="72"/>
+      <c r="BG64" s="72"/>
+      <c r="BH64" s="72"/>
+      <c r="BI64" s="72"/>
+      <c r="BJ64" s="19"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
+      <c r="BM64" s="1"/>
+      <c r="BN64" s="1"/>
+      <c r="BO64" s="39"/>
+      <c r="BP64" s="73"/>
+      <c r="BQ64" s="73"/>
+      <c r="BR64" s="72"/>
+      <c r="BS64" s="72"/>
+      <c r="BT64" s="76"/>
+    </row>
+    <row r="65" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="131">
         <v>27</v>
       </c>
-      <c r="B65" s="117" t="s">
+      <c r="B65" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="112"/>
-      <c r="K65" s="112"/>
-      <c r="L65" s="112"/>
-      <c r="M65" s="112"/>
-      <c r="N65" s="112"/>
-      <c r="O65" s="112"/>
-      <c r="P65" s="112"/>
-      <c r="Q65" s="112"/>
-      <c r="R65" s="112"/>
-      <c r="S65" s="112"/>
-      <c r="T65" s="112"/>
-      <c r="U65" s="112"/>
-      <c r="V65" s="112"/>
-      <c r="W65" s="112"/>
-      <c r="X65" s="112"/>
-      <c r="Y65" s="112"/>
-      <c r="Z65" s="112"/>
-      <c r="AA65" s="112"/>
-      <c r="AB65" s="112"/>
-      <c r="AC65" s="112"/>
-      <c r="AD65" s="112"/>
-      <c r="AE65" s="112"/>
-      <c r="AF65" s="112"/>
-      <c r="AG65" s="112"/>
-      <c r="AH65" s="112"/>
-      <c r="AI65" s="112"/>
-      <c r="AJ65" s="112"/>
-      <c r="AK65" s="112"/>
-      <c r="AL65" s="112"/>
-      <c r="AM65" s="112"/>
-      <c r="AN65" s="112"/>
-      <c r="AO65" s="112"/>
-      <c r="AP65" s="112"/>
-      <c r="AQ65" s="112"/>
-      <c r="AR65" s="112"/>
-      <c r="AS65" s="112"/>
-      <c r="AT65" s="112"/>
-      <c r="AU65" s="112"/>
-      <c r="AV65" s="112"/>
-      <c r="AW65" s="112"/>
-      <c r="AX65" s="112"/>
-      <c r="AY65" s="112"/>
-      <c r="AZ65" s="112"/>
-      <c r="BA65" s="112"/>
-      <c r="BB65" s="112"/>
-      <c r="BC65" s="112"/>
-      <c r="BD65" s="112"/>
-      <c r="BE65" s="112"/>
-      <c r="BF65" s="112"/>
-      <c r="BG65" s="112"/>
-      <c r="BH65" s="112"/>
-      <c r="BI65" s="112"/>
-      <c r="BJ65" s="112"/>
-      <c r="BK65" s="112"/>
-      <c r="BL65" s="112"/>
-      <c r="BM65" s="112"/>
-      <c r="BN65" s="112"/>
-      <c r="BO65" s="112"/>
-      <c r="BP65" s="112"/>
-      <c r="BQ65" s="112"/>
-      <c r="BR65" s="112"/>
-      <c r="BS65" s="112"/>
-      <c r="BT65" s="118"/>
-    </row>
-    <row r="66" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46">
+      <c r="C65" s="120"/>
+      <c r="D65" s="120"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="120"/>
+      <c r="I65" s="120"/>
+      <c r="J65" s="120"/>
+      <c r="K65" s="120"/>
+      <c r="L65" s="120"/>
+      <c r="M65" s="120"/>
+      <c r="N65" s="120"/>
+      <c r="O65" s="120"/>
+      <c r="P65" s="120"/>
+      <c r="Q65" s="120"/>
+      <c r="R65" s="120"/>
+      <c r="S65" s="120"/>
+      <c r="T65" s="120"/>
+      <c r="U65" s="120"/>
+      <c r="V65" s="120"/>
+      <c r="W65" s="120"/>
+      <c r="X65" s="120"/>
+      <c r="Y65" s="120"/>
+      <c r="Z65" s="120"/>
+      <c r="AA65" s="120"/>
+      <c r="AB65" s="120"/>
+      <c r="AC65" s="120"/>
+      <c r="AD65" s="120"/>
+      <c r="AE65" s="120"/>
+      <c r="AF65" s="120"/>
+      <c r="AG65" s="120"/>
+      <c r="AH65" s="120"/>
+      <c r="AI65" s="120"/>
+      <c r="AJ65" s="120"/>
+      <c r="AK65" s="120"/>
+      <c r="AL65" s="120"/>
+      <c r="AM65" s="120"/>
+      <c r="AN65" s="120"/>
+      <c r="AO65" s="120"/>
+      <c r="AP65" s="120"/>
+      <c r="AQ65" s="120"/>
+      <c r="AR65" s="120"/>
+      <c r="AS65" s="120"/>
+      <c r="AT65" s="120"/>
+      <c r="AU65" s="120"/>
+      <c r="AV65" s="120"/>
+      <c r="AW65" s="120"/>
+      <c r="AX65" s="120"/>
+      <c r="AY65" s="120"/>
+      <c r="AZ65" s="120"/>
+      <c r="BA65" s="120"/>
+      <c r="BB65" s="120"/>
+      <c r="BC65" s="120"/>
+      <c r="BD65" s="120"/>
+      <c r="BE65" s="120"/>
+      <c r="BF65" s="120"/>
+      <c r="BG65" s="120"/>
+      <c r="BH65" s="120"/>
+      <c r="BI65" s="120"/>
+      <c r="BJ65" s="122"/>
+      <c r="BK65" s="122"/>
+      <c r="BL65" s="122"/>
+      <c r="BM65" s="122"/>
+      <c r="BN65" s="122"/>
+      <c r="BO65" s="122"/>
+      <c r="BP65" s="120"/>
+      <c r="BQ65" s="120"/>
+      <c r="BR65" s="120"/>
+      <c r="BS65" s="120"/>
+      <c r="BT65" s="126"/>
+    </row>
+    <row r="66" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="130">
         <v>28</v>
       </c>
-      <c r="B66" s="113"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="114"/>
-      <c r="L66" s="114"/>
-      <c r="M66" s="114"/>
-      <c r="N66" s="114"/>
-      <c r="O66" s="114"/>
-      <c r="P66" s="114"/>
-      <c r="Q66" s="114"/>
-      <c r="R66" s="114"/>
-      <c r="S66" s="114"/>
-      <c r="T66" s="114"/>
-      <c r="U66" s="114"/>
-      <c r="V66" s="114"/>
-      <c r="W66" s="114"/>
-      <c r="X66" s="114"/>
-      <c r="Y66" s="114"/>
-      <c r="Z66" s="114"/>
-      <c r="AA66" s="114"/>
-      <c r="AB66" s="114"/>
-      <c r="AC66" s="114"/>
-      <c r="AD66" s="114"/>
-      <c r="AE66" s="114"/>
-      <c r="AF66" s="114"/>
-      <c r="AG66" s="114"/>
-      <c r="AH66" s="114"/>
-      <c r="AI66" s="114"/>
-      <c r="AJ66" s="114"/>
-      <c r="AK66" s="114"/>
-      <c r="AL66" s="114"/>
-      <c r="AM66" s="114"/>
-      <c r="AN66" s="114"/>
-      <c r="AO66" s="114"/>
-      <c r="AP66" s="114"/>
-      <c r="AQ66" s="114"/>
-      <c r="AR66" s="114"/>
-      <c r="AS66" s="114"/>
-      <c r="AT66" s="114"/>
-      <c r="AU66" s="114"/>
-      <c r="AV66" s="114"/>
-      <c r="AW66" s="114"/>
-      <c r="AX66" s="114"/>
-      <c r="AY66" s="114"/>
-      <c r="AZ66" s="114"/>
-      <c r="BA66" s="114"/>
-      <c r="BB66" s="114"/>
-      <c r="BC66" s="114"/>
-      <c r="BD66" s="114"/>
-      <c r="BE66" s="114"/>
-      <c r="BF66" s="114"/>
-      <c r="BG66" s="114"/>
-      <c r="BH66" s="114"/>
-      <c r="BI66" s="114"/>
-      <c r="BJ66" s="114"/>
-      <c r="BK66" s="114"/>
-      <c r="BL66" s="114"/>
-      <c r="BM66" s="114"/>
-      <c r="BN66" s="114"/>
-      <c r="BO66" s="114"/>
-      <c r="BP66" s="114"/>
-      <c r="BQ66" s="114"/>
-      <c r="BR66" s="114"/>
-      <c r="BS66" s="114"/>
-      <c r="BT66" s="119"/>
-    </row>
-    <row r="67" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="B66" s="121"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="122"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="122"/>
+      <c r="K66" s="122"/>
+      <c r="L66" s="122"/>
+      <c r="M66" s="122"/>
+      <c r="N66" s="122"/>
+      <c r="O66" s="122"/>
+      <c r="P66" s="122"/>
+      <c r="Q66" s="122"/>
+      <c r="R66" s="122"/>
+      <c r="S66" s="122"/>
+      <c r="T66" s="122"/>
+      <c r="U66" s="122"/>
+      <c r="V66" s="122"/>
+      <c r="W66" s="122"/>
+      <c r="X66" s="122"/>
+      <c r="Y66" s="122"/>
+      <c r="Z66" s="122"/>
+      <c r="AA66" s="122"/>
+      <c r="AB66" s="122"/>
+      <c r="AC66" s="122"/>
+      <c r="AD66" s="122"/>
+      <c r="AE66" s="122"/>
+      <c r="AF66" s="122"/>
+      <c r="AG66" s="122"/>
+      <c r="AH66" s="122"/>
+      <c r="AI66" s="122"/>
+      <c r="AJ66" s="122"/>
+      <c r="AK66" s="122"/>
+      <c r="AL66" s="122"/>
+      <c r="AM66" s="122"/>
+      <c r="AN66" s="122"/>
+      <c r="AO66" s="122"/>
+      <c r="AP66" s="122"/>
+      <c r="AQ66" s="122"/>
+      <c r="AR66" s="122"/>
+      <c r="AS66" s="122"/>
+      <c r="AT66" s="122"/>
+      <c r="AU66" s="122"/>
+      <c r="AV66" s="122"/>
+      <c r="AW66" s="122"/>
+      <c r="AX66" s="122"/>
+      <c r="AY66" s="122"/>
+      <c r="AZ66" s="122"/>
+      <c r="BA66" s="122"/>
+      <c r="BB66" s="122"/>
+      <c r="BC66" s="122"/>
+      <c r="BD66" s="122"/>
+      <c r="BE66" s="122"/>
+      <c r="BF66" s="122"/>
+      <c r="BG66" s="122"/>
+      <c r="BH66" s="122"/>
+      <c r="BI66" s="122"/>
+      <c r="BJ66" s="122"/>
+      <c r="BK66" s="122"/>
+      <c r="BL66" s="122"/>
+      <c r="BM66" s="122"/>
+      <c r="BN66" s="122"/>
+      <c r="BO66" s="122"/>
+      <c r="BP66" s="122"/>
+      <c r="BQ66" s="122"/>
+      <c r="BR66" s="122"/>
+      <c r="BS66" s="122"/>
+      <c r="BT66" s="127"/>
+    </row>
+    <row r="67" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="131">
         <v>29</v>
       </c>
-      <c r="B67" s="113"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="114"/>
-      <c r="K67" s="114"/>
-      <c r="L67" s="114"/>
-      <c r="M67" s="114"/>
-      <c r="N67" s="114"/>
-      <c r="O67" s="114"/>
-      <c r="P67" s="114"/>
-      <c r="Q67" s="114"/>
-      <c r="R67" s="114"/>
-      <c r="S67" s="114"/>
-      <c r="T67" s="114"/>
-      <c r="U67" s="114"/>
-      <c r="V67" s="114"/>
-      <c r="W67" s="114"/>
-      <c r="X67" s="114"/>
-      <c r="Y67" s="114"/>
-      <c r="Z67" s="114"/>
-      <c r="AA67" s="114"/>
-      <c r="AB67" s="114"/>
-      <c r="AC67" s="114"/>
-      <c r="AD67" s="114"/>
-      <c r="AE67" s="114"/>
-      <c r="AF67" s="114"/>
-      <c r="AG67" s="114"/>
-      <c r="AH67" s="114"/>
-      <c r="AI67" s="114"/>
-      <c r="AJ67" s="114"/>
-      <c r="AK67" s="114"/>
-      <c r="AL67" s="114"/>
-      <c r="AM67" s="114"/>
-      <c r="AN67" s="114"/>
-      <c r="AO67" s="114"/>
-      <c r="AP67" s="114"/>
-      <c r="AQ67" s="114"/>
-      <c r="AR67" s="114"/>
-      <c r="AS67" s="114"/>
-      <c r="AT67" s="114"/>
-      <c r="AU67" s="114"/>
-      <c r="AV67" s="114"/>
-      <c r="AW67" s="114"/>
-      <c r="AX67" s="114"/>
-      <c r="AY67" s="114"/>
-      <c r="AZ67" s="114"/>
-      <c r="BA67" s="114"/>
-      <c r="BB67" s="114"/>
-      <c r="BC67" s="114"/>
-      <c r="BD67" s="114"/>
-      <c r="BE67" s="114"/>
-      <c r="BF67" s="114"/>
-      <c r="BG67" s="114"/>
-      <c r="BH67" s="114"/>
-      <c r="BI67" s="114"/>
-      <c r="BJ67" s="114"/>
-      <c r="BK67" s="114"/>
-      <c r="BL67" s="114"/>
-      <c r="BM67" s="114"/>
-      <c r="BN67" s="114"/>
-      <c r="BO67" s="114"/>
-      <c r="BP67" s="114"/>
-      <c r="BQ67" s="114"/>
-      <c r="BR67" s="114"/>
-      <c r="BS67" s="114"/>
-      <c r="BT67" s="119"/>
-    </row>
-    <row r="68" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="46">
+      <c r="B67" s="121"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="122"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="122"/>
+      <c r="G67" s="122"/>
+      <c r="H67" s="122"/>
+      <c r="I67" s="122"/>
+      <c r="J67" s="122"/>
+      <c r="K67" s="122"/>
+      <c r="L67" s="122"/>
+      <c r="M67" s="122"/>
+      <c r="N67" s="122"/>
+      <c r="O67" s="122"/>
+      <c r="P67" s="122"/>
+      <c r="Q67" s="122"/>
+      <c r="R67" s="122"/>
+      <c r="S67" s="122"/>
+      <c r="T67" s="122"/>
+      <c r="U67" s="122"/>
+      <c r="V67" s="122"/>
+      <c r="W67" s="122"/>
+      <c r="X67" s="122"/>
+      <c r="Y67" s="122"/>
+      <c r="Z67" s="122"/>
+      <c r="AA67" s="122"/>
+      <c r="AB67" s="122"/>
+      <c r="AC67" s="122"/>
+      <c r="AD67" s="122"/>
+      <c r="AE67" s="122"/>
+      <c r="AF67" s="122"/>
+      <c r="AG67" s="122"/>
+      <c r="AH67" s="122"/>
+      <c r="AI67" s="122"/>
+      <c r="AJ67" s="122"/>
+      <c r="AK67" s="122"/>
+      <c r="AL67" s="122"/>
+      <c r="AM67" s="122"/>
+      <c r="AN67" s="122"/>
+      <c r="AO67" s="122"/>
+      <c r="AP67" s="122"/>
+      <c r="AQ67" s="122"/>
+      <c r="AR67" s="122"/>
+      <c r="AS67" s="122"/>
+      <c r="AT67" s="122"/>
+      <c r="AU67" s="122"/>
+      <c r="AV67" s="122"/>
+      <c r="AW67" s="122"/>
+      <c r="AX67" s="122"/>
+      <c r="AY67" s="122"/>
+      <c r="AZ67" s="122"/>
+      <c r="BA67" s="122"/>
+      <c r="BB67" s="122"/>
+      <c r="BC67" s="122"/>
+      <c r="BD67" s="122"/>
+      <c r="BE67" s="122"/>
+      <c r="BF67" s="122"/>
+      <c r="BG67" s="122"/>
+      <c r="BH67" s="122"/>
+      <c r="BI67" s="122"/>
+      <c r="BJ67" s="122"/>
+      <c r="BK67" s="122"/>
+      <c r="BL67" s="122"/>
+      <c r="BM67" s="122"/>
+      <c r="BN67" s="122"/>
+      <c r="BO67" s="122"/>
+      <c r="BP67" s="122"/>
+      <c r="BQ67" s="122"/>
+      <c r="BR67" s="122"/>
+      <c r="BS67" s="122"/>
+      <c r="BT67" s="127"/>
+    </row>
+    <row r="68" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="130">
         <v>30</v>
       </c>
-      <c r="B68" s="115"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="116"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="116"/>
-      <c r="P68" s="116"/>
-      <c r="Q68" s="116"/>
-      <c r="R68" s="116"/>
-      <c r="S68" s="116"/>
-      <c r="T68" s="116"/>
-      <c r="U68" s="116"/>
-      <c r="V68" s="116"/>
-      <c r="W68" s="116"/>
-      <c r="X68" s="116"/>
-      <c r="Y68" s="116"/>
-      <c r="Z68" s="116"/>
-      <c r="AA68" s="116"/>
-      <c r="AB68" s="116"/>
-      <c r="AC68" s="116"/>
-      <c r="AD68" s="116"/>
-      <c r="AE68" s="116"/>
-      <c r="AF68" s="116"/>
-      <c r="AG68" s="116"/>
-      <c r="AH68" s="116"/>
-      <c r="AI68" s="116"/>
-      <c r="AJ68" s="116"/>
-      <c r="AK68" s="116"/>
-      <c r="AL68" s="116"/>
-      <c r="AM68" s="116"/>
-      <c r="AN68" s="116"/>
-      <c r="AO68" s="116"/>
-      <c r="AP68" s="116"/>
-      <c r="AQ68" s="116"/>
-      <c r="AR68" s="116"/>
-      <c r="AS68" s="116"/>
-      <c r="AT68" s="116"/>
-      <c r="AU68" s="116"/>
-      <c r="AV68" s="116"/>
-      <c r="AW68" s="116"/>
-      <c r="AX68" s="116"/>
-      <c r="AY68" s="116"/>
-      <c r="AZ68" s="116"/>
-      <c r="BA68" s="116"/>
-      <c r="BB68" s="116"/>
-      <c r="BC68" s="116"/>
-      <c r="BD68" s="116"/>
-      <c r="BE68" s="116"/>
-      <c r="BF68" s="116"/>
-      <c r="BG68" s="116"/>
-      <c r="BH68" s="116"/>
-      <c r="BI68" s="116"/>
-      <c r="BJ68" s="116"/>
-      <c r="BK68" s="116"/>
-      <c r="BL68" s="116"/>
-      <c r="BM68" s="116"/>
-      <c r="BN68" s="116"/>
-      <c r="BO68" s="116"/>
-      <c r="BP68" s="116"/>
-      <c r="BQ68" s="116"/>
-      <c r="BR68" s="116"/>
-      <c r="BS68" s="116"/>
-      <c r="BT68" s="120"/>
-    </row>
-    <row r="69" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="124"/>
+      <c r="J68" s="124"/>
+      <c r="K68" s="124"/>
+      <c r="L68" s="124"/>
+      <c r="M68" s="124"/>
+      <c r="N68" s="124"/>
+      <c r="O68" s="124"/>
+      <c r="P68" s="124"/>
+      <c r="Q68" s="124"/>
+      <c r="R68" s="124"/>
+      <c r="S68" s="124"/>
+      <c r="T68" s="124"/>
+      <c r="U68" s="124"/>
+      <c r="V68" s="124"/>
+      <c r="W68" s="124"/>
+      <c r="X68" s="124"/>
+      <c r="Y68" s="124"/>
+      <c r="Z68" s="124"/>
+      <c r="AA68" s="124"/>
+      <c r="AB68" s="124"/>
+      <c r="AC68" s="124"/>
+      <c r="AD68" s="124"/>
+      <c r="AE68" s="124"/>
+      <c r="AF68" s="124"/>
+      <c r="AG68" s="124"/>
+      <c r="AH68" s="124"/>
+      <c r="AI68" s="124"/>
+      <c r="AJ68" s="124"/>
+      <c r="AK68" s="124"/>
+      <c r="AL68" s="124"/>
+      <c r="AM68" s="124"/>
+      <c r="AN68" s="124"/>
+      <c r="AO68" s="124"/>
+      <c r="AP68" s="124"/>
+      <c r="AQ68" s="124"/>
+      <c r="AR68" s="124"/>
+      <c r="AS68" s="124"/>
+      <c r="AT68" s="124"/>
+      <c r="AU68" s="124"/>
+      <c r="AV68" s="124"/>
+      <c r="AW68" s="124"/>
+      <c r="AX68" s="124"/>
+      <c r="AY68" s="124"/>
+      <c r="AZ68" s="124"/>
+      <c r="BA68" s="124"/>
+      <c r="BB68" s="124"/>
+      <c r="BC68" s="124"/>
+      <c r="BD68" s="124"/>
+      <c r="BE68" s="124"/>
+      <c r="BF68" s="124"/>
+      <c r="BG68" s="124"/>
+      <c r="BH68" s="124"/>
+      <c r="BI68" s="124"/>
+      <c r="BJ68" s="124"/>
+      <c r="BK68" s="124"/>
+      <c r="BL68" s="124"/>
+      <c r="BM68" s="124"/>
+      <c r="BN68" s="124"/>
+      <c r="BO68" s="124"/>
+      <c r="BP68" s="124"/>
+      <c r="BQ68" s="124"/>
+      <c r="BR68" s="124"/>
+      <c r="BS68" s="124"/>
+      <c r="BT68" s="128"/>
+    </row>
+    <row r="69" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -11414,8 +11433,7 @@
       <c r="BI69" s="20"/>
       <c r="BJ69" s="20"/>
     </row>
-    <row r="70" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
+    <row r="70" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -11478,8 +11496,7 @@
       <c r="BI70" s="20"/>
       <c r="BJ70" s="20"/>
     </row>
-    <row r="71" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
+    <row r="71" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -11542,8 +11559,7 @@
       <c r="BI71" s="20"/>
       <c r="BJ71" s="20"/>
     </row>
-    <row r="72" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
+    <row r="72" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -11606,8 +11622,7 @@
       <c r="BI72" s="20"/>
       <c r="BJ72" s="20"/>
     </row>
-    <row r="73" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
+    <row r="73" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -11670,8 +11685,7 @@
       <c r="BI73" s="20"/>
       <c r="BJ73" s="20"/>
     </row>
-    <row r="74" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
+    <row r="74" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -11734,8 +11748,7 @@
       <c r="BI74" s="20"/>
       <c r="BJ74" s="20"/>
     </row>
-    <row r="75" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
+    <row r="75" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -11798,8 +11811,7 @@
       <c r="BI75" s="20"/>
       <c r="BJ75" s="20"/>
     </row>
-    <row r="76" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
+    <row r="76" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -11862,8 +11874,7 @@
       <c r="BI76" s="20"/>
       <c r="BJ76" s="20"/>
     </row>
-    <row r="77" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+    <row r="77" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -11926,8 +11937,7 @@
       <c r="BI77" s="20"/>
       <c r="BJ77" s="20"/>
     </row>
-    <row r="78" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
+    <row r="78" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -11990,8 +12000,7 @@
       <c r="BI78" s="20"/>
       <c r="BJ78" s="20"/>
     </row>
-    <row r="79" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+    <row r="79" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -12054,8 +12063,7 @@
       <c r="BI79" s="20"/>
       <c r="BJ79" s="20"/>
     </row>
-    <row r="80" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
+    <row r="80" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -12118,8 +12126,7 @@
       <c r="BI80" s="20"/>
       <c r="BJ80" s="20"/>
     </row>
-    <row r="81" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+    <row r="81" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -12182,8 +12189,7 @@
       <c r="BI81" s="20"/>
       <c r="BJ81" s="20"/>
     </row>
-    <row r="82" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+    <row r="82" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -12246,8 +12252,7 @@
       <c r="BI82" s="20"/>
       <c r="BJ82" s="20"/>
     </row>
-    <row r="83" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
+    <row r="83" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -12310,8 +12315,7 @@
       <c r="BI83" s="20"/>
       <c r="BJ83" s="20"/>
     </row>
-    <row r="84" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+    <row r="84" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -12374,8 +12378,7 @@
       <c r="BI84" s="20"/>
       <c r="BJ84" s="20"/>
     </row>
-    <row r="85" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
+    <row r="85" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -12438,8 +12441,7 @@
       <c r="BI85" s="20"/>
       <c r="BJ85" s="20"/>
     </row>
-    <row r="86" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+    <row r="86" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -12502,8 +12504,7 @@
       <c r="BI86" s="20"/>
       <c r="BJ86" s="20"/>
     </row>
-    <row r="87" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
+    <row r="87" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
@@ -12566,8 +12567,7 @@
       <c r="BI87" s="20"/>
       <c r="BJ87" s="20"/>
     </row>
-    <row r="88" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
+    <row r="88" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -12630,8 +12630,7 @@
       <c r="BI88" s="20"/>
       <c r="BJ88" s="20"/>
     </row>
-    <row r="89" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
+    <row r="89" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -12694,8 +12693,7 @@
       <c r="BI89" s="20"/>
       <c r="BJ89" s="20"/>
     </row>
-    <row r="90" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
+    <row r="90" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
@@ -12758,8 +12756,7 @@
       <c r="BI90" s="20"/>
       <c r="BJ90" s="20"/>
     </row>
-    <row r="91" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
+    <row r="91" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -12822,8 +12819,7 @@
       <c r="BI91" s="20"/>
       <c r="BJ91" s="20"/>
     </row>
-    <row r="92" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
+    <row r="92" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -12886,8 +12882,7 @@
       <c r="BI92" s="20"/>
       <c r="BJ92" s="20"/>
     </row>
-    <row r="93" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
+    <row r="93" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
@@ -12950,8 +12945,7 @@
       <c r="BI93" s="20"/>
       <c r="BJ93" s="20"/>
     </row>
-    <row r="94" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
+    <row r="94" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -13014,8 +13008,7 @@
       <c r="BI94" s="20"/>
       <c r="BJ94" s="20"/>
     </row>
-    <row r="95" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
+    <row r="95" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
@@ -13078,8 +13071,7 @@
       <c r="BI95" s="20"/>
       <c r="BJ95" s="20"/>
     </row>
-    <row r="96" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
+    <row r="96" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -13142,8 +13134,7 @@
       <c r="BI96" s="20"/>
       <c r="BJ96" s="20"/>
     </row>
-    <row r="97" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
+    <row r="97" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -13206,8 +13197,7 @@
       <c r="BI97" s="20"/>
       <c r="BJ97" s="20"/>
     </row>
-    <row r="98" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
+    <row r="98" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -13270,8 +13260,7 @@
       <c r="BI98" s="20"/>
       <c r="BJ98" s="20"/>
     </row>
-    <row r="99" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
+    <row r="99" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -13334,8 +13323,7 @@
       <c r="BI99" s="20"/>
       <c r="BJ99" s="20"/>
     </row>
-    <row r="100" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
+    <row r="100" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -13398,8 +13386,7 @@
       <c r="BI100" s="20"/>
       <c r="BJ100" s="20"/>
     </row>
-    <row r="101" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
+    <row r="101" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -13462,8 +13449,7 @@
       <c r="BI101" s="20"/>
       <c r="BJ101" s="20"/>
     </row>
-    <row r="102" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+    <row r="102" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -13526,8 +13512,7 @@
       <c r="BI102" s="20"/>
       <c r="BJ102" s="20"/>
     </row>
-    <row r="103" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
+    <row r="103" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -13590,8 +13575,7 @@
       <c r="BI103" s="20"/>
       <c r="BJ103" s="20"/>
     </row>
-    <row r="104" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
+    <row r="104" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -13654,8 +13638,7 @@
       <c r="BI104" s="20"/>
       <c r="BJ104" s="20"/>
     </row>
-    <row r="105" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
+    <row r="105" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -13718,8 +13701,7 @@
       <c r="BI105" s="20"/>
       <c r="BJ105" s="20"/>
     </row>
-    <row r="106" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
+    <row r="106" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -13782,8 +13764,7 @@
       <c r="BI106" s="20"/>
       <c r="BJ106" s="20"/>
     </row>
-    <row r="107" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
+    <row r="107" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -13846,8 +13827,7 @@
       <c r="BI107" s="20"/>
       <c r="BJ107" s="20"/>
     </row>
-    <row r="108" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
+    <row r="108" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -13910,8 +13890,7 @@
       <c r="BI108" s="20"/>
       <c r="BJ108" s="20"/>
     </row>
-    <row r="109" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
+    <row r="109" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -13974,8 +13953,7 @@
       <c r="BI109" s="20"/>
       <c r="BJ109" s="20"/>
     </row>
-    <row r="110" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
+    <row r="110" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -14038,8 +14016,7 @@
       <c r="BI110" s="20"/>
       <c r="BJ110" s="20"/>
     </row>
-    <row r="111" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
+    <row r="111" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -14102,8 +14079,7 @@
       <c r="BI111" s="20"/>
       <c r="BJ111" s="20"/>
     </row>
-    <row r="112" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
+    <row r="112" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -14166,8 +14142,7 @@
       <c r="BI112" s="20"/>
       <c r="BJ112" s="20"/>
     </row>
-    <row r="113" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
+    <row r="113" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -14230,8 +14205,7 @@
       <c r="BI113" s="20"/>
       <c r="BJ113" s="20"/>
     </row>
-    <row r="114" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
+    <row r="114" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -14294,8 +14268,7 @@
       <c r="BI114" s="20"/>
       <c r="BJ114" s="20"/>
     </row>
-    <row r="115" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
+    <row r="115" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -14358,8 +14331,7 @@
       <c r="BI115" s="20"/>
       <c r="BJ115" s="20"/>
     </row>
-    <row r="116" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
+    <row r="116" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -14422,8 +14394,7 @@
       <c r="BI116" s="20"/>
       <c r="BJ116" s="20"/>
     </row>
-    <row r="117" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
+    <row r="117" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -14486,8 +14457,7 @@
       <c r="BI117" s="20"/>
       <c r="BJ117" s="20"/>
     </row>
-    <row r="118" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
+    <row r="118" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -14550,8 +14520,7 @@
       <c r="BI118" s="20"/>
       <c r="BJ118" s="20"/>
     </row>
-    <row r="119" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
+    <row r="119" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -14614,8 +14583,7 @@
       <c r="BI119" s="20"/>
       <c r="BJ119" s="20"/>
     </row>
-    <row r="120" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
+    <row r="120" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -14678,8 +14646,7 @@
       <c r="BI120" s="20"/>
       <c r="BJ120" s="20"/>
     </row>
-    <row r="121" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
+    <row r="121" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -14742,8 +14709,7 @@
       <c r="BI121" s="20"/>
       <c r="BJ121" s="20"/>
     </row>
-    <row r="122" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
+    <row r="122" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -14806,8 +14772,7 @@
       <c r="BI122" s="20"/>
       <c r="BJ122" s="20"/>
     </row>
-    <row r="123" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
+    <row r="123" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -14870,8 +14835,7 @@
       <c r="BI123" s="20"/>
       <c r="BJ123" s="20"/>
     </row>
-    <row r="124" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
+    <row r="124" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -14934,8 +14898,7 @@
       <c r="BI124" s="20"/>
       <c r="BJ124" s="20"/>
     </row>
-    <row r="125" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
+    <row r="125" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -14998,8 +14961,7 @@
       <c r="BI125" s="20"/>
       <c r="BJ125" s="20"/>
     </row>
-    <row r="126" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
+    <row r="126" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -15062,8 +15024,7 @@
       <c r="BI126" s="20"/>
       <c r="BJ126" s="20"/>
     </row>
-    <row r="127" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
+    <row r="127" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -15126,8 +15087,7 @@
       <c r="BI127" s="20"/>
       <c r="BJ127" s="20"/>
     </row>
-    <row r="128" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
+    <row r="128" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
@@ -15190,8 +15150,7 @@
       <c r="BI128" s="20"/>
       <c r="BJ128" s="20"/>
     </row>
-    <row r="129" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
+    <row r="129" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -15254,8 +15213,7 @@
       <c r="BI129" s="20"/>
       <c r="BJ129" s="20"/>
     </row>
-    <row r="130" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
+    <row r="130" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -15318,8 +15276,7 @@
       <c r="BI130" s="20"/>
       <c r="BJ130" s="20"/>
     </row>
-    <row r="131" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
+    <row r="131" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
@@ -15382,8 +15339,7 @@
       <c r="BI131" s="20"/>
       <c r="BJ131" s="20"/>
     </row>
-    <row r="132" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
+    <row r="132" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -15446,8 +15402,7 @@
       <c r="BI132" s="20"/>
       <c r="BJ132" s="20"/>
     </row>
-    <row r="133" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
+    <row r="133" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -15510,8 +15465,7 @@
       <c r="BI133" s="20"/>
       <c r="BJ133" s="20"/>
     </row>
-    <row r="134" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
+    <row r="134" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -15574,8 +15528,7 @@
       <c r="BI134" s="20"/>
       <c r="BJ134" s="20"/>
     </row>
-    <row r="135" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
+    <row r="135" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -15638,8 +15591,7 @@
       <c r="BI135" s="20"/>
       <c r="BJ135" s="20"/>
     </row>
-    <row r="136" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
+    <row r="136" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -15702,8 +15654,7 @@
       <c r="BI136" s="20"/>
       <c r="BJ136" s="20"/>
     </row>
-    <row r="137" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
+    <row r="137" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -15766,8 +15717,7 @@
       <c r="BI137" s="20"/>
       <c r="BJ137" s="20"/>
     </row>
-    <row r="138" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
+    <row r="138" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -15830,8 +15780,7 @@
       <c r="BI138" s="20"/>
       <c r="BJ138" s="20"/>
     </row>
-    <row r="139" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
+    <row r="139" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -15894,8 +15843,7 @@
       <c r="BI139" s="20"/>
       <c r="BJ139" s="20"/>
     </row>
-    <row r="140" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
+    <row r="140" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="20"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -15958,8 +15906,7 @@
       <c r="BI140" s="20"/>
       <c r="BJ140" s="20"/>
     </row>
-    <row r="141" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
+    <row r="141" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -16022,8 +15969,7 @@
       <c r="BI141" s="20"/>
       <c r="BJ141" s="20"/>
     </row>
-    <row r="142" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
+    <row r="142" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="20"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -16086,8 +16032,7 @@
       <c r="BI142" s="20"/>
       <c r="BJ142" s="20"/>
     </row>
-    <row r="143" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
+    <row r="143" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -16150,8 +16095,7 @@
       <c r="BI143" s="20"/>
       <c r="BJ143" s="20"/>
     </row>
-    <row r="144" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
+    <row r="144" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="20"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
@@ -16214,8 +16158,7 @@
       <c r="BI144" s="20"/>
       <c r="BJ144" s="20"/>
     </row>
-    <row r="145" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
+    <row r="145" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="20"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -16278,8 +16221,7 @@
       <c r="BI145" s="20"/>
       <c r="BJ145" s="20"/>
     </row>
-    <row r="146" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
+    <row r="146" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="20"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -16342,8 +16284,7 @@
       <c r="BI146" s="20"/>
       <c r="BJ146" s="20"/>
     </row>
-    <row r="147" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
+    <row r="147" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -16406,8 +16347,7 @@
       <c r="BI147" s="20"/>
       <c r="BJ147" s="20"/>
     </row>
-    <row r="148" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
+    <row r="148" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -16470,8 +16410,7 @@
       <c r="BI148" s="20"/>
       <c r="BJ148" s="20"/>
     </row>
-    <row r="149" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
+    <row r="149" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="20"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -16534,8 +16473,7 @@
       <c r="BI149" s="20"/>
       <c r="BJ149" s="20"/>
     </row>
-    <row r="150" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
+    <row r="150" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="20"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -16598,8 +16536,7 @@
       <c r="BI150" s="20"/>
       <c r="BJ150" s="20"/>
     </row>
-    <row r="151" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
+    <row r="151" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -16662,8 +16599,7 @@
       <c r="BI151" s="20"/>
       <c r="BJ151" s="20"/>
     </row>
-    <row r="152" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
+    <row r="152" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="20"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -16726,8 +16662,7 @@
       <c r="BI152" s="20"/>
       <c r="BJ152" s="20"/>
     </row>
-    <row r="153" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
+    <row r="153" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -16790,8 +16725,7 @@
       <c r="BI153" s="20"/>
       <c r="BJ153" s="20"/>
     </row>
-    <row r="154" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
+    <row r="154" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -16854,8 +16788,7 @@
       <c r="BI154" s="20"/>
       <c r="BJ154" s="20"/>
     </row>
-    <row r="155" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
+    <row r="155" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="20"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -16918,8 +16851,7 @@
       <c r="BI155" s="20"/>
       <c r="BJ155" s="20"/>
     </row>
-    <row r="156" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
+    <row r="156" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -16982,8 +16914,7 @@
       <c r="BI156" s="20"/>
       <c r="BJ156" s="20"/>
     </row>
-    <row r="157" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="20"/>
+    <row r="157" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
@@ -17046,8 +16977,7 @@
       <c r="BI157" s="20"/>
       <c r="BJ157" s="20"/>
     </row>
-    <row r="158" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
+    <row r="158" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
@@ -17110,8 +17040,7 @@
       <c r="BI158" s="20"/>
       <c r="BJ158" s="20"/>
     </row>
-    <row r="159" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
+    <row r="159" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
@@ -17174,8 +17103,7 @@
       <c r="BI159" s="20"/>
       <c r="BJ159" s="20"/>
     </row>
-    <row r="160" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
+    <row r="160" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
@@ -17238,8 +17166,7 @@
       <c r="BI160" s="20"/>
       <c r="BJ160" s="20"/>
     </row>
-    <row r="161" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
+    <row r="161" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="20"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
@@ -17302,8 +17229,7 @@
       <c r="BI161" s="20"/>
       <c r="BJ161" s="20"/>
     </row>
-    <row r="162" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="20"/>
+    <row r="162" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="20"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
@@ -17366,8 +17292,7 @@
       <c r="BI162" s="20"/>
       <c r="BJ162" s="20"/>
     </row>
-    <row r="163" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
+    <row r="163" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="20"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
@@ -17430,8 +17355,7 @@
       <c r="BI163" s="20"/>
       <c r="BJ163" s="20"/>
     </row>
-    <row r="164" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
+    <row r="164" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="20"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
@@ -17494,8 +17418,7 @@
       <c r="BI164" s="20"/>
       <c r="BJ164" s="20"/>
     </row>
-    <row r="165" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
+    <row r="165" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="20"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
@@ -17558,8 +17481,7 @@
       <c r="BI165" s="20"/>
       <c r="BJ165" s="20"/>
     </row>
-    <row r="166" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
+    <row r="166" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="20"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
@@ -17622,8 +17544,7 @@
       <c r="BI166" s="20"/>
       <c r="BJ166" s="20"/>
     </row>
-    <row r="167" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
+    <row r="167" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="20"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
@@ -17686,8 +17607,7 @@
       <c r="BI167" s="20"/>
       <c r="BJ167" s="20"/>
     </row>
-    <row r="168" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
+    <row r="168" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
@@ -17750,8 +17670,7 @@
       <c r="BI168" s="20"/>
       <c r="BJ168" s="20"/>
     </row>
-    <row r="169" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
+    <row r="169" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="20"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
@@ -17814,8 +17733,7 @@
       <c r="BI169" s="20"/>
       <c r="BJ169" s="20"/>
     </row>
-    <row r="170" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
+    <row r="170" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="20"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
@@ -17878,8 +17796,7 @@
       <c r="BI170" s="20"/>
       <c r="BJ170" s="20"/>
     </row>
-    <row r="171" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
+    <row r="171" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
@@ -17942,8 +17859,7 @@
       <c r="BI171" s="20"/>
       <c r="BJ171" s="20"/>
     </row>
-    <row r="172" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
+    <row r="172" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="20"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
@@ -18006,8 +17922,7 @@
       <c r="BI172" s="20"/>
       <c r="BJ172" s="20"/>
     </row>
-    <row r="173" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
+    <row r="173" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="20"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
@@ -18070,8 +17985,7 @@
       <c r="BI173" s="20"/>
       <c r="BJ173" s="20"/>
     </row>
-    <row r="174" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="20"/>
+    <row r="174" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="20"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
@@ -18134,8 +18048,7 @@
       <c r="BI174" s="20"/>
       <c r="BJ174" s="20"/>
     </row>
-    <row r="175" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
+    <row r="175" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="20"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
@@ -18198,8 +18111,7 @@
       <c r="BI175" s="20"/>
       <c r="BJ175" s="20"/>
     </row>
-    <row r="176" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
+    <row r="176" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="20"/>
       <c r="C176" s="20"/>
       <c r="D176" s="20"/>
@@ -18262,8 +18174,7 @@
       <c r="BI176" s="20"/>
       <c r="BJ176" s="20"/>
     </row>
-    <row r="177" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="20"/>
+    <row r="177" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
@@ -18326,8 +18237,7 @@
       <c r="BI177" s="20"/>
       <c r="BJ177" s="20"/>
     </row>
-    <row r="178" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
+    <row r="178" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="20"/>
       <c r="C178" s="20"/>
       <c r="D178" s="20"/>
@@ -18390,8 +18300,7 @@
       <c r="BI178" s="20"/>
       <c r="BJ178" s="20"/>
     </row>
-    <row r="179" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="20"/>
+    <row r="179" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="20"/>
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
@@ -18454,8 +18363,7 @@
       <c r="BI179" s="20"/>
       <c r="BJ179" s="20"/>
     </row>
-    <row r="180" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
+    <row r="180" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="20"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
@@ -18518,8 +18426,7 @@
       <c r="BI180" s="20"/>
       <c r="BJ180" s="20"/>
     </row>
-    <row r="181" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="20"/>
+    <row r="181" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="20"/>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
@@ -18582,8 +18489,7 @@
       <c r="BI181" s="20"/>
       <c r="BJ181" s="20"/>
     </row>
-    <row r="182" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
+    <row r="182" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="20"/>
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
@@ -18646,8 +18552,7 @@
       <c r="BI182" s="20"/>
       <c r="BJ182" s="20"/>
     </row>
-    <row r="183" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="20"/>
+    <row r="183" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="20"/>
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
@@ -18710,8 +18615,7 @@
       <c r="BI183" s="20"/>
       <c r="BJ183" s="20"/>
     </row>
-    <row r="184" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
+    <row r="184" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="20"/>
       <c r="C184" s="20"/>
       <c r="D184" s="20"/>
@@ -18774,8 +18678,7 @@
       <c r="BI184" s="20"/>
       <c r="BJ184" s="20"/>
     </row>
-    <row r="185" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
+    <row r="185" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="20"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
@@ -18838,8 +18741,7 @@
       <c r="BI185" s="20"/>
       <c r="BJ185" s="20"/>
     </row>
-    <row r="186" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="20"/>
+    <row r="186" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="20"/>
       <c r="C186" s="20"/>
       <c r="D186" s="20"/>
@@ -18902,8 +18804,7 @@
       <c r="BI186" s="20"/>
       <c r="BJ186" s="20"/>
     </row>
-    <row r="187" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="20"/>
+    <row r="187" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="20"/>
       <c r="C187" s="20"/>
       <c r="D187" s="20"/>
@@ -18966,8 +18867,7 @@
       <c r="BI187" s="20"/>
       <c r="BJ187" s="20"/>
     </row>
-    <row r="188" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="20"/>
+    <row r="188" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="20"/>
       <c r="C188" s="20"/>
       <c r="D188" s="20"/>
@@ -19030,8 +18930,7 @@
       <c r="BI188" s="20"/>
       <c r="BJ188" s="20"/>
     </row>
-    <row r="189" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="20"/>
+    <row r="189" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="20"/>
       <c r="C189" s="20"/>
       <c r="D189" s="20"/>
@@ -19094,8 +18993,7 @@
       <c r="BI189" s="20"/>
       <c r="BJ189" s="20"/>
     </row>
-    <row r="190" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="20"/>
+    <row r="190" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="20"/>
       <c r="C190" s="20"/>
       <c r="D190" s="20"/>
@@ -19158,8 +19056,7 @@
       <c r="BI190" s="20"/>
       <c r="BJ190" s="20"/>
     </row>
-    <row r="191" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="20"/>
+    <row r="191" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="20"/>
       <c r="C191" s="20"/>
       <c r="D191" s="20"/>
@@ -19222,8 +19119,7 @@
       <c r="BI191" s="20"/>
       <c r="BJ191" s="20"/>
     </row>
-    <row r="192" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
+    <row r="192" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="20"/>
       <c r="C192" s="20"/>
       <c r="D192" s="20"/>
@@ -19286,8 +19182,7 @@
       <c r="BI192" s="20"/>
       <c r="BJ192" s="20"/>
     </row>
-    <row r="193" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="20"/>
+    <row r="193" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="20"/>
       <c r="C193" s="20"/>
       <c r="D193" s="20"/>
@@ -19350,8 +19245,7 @@
       <c r="BI193" s="20"/>
       <c r="BJ193" s="20"/>
     </row>
-    <row r="194" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
+    <row r="194" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="20"/>
       <c r="C194" s="20"/>
       <c r="D194" s="20"/>
@@ -19414,8 +19308,7 @@
       <c r="BI194" s="20"/>
       <c r="BJ194" s="20"/>
     </row>
-    <row r="195" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
+    <row r="195" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="20"/>
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
@@ -19478,8 +19371,7 @@
       <c r="BI195" s="20"/>
       <c r="BJ195" s="20"/>
     </row>
-    <row r="196" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="20"/>
+    <row r="196" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="20"/>
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
@@ -19542,8 +19434,7 @@
       <c r="BI196" s="20"/>
       <c r="BJ196" s="20"/>
     </row>
-    <row r="197" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="20"/>
+    <row r="197" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="20"/>
       <c r="C197" s="20"/>
       <c r="D197" s="20"/>
@@ -19606,8 +19497,7 @@
       <c r="BI197" s="20"/>
       <c r="BJ197" s="20"/>
     </row>
-    <row r="198" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="20"/>
+    <row r="198" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="20"/>
       <c r="C198" s="20"/>
       <c r="D198" s="20"/>
@@ -19670,8 +19560,7 @@
       <c r="BI198" s="20"/>
       <c r="BJ198" s="20"/>
     </row>
-    <row r="199" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="20"/>
+    <row r="199" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="20"/>
       <c r="C199" s="20"/>
       <c r="D199" s="20"/>
@@ -19734,8 +19623,7 @@
       <c r="BI199" s="20"/>
       <c r="BJ199" s="20"/>
     </row>
-    <row r="200" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
+    <row r="200" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="20"/>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
@@ -19798,8 +19686,7 @@
       <c r="BI200" s="20"/>
       <c r="BJ200" s="20"/>
     </row>
-    <row r="201" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="20"/>
+    <row r="201" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="20"/>
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
@@ -19862,8 +19749,7 @@
       <c r="BI201" s="20"/>
       <c r="BJ201" s="20"/>
     </row>
-    <row r="202" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="20"/>
+    <row r="202" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="20"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
@@ -19926,8 +19812,7 @@
       <c r="BI202" s="20"/>
       <c r="BJ202" s="20"/>
     </row>
-    <row r="203" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="20"/>
+    <row r="203" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="20"/>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
@@ -19990,8 +19875,7 @@
       <c r="BI203" s="20"/>
       <c r="BJ203" s="20"/>
     </row>
-    <row r="204" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
+    <row r="204" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="20"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
@@ -20054,8 +19938,7 @@
       <c r="BI204" s="20"/>
       <c r="BJ204" s="20"/>
     </row>
-    <row r="205" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
+    <row r="205" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="20"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
@@ -20118,8 +20001,7 @@
       <c r="BI205" s="20"/>
       <c r="BJ205" s="20"/>
     </row>
-    <row r="206" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
+    <row r="206" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="20"/>
       <c r="C206" s="20"/>
       <c r="D206" s="20"/>
@@ -20182,8 +20064,7 @@
       <c r="BI206" s="20"/>
       <c r="BJ206" s="20"/>
     </row>
-    <row r="207" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
+    <row r="207" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="20"/>
       <c r="C207" s="20"/>
       <c r="D207" s="20"/>
@@ -20246,8 +20127,7 @@
       <c r="BI207" s="20"/>
       <c r="BJ207" s="20"/>
     </row>
-    <row r="208" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
+    <row r="208" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="20"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
@@ -20310,8 +20190,7 @@
       <c r="BI208" s="20"/>
       <c r="BJ208" s="20"/>
     </row>
-    <row r="209" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
+    <row r="209" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="20"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
@@ -20374,8 +20253,7 @@
       <c r="BI209" s="20"/>
       <c r="BJ209" s="20"/>
     </row>
-    <row r="210" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
+    <row r="210" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="20"/>
       <c r="C210" s="20"/>
       <c r="D210" s="20"/>
@@ -20438,8 +20316,7 @@
       <c r="BI210" s="20"/>
       <c r="BJ210" s="20"/>
     </row>
-    <row r="211" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
+    <row r="211" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="20"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
@@ -20502,8 +20379,7 @@
       <c r="BI211" s="20"/>
       <c r="BJ211" s="20"/>
     </row>
-    <row r="212" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
+    <row r="212" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="20"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
@@ -20566,8 +20442,7 @@
       <c r="BI212" s="20"/>
       <c r="BJ212" s="20"/>
     </row>
-    <row r="213" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
+    <row r="213" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="20"/>
       <c r="C213" s="20"/>
       <c r="D213" s="20"/>
@@ -20630,8 +20505,7 @@
       <c r="BI213" s="20"/>
       <c r="BJ213" s="20"/>
     </row>
-    <row r="214" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="20"/>
+    <row r="214" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="20"/>
       <c r="C214" s="20"/>
       <c r="D214" s="20"/>
@@ -20694,8 +20568,7 @@
       <c r="BI214" s="20"/>
       <c r="BJ214" s="20"/>
     </row>
-    <row r="215" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
+    <row r="215" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="20"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
@@ -20758,8 +20631,7 @@
       <c r="BI215" s="20"/>
       <c r="BJ215" s="20"/>
     </row>
-    <row r="216" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
+    <row r="216" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="20"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
@@ -20822,8 +20694,7 @@
       <c r="BI216" s="20"/>
       <c r="BJ216" s="20"/>
     </row>
-    <row r="217" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
+    <row r="217" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="20"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
@@ -20886,8 +20757,7 @@
       <c r="BI217" s="20"/>
       <c r="BJ217" s="20"/>
     </row>
-    <row r="218" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
+    <row r="218" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="20"/>
       <c r="C218" s="20"/>
       <c r="D218" s="20"/>
@@ -20950,8 +20820,7 @@
       <c r="BI218" s="20"/>
       <c r="BJ218" s="20"/>
     </row>
-    <row r="219" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="20"/>
+    <row r="219" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="20"/>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
@@ -21014,8 +20883,7 @@
       <c r="BI219" s="20"/>
       <c r="BJ219" s="20"/>
     </row>
-    <row r="220" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
+    <row r="220" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="20"/>
       <c r="C220" s="20"/>
       <c r="D220" s="20"/>
@@ -21078,8 +20946,7 @@
       <c r="BI220" s="20"/>
       <c r="BJ220" s="20"/>
     </row>
-    <row r="221" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
+    <row r="221" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="20"/>
       <c r="C221" s="20"/>
       <c r="D221" s="20"/>
@@ -21142,8 +21009,7 @@
       <c r="BI221" s="20"/>
       <c r="BJ221" s="20"/>
     </row>
-    <row r="222" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
+    <row r="222" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="20"/>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
@@ -21206,8 +21072,7 @@
       <c r="BI222" s="20"/>
       <c r="BJ222" s="20"/>
     </row>
-    <row r="223" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
+    <row r="223" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="20"/>
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
@@ -21270,8 +21135,7 @@
       <c r="BI223" s="20"/>
       <c r="BJ223" s="20"/>
     </row>
-    <row r="224" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
+    <row r="224" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="20"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
@@ -21334,8 +21198,7 @@
       <c r="BI224" s="20"/>
       <c r="BJ224" s="20"/>
     </row>
-    <row r="225" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
+    <row r="225" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="20"/>
       <c r="C225" s="20"/>
       <c r="D225" s="20"/>
@@ -21398,8 +21261,7 @@
       <c r="BI225" s="20"/>
       <c r="BJ225" s="20"/>
     </row>
-    <row r="226" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
+    <row r="226" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="20"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
@@ -21462,8 +21324,7 @@
       <c r="BI226" s="20"/>
       <c r="BJ226" s="20"/>
     </row>
-    <row r="227" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
+    <row r="227" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="20"/>
       <c r="C227" s="20"/>
       <c r="D227" s="20"/>
@@ -21526,8 +21387,7 @@
       <c r="BI227" s="20"/>
       <c r="BJ227" s="20"/>
     </row>
-    <row r="228" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
+    <row r="228" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="20"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
@@ -21590,8 +21450,7 @@
       <c r="BI228" s="20"/>
       <c r="BJ228" s="20"/>
     </row>
-    <row r="229" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
+    <row r="229" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="20"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
@@ -21654,8 +21513,7 @@
       <c r="BI229" s="20"/>
       <c r="BJ229" s="20"/>
     </row>
-    <row r="230" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
+    <row r="230" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="20"/>
       <c r="C230" s="20"/>
       <c r="D230" s="20"/>
@@ -21718,8 +21576,7 @@
       <c r="BI230" s="20"/>
       <c r="BJ230" s="20"/>
     </row>
-    <row r="231" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
+    <row r="231" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="20"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
@@ -21782,8 +21639,7 @@
       <c r="BI231" s="20"/>
       <c r="BJ231" s="20"/>
     </row>
-    <row r="232" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
+    <row r="232" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="20"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
@@ -21846,8 +21702,7 @@
       <c r="BI232" s="20"/>
       <c r="BJ232" s="20"/>
     </row>
-    <row r="233" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
+    <row r="233" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="20"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
@@ -21910,8 +21765,7 @@
       <c r="BI233" s="20"/>
       <c r="BJ233" s="20"/>
     </row>
-    <row r="234" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
+    <row r="234" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="20"/>
       <c r="C234" s="20"/>
       <c r="D234" s="20"/>
@@ -21974,8 +21828,7 @@
       <c r="BI234" s="20"/>
       <c r="BJ234" s="20"/>
     </row>
-    <row r="235" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
+    <row r="235" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="20"/>
       <c r="C235" s="20"/>
       <c r="D235" s="20"/>
@@ -22038,8 +21891,7 @@
       <c r="BI235" s="20"/>
       <c r="BJ235" s="20"/>
     </row>
-    <row r="236" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="20"/>
+    <row r="236" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="20"/>
       <c r="C236" s="20"/>
       <c r="D236" s="20"/>
@@ -22102,8 +21954,7 @@
       <c r="BI236" s="20"/>
       <c r="BJ236" s="20"/>
     </row>
-    <row r="237" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="20"/>
+    <row r="237" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="20"/>
       <c r="C237" s="20"/>
       <c r="D237" s="20"/>
@@ -22166,8 +22017,7 @@
       <c r="BI237" s="20"/>
       <c r="BJ237" s="20"/>
     </row>
-    <row r="238" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
+    <row r="238" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="20"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
@@ -22230,8 +22080,7 @@
       <c r="BI238" s="20"/>
       <c r="BJ238" s="20"/>
     </row>
-    <row r="239" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="20"/>
+    <row r="239" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="20"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
@@ -22294,8 +22143,7 @@
       <c r="BI239" s="20"/>
       <c r="BJ239" s="20"/>
     </row>
-    <row r="240" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
+    <row r="240" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="20"/>
       <c r="C240" s="20"/>
       <c r="D240" s="20"/>
@@ -22358,8 +22206,7 @@
       <c r="BI240" s="20"/>
       <c r="BJ240" s="20"/>
     </row>
-    <row r="241" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
+    <row r="241" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="20"/>
       <c r="C241" s="20"/>
       <c r="D241" s="20"/>
@@ -22422,8 +22269,7 @@
       <c r="BI241" s="20"/>
       <c r="BJ241" s="20"/>
     </row>
-    <row r="242" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
+    <row r="242" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="20"/>
       <c r="C242" s="20"/>
       <c r="D242" s="20"/>
@@ -22486,8 +22332,7 @@
       <c r="BI242" s="20"/>
       <c r="BJ242" s="20"/>
     </row>
-    <row r="243" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="20"/>
+    <row r="243" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="20"/>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
@@ -22550,8 +22395,7 @@
       <c r="BI243" s="20"/>
       <c r="BJ243" s="20"/>
     </row>
-    <row r="244" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="20"/>
+    <row r="244" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="20"/>
       <c r="C244" s="20"/>
       <c r="D244" s="20"/>
@@ -22614,8 +22458,7 @@
       <c r="BI244" s="20"/>
       <c r="BJ244" s="20"/>
     </row>
-    <row r="245" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
+    <row r="245" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="20"/>
       <c r="C245" s="20"/>
       <c r="D245" s="20"/>
@@ -22678,8 +22521,7 @@
       <c r="BI245" s="20"/>
       <c r="BJ245" s="20"/>
     </row>
-    <row r="246" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="20"/>
+    <row r="246" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="20"/>
       <c r="C246" s="20"/>
       <c r="D246" s="20"/>
@@ -22742,8 +22584,7 @@
       <c r="BI246" s="20"/>
       <c r="BJ246" s="20"/>
     </row>
-    <row r="247" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="20"/>
+    <row r="247" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="20"/>
       <c r="C247" s="20"/>
       <c r="D247" s="20"/>
@@ -22806,8 +22647,7 @@
       <c r="BI247" s="20"/>
       <c r="BJ247" s="20"/>
     </row>
-    <row r="248" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="20"/>
+    <row r="248" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="20"/>
       <c r="C248" s="20"/>
       <c r="D248" s="20"/>
@@ -22870,8 +22710,7 @@
       <c r="BI248" s="20"/>
       <c r="BJ248" s="20"/>
     </row>
-    <row r="249" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="20"/>
+    <row r="249" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="20"/>
       <c r="C249" s="20"/>
       <c r="D249" s="20"/>
@@ -22934,8 +22773,7 @@
       <c r="BI249" s="20"/>
       <c r="BJ249" s="20"/>
     </row>
-    <row r="250" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="20"/>
+    <row r="250" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="20"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
@@ -22998,8 +22836,7 @@
       <c r="BI250" s="20"/>
       <c r="BJ250" s="20"/>
     </row>
-    <row r="251" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="20"/>
+    <row r="251" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="20"/>
       <c r="C251" s="20"/>
       <c r="D251" s="20"/>
@@ -23062,8 +22899,7 @@
       <c r="BI251" s="20"/>
       <c r="BJ251" s="20"/>
     </row>
-    <row r="252" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="20"/>
+    <row r="252" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="20"/>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
@@ -23126,8 +22962,7 @@
       <c r="BI252" s="20"/>
       <c r="BJ252" s="20"/>
     </row>
-    <row r="253" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="20"/>
+    <row r="253" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="20"/>
       <c r="C253" s="20"/>
       <c r="D253" s="20"/>
@@ -23190,8 +23025,7 @@
       <c r="BI253" s="20"/>
       <c r="BJ253" s="20"/>
     </row>
-    <row r="254" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="20"/>
+    <row r="254" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="20"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
@@ -23254,8 +23088,7 @@
       <c r="BI254" s="20"/>
       <c r="BJ254" s="20"/>
     </row>
-    <row r="255" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="20"/>
+    <row r="255" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="20"/>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>
@@ -23318,8 +23151,7 @@
       <c r="BI255" s="20"/>
       <c r="BJ255" s="20"/>
     </row>
-    <row r="256" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="20"/>
+    <row r="256" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="20"/>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
@@ -23382,8 +23214,7 @@
       <c r="BI256" s="20"/>
       <c r="BJ256" s="20"/>
     </row>
-    <row r="257" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="20"/>
+    <row r="257" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="20"/>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
@@ -23446,8 +23277,7 @@
       <c r="BI257" s="20"/>
       <c r="BJ257" s="20"/>
     </row>
-    <row r="258" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
+    <row r="258" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="20"/>
       <c r="C258" s="20"/>
       <c r="D258" s="20"/>
@@ -23510,8 +23340,7 @@
       <c r="BI258" s="20"/>
       <c r="BJ258" s="20"/>
     </row>
-    <row r="259" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="20"/>
+    <row r="259" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="20"/>
       <c r="C259" s="20"/>
       <c r="D259" s="20"/>
@@ -23574,8 +23403,7 @@
       <c r="BI259" s="20"/>
       <c r="BJ259" s="20"/>
     </row>
-    <row r="260" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="20"/>
+    <row r="260" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="20"/>
       <c r="C260" s="20"/>
       <c r="D260" s="20"/>
@@ -23638,8 +23466,7 @@
       <c r="BI260" s="20"/>
       <c r="BJ260" s="20"/>
     </row>
-    <row r="261" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="20"/>
+    <row r="261" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="20"/>
       <c r="C261" s="20"/>
       <c r="D261" s="20"/>
@@ -23702,8 +23529,7 @@
       <c r="BI261" s="20"/>
       <c r="BJ261" s="20"/>
     </row>
-    <row r="262" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="20"/>
+    <row r="262" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="20"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
@@ -23766,8 +23592,7 @@
       <c r="BI262" s="20"/>
       <c r="BJ262" s="20"/>
     </row>
-    <row r="263" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="20"/>
+    <row r="263" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="20"/>
       <c r="C263" s="20"/>
       <c r="D263" s="20"/>
@@ -23830,8 +23655,7 @@
       <c r="BI263" s="20"/>
       <c r="BJ263" s="20"/>
     </row>
-    <row r="264" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="20"/>
+    <row r="264" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="20"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
@@ -23894,8 +23718,7 @@
       <c r="BI264" s="20"/>
       <c r="BJ264" s="20"/>
     </row>
-    <row r="265" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="20"/>
+    <row r="265" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="20"/>
       <c r="C265" s="20"/>
       <c r="D265" s="20"/>
@@ -23958,8 +23781,7 @@
       <c r="BI265" s="20"/>
       <c r="BJ265" s="20"/>
     </row>
-    <row r="266" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="20"/>
+    <row r="266" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="20"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
@@ -24022,8 +23844,7 @@
       <c r="BI266" s="20"/>
       <c r="BJ266" s="20"/>
     </row>
-    <row r="267" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="20"/>
+    <row r="267" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="20"/>
       <c r="C267" s="20"/>
       <c r="D267" s="20"/>
@@ -24086,8 +23907,7 @@
       <c r="BI267" s="20"/>
       <c r="BJ267" s="20"/>
     </row>
-    <row r="268" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="20"/>
+    <row r="268" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="20"/>
       <c r="C268" s="20"/>
       <c r="D268" s="20"/>
@@ -24150,8 +23970,7 @@
       <c r="BI268" s="20"/>
       <c r="BJ268" s="20"/>
     </row>
-    <row r="269" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="20"/>
+    <row r="269" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="20"/>
       <c r="C269" s="20"/>
       <c r="D269" s="20"/>
@@ -24214,8 +24033,7 @@
       <c r="BI269" s="20"/>
       <c r="BJ269" s="20"/>
     </row>
-    <row r="270" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="20"/>
+    <row r="270" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="20"/>
       <c r="C270" s="20"/>
       <c r="D270" s="20"/>
@@ -24278,8 +24096,7 @@
       <c r="BI270" s="20"/>
       <c r="BJ270" s="20"/>
     </row>
-    <row r="271" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="20"/>
+    <row r="271" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="20"/>
       <c r="C271" s="20"/>
       <c r="D271" s="20"/>
@@ -24342,8 +24159,7 @@
       <c r="BI271" s="20"/>
       <c r="BJ271" s="20"/>
     </row>
-    <row r="272" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="20"/>
+    <row r="272" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="20"/>
       <c r="C272" s="20"/>
       <c r="D272" s="20"/>
@@ -24406,8 +24222,7 @@
       <c r="BI272" s="20"/>
       <c r="BJ272" s="20"/>
     </row>
-    <row r="273" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="20"/>
+    <row r="273" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="20"/>
       <c r="C273" s="20"/>
       <c r="D273" s="20"/>
@@ -24470,8 +24285,7 @@
       <c r="BI273" s="20"/>
       <c r="BJ273" s="20"/>
     </row>
-    <row r="274" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="20"/>
+    <row r="274" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="20"/>
       <c r="C274" s="20"/>
       <c r="D274" s="20"/>
@@ -24534,8 +24348,7 @@
       <c r="BI274" s="20"/>
       <c r="BJ274" s="20"/>
     </row>
-    <row r="275" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
+    <row r="275" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="20"/>
       <c r="C275" s="20"/>
       <c r="D275" s="20"/>
@@ -24598,8 +24411,7 @@
       <c r="BI275" s="20"/>
       <c r="BJ275" s="20"/>
     </row>
-    <row r="276" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="20"/>
+    <row r="276" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="20"/>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
@@ -24662,8 +24474,7 @@
       <c r="BI276" s="20"/>
       <c r="BJ276" s="20"/>
     </row>
-    <row r="277" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="20"/>
+    <row r="277" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="20"/>
       <c r="C277" s="20"/>
       <c r="D277" s="20"/>
@@ -24726,8 +24537,7 @@
       <c r="BI277" s="20"/>
       <c r="BJ277" s="20"/>
     </row>
-    <row r="278" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="20"/>
+    <row r="278" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="20"/>
       <c r="C278" s="20"/>
       <c r="D278" s="20"/>
@@ -24790,8 +24600,7 @@
       <c r="BI278" s="20"/>
       <c r="BJ278" s="20"/>
     </row>
-    <row r="279" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="20"/>
+    <row r="279" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="20"/>
       <c r="C279" s="20"/>
       <c r="D279" s="20"/>
@@ -24854,8 +24663,7 @@
       <c r="BI279" s="20"/>
       <c r="BJ279" s="20"/>
     </row>
-    <row r="280" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="20"/>
+    <row r="280" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="20"/>
       <c r="C280" s="20"/>
       <c r="D280" s="20"/>
@@ -24918,8 +24726,7 @@
       <c r="BI280" s="20"/>
       <c r="BJ280" s="20"/>
     </row>
-    <row r="281" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="20"/>
+    <row r="281" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="20"/>
       <c r="C281" s="20"/>
       <c r="D281" s="20"/>
@@ -24982,8 +24789,7 @@
       <c r="BI281" s="20"/>
       <c r="BJ281" s="20"/>
     </row>
-    <row r="282" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="20"/>
+    <row r="282" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="20"/>
       <c r="C282" s="20"/>
       <c r="D282" s="20"/>
@@ -25046,8 +24852,7 @@
       <c r="BI282" s="20"/>
       <c r="BJ282" s="20"/>
     </row>
-    <row r="283" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="20"/>
+    <row r="283" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="20"/>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
@@ -25110,8 +24915,7 @@
       <c r="BI283" s="20"/>
       <c r="BJ283" s="20"/>
     </row>
-    <row r="284" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="20"/>
+    <row r="284" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="20"/>
       <c r="C284" s="20"/>
       <c r="D284" s="20"/>
@@ -25174,8 +24978,7 @@
       <c r="BI284" s="20"/>
       <c r="BJ284" s="20"/>
     </row>
-    <row r="285" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="20"/>
+    <row r="285" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="20"/>
       <c r="C285" s="20"/>
       <c r="D285" s="20"/>
@@ -25238,8 +25041,7 @@
       <c r="BI285" s="20"/>
       <c r="BJ285" s="20"/>
     </row>
-    <row r="286" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="20"/>
+    <row r="286" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="20"/>
       <c r="C286" s="20"/>
       <c r="D286" s="20"/>
@@ -25302,8 +25104,7 @@
       <c r="BI286" s="20"/>
       <c r="BJ286" s="20"/>
     </row>
-    <row r="287" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="20"/>
+    <row r="287" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="20"/>
       <c r="C287" s="20"/>
       <c r="D287" s="20"/>
@@ -25366,8 +25167,7 @@
       <c r="BI287" s="20"/>
       <c r="BJ287" s="20"/>
     </row>
-    <row r="288" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="20"/>
+    <row r="288" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="20"/>
       <c r="C288" s="20"/>
       <c r="D288" s="20"/>
@@ -25430,8 +25230,7 @@
       <c r="BI288" s="20"/>
       <c r="BJ288" s="20"/>
     </row>
-    <row r="289" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="20"/>
+    <row r="289" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="20"/>
       <c r="C289" s="20"/>
       <c r="D289" s="20"/>
@@ -25494,8 +25293,7 @@
       <c r="BI289" s="20"/>
       <c r="BJ289" s="20"/>
     </row>
-    <row r="290" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="20"/>
+    <row r="290" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="20"/>
       <c r="C290" s="20"/>
       <c r="D290" s="20"/>
@@ -25558,8 +25356,7 @@
       <c r="BI290" s="20"/>
       <c r="BJ290" s="20"/>
     </row>
-    <row r="291" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="20"/>
+    <row r="291" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="20"/>
       <c r="C291" s="20"/>
       <c r="D291" s="20"/>
@@ -25622,8 +25419,7 @@
       <c r="BI291" s="20"/>
       <c r="BJ291" s="20"/>
     </row>
-    <row r="292" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="20"/>
+    <row r="292" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="20"/>
       <c r="C292" s="20"/>
       <c r="D292" s="20"/>
@@ -25686,8 +25482,7 @@
       <c r="BI292" s="20"/>
       <c r="BJ292" s="20"/>
     </row>
-    <row r="293" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="20"/>
+    <row r="293" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="20"/>
       <c r="C293" s="20"/>
       <c r="D293" s="20"/>
@@ -25750,8 +25545,7 @@
       <c r="BI293" s="20"/>
       <c r="BJ293" s="20"/>
     </row>
-    <row r="294" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="20"/>
+    <row r="294" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="20"/>
       <c r="C294" s="20"/>
       <c r="D294" s="20"/>
@@ -25814,8 +25608,7 @@
       <c r="BI294" s="20"/>
       <c r="BJ294" s="20"/>
     </row>
-    <row r="295" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="20"/>
+    <row r="295" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="20"/>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
@@ -25878,8 +25671,7 @@
       <c r="BI295" s="20"/>
       <c r="BJ295" s="20"/>
     </row>
-    <row r="296" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="20"/>
+    <row r="296" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="20"/>
       <c r="C296" s="20"/>
       <c r="D296" s="20"/>
@@ -25942,8 +25734,7 @@
       <c r="BI296" s="20"/>
       <c r="BJ296" s="20"/>
     </row>
-    <row r="297" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="20"/>
+    <row r="297" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="20"/>
       <c r="C297" s="20"/>
       <c r="D297" s="20"/>
@@ -26006,8 +25797,7 @@
       <c r="BI297" s="20"/>
       <c r="BJ297" s="20"/>
     </row>
-    <row r="298" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="20"/>
+    <row r="298" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="20"/>
       <c r="C298" s="20"/>
       <c r="D298" s="20"/>
@@ -26070,8 +25860,7 @@
       <c r="BI298" s="20"/>
       <c r="BJ298" s="20"/>
     </row>
-    <row r="299" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="20"/>
+    <row r="299" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="20"/>
       <c r="C299" s="20"/>
       <c r="D299" s="20"/>
@@ -26134,8 +25923,7 @@
       <c r="BI299" s="20"/>
       <c r="BJ299" s="20"/>
     </row>
-    <row r="300" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="20"/>
+    <row r="300" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="20"/>
       <c r="C300" s="20"/>
       <c r="D300" s="20"/>
@@ -26198,8 +25986,7 @@
       <c r="BI300" s="20"/>
       <c r="BJ300" s="20"/>
     </row>
-    <row r="301" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="20"/>
+    <row r="301" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="20"/>
       <c r="C301" s="20"/>
       <c r="D301" s="20"/>
@@ -26262,8 +26049,7 @@
       <c r="BI301" s="20"/>
       <c r="BJ301" s="20"/>
     </row>
-    <row r="302" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="20"/>
+    <row r="302" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="20"/>
       <c r="C302" s="20"/>
       <c r="D302" s="20"/>
@@ -26326,8 +26112,7 @@
       <c r="BI302" s="20"/>
       <c r="BJ302" s="20"/>
     </row>
-    <row r="303" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="20"/>
+    <row r="303" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="20"/>
       <c r="C303" s="20"/>
       <c r="D303" s="20"/>
@@ -26390,8 +26175,7 @@
       <c r="BI303" s="20"/>
       <c r="BJ303" s="20"/>
     </row>
-    <row r="304" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="20"/>
+    <row r="304" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="20"/>
       <c r="C304" s="20"/>
       <c r="D304" s="20"/>
@@ -26454,8 +26238,7 @@
       <c r="BI304" s="20"/>
       <c r="BJ304" s="20"/>
     </row>
-    <row r="305" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="20"/>
+    <row r="305" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="20"/>
       <c r="C305" s="20"/>
       <c r="D305" s="20"/>
@@ -26518,8 +26301,7 @@
       <c r="BI305" s="20"/>
       <c r="BJ305" s="20"/>
     </row>
-    <row r="306" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="20"/>
+    <row r="306" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="20"/>
       <c r="C306" s="20"/>
       <c r="D306" s="20"/>
@@ -26582,8 +26364,7 @@
       <c r="BI306" s="20"/>
       <c r="BJ306" s="20"/>
     </row>
-    <row r="307" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="20"/>
+    <row r="307" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="20"/>
       <c r="C307" s="20"/>
       <c r="D307" s="20"/>
@@ -26646,8 +26427,7 @@
       <c r="BI307" s="20"/>
       <c r="BJ307" s="20"/>
     </row>
-    <row r="308" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="20"/>
+    <row r="308" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="20"/>
       <c r="C308" s="20"/>
       <c r="D308" s="20"/>
@@ -26710,8 +26490,7 @@
       <c r="BI308" s="20"/>
       <c r="BJ308" s="20"/>
     </row>
-    <row r="309" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="20"/>
+    <row r="309" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="20"/>
       <c r="C309" s="20"/>
       <c r="D309" s="20"/>
@@ -26774,8 +26553,7 @@
       <c r="BI309" s="20"/>
       <c r="BJ309" s="20"/>
     </row>
-    <row r="310" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="20"/>
+    <row r="310" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="20"/>
       <c r="C310" s="20"/>
       <c r="D310" s="20"/>
@@ -26838,8 +26616,7 @@
       <c r="BI310" s="20"/>
       <c r="BJ310" s="20"/>
     </row>
-    <row r="311" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="20"/>
+    <row r="311" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="20"/>
       <c r="C311" s="20"/>
       <c r="D311" s="20"/>
@@ -26902,8 +26679,7 @@
       <c r="BI311" s="20"/>
       <c r="BJ311" s="20"/>
     </row>
-    <row r="312" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="20"/>
+    <row r="312" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="20"/>
       <c r="C312" s="20"/>
       <c r="D312" s="20"/>
@@ -26966,8 +26742,7 @@
       <c r="BI312" s="20"/>
       <c r="BJ312" s="20"/>
     </row>
-    <row r="313" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="20"/>
+    <row r="313" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="20"/>
       <c r="C313" s="20"/>
       <c r="D313" s="20"/>
@@ -27030,8 +26805,7 @@
       <c r="BI313" s="20"/>
       <c r="BJ313" s="20"/>
     </row>
-    <row r="314" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="20"/>
+    <row r="314" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="20"/>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
@@ -27094,8 +26868,7 @@
       <c r="BI314" s="20"/>
       <c r="BJ314" s="20"/>
     </row>
-    <row r="315" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="20"/>
+    <row r="315" spans="2:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="20"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>

--- a/Resources/Dante Level Models.xlsx
+++ b/Resources/Dante Level Models.xlsx
@@ -369,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -914,15 +914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1255,22 +1246,16 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,7 +1276,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,15 +1294,19 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7218,10 +7207,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A65" sqref="A65"/>
-      <selection pane="topRight" activeCell="BK78" sqref="BK78:BP81"/>
+      <selection pane="topRight" activeCell="AO101" sqref="AO101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12365,7 +12354,7 @@
       <c r="AI75" s="39"/>
       <c r="AJ75" s="39"/>
       <c r="AK75" s="39"/>
-      <c r="AL75" s="39"/>
+      <c r="AL75" s="1"/>
       <c r="AM75" s="39"/>
       <c r="AN75" s="39"/>
       <c r="AO75" s="39"/>
@@ -12374,10 +12363,10 @@
       <c r="AR75" s="39"/>
       <c r="AS75" s="39"/>
       <c r="AT75" s="39"/>
-      <c r="AU75" s="50"/>
+      <c r="AU75" s="39"/>
       <c r="AV75" s="50"/>
       <c r="AW75" s="50"/>
-      <c r="AX75" s="39"/>
+      <c r="AX75" s="50"/>
       <c r="AY75" s="39"/>
       <c r="AZ75" s="39"/>
       <c r="BA75" s="39"/>
@@ -12437,16 +12426,16 @@
       <c r="AD76" s="39"/>
       <c r="AE76" s="39"/>
       <c r="AF76" s="39"/>
-      <c r="AG76" s="40"/>
-      <c r="AH76" s="39"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="40"/>
       <c r="AI76" s="39"/>
       <c r="AJ76" s="39"/>
       <c r="AK76" s="39"/>
-      <c r="AL76" s="39"/>
+      <c r="AL76" s="1"/>
       <c r="AM76" s="39"/>
       <c r="AN76" s="39"/>
       <c r="AO76" s="39"/>
-      <c r="AP76" s="39"/>
+      <c r="AP76" s="38"/>
       <c r="AQ76" s="39"/>
       <c r="AR76" s="39"/>
       <c r="AS76" s="39"/>
@@ -12519,7 +12508,7 @@
       <c r="AI77" s="39"/>
       <c r="AJ77" s="39"/>
       <c r="AK77" s="39"/>
-      <c r="AL77" s="19"/>
+      <c r="AL77" s="1"/>
       <c r="AM77" s="19"/>
       <c r="AN77" s="19"/>
       <c r="AO77" s="19"/>
@@ -12527,7 +12516,7 @@
       <c r="AQ77" s="19"/>
       <c r="AR77" s="19"/>
       <c r="AS77" s="19"/>
-      <c r="AT77" s="39"/>
+      <c r="AT77" s="19"/>
       <c r="AU77" s="39"/>
       <c r="AV77" s="39"/>
       <c r="AW77" s="39"/>
@@ -12596,7 +12585,7 @@
       <c r="AI78" s="39"/>
       <c r="AJ78" s="39"/>
       <c r="AK78" s="39"/>
-      <c r="AL78" s="19"/>
+      <c r="AL78" s="1"/>
       <c r="AM78" s="19"/>
       <c r="AN78" s="19"/>
       <c r="AO78" s="19"/>
@@ -12604,7 +12593,7 @@
       <c r="AQ78" s="19"/>
       <c r="AR78" s="19"/>
       <c r="AS78" s="19"/>
-      <c r="AT78" s="39"/>
+      <c r="AT78" s="19"/>
       <c r="AU78" s="39"/>
       <c r="AV78" s="39"/>
       <c r="AW78" s="39"/>
@@ -15154,11 +15143,11 @@
       <c r="AD110" s="39"/>
       <c r="AE110" s="39"/>
       <c r="AF110" s="39"/>
-      <c r="AG110" s="196"/>
-      <c r="AH110" s="197"/>
-      <c r="AI110" s="197"/>
-      <c r="AJ110" s="197"/>
-      <c r="AK110" s="198"/>
+      <c r="AG110" s="194"/>
+      <c r="AH110" s="195"/>
+      <c r="AI110" s="195"/>
+      <c r="AJ110" s="195"/>
+      <c r="AK110" s="196"/>
       <c r="AL110" s="39"/>
       <c r="AM110" s="39"/>
       <c r="AN110" s="39"/>
@@ -15413,7 +15402,7 @@
       <c r="BG113" s="39"/>
       <c r="BH113" s="39"/>
       <c r="BI113" s="115"/>
-      <c r="BJ113" s="39"/>
+      <c r="BJ113" s="47"/>
       <c r="BK113" s="39"/>
       <c r="BL113" s="39"/>
       <c r="BM113" s="39"/>
@@ -15489,7 +15478,7 @@
       <c r="BG114" s="39"/>
       <c r="BH114" s="39"/>
       <c r="BI114" s="115"/>
-      <c r="BJ114" s="39"/>
+      <c r="BJ114" s="47"/>
       <c r="BK114" s="39"/>
       <c r="BL114" s="39"/>
       <c r="BM114" s="39"/>
@@ -15516,11 +15505,11 @@
       <c r="J115" s="19"/>
       <c r="K115" s="39"/>
       <c r="L115" s="39"/>
-      <c r="M115" s="196"/>
-      <c r="N115" s="197"/>
-      <c r="O115" s="197"/>
-      <c r="P115" s="197"/>
-      <c r="Q115" s="198"/>
+      <c r="M115" s="194"/>
+      <c r="N115" s="195"/>
+      <c r="O115" s="195"/>
+      <c r="P115" s="195"/>
+      <c r="Q115" s="196"/>
       <c r="R115" s="39"/>
       <c r="S115" s="39"/>
       <c r="T115" s="39"/>
@@ -15565,7 +15554,7 @@
       <c r="BG115" s="39"/>
       <c r="BH115" s="39"/>
       <c r="BI115" s="39"/>
-      <c r="BJ115" s="39"/>
+      <c r="BJ115" s="47"/>
       <c r="BK115" s="39"/>
       <c r="BL115" s="39"/>
       <c r="BM115" s="123">
@@ -15643,7 +15632,7 @@
       <c r="BG116" s="39"/>
       <c r="BH116" s="39"/>
       <c r="BI116" s="39"/>
-      <c r="BJ116" s="39"/>
+      <c r="BJ116" s="47"/>
       <c r="BK116" s="39"/>
       <c r="BL116" s="39"/>
       <c r="BM116" s="39"/>
@@ -15713,13 +15702,13 @@
       <c r="BA117" s="39"/>
       <c r="BB117" s="39"/>
       <c r="BC117" s="39"/>
-      <c r="BD117" s="39"/>
-      <c r="BE117" s="39"/>
-      <c r="BF117" s="19"/>
+      <c r="BD117" s="19"/>
+      <c r="BE117" s="19"/>
+      <c r="BF117" s="1"/>
       <c r="BG117" s="19"/>
-      <c r="BH117" s="39"/>
+      <c r="BH117" s="19"/>
       <c r="BI117" s="39"/>
-      <c r="BJ117" s="19"/>
+      <c r="BJ117" s="108"/>
       <c r="BK117" s="19"/>
       <c r="BL117" s="19"/>
       <c r="BM117" s="19"/>
@@ -15786,16 +15775,16 @@
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
       <c r="AZ118" s="39"/>
-      <c r="BA118" s="39"/>
-      <c r="BB118" s="39"/>
-      <c r="BC118" s="39"/>
-      <c r="BD118" s="39"/>
-      <c r="BE118" s="39"/>
-      <c r="BF118" s="19"/>
+      <c r="BA118" s="19"/>
+      <c r="BB118" s="19"/>
+      <c r="BC118" s="1"/>
+      <c r="BD118" s="19"/>
+      <c r="BE118" s="19"/>
+      <c r="BF118" s="1"/>
       <c r="BG118" s="19"/>
-      <c r="BH118" s="39"/>
+      <c r="BH118" s="19"/>
       <c r="BI118" s="39"/>
-      <c r="BJ118" s="19"/>
+      <c r="BJ118" s="108"/>
       <c r="BK118" s="19"/>
       <c r="BL118" s="19"/>
       <c r="BM118" s="19"/>
@@ -15864,17 +15853,17 @@
       <c r="AZ119" s="39"/>
       <c r="BA119" s="19"/>
       <c r="BB119" s="19"/>
-      <c r="BC119" s="39"/>
+      <c r="BC119" s="1"/>
       <c r="BD119" s="39"/>
       <c r="BE119" s="39"/>
       <c r="BF119" s="39"/>
       <c r="BG119" s="39"/>
       <c r="BH119" s="39"/>
       <c r="BI119" s="39"/>
-      <c r="BJ119" s="187" t="s">
+      <c r="BJ119" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="BK119" s="188"/>
+      <c r="BK119" s="187"/>
       <c r="BL119" s="39"/>
       <c r="BM119" s="39"/>
       <c r="BN119" s="39"/>
@@ -15900,13 +15889,13 @@
       <c r="J120" s="39"/>
       <c r="K120" s="39"/>
       <c r="L120" s="39"/>
-      <c r="M120" s="193" t="s">
+      <c r="M120" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="N120" s="194"/>
-      <c r="O120" s="194"/>
-      <c r="P120" s="194"/>
-      <c r="Q120" s="195"/>
+      <c r="N120" s="192"/>
+      <c r="O120" s="192"/>
+      <c r="P120" s="192"/>
+      <c r="Q120" s="193"/>
       <c r="R120" s="51"/>
       <c r="S120" s="51"/>
       <c r="T120" s="51"/>
@@ -15941,20 +15930,20 @@
       <c r="AU120" s="39"/>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39"/>
-      <c r="AX120" s="39"/>
-      <c r="AY120" s="39"/>
-      <c r="AZ120" s="39"/>
-      <c r="BA120" s="19"/>
-      <c r="BB120" s="53"/>
-      <c r="BC120" s="51"/>
-      <c r="BD120" s="51"/>
-      <c r="BE120" s="51"/>
-      <c r="BF120" s="51"/>
-      <c r="BG120" s="51"/>
-      <c r="BH120" s="51"/>
-      <c r="BI120" s="51"/>
+      <c r="AX120" s="19"/>
+      <c r="AY120" s="19"/>
+      <c r="AZ120" s="1"/>
+      <c r="BA120" s="1"/>
+      <c r="BB120" s="1"/>
+      <c r="BC120" s="39"/>
+      <c r="BD120" s="39"/>
+      <c r="BE120" s="39"/>
+      <c r="BF120" s="39"/>
+      <c r="BG120" s="39"/>
+      <c r="BH120" s="39"/>
+      <c r="BI120" s="39"/>
       <c r="BJ120" s="189"/>
-      <c r="BK120" s="190"/>
+      <c r="BK120" s="188"/>
       <c r="BL120" s="51"/>
       <c r="BM120" s="51"/>
       <c r="BN120" s="51"/>
@@ -16017,20 +16006,20 @@
       <c r="AU121" s="38"/>
       <c r="AV121" s="38"/>
       <c r="AW121" s="39"/>
-      <c r="AX121" s="39"/>
-      <c r="AY121" s="39"/>
-      <c r="AZ121" s="39"/>
-      <c r="BA121" s="80"/>
-      <c r="BB121" s="74"/>
-      <c r="BC121" s="58"/>
-      <c r="BD121" s="58"/>
-      <c r="BE121" s="58"/>
-      <c r="BF121" s="58"/>
-      <c r="BG121" s="58"/>
-      <c r="BH121" s="58"/>
-      <c r="BI121" s="59"/>
-      <c r="BJ121" s="191"/>
-      <c r="BK121" s="191"/>
+      <c r="AX121" s="19"/>
+      <c r="AY121" s="19"/>
+      <c r="AZ121" s="1"/>
+      <c r="BA121" s="39"/>
+      <c r="BB121" s="39"/>
+      <c r="BC121" s="39"/>
+      <c r="BD121" s="39"/>
+      <c r="BE121" s="39"/>
+      <c r="BF121" s="39"/>
+      <c r="BG121" s="39"/>
+      <c r="BH121" s="39"/>
+      <c r="BI121" s="39"/>
+      <c r="BJ121" s="189"/>
+      <c r="BK121" s="189"/>
       <c r="BL121" s="74"/>
       <c r="BM121" s="134"/>
       <c r="BN121" s="135"/>
@@ -16096,17 +16085,17 @@
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
       <c r="AZ122" s="39"/>
-      <c r="BA122" s="80"/>
-      <c r="BB122" s="75"/>
-      <c r="BC122" s="73"/>
-      <c r="BD122" s="73"/>
-      <c r="BE122" s="73"/>
-      <c r="BF122" s="116"/>
-      <c r="BG122" s="73"/>
-      <c r="BH122" s="73"/>
-      <c r="BI122" s="60"/>
-      <c r="BJ122" s="192"/>
-      <c r="BK122" s="192"/>
+      <c r="BA122" s="39"/>
+      <c r="BB122" s="39"/>
+      <c r="BC122" s="39"/>
+      <c r="BD122" s="39"/>
+      <c r="BE122" s="39"/>
+      <c r="BF122" s="38"/>
+      <c r="BG122" s="39"/>
+      <c r="BH122" s="39"/>
+      <c r="BI122" s="39"/>
+      <c r="BJ122" s="190"/>
+      <c r="BK122" s="190"/>
       <c r="BL122" s="75"/>
       <c r="BM122" s="116"/>
       <c r="BN122" s="60"/>
@@ -16129,8 +16118,8 @@
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
+      <c r="H123" s="49"/>
+      <c r="I123" s="49"/>
       <c r="J123" s="19"/>
       <c r="K123" s="19"/>
       <c r="L123" s="19"/>
@@ -16168,13 +16157,13 @@
       <c r="AR123" s="117"/>
       <c r="AS123" s="117"/>
       <c r="AT123" s="19"/>
-      <c r="AU123" s="19"/>
-      <c r="AV123" s="19"/>
-      <c r="AW123" s="19"/>
-      <c r="AX123" s="19"/>
-      <c r="AY123" s="19"/>
-      <c r="AZ123" s="19"/>
-      <c r="BA123" s="19"/>
+      <c r="AU123" s="49"/>
+      <c r="AV123" s="207"/>
+      <c r="AW123" s="124"/>
+      <c r="AX123" s="124"/>
+      <c r="AY123" s="124"/>
+      <c r="AZ123" s="124"/>
+      <c r="BA123" s="124"/>
       <c r="BB123" s="124"/>
       <c r="BC123" s="124"/>
       <c r="BD123" s="124"/>
@@ -17932,53 +17921,53 @@
       <c r="I145" s="137"/>
       <c r="J145" s="137"/>
       <c r="K145" s="137"/>
-      <c r="L145" s="202" t="s">
+      <c r="L145" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="M145" s="203"/>
-      <c r="N145" s="203"/>
-      <c r="O145" s="203"/>
-      <c r="P145" s="203"/>
-      <c r="Q145" s="203"/>
-      <c r="R145" s="203"/>
-      <c r="S145" s="203"/>
-      <c r="T145" s="203"/>
-      <c r="U145" s="203"/>
-      <c r="V145" s="203"/>
-      <c r="W145" s="203"/>
-      <c r="X145" s="203"/>
-      <c r="Y145" s="203"/>
-      <c r="Z145" s="203"/>
-      <c r="AA145" s="203"/>
-      <c r="AB145" s="203"/>
-      <c r="AC145" s="203"/>
-      <c r="AD145" s="203"/>
-      <c r="AE145" s="203"/>
-      <c r="AF145" s="203"/>
-      <c r="AG145" s="203"/>
-      <c r="AH145" s="203"/>
-      <c r="AI145" s="203"/>
-      <c r="AJ145" s="203"/>
-      <c r="AK145" s="203"/>
-      <c r="AL145" s="203"/>
-      <c r="AM145" s="203"/>
-      <c r="AN145" s="203"/>
-      <c r="AO145" s="203"/>
-      <c r="AP145" s="203"/>
-      <c r="AQ145" s="203"/>
-      <c r="AR145" s="203"/>
-      <c r="AS145" s="203"/>
-      <c r="AT145" s="203"/>
-      <c r="AU145" s="203"/>
-      <c r="AV145" s="203"/>
-      <c r="AW145" s="203"/>
-      <c r="AX145" s="203"/>
-      <c r="AY145" s="203"/>
-      <c r="AZ145" s="203"/>
-      <c r="BA145" s="203"/>
-      <c r="BB145" s="203"/>
-      <c r="BC145" s="203"/>
-      <c r="BD145" s="204"/>
+      <c r="M145" s="201"/>
+      <c r="N145" s="201"/>
+      <c r="O145" s="201"/>
+      <c r="P145" s="201"/>
+      <c r="Q145" s="201"/>
+      <c r="R145" s="201"/>
+      <c r="S145" s="201"/>
+      <c r="T145" s="201"/>
+      <c r="U145" s="201"/>
+      <c r="V145" s="201"/>
+      <c r="W145" s="201"/>
+      <c r="X145" s="201"/>
+      <c r="Y145" s="201"/>
+      <c r="Z145" s="201"/>
+      <c r="AA145" s="201"/>
+      <c r="AB145" s="201"/>
+      <c r="AC145" s="201"/>
+      <c r="AD145" s="201"/>
+      <c r="AE145" s="201"/>
+      <c r="AF145" s="201"/>
+      <c r="AG145" s="201"/>
+      <c r="AH145" s="201"/>
+      <c r="AI145" s="201"/>
+      <c r="AJ145" s="201"/>
+      <c r="AK145" s="201"/>
+      <c r="AL145" s="201"/>
+      <c r="AM145" s="201"/>
+      <c r="AN145" s="201"/>
+      <c r="AO145" s="201"/>
+      <c r="AP145" s="201"/>
+      <c r="AQ145" s="201"/>
+      <c r="AR145" s="201"/>
+      <c r="AS145" s="201"/>
+      <c r="AT145" s="201"/>
+      <c r="AU145" s="201"/>
+      <c r="AV145" s="201"/>
+      <c r="AW145" s="201"/>
+      <c r="AX145" s="201"/>
+      <c r="AY145" s="201"/>
+      <c r="AZ145" s="201"/>
+      <c r="BA145" s="201"/>
+      <c r="BB145" s="201"/>
+      <c r="BC145" s="201"/>
+      <c r="BD145" s="202"/>
       <c r="BE145" s="144"/>
       <c r="BF145" s="144"/>
       <c r="BG145" s="144"/>
@@ -18012,51 +18001,51 @@
       <c r="I146" s="137"/>
       <c r="J146" s="137"/>
       <c r="K146" s="137"/>
-      <c r="L146" s="205"/>
-      <c r="M146" s="206"/>
-      <c r="N146" s="206"/>
-      <c r="O146" s="206"/>
-      <c r="P146" s="206"/>
-      <c r="Q146" s="206"/>
-      <c r="R146" s="206"/>
-      <c r="S146" s="206"/>
-      <c r="T146" s="206"/>
-      <c r="U146" s="206"/>
-      <c r="V146" s="206"/>
-      <c r="W146" s="206"/>
-      <c r="X146" s="206"/>
-      <c r="Y146" s="206"/>
-      <c r="Z146" s="206"/>
-      <c r="AA146" s="206"/>
-      <c r="AB146" s="206"/>
-      <c r="AC146" s="206"/>
-      <c r="AD146" s="206"/>
-      <c r="AE146" s="206"/>
-      <c r="AF146" s="206"/>
-      <c r="AG146" s="206"/>
-      <c r="AH146" s="206"/>
-      <c r="AI146" s="206"/>
-      <c r="AJ146" s="206"/>
-      <c r="AK146" s="206"/>
-      <c r="AL146" s="206"/>
-      <c r="AM146" s="206"/>
-      <c r="AN146" s="206"/>
-      <c r="AO146" s="206"/>
-      <c r="AP146" s="206"/>
-      <c r="AQ146" s="206"/>
-      <c r="AR146" s="206"/>
-      <c r="AS146" s="206"/>
-      <c r="AT146" s="206"/>
-      <c r="AU146" s="206"/>
-      <c r="AV146" s="206"/>
-      <c r="AW146" s="206"/>
-      <c r="AX146" s="206"/>
-      <c r="AY146" s="206"/>
-      <c r="AZ146" s="206"/>
-      <c r="BA146" s="206"/>
-      <c r="BB146" s="206"/>
-      <c r="BC146" s="206"/>
-      <c r="BD146" s="207"/>
+      <c r="L146" s="203"/>
+      <c r="M146" s="204"/>
+      <c r="N146" s="204"/>
+      <c r="O146" s="204"/>
+      <c r="P146" s="204"/>
+      <c r="Q146" s="204"/>
+      <c r="R146" s="204"/>
+      <c r="S146" s="204"/>
+      <c r="T146" s="204"/>
+      <c r="U146" s="204"/>
+      <c r="V146" s="204"/>
+      <c r="W146" s="204"/>
+      <c r="X146" s="204"/>
+      <c r="Y146" s="204"/>
+      <c r="Z146" s="204"/>
+      <c r="AA146" s="204"/>
+      <c r="AB146" s="204"/>
+      <c r="AC146" s="204"/>
+      <c r="AD146" s="204"/>
+      <c r="AE146" s="204"/>
+      <c r="AF146" s="204"/>
+      <c r="AG146" s="204"/>
+      <c r="AH146" s="204"/>
+      <c r="AI146" s="204"/>
+      <c r="AJ146" s="204"/>
+      <c r="AK146" s="204"/>
+      <c r="AL146" s="204"/>
+      <c r="AM146" s="204"/>
+      <c r="AN146" s="204"/>
+      <c r="AO146" s="204"/>
+      <c r="AP146" s="204"/>
+      <c r="AQ146" s="204"/>
+      <c r="AR146" s="204"/>
+      <c r="AS146" s="204"/>
+      <c r="AT146" s="204"/>
+      <c r="AU146" s="204"/>
+      <c r="AV146" s="204"/>
+      <c r="AW146" s="204"/>
+      <c r="AX146" s="204"/>
+      <c r="AY146" s="204"/>
+      <c r="AZ146" s="204"/>
+      <c r="BA146" s="204"/>
+      <c r="BB146" s="204"/>
+      <c r="BC146" s="204"/>
+      <c r="BD146" s="205"/>
       <c r="BE146" s="144"/>
       <c r="BF146" s="144"/>
       <c r="BG146" s="144"/>
@@ -18548,63 +18537,63 @@
       <c r="A153" s="112">
         <v>21</v>
       </c>
-      <c r="B153" s="199" t="s">
+      <c r="B153" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="C153" s="200"/>
-      <c r="D153" s="200"/>
-      <c r="E153" s="200"/>
-      <c r="F153" s="200"/>
-      <c r="G153" s="200"/>
-      <c r="H153" s="200"/>
-      <c r="I153" s="200"/>
-      <c r="J153" s="200"/>
-      <c r="K153" s="200"/>
-      <c r="L153" s="200"/>
-      <c r="M153" s="200"/>
-      <c r="N153" s="200"/>
-      <c r="O153" s="200"/>
-      <c r="P153" s="200"/>
-      <c r="Q153" s="200"/>
-      <c r="R153" s="200"/>
-      <c r="S153" s="200"/>
-      <c r="T153" s="200"/>
-      <c r="U153" s="200"/>
-      <c r="V153" s="200"/>
-      <c r="W153" s="200"/>
-      <c r="X153" s="200"/>
-      <c r="Y153" s="200"/>
-      <c r="Z153" s="200"/>
-      <c r="AA153" s="200"/>
-      <c r="AB153" s="200"/>
-      <c r="AC153" s="200"/>
-      <c r="AD153" s="200"/>
-      <c r="AE153" s="200"/>
-      <c r="AF153" s="200"/>
-      <c r="AG153" s="200"/>
-      <c r="AH153" s="200"/>
-      <c r="AI153" s="200"/>
-      <c r="AJ153" s="200"/>
-      <c r="AK153" s="200"/>
-      <c r="AL153" s="200"/>
-      <c r="AM153" s="200"/>
-      <c r="AN153" s="200"/>
-      <c r="AO153" s="200"/>
-      <c r="AP153" s="200"/>
-      <c r="AQ153" s="200"/>
-      <c r="AR153" s="200"/>
-      <c r="AS153" s="200"/>
-      <c r="AT153" s="200"/>
-      <c r="AU153" s="200"/>
-      <c r="AV153" s="200"/>
-      <c r="AW153" s="200"/>
-      <c r="AX153" s="200"/>
-      <c r="AY153" s="200"/>
-      <c r="AZ153" s="200"/>
-      <c r="BA153" s="200"/>
-      <c r="BB153" s="200"/>
-      <c r="BC153" s="200"/>
-      <c r="BD153" s="201"/>
+      <c r="C153" s="198"/>
+      <c r="D153" s="198"/>
+      <c r="E153" s="198"/>
+      <c r="F153" s="198"/>
+      <c r="G153" s="198"/>
+      <c r="H153" s="198"/>
+      <c r="I153" s="198"/>
+      <c r="J153" s="198"/>
+      <c r="K153" s="198"/>
+      <c r="L153" s="198"/>
+      <c r="M153" s="198"/>
+      <c r="N153" s="198"/>
+      <c r="O153" s="198"/>
+      <c r="P153" s="198"/>
+      <c r="Q153" s="198"/>
+      <c r="R153" s="198"/>
+      <c r="S153" s="198"/>
+      <c r="T153" s="198"/>
+      <c r="U153" s="198"/>
+      <c r="V153" s="198"/>
+      <c r="W153" s="198"/>
+      <c r="X153" s="198"/>
+      <c r="Y153" s="198"/>
+      <c r="Z153" s="198"/>
+      <c r="AA153" s="198"/>
+      <c r="AB153" s="198"/>
+      <c r="AC153" s="198"/>
+      <c r="AD153" s="198"/>
+      <c r="AE153" s="198"/>
+      <c r="AF153" s="198"/>
+      <c r="AG153" s="198"/>
+      <c r="AH153" s="198"/>
+      <c r="AI153" s="198"/>
+      <c r="AJ153" s="198"/>
+      <c r="AK153" s="198"/>
+      <c r="AL153" s="198"/>
+      <c r="AM153" s="198"/>
+      <c r="AN153" s="198"/>
+      <c r="AO153" s="198"/>
+      <c r="AP153" s="198"/>
+      <c r="AQ153" s="198"/>
+      <c r="AR153" s="198"/>
+      <c r="AS153" s="198"/>
+      <c r="AT153" s="198"/>
+      <c r="AU153" s="198"/>
+      <c r="AV153" s="198"/>
+      <c r="AW153" s="198"/>
+      <c r="AX153" s="198"/>
+      <c r="AY153" s="198"/>
+      <c r="AZ153" s="198"/>
+      <c r="BA153" s="198"/>
+      <c r="BB153" s="198"/>
+      <c r="BC153" s="198"/>
+      <c r="BD153" s="199"/>
       <c r="BE153" s="146"/>
       <c r="BF153" s="146"/>
       <c r="BG153" s="146"/>

--- a/Resources/Dante Level Models.xlsx
+++ b/Resources/Dante Level Models.xlsx
@@ -7257,10 +7257,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A65" sqref="A65"/>
-      <selection pane="topRight" activeCell="AF169" sqref="AF169"/>
+      <selection pane="topRight" activeCell="V107" sqref="V107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14493,7 +14493,6 @@
       <c r="M101" s="39"/>
       <c r="N101" s="39"/>
       <c r="O101" s="39"/>
-      <c r="P101" s="39"/>
       <c r="Q101" s="39"/>
       <c r="R101" s="39"/>
       <c r="S101" s="39"/>

--- a/Resources/Dante Level Models.xlsx
+++ b/Resources/Dante Level Models.xlsx
@@ -7257,10 +7257,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A65" sqref="A65"/>
-      <selection pane="topRight" activeCell="V107" sqref="V107"/>
+      <selection pane="topRight" activeCell="AF169" sqref="AF169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14493,6 +14493,7 @@
       <c r="M101" s="39"/>
       <c r="N101" s="39"/>
       <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
       <c r="Q101" s="39"/>
       <c r="R101" s="39"/>
       <c r="S101" s="39"/>

--- a/Resources/Dante Level Models.xlsx
+++ b/Resources/Dante Level Models.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>HUD</t>
   </si>
@@ -999,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1240,11 +1240,41 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1269,49 +1299,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,34 +1317,57 @@
     <xf numFmtId="49" fontId="7" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1683,17 +1694,17 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -1701,17 +1712,17 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
@@ -1719,17 +1730,17 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="174" t="s">
+      <c r="E4" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -1737,17 +1748,17 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1755,17 +1766,17 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="175" t="s">
+      <c r="E6" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -1773,17 +1784,17 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="175" t="s">
+      <c r="E7" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
@@ -1791,17 +1802,17 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
@@ -1809,17 +1820,17 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
@@ -1827,17 +1838,17 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="175" t="s">
+      <c r="E10" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
@@ -1845,17 +1856,17 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="175" t="s">
+      <c r="E11" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
@@ -1863,17 +1874,17 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="175" t="s">
+      <c r="E12" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
@@ -1890,149 +1901,154 @@
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="176"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="176"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="176"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="176"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="176"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="176"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
+      <c r="B22" s="201"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="201"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="176"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
+      <c r="M23" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
     <mergeCell ref="E12:M12"/>
     <mergeCell ref="B14:M23"/>
     <mergeCell ref="E7:M7"/>
@@ -2040,11 +2056,6 @@
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4343,305 +4354,305 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="178"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="178"/>
-      <c r="Q29" s="178"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="178"/>
-      <c r="T29" s="178"/>
-      <c r="U29" s="178"/>
-      <c r="V29" s="178"/>
-      <c r="W29" s="178"/>
-      <c r="X29" s="178"/>
-      <c r="Y29" s="178"/>
-      <c r="Z29" s="178"/>
-      <c r="AA29" s="178"/>
-      <c r="AB29" s="178"/>
-      <c r="AC29" s="178"/>
-      <c r="AD29" s="178"/>
-      <c r="AE29" s="178"/>
-      <c r="AF29" s="178"/>
-      <c r="AG29" s="178"/>
-      <c r="AH29" s="178"/>
-      <c r="AI29" s="178"/>
-      <c r="AJ29" s="178"/>
-      <c r="AK29" s="178"/>
-      <c r="AL29" s="178"/>
-      <c r="AM29" s="178"/>
-      <c r="AN29" s="178"/>
-      <c r="AO29" s="178"/>
-      <c r="AP29" s="178"/>
-      <c r="AQ29" s="178"/>
-      <c r="AR29" s="178"/>
-      <c r="AS29" s="178"/>
-      <c r="AT29" s="178"/>
-      <c r="AU29" s="178"/>
-      <c r="AV29" s="178"/>
-      <c r="AW29" s="178"/>
-      <c r="AX29" s="178"/>
-      <c r="AY29" s="178"/>
-      <c r="AZ29" s="178"/>
-      <c r="BA29" s="178"/>
-      <c r="BB29" s="178"/>
-      <c r="BC29" s="178"/>
-      <c r="BD29" s="178"/>
-      <c r="BE29" s="178"/>
-      <c r="BF29" s="178"/>
-      <c r="BG29" s="178"/>
-      <c r="BH29" s="178"/>
-      <c r="BI29" s="178"/>
-      <c r="BJ29" s="178"/>
-      <c r="BK29" s="178"/>
-      <c r="BL29" s="178"/>
-      <c r="BM29" s="178"/>
-      <c r="BN29" s="178"/>
-      <c r="BO29" s="178"/>
-      <c r="BP29" s="178"/>
-      <c r="BQ29" s="178"/>
-      <c r="BR29" s="178"/>
-      <c r="BS29" s="178"/>
-      <c r="BT29" s="178"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="204"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="204"/>
+      <c r="P29" s="204"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="204"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="204"/>
+      <c r="AF29" s="204"/>
+      <c r="AG29" s="204"/>
+      <c r="AH29" s="204"/>
+      <c r="AI29" s="204"/>
+      <c r="AJ29" s="204"/>
+      <c r="AK29" s="204"/>
+      <c r="AL29" s="204"/>
+      <c r="AM29" s="204"/>
+      <c r="AN29" s="204"/>
+      <c r="AO29" s="204"/>
+      <c r="AP29" s="204"/>
+      <c r="AQ29" s="204"/>
+      <c r="AR29" s="204"/>
+      <c r="AS29" s="204"/>
+      <c r="AT29" s="204"/>
+      <c r="AU29" s="204"/>
+      <c r="AV29" s="204"/>
+      <c r="AW29" s="204"/>
+      <c r="AX29" s="204"/>
+      <c r="AY29" s="204"/>
+      <c r="AZ29" s="204"/>
+      <c r="BA29" s="204"/>
+      <c r="BB29" s="204"/>
+      <c r="BC29" s="204"/>
+      <c r="BD29" s="204"/>
+      <c r="BE29" s="204"/>
+      <c r="BF29" s="204"/>
+      <c r="BG29" s="204"/>
+      <c r="BH29" s="204"/>
+      <c r="BI29" s="204"/>
+      <c r="BJ29" s="204"/>
+      <c r="BK29" s="204"/>
+      <c r="BL29" s="204"/>
+      <c r="BM29" s="204"/>
+      <c r="BN29" s="204"/>
+      <c r="BO29" s="204"/>
+      <c r="BP29" s="204"/>
+      <c r="BQ29" s="204"/>
+      <c r="BR29" s="204"/>
+      <c r="BS29" s="204"/>
+      <c r="BT29" s="204"/>
     </row>
     <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>28</v>
       </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="178"/>
-      <c r="U30" s="178"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="178"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="178"/>
-      <c r="Z30" s="178"/>
-      <c r="AA30" s="178"/>
-      <c r="AB30" s="178"/>
-      <c r="AC30" s="178"/>
-      <c r="AD30" s="178"/>
-      <c r="AE30" s="178"/>
-      <c r="AF30" s="178"/>
-      <c r="AG30" s="178"/>
-      <c r="AH30" s="178"/>
-      <c r="AI30" s="178"/>
-      <c r="AJ30" s="178"/>
-      <c r="AK30" s="178"/>
-      <c r="AL30" s="178"/>
-      <c r="AM30" s="178"/>
-      <c r="AN30" s="178"/>
-      <c r="AO30" s="178"/>
-      <c r="AP30" s="178"/>
-      <c r="AQ30" s="178"/>
-      <c r="AR30" s="178"/>
-      <c r="AS30" s="178"/>
-      <c r="AT30" s="178"/>
-      <c r="AU30" s="178"/>
-      <c r="AV30" s="178"/>
-      <c r="AW30" s="178"/>
-      <c r="AX30" s="178"/>
-      <c r="AY30" s="178"/>
-      <c r="AZ30" s="178"/>
-      <c r="BA30" s="178"/>
-      <c r="BB30" s="178"/>
-      <c r="BC30" s="178"/>
-      <c r="BD30" s="178"/>
-      <c r="BE30" s="178"/>
-      <c r="BF30" s="178"/>
-      <c r="BG30" s="178"/>
-      <c r="BH30" s="178"/>
-      <c r="BI30" s="178"/>
-      <c r="BJ30" s="178"/>
-      <c r="BK30" s="178"/>
-      <c r="BL30" s="178"/>
-      <c r="BM30" s="178"/>
-      <c r="BN30" s="178"/>
-      <c r="BO30" s="178"/>
-      <c r="BP30" s="178"/>
-      <c r="BQ30" s="178"/>
-      <c r="BR30" s="178"/>
-      <c r="BS30" s="178"/>
-      <c r="BT30" s="178"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="204"/>
+      <c r="O30" s="204"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="204"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="204"/>
+      <c r="AD30" s="204"/>
+      <c r="AE30" s="204"/>
+      <c r="AF30" s="204"/>
+      <c r="AG30" s="204"/>
+      <c r="AH30" s="204"/>
+      <c r="AI30" s="204"/>
+      <c r="AJ30" s="204"/>
+      <c r="AK30" s="204"/>
+      <c r="AL30" s="204"/>
+      <c r="AM30" s="204"/>
+      <c r="AN30" s="204"/>
+      <c r="AO30" s="204"/>
+      <c r="AP30" s="204"/>
+      <c r="AQ30" s="204"/>
+      <c r="AR30" s="204"/>
+      <c r="AS30" s="204"/>
+      <c r="AT30" s="204"/>
+      <c r="AU30" s="204"/>
+      <c r="AV30" s="204"/>
+      <c r="AW30" s="204"/>
+      <c r="AX30" s="204"/>
+      <c r="AY30" s="204"/>
+      <c r="AZ30" s="204"/>
+      <c r="BA30" s="204"/>
+      <c r="BB30" s="204"/>
+      <c r="BC30" s="204"/>
+      <c r="BD30" s="204"/>
+      <c r="BE30" s="204"/>
+      <c r="BF30" s="204"/>
+      <c r="BG30" s="204"/>
+      <c r="BH30" s="204"/>
+      <c r="BI30" s="204"/>
+      <c r="BJ30" s="204"/>
+      <c r="BK30" s="204"/>
+      <c r="BL30" s="204"/>
+      <c r="BM30" s="204"/>
+      <c r="BN30" s="204"/>
+      <c r="BO30" s="204"/>
+      <c r="BP30" s="204"/>
+      <c r="BQ30" s="204"/>
+      <c r="BR30" s="204"/>
+      <c r="BS30" s="204"/>
+      <c r="BT30" s="204"/>
     </row>
     <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="177"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="178"/>
-      <c r="N31" s="178"/>
-      <c r="O31" s="178"/>
-      <c r="P31" s="178"/>
-      <c r="Q31" s="178"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="178"/>
-      <c r="T31" s="178"/>
-      <c r="U31" s="178"/>
-      <c r="V31" s="178"/>
-      <c r="W31" s="178"/>
-      <c r="X31" s="178"/>
-      <c r="Y31" s="178"/>
-      <c r="Z31" s="178"/>
-      <c r="AA31" s="178"/>
-      <c r="AB31" s="178"/>
-      <c r="AC31" s="178"/>
-      <c r="AD31" s="178"/>
-      <c r="AE31" s="178"/>
-      <c r="AF31" s="178"/>
-      <c r="AG31" s="178"/>
-      <c r="AH31" s="178"/>
-      <c r="AI31" s="178"/>
-      <c r="AJ31" s="178"/>
-      <c r="AK31" s="178"/>
-      <c r="AL31" s="178"/>
-      <c r="AM31" s="178"/>
-      <c r="AN31" s="178"/>
-      <c r="AO31" s="178"/>
-      <c r="AP31" s="178"/>
-      <c r="AQ31" s="178"/>
-      <c r="AR31" s="178"/>
-      <c r="AS31" s="178"/>
-      <c r="AT31" s="178"/>
-      <c r="AU31" s="178"/>
-      <c r="AV31" s="178"/>
-      <c r="AW31" s="178"/>
-      <c r="AX31" s="178"/>
-      <c r="AY31" s="178"/>
-      <c r="AZ31" s="178"/>
-      <c r="BA31" s="178"/>
-      <c r="BB31" s="178"/>
-      <c r="BC31" s="178"/>
-      <c r="BD31" s="178"/>
-      <c r="BE31" s="178"/>
-      <c r="BF31" s="178"/>
-      <c r="BG31" s="178"/>
-      <c r="BH31" s="178"/>
-      <c r="BI31" s="178"/>
-      <c r="BJ31" s="178"/>
-      <c r="BK31" s="178"/>
-      <c r="BL31" s="178"/>
-      <c r="BM31" s="178"/>
-      <c r="BN31" s="178"/>
-      <c r="BO31" s="178"/>
-      <c r="BP31" s="178"/>
-      <c r="BQ31" s="178"/>
-      <c r="BR31" s="178"/>
-      <c r="BS31" s="178"/>
-      <c r="BT31" s="178"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="204"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="204"/>
+      <c r="N31" s="204"/>
+      <c r="O31" s="204"/>
+      <c r="P31" s="204"/>
+      <c r="Q31" s="204"/>
+      <c r="R31" s="204"/>
+      <c r="S31" s="204"/>
+      <c r="T31" s="204"/>
+      <c r="U31" s="204"/>
+      <c r="V31" s="204"/>
+      <c r="W31" s="204"/>
+      <c r="X31" s="204"/>
+      <c r="Y31" s="204"/>
+      <c r="Z31" s="204"/>
+      <c r="AA31" s="204"/>
+      <c r="AB31" s="204"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="204"/>
+      <c r="AF31" s="204"/>
+      <c r="AG31" s="204"/>
+      <c r="AH31" s="204"/>
+      <c r="AI31" s="204"/>
+      <c r="AJ31" s="204"/>
+      <c r="AK31" s="204"/>
+      <c r="AL31" s="204"/>
+      <c r="AM31" s="204"/>
+      <c r="AN31" s="204"/>
+      <c r="AO31" s="204"/>
+      <c r="AP31" s="204"/>
+      <c r="AQ31" s="204"/>
+      <c r="AR31" s="204"/>
+      <c r="AS31" s="204"/>
+      <c r="AT31" s="204"/>
+      <c r="AU31" s="204"/>
+      <c r="AV31" s="204"/>
+      <c r="AW31" s="204"/>
+      <c r="AX31" s="204"/>
+      <c r="AY31" s="204"/>
+      <c r="AZ31" s="204"/>
+      <c r="BA31" s="204"/>
+      <c r="BB31" s="204"/>
+      <c r="BC31" s="204"/>
+      <c r="BD31" s="204"/>
+      <c r="BE31" s="204"/>
+      <c r="BF31" s="204"/>
+      <c r="BG31" s="204"/>
+      <c r="BH31" s="204"/>
+      <c r="BI31" s="204"/>
+      <c r="BJ31" s="204"/>
+      <c r="BK31" s="204"/>
+      <c r="BL31" s="204"/>
+      <c r="BM31" s="204"/>
+      <c r="BN31" s="204"/>
+      <c r="BO31" s="204"/>
+      <c r="BP31" s="204"/>
+      <c r="BQ31" s="204"/>
+      <c r="BR31" s="204"/>
+      <c r="BS31" s="204"/>
+      <c r="BT31" s="204"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>30</v>
       </c>
-      <c r="B32" s="179"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="180"/>
-      <c r="Q32" s="180"/>
-      <c r="R32" s="180"/>
-      <c r="S32" s="180"/>
-      <c r="T32" s="180"/>
-      <c r="U32" s="180"/>
-      <c r="V32" s="180"/>
-      <c r="W32" s="180"/>
-      <c r="X32" s="180"/>
-      <c r="Y32" s="180"/>
-      <c r="Z32" s="180"/>
-      <c r="AA32" s="180"/>
-      <c r="AB32" s="180"/>
-      <c r="AC32" s="180"/>
-      <c r="AD32" s="180"/>
-      <c r="AE32" s="180"/>
-      <c r="AF32" s="180"/>
-      <c r="AG32" s="180"/>
-      <c r="AH32" s="180"/>
-      <c r="AI32" s="180"/>
-      <c r="AJ32" s="180"/>
-      <c r="AK32" s="180"/>
-      <c r="AL32" s="180"/>
-      <c r="AM32" s="180"/>
-      <c r="AN32" s="180"/>
-      <c r="AO32" s="180"/>
-      <c r="AP32" s="180"/>
-      <c r="AQ32" s="180"/>
-      <c r="AR32" s="180"/>
-      <c r="AS32" s="180"/>
-      <c r="AT32" s="180"/>
-      <c r="AU32" s="180"/>
-      <c r="AV32" s="180"/>
-      <c r="AW32" s="180"/>
-      <c r="AX32" s="180"/>
-      <c r="AY32" s="180"/>
-      <c r="AZ32" s="180"/>
-      <c r="BA32" s="180"/>
-      <c r="BB32" s="180"/>
-      <c r="BC32" s="180"/>
-      <c r="BD32" s="180"/>
-      <c r="BE32" s="180"/>
-      <c r="BF32" s="180"/>
-      <c r="BG32" s="180"/>
-      <c r="BH32" s="180"/>
-      <c r="BI32" s="180"/>
-      <c r="BJ32" s="180"/>
-      <c r="BK32" s="180"/>
-      <c r="BL32" s="180"/>
-      <c r="BM32" s="180"/>
-      <c r="BN32" s="180"/>
-      <c r="BO32" s="180"/>
-      <c r="BP32" s="180"/>
-      <c r="BQ32" s="180"/>
-      <c r="BR32" s="180"/>
-      <c r="BS32" s="180"/>
-      <c r="BT32" s="180"/>
+      <c r="B32" s="205"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="206"/>
+      <c r="L32" s="206"/>
+      <c r="M32" s="206"/>
+      <c r="N32" s="206"/>
+      <c r="O32" s="206"/>
+      <c r="P32" s="206"/>
+      <c r="Q32" s="206"/>
+      <c r="R32" s="206"/>
+      <c r="S32" s="206"/>
+      <c r="T32" s="206"/>
+      <c r="U32" s="206"/>
+      <c r="V32" s="206"/>
+      <c r="W32" s="206"/>
+      <c r="X32" s="206"/>
+      <c r="Y32" s="206"/>
+      <c r="Z32" s="206"/>
+      <c r="AA32" s="206"/>
+      <c r="AB32" s="206"/>
+      <c r="AC32" s="206"/>
+      <c r="AD32" s="206"/>
+      <c r="AE32" s="206"/>
+      <c r="AF32" s="206"/>
+      <c r="AG32" s="206"/>
+      <c r="AH32" s="206"/>
+      <c r="AI32" s="206"/>
+      <c r="AJ32" s="206"/>
+      <c r="AK32" s="206"/>
+      <c r="AL32" s="206"/>
+      <c r="AM32" s="206"/>
+      <c r="AN32" s="206"/>
+      <c r="AO32" s="206"/>
+      <c r="AP32" s="206"/>
+      <c r="AQ32" s="206"/>
+      <c r="AR32" s="206"/>
+      <c r="AS32" s="206"/>
+      <c r="AT32" s="206"/>
+      <c r="AU32" s="206"/>
+      <c r="AV32" s="206"/>
+      <c r="AW32" s="206"/>
+      <c r="AX32" s="206"/>
+      <c r="AY32" s="206"/>
+      <c r="AZ32" s="206"/>
+      <c r="BA32" s="206"/>
+      <c r="BB32" s="206"/>
+      <c r="BC32" s="206"/>
+      <c r="BD32" s="206"/>
+      <c r="BE32" s="206"/>
+      <c r="BF32" s="206"/>
+      <c r="BG32" s="206"/>
+      <c r="BH32" s="206"/>
+      <c r="BI32" s="206"/>
+      <c r="BJ32" s="206"/>
+      <c r="BK32" s="206"/>
+      <c r="BL32" s="206"/>
+      <c r="BM32" s="206"/>
+      <c r="BN32" s="206"/>
+      <c r="BO32" s="206"/>
+      <c r="BP32" s="206"/>
+      <c r="BQ32" s="206"/>
+      <c r="BR32" s="206"/>
+      <c r="BS32" s="206"/>
+      <c r="BT32" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6944,305 +6955,305 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="178"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="178"/>
-      <c r="Q29" s="178"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="178"/>
-      <c r="T29" s="178"/>
-      <c r="U29" s="178"/>
-      <c r="V29" s="178"/>
-      <c r="W29" s="178"/>
-      <c r="X29" s="178"/>
-      <c r="Y29" s="178"/>
-      <c r="Z29" s="178"/>
-      <c r="AA29" s="178"/>
-      <c r="AB29" s="178"/>
-      <c r="AC29" s="178"/>
-      <c r="AD29" s="178"/>
-      <c r="AE29" s="178"/>
-      <c r="AF29" s="178"/>
-      <c r="AG29" s="178"/>
-      <c r="AH29" s="178"/>
-      <c r="AI29" s="178"/>
-      <c r="AJ29" s="178"/>
-      <c r="AK29" s="178"/>
-      <c r="AL29" s="178"/>
-      <c r="AM29" s="178"/>
-      <c r="AN29" s="178"/>
-      <c r="AO29" s="178"/>
-      <c r="AP29" s="178"/>
-      <c r="AQ29" s="178"/>
-      <c r="AR29" s="178"/>
-      <c r="AS29" s="178"/>
-      <c r="AT29" s="178"/>
-      <c r="AU29" s="178"/>
-      <c r="AV29" s="178"/>
-      <c r="AW29" s="178"/>
-      <c r="AX29" s="178"/>
-      <c r="AY29" s="178"/>
-      <c r="AZ29" s="178"/>
-      <c r="BA29" s="178"/>
-      <c r="BB29" s="178"/>
-      <c r="BC29" s="178"/>
-      <c r="BD29" s="178"/>
-      <c r="BE29" s="178"/>
-      <c r="BF29" s="178"/>
-      <c r="BG29" s="178"/>
-      <c r="BH29" s="178"/>
-      <c r="BI29" s="178"/>
-      <c r="BJ29" s="178"/>
-      <c r="BK29" s="178"/>
-      <c r="BL29" s="178"/>
-      <c r="BM29" s="178"/>
-      <c r="BN29" s="178"/>
-      <c r="BO29" s="178"/>
-      <c r="BP29" s="178"/>
-      <c r="BQ29" s="178"/>
-      <c r="BR29" s="178"/>
-      <c r="BS29" s="178"/>
-      <c r="BT29" s="181"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="204"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="204"/>
+      <c r="P29" s="204"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="204"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="204"/>
+      <c r="AF29" s="204"/>
+      <c r="AG29" s="204"/>
+      <c r="AH29" s="204"/>
+      <c r="AI29" s="204"/>
+      <c r="AJ29" s="204"/>
+      <c r="AK29" s="204"/>
+      <c r="AL29" s="204"/>
+      <c r="AM29" s="204"/>
+      <c r="AN29" s="204"/>
+      <c r="AO29" s="204"/>
+      <c r="AP29" s="204"/>
+      <c r="AQ29" s="204"/>
+      <c r="AR29" s="204"/>
+      <c r="AS29" s="204"/>
+      <c r="AT29" s="204"/>
+      <c r="AU29" s="204"/>
+      <c r="AV29" s="204"/>
+      <c r="AW29" s="204"/>
+      <c r="AX29" s="204"/>
+      <c r="AY29" s="204"/>
+      <c r="AZ29" s="204"/>
+      <c r="BA29" s="204"/>
+      <c r="BB29" s="204"/>
+      <c r="BC29" s="204"/>
+      <c r="BD29" s="204"/>
+      <c r="BE29" s="204"/>
+      <c r="BF29" s="204"/>
+      <c r="BG29" s="204"/>
+      <c r="BH29" s="204"/>
+      <c r="BI29" s="204"/>
+      <c r="BJ29" s="204"/>
+      <c r="BK29" s="204"/>
+      <c r="BL29" s="204"/>
+      <c r="BM29" s="204"/>
+      <c r="BN29" s="204"/>
+      <c r="BO29" s="204"/>
+      <c r="BP29" s="204"/>
+      <c r="BQ29" s="204"/>
+      <c r="BR29" s="204"/>
+      <c r="BS29" s="204"/>
+      <c r="BT29" s="207"/>
     </row>
     <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="178"/>
-      <c r="U30" s="178"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="178"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="178"/>
-      <c r="Z30" s="178"/>
-      <c r="AA30" s="178"/>
-      <c r="AB30" s="178"/>
-      <c r="AC30" s="178"/>
-      <c r="AD30" s="178"/>
-      <c r="AE30" s="178"/>
-      <c r="AF30" s="178"/>
-      <c r="AG30" s="178"/>
-      <c r="AH30" s="178"/>
-      <c r="AI30" s="178"/>
-      <c r="AJ30" s="178"/>
-      <c r="AK30" s="178"/>
-      <c r="AL30" s="178"/>
-      <c r="AM30" s="178"/>
-      <c r="AN30" s="178"/>
-      <c r="AO30" s="178"/>
-      <c r="AP30" s="178"/>
-      <c r="AQ30" s="178"/>
-      <c r="AR30" s="178"/>
-      <c r="AS30" s="178"/>
-      <c r="AT30" s="178"/>
-      <c r="AU30" s="178"/>
-      <c r="AV30" s="178"/>
-      <c r="AW30" s="178"/>
-      <c r="AX30" s="178"/>
-      <c r="AY30" s="178"/>
-      <c r="AZ30" s="178"/>
-      <c r="BA30" s="178"/>
-      <c r="BB30" s="178"/>
-      <c r="BC30" s="178"/>
-      <c r="BD30" s="178"/>
-      <c r="BE30" s="178"/>
-      <c r="BF30" s="178"/>
-      <c r="BG30" s="178"/>
-      <c r="BH30" s="178"/>
-      <c r="BI30" s="178"/>
-      <c r="BJ30" s="178"/>
-      <c r="BK30" s="178"/>
-      <c r="BL30" s="178"/>
-      <c r="BM30" s="178"/>
-      <c r="BN30" s="178"/>
-      <c r="BO30" s="178"/>
-      <c r="BP30" s="178"/>
-      <c r="BQ30" s="178"/>
-      <c r="BR30" s="178"/>
-      <c r="BS30" s="178"/>
-      <c r="BT30" s="181"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="204"/>
+      <c r="O30" s="204"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="204"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="204"/>
+      <c r="AD30" s="204"/>
+      <c r="AE30" s="204"/>
+      <c r="AF30" s="204"/>
+      <c r="AG30" s="204"/>
+      <c r="AH30" s="204"/>
+      <c r="AI30" s="204"/>
+      <c r="AJ30" s="204"/>
+      <c r="AK30" s="204"/>
+      <c r="AL30" s="204"/>
+      <c r="AM30" s="204"/>
+      <c r="AN30" s="204"/>
+      <c r="AO30" s="204"/>
+      <c r="AP30" s="204"/>
+      <c r="AQ30" s="204"/>
+      <c r="AR30" s="204"/>
+      <c r="AS30" s="204"/>
+      <c r="AT30" s="204"/>
+      <c r="AU30" s="204"/>
+      <c r="AV30" s="204"/>
+      <c r="AW30" s="204"/>
+      <c r="AX30" s="204"/>
+      <c r="AY30" s="204"/>
+      <c r="AZ30" s="204"/>
+      <c r="BA30" s="204"/>
+      <c r="BB30" s="204"/>
+      <c r="BC30" s="204"/>
+      <c r="BD30" s="204"/>
+      <c r="BE30" s="204"/>
+      <c r="BF30" s="204"/>
+      <c r="BG30" s="204"/>
+      <c r="BH30" s="204"/>
+      <c r="BI30" s="204"/>
+      <c r="BJ30" s="204"/>
+      <c r="BK30" s="204"/>
+      <c r="BL30" s="204"/>
+      <c r="BM30" s="204"/>
+      <c r="BN30" s="204"/>
+      <c r="BO30" s="204"/>
+      <c r="BP30" s="204"/>
+      <c r="BQ30" s="204"/>
+      <c r="BR30" s="204"/>
+      <c r="BS30" s="204"/>
+      <c r="BT30" s="207"/>
     </row>
     <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="177"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="178"/>
-      <c r="N31" s="178"/>
-      <c r="O31" s="178"/>
-      <c r="P31" s="178"/>
-      <c r="Q31" s="178"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="178"/>
-      <c r="T31" s="178"/>
-      <c r="U31" s="178"/>
-      <c r="V31" s="178"/>
-      <c r="W31" s="178"/>
-      <c r="X31" s="178"/>
-      <c r="Y31" s="178"/>
-      <c r="Z31" s="178"/>
-      <c r="AA31" s="178"/>
-      <c r="AB31" s="178"/>
-      <c r="AC31" s="178"/>
-      <c r="AD31" s="178"/>
-      <c r="AE31" s="178"/>
-      <c r="AF31" s="178"/>
-      <c r="AG31" s="178"/>
-      <c r="AH31" s="178"/>
-      <c r="AI31" s="178"/>
-      <c r="AJ31" s="178"/>
-      <c r="AK31" s="178"/>
-      <c r="AL31" s="178"/>
-      <c r="AM31" s="178"/>
-      <c r="AN31" s="178"/>
-      <c r="AO31" s="178"/>
-      <c r="AP31" s="178"/>
-      <c r="AQ31" s="178"/>
-      <c r="AR31" s="178"/>
-      <c r="AS31" s="178"/>
-      <c r="AT31" s="178"/>
-      <c r="AU31" s="178"/>
-      <c r="AV31" s="178"/>
-      <c r="AW31" s="178"/>
-      <c r="AX31" s="178"/>
-      <c r="AY31" s="178"/>
-      <c r="AZ31" s="178"/>
-      <c r="BA31" s="178"/>
-      <c r="BB31" s="178"/>
-      <c r="BC31" s="178"/>
-      <c r="BD31" s="178"/>
-      <c r="BE31" s="178"/>
-      <c r="BF31" s="178"/>
-      <c r="BG31" s="178"/>
-      <c r="BH31" s="178"/>
-      <c r="BI31" s="178"/>
-      <c r="BJ31" s="178"/>
-      <c r="BK31" s="178"/>
-      <c r="BL31" s="178"/>
-      <c r="BM31" s="178"/>
-      <c r="BN31" s="178"/>
-      <c r="BO31" s="178"/>
-      <c r="BP31" s="178"/>
-      <c r="BQ31" s="178"/>
-      <c r="BR31" s="178"/>
-      <c r="BS31" s="178"/>
-      <c r="BT31" s="181"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="204"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="204"/>
+      <c r="N31" s="204"/>
+      <c r="O31" s="204"/>
+      <c r="P31" s="204"/>
+      <c r="Q31" s="204"/>
+      <c r="R31" s="204"/>
+      <c r="S31" s="204"/>
+      <c r="T31" s="204"/>
+      <c r="U31" s="204"/>
+      <c r="V31" s="204"/>
+      <c r="W31" s="204"/>
+      <c r="X31" s="204"/>
+      <c r="Y31" s="204"/>
+      <c r="Z31" s="204"/>
+      <c r="AA31" s="204"/>
+      <c r="AB31" s="204"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="204"/>
+      <c r="AF31" s="204"/>
+      <c r="AG31" s="204"/>
+      <c r="AH31" s="204"/>
+      <c r="AI31" s="204"/>
+      <c r="AJ31" s="204"/>
+      <c r="AK31" s="204"/>
+      <c r="AL31" s="204"/>
+      <c r="AM31" s="204"/>
+      <c r="AN31" s="204"/>
+      <c r="AO31" s="204"/>
+      <c r="AP31" s="204"/>
+      <c r="AQ31" s="204"/>
+      <c r="AR31" s="204"/>
+      <c r="AS31" s="204"/>
+      <c r="AT31" s="204"/>
+      <c r="AU31" s="204"/>
+      <c r="AV31" s="204"/>
+      <c r="AW31" s="204"/>
+      <c r="AX31" s="204"/>
+      <c r="AY31" s="204"/>
+      <c r="AZ31" s="204"/>
+      <c r="BA31" s="204"/>
+      <c r="BB31" s="204"/>
+      <c r="BC31" s="204"/>
+      <c r="BD31" s="204"/>
+      <c r="BE31" s="204"/>
+      <c r="BF31" s="204"/>
+      <c r="BG31" s="204"/>
+      <c r="BH31" s="204"/>
+      <c r="BI31" s="204"/>
+      <c r="BJ31" s="204"/>
+      <c r="BK31" s="204"/>
+      <c r="BL31" s="204"/>
+      <c r="BM31" s="204"/>
+      <c r="BN31" s="204"/>
+      <c r="BO31" s="204"/>
+      <c r="BP31" s="204"/>
+      <c r="BQ31" s="204"/>
+      <c r="BR31" s="204"/>
+      <c r="BS31" s="204"/>
+      <c r="BT31" s="207"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="179"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="180"/>
-      <c r="Q32" s="180"/>
-      <c r="R32" s="180"/>
-      <c r="S32" s="180"/>
-      <c r="T32" s="180"/>
-      <c r="U32" s="180"/>
-      <c r="V32" s="180"/>
-      <c r="W32" s="180"/>
-      <c r="X32" s="180"/>
-      <c r="Y32" s="180"/>
-      <c r="Z32" s="180"/>
-      <c r="AA32" s="180"/>
-      <c r="AB32" s="180"/>
-      <c r="AC32" s="180"/>
-      <c r="AD32" s="180"/>
-      <c r="AE32" s="180"/>
-      <c r="AF32" s="180"/>
-      <c r="AG32" s="180"/>
-      <c r="AH32" s="180"/>
-      <c r="AI32" s="180"/>
-      <c r="AJ32" s="180"/>
-      <c r="AK32" s="180"/>
-      <c r="AL32" s="180"/>
-      <c r="AM32" s="180"/>
-      <c r="AN32" s="180"/>
-      <c r="AO32" s="180"/>
-      <c r="AP32" s="180"/>
-      <c r="AQ32" s="180"/>
-      <c r="AR32" s="180"/>
-      <c r="AS32" s="180"/>
-      <c r="AT32" s="180"/>
-      <c r="AU32" s="180"/>
-      <c r="AV32" s="180"/>
-      <c r="AW32" s="180"/>
-      <c r="AX32" s="180"/>
-      <c r="AY32" s="180"/>
-      <c r="AZ32" s="180"/>
-      <c r="BA32" s="180"/>
-      <c r="BB32" s="180"/>
-      <c r="BC32" s="180"/>
-      <c r="BD32" s="180"/>
-      <c r="BE32" s="180"/>
-      <c r="BF32" s="180"/>
-      <c r="BG32" s="180"/>
-      <c r="BH32" s="180"/>
-      <c r="BI32" s="180"/>
-      <c r="BJ32" s="180"/>
-      <c r="BK32" s="180"/>
-      <c r="BL32" s="180"/>
-      <c r="BM32" s="180"/>
-      <c r="BN32" s="180"/>
-      <c r="BO32" s="180"/>
-      <c r="BP32" s="180"/>
-      <c r="BQ32" s="180"/>
-      <c r="BR32" s="180"/>
-      <c r="BS32" s="180"/>
-      <c r="BT32" s="182"/>
+      <c r="B32" s="205"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="206"/>
+      <c r="L32" s="206"/>
+      <c r="M32" s="206"/>
+      <c r="N32" s="206"/>
+      <c r="O32" s="206"/>
+      <c r="P32" s="206"/>
+      <c r="Q32" s="206"/>
+      <c r="R32" s="206"/>
+      <c r="S32" s="206"/>
+      <c r="T32" s="206"/>
+      <c r="U32" s="206"/>
+      <c r="V32" s="206"/>
+      <c r="W32" s="206"/>
+      <c r="X32" s="206"/>
+      <c r="Y32" s="206"/>
+      <c r="Z32" s="206"/>
+      <c r="AA32" s="206"/>
+      <c r="AB32" s="206"/>
+      <c r="AC32" s="206"/>
+      <c r="AD32" s="206"/>
+      <c r="AE32" s="206"/>
+      <c r="AF32" s="206"/>
+      <c r="AG32" s="206"/>
+      <c r="AH32" s="206"/>
+      <c r="AI32" s="206"/>
+      <c r="AJ32" s="206"/>
+      <c r="AK32" s="206"/>
+      <c r="AL32" s="206"/>
+      <c r="AM32" s="206"/>
+      <c r="AN32" s="206"/>
+      <c r="AO32" s="206"/>
+      <c r="AP32" s="206"/>
+      <c r="AQ32" s="206"/>
+      <c r="AR32" s="206"/>
+      <c r="AS32" s="206"/>
+      <c r="AT32" s="206"/>
+      <c r="AU32" s="206"/>
+      <c r="AV32" s="206"/>
+      <c r="AW32" s="206"/>
+      <c r="AX32" s="206"/>
+      <c r="AY32" s="206"/>
+      <c r="AZ32" s="206"/>
+      <c r="BA32" s="206"/>
+      <c r="BB32" s="206"/>
+      <c r="BC32" s="206"/>
+      <c r="BD32" s="206"/>
+      <c r="BE32" s="206"/>
+      <c r="BF32" s="206"/>
+      <c r="BG32" s="206"/>
+      <c r="BH32" s="206"/>
+      <c r="BI32" s="206"/>
+      <c r="BJ32" s="206"/>
+      <c r="BK32" s="206"/>
+      <c r="BL32" s="206"/>
+      <c r="BM32" s="206"/>
+      <c r="BN32" s="206"/>
+      <c r="BO32" s="206"/>
+      <c r="BP32" s="206"/>
+      <c r="BQ32" s="206"/>
+      <c r="BR32" s="206"/>
+      <c r="BS32" s="206"/>
+      <c r="BT32" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7257,16 +7268,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A65" sqref="A65"/>
-      <selection pane="topRight" activeCell="AF169" sqref="AF169"/>
+      <selection pane="topRight" activeCell="BM136" sqref="BM136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="111" customWidth="1"/>
-    <col min="2" max="88" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8694,48 +8704,48 @@
       <c r="A29" s="112">
         <v>27</v>
       </c>
-      <c r="B29" s="196" t="s">
+      <c r="B29" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="197"/>
-      <c r="O29" s="197"/>
-      <c r="P29" s="197"/>
-      <c r="Q29" s="197"/>
-      <c r="R29" s="197"/>
-      <c r="S29" s="197"/>
-      <c r="T29" s="197"/>
-      <c r="U29" s="197"/>
-      <c r="V29" s="197"/>
-      <c r="W29" s="197"/>
-      <c r="X29" s="197"/>
-      <c r="Y29" s="197"/>
-      <c r="Z29" s="197"/>
-      <c r="AA29" s="197"/>
-      <c r="AB29" s="197"/>
-      <c r="AC29" s="197"/>
-      <c r="AD29" s="197"/>
-      <c r="AE29" s="197"/>
-      <c r="AF29" s="197"/>
-      <c r="AG29" s="197"/>
-      <c r="AH29" s="197"/>
-      <c r="AI29" s="197"/>
-      <c r="AJ29" s="197"/>
-      <c r="AK29" s="197"/>
-      <c r="AL29" s="197"/>
-      <c r="AM29" s="197"/>
-      <c r="AN29" s="197"/>
-      <c r="AO29" s="197"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="218"/>
+      <c r="P29" s="218"/>
+      <c r="Q29" s="218"/>
+      <c r="R29" s="218"/>
+      <c r="S29" s="218"/>
+      <c r="T29" s="218"/>
+      <c r="U29" s="218"/>
+      <c r="V29" s="218"/>
+      <c r="W29" s="218"/>
+      <c r="X29" s="218"/>
+      <c r="Y29" s="218"/>
+      <c r="Z29" s="218"/>
+      <c r="AA29" s="218"/>
+      <c r="AB29" s="218"/>
+      <c r="AC29" s="218"/>
+      <c r="AD29" s="218"/>
+      <c r="AE29" s="218"/>
+      <c r="AF29" s="218"/>
+      <c r="AG29" s="218"/>
+      <c r="AH29" s="218"/>
+      <c r="AI29" s="218"/>
+      <c r="AJ29" s="218"/>
+      <c r="AK29" s="218"/>
+      <c r="AL29" s="218"/>
+      <c r="AM29" s="218"/>
+      <c r="AN29" s="218"/>
+      <c r="AO29" s="218"/>
       <c r="AP29" s="20"/>
       <c r="AQ29" s="20"/>
       <c r="AR29" s="20"/>
@@ -8762,46 +8772,46 @@
       <c r="A30" s="111">
         <v>28</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="189"/>
-      <c r="L30" s="189"/>
-      <c r="M30" s="189"/>
-      <c r="N30" s="189"/>
-      <c r="O30" s="189"/>
-      <c r="P30" s="189"/>
-      <c r="Q30" s="189"/>
-      <c r="R30" s="189"/>
-      <c r="S30" s="189"/>
-      <c r="T30" s="189"/>
-      <c r="U30" s="189"/>
-      <c r="V30" s="189"/>
-      <c r="W30" s="189"/>
-      <c r="X30" s="189"/>
-      <c r="Y30" s="189"/>
-      <c r="Z30" s="189"/>
-      <c r="AA30" s="189"/>
-      <c r="AB30" s="189"/>
-      <c r="AC30" s="189"/>
-      <c r="AD30" s="189"/>
-      <c r="AE30" s="189"/>
-      <c r="AF30" s="189"/>
-      <c r="AG30" s="189"/>
-      <c r="AH30" s="189"/>
-      <c r="AI30" s="189"/>
-      <c r="AJ30" s="189"/>
-      <c r="AK30" s="189"/>
-      <c r="AL30" s="189"/>
-      <c r="AM30" s="189"/>
-      <c r="AN30" s="189"/>
-      <c r="AO30" s="189"/>
+      <c r="B30" s="219"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="220"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="220"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="220"/>
+      <c r="T30" s="220"/>
+      <c r="U30" s="220"/>
+      <c r="V30" s="220"/>
+      <c r="W30" s="220"/>
+      <c r="X30" s="220"/>
+      <c r="Y30" s="220"/>
+      <c r="Z30" s="220"/>
+      <c r="AA30" s="220"/>
+      <c r="AB30" s="220"/>
+      <c r="AC30" s="220"/>
+      <c r="AD30" s="220"/>
+      <c r="AE30" s="220"/>
+      <c r="AF30" s="220"/>
+      <c r="AG30" s="220"/>
+      <c r="AH30" s="220"/>
+      <c r="AI30" s="220"/>
+      <c r="AJ30" s="220"/>
+      <c r="AK30" s="220"/>
+      <c r="AL30" s="220"/>
+      <c r="AM30" s="220"/>
+      <c r="AN30" s="220"/>
+      <c r="AO30" s="220"/>
       <c r="AP30" s="20"/>
       <c r="AQ30" s="20"/>
       <c r="AR30" s="20"/>
@@ -8828,46 +8838,46 @@
       <c r="A31" s="112">
         <v>29</v>
       </c>
-      <c r="B31" s="188"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="189"/>
-      <c r="L31" s="189"/>
-      <c r="M31" s="189"/>
-      <c r="N31" s="189"/>
-      <c r="O31" s="189"/>
-      <c r="P31" s="189"/>
-      <c r="Q31" s="189"/>
-      <c r="R31" s="189"/>
-      <c r="S31" s="189"/>
-      <c r="T31" s="189"/>
-      <c r="U31" s="189"/>
-      <c r="V31" s="189"/>
-      <c r="W31" s="189"/>
-      <c r="X31" s="189"/>
-      <c r="Y31" s="189"/>
-      <c r="Z31" s="189"/>
-      <c r="AA31" s="189"/>
-      <c r="AB31" s="189"/>
-      <c r="AC31" s="189"/>
-      <c r="AD31" s="189"/>
-      <c r="AE31" s="189"/>
-      <c r="AF31" s="189"/>
-      <c r="AG31" s="189"/>
-      <c r="AH31" s="189"/>
-      <c r="AI31" s="189"/>
-      <c r="AJ31" s="189"/>
-      <c r="AK31" s="189"/>
-      <c r="AL31" s="189"/>
-      <c r="AM31" s="189"/>
-      <c r="AN31" s="189"/>
-      <c r="AO31" s="189"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="220"/>
+      <c r="M31" s="220"/>
+      <c r="N31" s="220"/>
+      <c r="O31" s="220"/>
+      <c r="P31" s="220"/>
+      <c r="Q31" s="220"/>
+      <c r="R31" s="220"/>
+      <c r="S31" s="220"/>
+      <c r="T31" s="220"/>
+      <c r="U31" s="220"/>
+      <c r="V31" s="220"/>
+      <c r="W31" s="220"/>
+      <c r="X31" s="220"/>
+      <c r="Y31" s="220"/>
+      <c r="Z31" s="220"/>
+      <c r="AA31" s="220"/>
+      <c r="AB31" s="220"/>
+      <c r="AC31" s="220"/>
+      <c r="AD31" s="220"/>
+      <c r="AE31" s="220"/>
+      <c r="AF31" s="220"/>
+      <c r="AG31" s="220"/>
+      <c r="AH31" s="220"/>
+      <c r="AI31" s="220"/>
+      <c r="AJ31" s="220"/>
+      <c r="AK31" s="220"/>
+      <c r="AL31" s="220"/>
+      <c r="AM31" s="220"/>
+      <c r="AN31" s="220"/>
+      <c r="AO31" s="220"/>
       <c r="AP31" s="20"/>
       <c r="AQ31" s="20"/>
       <c r="AR31" s="20"/>
@@ -8894,46 +8904,46 @@
       <c r="A32" s="111">
         <v>30</v>
       </c>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="192"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="192"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="192"/>
-      <c r="O32" s="192"/>
-      <c r="P32" s="192"/>
-      <c r="Q32" s="192"/>
-      <c r="R32" s="192"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="192"/>
-      <c r="U32" s="192"/>
-      <c r="V32" s="192"/>
-      <c r="W32" s="192"/>
-      <c r="X32" s="192"/>
-      <c r="Y32" s="192"/>
-      <c r="Z32" s="192"/>
-      <c r="AA32" s="192"/>
-      <c r="AB32" s="192"/>
-      <c r="AC32" s="192"/>
-      <c r="AD32" s="192"/>
-      <c r="AE32" s="192"/>
-      <c r="AF32" s="192"/>
-      <c r="AG32" s="192"/>
-      <c r="AH32" s="192"/>
-      <c r="AI32" s="192"/>
-      <c r="AJ32" s="192"/>
-      <c r="AK32" s="192"/>
-      <c r="AL32" s="192"/>
-      <c r="AM32" s="192"/>
-      <c r="AN32" s="192"/>
-      <c r="AO32" s="192"/>
+      <c r="B32" s="221"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="222"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="222"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
+      <c r="W32" s="222"/>
+      <c r="X32" s="222"/>
+      <c r="Y32" s="222"/>
+      <c r="Z32" s="222"/>
+      <c r="AA32" s="222"/>
+      <c r="AB32" s="222"/>
+      <c r="AC32" s="222"/>
+      <c r="AD32" s="222"/>
+      <c r="AE32" s="222"/>
+      <c r="AF32" s="222"/>
+      <c r="AG32" s="222"/>
+      <c r="AH32" s="222"/>
+      <c r="AI32" s="222"/>
+      <c r="AJ32" s="222"/>
+      <c r="AK32" s="222"/>
+      <c r="AL32" s="222"/>
+      <c r="AM32" s="222"/>
+      <c r="AN32" s="222"/>
+      <c r="AO32" s="222"/>
       <c r="AP32" s="20"/>
       <c r="AQ32" s="20"/>
       <c r="AR32" s="20"/>
@@ -11480,307 +11490,307 @@
       <c r="A65" s="112">
         <v>27</v>
       </c>
-      <c r="B65" s="198" t="s">
+      <c r="B65" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="197"/>
-      <c r="D65" s="197"/>
-      <c r="E65" s="197"/>
-      <c r="F65" s="197"/>
-      <c r="G65" s="197"/>
-      <c r="H65" s="197"/>
-      <c r="I65" s="197"/>
-      <c r="J65" s="197"/>
-      <c r="K65" s="197"/>
-      <c r="L65" s="197"/>
-      <c r="M65" s="197"/>
-      <c r="N65" s="197"/>
-      <c r="O65" s="197"/>
-      <c r="P65" s="197"/>
-      <c r="Q65" s="197"/>
-      <c r="R65" s="197"/>
-      <c r="S65" s="197"/>
-      <c r="T65" s="197"/>
-      <c r="U65" s="197"/>
-      <c r="V65" s="197"/>
-      <c r="W65" s="197"/>
-      <c r="X65" s="197"/>
-      <c r="Y65" s="197"/>
-      <c r="Z65" s="197"/>
-      <c r="AA65" s="197"/>
-      <c r="AB65" s="197"/>
-      <c r="AC65" s="197"/>
-      <c r="AD65" s="197"/>
-      <c r="AE65" s="197"/>
-      <c r="AF65" s="197"/>
-      <c r="AG65" s="197"/>
-      <c r="AH65" s="197"/>
-      <c r="AI65" s="197"/>
-      <c r="AJ65" s="197"/>
-      <c r="AK65" s="197"/>
-      <c r="AL65" s="197"/>
-      <c r="AM65" s="197"/>
-      <c r="AN65" s="197"/>
-      <c r="AO65" s="197"/>
-      <c r="AP65" s="197"/>
-      <c r="AQ65" s="197"/>
-      <c r="AR65" s="197"/>
-      <c r="AS65" s="197"/>
-      <c r="AT65" s="197"/>
-      <c r="AU65" s="197"/>
-      <c r="AV65" s="197"/>
-      <c r="AW65" s="197"/>
-      <c r="AX65" s="197"/>
-      <c r="AY65" s="197"/>
-      <c r="AZ65" s="197"/>
-      <c r="BA65" s="197"/>
-      <c r="BB65" s="197"/>
-      <c r="BC65" s="197"/>
-      <c r="BD65" s="197"/>
-      <c r="BE65" s="197"/>
-      <c r="BF65" s="197"/>
-      <c r="BG65" s="197"/>
-      <c r="BH65" s="197"/>
-      <c r="BI65" s="197"/>
-      <c r="BJ65" s="189"/>
-      <c r="BK65" s="189"/>
-      <c r="BL65" s="189"/>
-      <c r="BM65" s="189"/>
-      <c r="BN65" s="189"/>
-      <c r="BO65" s="189"/>
-      <c r="BP65" s="197"/>
-      <c r="BQ65" s="197"/>
-      <c r="BR65" s="197"/>
-      <c r="BS65" s="197"/>
-      <c r="BT65" s="199"/>
+      <c r="C65" s="218"/>
+      <c r="D65" s="218"/>
+      <c r="E65" s="218"/>
+      <c r="F65" s="218"/>
+      <c r="G65" s="218"/>
+      <c r="H65" s="218"/>
+      <c r="I65" s="218"/>
+      <c r="J65" s="218"/>
+      <c r="K65" s="218"/>
+      <c r="L65" s="218"/>
+      <c r="M65" s="218"/>
+      <c r="N65" s="218"/>
+      <c r="O65" s="218"/>
+      <c r="P65" s="218"/>
+      <c r="Q65" s="218"/>
+      <c r="R65" s="218"/>
+      <c r="S65" s="218"/>
+      <c r="T65" s="218"/>
+      <c r="U65" s="218"/>
+      <c r="V65" s="218"/>
+      <c r="W65" s="218"/>
+      <c r="X65" s="218"/>
+      <c r="Y65" s="218"/>
+      <c r="Z65" s="218"/>
+      <c r="AA65" s="218"/>
+      <c r="AB65" s="218"/>
+      <c r="AC65" s="218"/>
+      <c r="AD65" s="218"/>
+      <c r="AE65" s="218"/>
+      <c r="AF65" s="218"/>
+      <c r="AG65" s="218"/>
+      <c r="AH65" s="218"/>
+      <c r="AI65" s="218"/>
+      <c r="AJ65" s="218"/>
+      <c r="AK65" s="218"/>
+      <c r="AL65" s="218"/>
+      <c r="AM65" s="218"/>
+      <c r="AN65" s="218"/>
+      <c r="AO65" s="218"/>
+      <c r="AP65" s="218"/>
+      <c r="AQ65" s="218"/>
+      <c r="AR65" s="218"/>
+      <c r="AS65" s="218"/>
+      <c r="AT65" s="218"/>
+      <c r="AU65" s="218"/>
+      <c r="AV65" s="218"/>
+      <c r="AW65" s="218"/>
+      <c r="AX65" s="218"/>
+      <c r="AY65" s="218"/>
+      <c r="AZ65" s="218"/>
+      <c r="BA65" s="218"/>
+      <c r="BB65" s="218"/>
+      <c r="BC65" s="218"/>
+      <c r="BD65" s="218"/>
+      <c r="BE65" s="218"/>
+      <c r="BF65" s="218"/>
+      <c r="BG65" s="218"/>
+      <c r="BH65" s="218"/>
+      <c r="BI65" s="218"/>
+      <c r="BJ65" s="220"/>
+      <c r="BK65" s="220"/>
+      <c r="BL65" s="220"/>
+      <c r="BM65" s="220"/>
+      <c r="BN65" s="220"/>
+      <c r="BO65" s="220"/>
+      <c r="BP65" s="218"/>
+      <c r="BQ65" s="218"/>
+      <c r="BR65" s="218"/>
+      <c r="BS65" s="218"/>
+      <c r="BT65" s="224"/>
     </row>
     <row r="66" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="111">
         <v>28</v>
       </c>
-      <c r="B66" s="188"/>
-      <c r="C66" s="189"/>
-      <c r="D66" s="189"/>
-      <c r="E66" s="189"/>
-      <c r="F66" s="189"/>
-      <c r="G66" s="189"/>
-      <c r="H66" s="189"/>
-      <c r="I66" s="189"/>
-      <c r="J66" s="189"/>
-      <c r="K66" s="189"/>
-      <c r="L66" s="189"/>
-      <c r="M66" s="189"/>
-      <c r="N66" s="189"/>
-      <c r="O66" s="189"/>
-      <c r="P66" s="189"/>
-      <c r="Q66" s="189"/>
-      <c r="R66" s="189"/>
-      <c r="S66" s="189"/>
-      <c r="T66" s="189"/>
-      <c r="U66" s="189"/>
-      <c r="V66" s="189"/>
-      <c r="W66" s="189"/>
-      <c r="X66" s="189"/>
-      <c r="Y66" s="189"/>
-      <c r="Z66" s="189"/>
-      <c r="AA66" s="189"/>
-      <c r="AB66" s="189"/>
-      <c r="AC66" s="189"/>
-      <c r="AD66" s="189"/>
-      <c r="AE66" s="189"/>
-      <c r="AF66" s="189"/>
-      <c r="AG66" s="189"/>
-      <c r="AH66" s="189"/>
-      <c r="AI66" s="189"/>
-      <c r="AJ66" s="189"/>
-      <c r="AK66" s="189"/>
-      <c r="AL66" s="189"/>
-      <c r="AM66" s="189"/>
-      <c r="AN66" s="189"/>
-      <c r="AO66" s="189"/>
-      <c r="AP66" s="189"/>
-      <c r="AQ66" s="189"/>
-      <c r="AR66" s="189"/>
-      <c r="AS66" s="189"/>
-      <c r="AT66" s="189"/>
-      <c r="AU66" s="189"/>
-      <c r="AV66" s="189"/>
-      <c r="AW66" s="189"/>
-      <c r="AX66" s="189"/>
-      <c r="AY66" s="189"/>
-      <c r="AZ66" s="189"/>
-      <c r="BA66" s="189"/>
-      <c r="BB66" s="189"/>
-      <c r="BC66" s="189"/>
-      <c r="BD66" s="189"/>
-      <c r="BE66" s="189"/>
-      <c r="BF66" s="189"/>
-      <c r="BG66" s="189"/>
-      <c r="BH66" s="189"/>
-      <c r="BI66" s="189"/>
-      <c r="BJ66" s="189"/>
-      <c r="BK66" s="189"/>
-      <c r="BL66" s="189"/>
-      <c r="BM66" s="189"/>
-      <c r="BN66" s="189"/>
-      <c r="BO66" s="189"/>
-      <c r="BP66" s="189"/>
-      <c r="BQ66" s="189"/>
-      <c r="BR66" s="189"/>
-      <c r="BS66" s="189"/>
-      <c r="BT66" s="190"/>
+      <c r="B66" s="219"/>
+      <c r="C66" s="220"/>
+      <c r="D66" s="220"/>
+      <c r="E66" s="220"/>
+      <c r="F66" s="220"/>
+      <c r="G66" s="220"/>
+      <c r="H66" s="220"/>
+      <c r="I66" s="220"/>
+      <c r="J66" s="220"/>
+      <c r="K66" s="220"/>
+      <c r="L66" s="220"/>
+      <c r="M66" s="220"/>
+      <c r="N66" s="220"/>
+      <c r="O66" s="220"/>
+      <c r="P66" s="220"/>
+      <c r="Q66" s="220"/>
+      <c r="R66" s="220"/>
+      <c r="S66" s="220"/>
+      <c r="T66" s="220"/>
+      <c r="U66" s="220"/>
+      <c r="V66" s="220"/>
+      <c r="W66" s="220"/>
+      <c r="X66" s="220"/>
+      <c r="Y66" s="220"/>
+      <c r="Z66" s="220"/>
+      <c r="AA66" s="220"/>
+      <c r="AB66" s="220"/>
+      <c r="AC66" s="220"/>
+      <c r="AD66" s="220"/>
+      <c r="AE66" s="220"/>
+      <c r="AF66" s="220"/>
+      <c r="AG66" s="220"/>
+      <c r="AH66" s="220"/>
+      <c r="AI66" s="220"/>
+      <c r="AJ66" s="220"/>
+      <c r="AK66" s="220"/>
+      <c r="AL66" s="220"/>
+      <c r="AM66" s="220"/>
+      <c r="AN66" s="220"/>
+      <c r="AO66" s="220"/>
+      <c r="AP66" s="220"/>
+      <c r="AQ66" s="220"/>
+      <c r="AR66" s="220"/>
+      <c r="AS66" s="220"/>
+      <c r="AT66" s="220"/>
+      <c r="AU66" s="220"/>
+      <c r="AV66" s="220"/>
+      <c r="AW66" s="220"/>
+      <c r="AX66" s="220"/>
+      <c r="AY66" s="220"/>
+      <c r="AZ66" s="220"/>
+      <c r="BA66" s="220"/>
+      <c r="BB66" s="220"/>
+      <c r="BC66" s="220"/>
+      <c r="BD66" s="220"/>
+      <c r="BE66" s="220"/>
+      <c r="BF66" s="220"/>
+      <c r="BG66" s="220"/>
+      <c r="BH66" s="220"/>
+      <c r="BI66" s="220"/>
+      <c r="BJ66" s="220"/>
+      <c r="BK66" s="220"/>
+      <c r="BL66" s="220"/>
+      <c r="BM66" s="220"/>
+      <c r="BN66" s="220"/>
+      <c r="BO66" s="220"/>
+      <c r="BP66" s="220"/>
+      <c r="BQ66" s="220"/>
+      <c r="BR66" s="220"/>
+      <c r="BS66" s="220"/>
+      <c r="BT66" s="225"/>
     </row>
     <row r="67" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="112">
         <v>29</v>
       </c>
-      <c r="B67" s="188"/>
-      <c r="C67" s="189"/>
-      <c r="D67" s="189"/>
-      <c r="E67" s="189"/>
-      <c r="F67" s="189"/>
-      <c r="G67" s="189"/>
-      <c r="H67" s="189"/>
-      <c r="I67" s="189"/>
-      <c r="J67" s="189"/>
-      <c r="K67" s="189"/>
-      <c r="L67" s="189"/>
-      <c r="M67" s="189"/>
-      <c r="N67" s="189"/>
-      <c r="O67" s="189"/>
-      <c r="P67" s="189"/>
-      <c r="Q67" s="189"/>
-      <c r="R67" s="189"/>
-      <c r="S67" s="189"/>
-      <c r="T67" s="189"/>
-      <c r="U67" s="189"/>
-      <c r="V67" s="189"/>
-      <c r="W67" s="189"/>
-      <c r="X67" s="189"/>
-      <c r="Y67" s="189"/>
-      <c r="Z67" s="189"/>
-      <c r="AA67" s="189"/>
-      <c r="AB67" s="189"/>
-      <c r="AC67" s="189"/>
-      <c r="AD67" s="189"/>
-      <c r="AE67" s="189"/>
-      <c r="AF67" s="189"/>
-      <c r="AG67" s="189"/>
-      <c r="AH67" s="189"/>
-      <c r="AI67" s="189"/>
-      <c r="AJ67" s="189"/>
-      <c r="AK67" s="189"/>
-      <c r="AL67" s="189"/>
-      <c r="AM67" s="189"/>
-      <c r="AN67" s="189"/>
-      <c r="AO67" s="189"/>
-      <c r="AP67" s="189"/>
-      <c r="AQ67" s="189"/>
-      <c r="AR67" s="189"/>
-      <c r="AS67" s="189"/>
-      <c r="AT67" s="189"/>
-      <c r="AU67" s="189"/>
-      <c r="AV67" s="189"/>
-      <c r="AW67" s="189"/>
-      <c r="AX67" s="189"/>
-      <c r="AY67" s="189"/>
-      <c r="AZ67" s="189"/>
-      <c r="BA67" s="189"/>
-      <c r="BB67" s="189"/>
-      <c r="BC67" s="189"/>
-      <c r="BD67" s="189"/>
-      <c r="BE67" s="189"/>
-      <c r="BF67" s="189"/>
-      <c r="BG67" s="189"/>
-      <c r="BH67" s="189"/>
-      <c r="BI67" s="189"/>
-      <c r="BJ67" s="189"/>
-      <c r="BK67" s="189"/>
-      <c r="BL67" s="189"/>
-      <c r="BM67" s="189"/>
-      <c r="BN67" s="189"/>
-      <c r="BO67" s="189"/>
-      <c r="BP67" s="189"/>
-      <c r="BQ67" s="189"/>
-      <c r="BR67" s="189"/>
-      <c r="BS67" s="189"/>
-      <c r="BT67" s="190"/>
+      <c r="B67" s="219"/>
+      <c r="C67" s="220"/>
+      <c r="D67" s="220"/>
+      <c r="E67" s="220"/>
+      <c r="F67" s="220"/>
+      <c r="G67" s="220"/>
+      <c r="H67" s="220"/>
+      <c r="I67" s="220"/>
+      <c r="J67" s="220"/>
+      <c r="K67" s="220"/>
+      <c r="L67" s="220"/>
+      <c r="M67" s="220"/>
+      <c r="N67" s="220"/>
+      <c r="O67" s="220"/>
+      <c r="P67" s="220"/>
+      <c r="Q67" s="220"/>
+      <c r="R67" s="220"/>
+      <c r="S67" s="220"/>
+      <c r="T67" s="220"/>
+      <c r="U67" s="220"/>
+      <c r="V67" s="220"/>
+      <c r="W67" s="220"/>
+      <c r="X67" s="220"/>
+      <c r="Y67" s="220"/>
+      <c r="Z67" s="220"/>
+      <c r="AA67" s="220"/>
+      <c r="AB67" s="220"/>
+      <c r="AC67" s="220"/>
+      <c r="AD67" s="220"/>
+      <c r="AE67" s="220"/>
+      <c r="AF67" s="220"/>
+      <c r="AG67" s="220"/>
+      <c r="AH67" s="220"/>
+      <c r="AI67" s="220"/>
+      <c r="AJ67" s="220"/>
+      <c r="AK67" s="220"/>
+      <c r="AL67" s="220"/>
+      <c r="AM67" s="220"/>
+      <c r="AN67" s="220"/>
+      <c r="AO67" s="220"/>
+      <c r="AP67" s="220"/>
+      <c r="AQ67" s="220"/>
+      <c r="AR67" s="220"/>
+      <c r="AS67" s="220"/>
+      <c r="AT67" s="220"/>
+      <c r="AU67" s="220"/>
+      <c r="AV67" s="220"/>
+      <c r="AW67" s="220"/>
+      <c r="AX67" s="220"/>
+      <c r="AY67" s="220"/>
+      <c r="AZ67" s="220"/>
+      <c r="BA67" s="220"/>
+      <c r="BB67" s="220"/>
+      <c r="BC67" s="220"/>
+      <c r="BD67" s="220"/>
+      <c r="BE67" s="220"/>
+      <c r="BF67" s="220"/>
+      <c r="BG67" s="220"/>
+      <c r="BH67" s="220"/>
+      <c r="BI67" s="220"/>
+      <c r="BJ67" s="220"/>
+      <c r="BK67" s="220"/>
+      <c r="BL67" s="220"/>
+      <c r="BM67" s="220"/>
+      <c r="BN67" s="220"/>
+      <c r="BO67" s="220"/>
+      <c r="BP67" s="220"/>
+      <c r="BQ67" s="220"/>
+      <c r="BR67" s="220"/>
+      <c r="BS67" s="220"/>
+      <c r="BT67" s="225"/>
     </row>
     <row r="68" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="111">
         <v>30</v>
       </c>
-      <c r="B68" s="191"/>
-      <c r="C68" s="192"/>
-      <c r="D68" s="192"/>
-      <c r="E68" s="192"/>
-      <c r="F68" s="192"/>
-      <c r="G68" s="192"/>
-      <c r="H68" s="192"/>
-      <c r="I68" s="192"/>
-      <c r="J68" s="192"/>
-      <c r="K68" s="192"/>
-      <c r="L68" s="192"/>
-      <c r="M68" s="192"/>
-      <c r="N68" s="192"/>
-      <c r="O68" s="192"/>
-      <c r="P68" s="192"/>
-      <c r="Q68" s="192"/>
-      <c r="R68" s="192"/>
-      <c r="S68" s="192"/>
-      <c r="T68" s="192"/>
-      <c r="U68" s="192"/>
-      <c r="V68" s="192"/>
-      <c r="W68" s="192"/>
-      <c r="X68" s="192"/>
-      <c r="Y68" s="192"/>
-      <c r="Z68" s="192"/>
-      <c r="AA68" s="192"/>
-      <c r="AB68" s="192"/>
-      <c r="AC68" s="192"/>
-      <c r="AD68" s="192"/>
-      <c r="AE68" s="192"/>
-      <c r="AF68" s="192"/>
-      <c r="AG68" s="192"/>
-      <c r="AH68" s="192"/>
-      <c r="AI68" s="192"/>
-      <c r="AJ68" s="192"/>
-      <c r="AK68" s="192"/>
-      <c r="AL68" s="192"/>
-      <c r="AM68" s="192"/>
-      <c r="AN68" s="192"/>
-      <c r="AO68" s="192"/>
-      <c r="AP68" s="192"/>
-      <c r="AQ68" s="192"/>
-      <c r="AR68" s="192"/>
-      <c r="AS68" s="192"/>
-      <c r="AT68" s="192"/>
-      <c r="AU68" s="192"/>
-      <c r="AV68" s="192"/>
-      <c r="AW68" s="192"/>
-      <c r="AX68" s="192"/>
-      <c r="AY68" s="192"/>
-      <c r="AZ68" s="192"/>
-      <c r="BA68" s="192"/>
-      <c r="BB68" s="192"/>
-      <c r="BC68" s="192"/>
-      <c r="BD68" s="192"/>
-      <c r="BE68" s="192"/>
-      <c r="BF68" s="192"/>
-      <c r="BG68" s="192"/>
-      <c r="BH68" s="192"/>
-      <c r="BI68" s="192"/>
-      <c r="BJ68" s="192"/>
-      <c r="BK68" s="192"/>
-      <c r="BL68" s="192"/>
-      <c r="BM68" s="192"/>
-      <c r="BN68" s="192"/>
-      <c r="BO68" s="192"/>
-      <c r="BP68" s="192"/>
-      <c r="BQ68" s="192"/>
-      <c r="BR68" s="192"/>
-      <c r="BS68" s="192"/>
-      <c r="BT68" s="193"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="222"/>
+      <c r="D68" s="222"/>
+      <c r="E68" s="222"/>
+      <c r="F68" s="222"/>
+      <c r="G68" s="222"/>
+      <c r="H68" s="222"/>
+      <c r="I68" s="222"/>
+      <c r="J68" s="222"/>
+      <c r="K68" s="222"/>
+      <c r="L68" s="222"/>
+      <c r="M68" s="222"/>
+      <c r="N68" s="222"/>
+      <c r="O68" s="222"/>
+      <c r="P68" s="222"/>
+      <c r="Q68" s="222"/>
+      <c r="R68" s="222"/>
+      <c r="S68" s="222"/>
+      <c r="T68" s="222"/>
+      <c r="U68" s="222"/>
+      <c r="V68" s="222"/>
+      <c r="W68" s="222"/>
+      <c r="X68" s="222"/>
+      <c r="Y68" s="222"/>
+      <c r="Z68" s="222"/>
+      <c r="AA68" s="222"/>
+      <c r="AB68" s="222"/>
+      <c r="AC68" s="222"/>
+      <c r="AD68" s="222"/>
+      <c r="AE68" s="222"/>
+      <c r="AF68" s="222"/>
+      <c r="AG68" s="222"/>
+      <c r="AH68" s="222"/>
+      <c r="AI68" s="222"/>
+      <c r="AJ68" s="222"/>
+      <c r="AK68" s="222"/>
+      <c r="AL68" s="222"/>
+      <c r="AM68" s="222"/>
+      <c r="AN68" s="222"/>
+      <c r="AO68" s="222"/>
+      <c r="AP68" s="222"/>
+      <c r="AQ68" s="222"/>
+      <c r="AR68" s="222"/>
+      <c r="AS68" s="222"/>
+      <c r="AT68" s="222"/>
+      <c r="AU68" s="222"/>
+      <c r="AV68" s="222"/>
+      <c r="AW68" s="222"/>
+      <c r="AX68" s="222"/>
+      <c r="AY68" s="222"/>
+      <c r="AZ68" s="222"/>
+      <c r="BA68" s="222"/>
+      <c r="BB68" s="222"/>
+      <c r="BC68" s="222"/>
+      <c r="BD68" s="222"/>
+      <c r="BE68" s="222"/>
+      <c r="BF68" s="222"/>
+      <c r="BG68" s="222"/>
+      <c r="BH68" s="222"/>
+      <c r="BI68" s="222"/>
+      <c r="BJ68" s="222"/>
+      <c r="BK68" s="222"/>
+      <c r="BL68" s="222"/>
+      <c r="BM68" s="222"/>
+      <c r="BN68" s="222"/>
+      <c r="BO68" s="222"/>
+      <c r="BP68" s="222"/>
+      <c r="BQ68" s="222"/>
+      <c r="BR68" s="222"/>
+      <c r="BS68" s="222"/>
+      <c r="BT68" s="226"/>
     </row>
     <row r="69" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="20"/>
@@ -13601,310 +13611,310 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B91" s="188" t="s">
+      <c r="B91" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="189"/>
-      <c r="D91" s="189"/>
-      <c r="E91" s="189"/>
-      <c r="F91" s="189"/>
-      <c r="G91" s="189"/>
-      <c r="H91" s="189"/>
-      <c r="I91" s="189"/>
-      <c r="J91" s="189"/>
-      <c r="K91" s="189"/>
-      <c r="L91" s="189"/>
-      <c r="M91" s="189"/>
-      <c r="N91" s="189"/>
-      <c r="O91" s="189"/>
-      <c r="P91" s="189"/>
-      <c r="Q91" s="189"/>
-      <c r="R91" s="189"/>
-      <c r="S91" s="189"/>
-      <c r="T91" s="189"/>
-      <c r="U91" s="189"/>
-      <c r="V91" s="189"/>
-      <c r="W91" s="189"/>
-      <c r="X91" s="189"/>
-      <c r="Y91" s="189"/>
-      <c r="Z91" s="189"/>
-      <c r="AA91" s="189"/>
-      <c r="AB91" s="189"/>
-      <c r="AC91" s="189"/>
-      <c r="AD91" s="189"/>
-      <c r="AE91" s="189"/>
-      <c r="AF91" s="189"/>
-      <c r="AG91" s="189"/>
-      <c r="AH91" s="189"/>
-      <c r="AI91" s="189"/>
-      <c r="AJ91" s="189"/>
-      <c r="AK91" s="189"/>
-      <c r="AL91" s="189"/>
-      <c r="AM91" s="189"/>
-      <c r="AN91" s="189"/>
-      <c r="AO91" s="189"/>
-      <c r="AP91" s="189"/>
-      <c r="AQ91" s="189"/>
-      <c r="AR91" s="189"/>
-      <c r="AS91" s="189"/>
-      <c r="AT91" s="189"/>
-      <c r="AU91" s="189"/>
-      <c r="AV91" s="189"/>
-      <c r="AW91" s="189"/>
-      <c r="AX91" s="189"/>
-      <c r="AY91" s="189"/>
-      <c r="AZ91" s="189"/>
-      <c r="BA91" s="189"/>
-      <c r="BB91" s="189"/>
-      <c r="BC91" s="189"/>
-      <c r="BD91" s="189"/>
-      <c r="BE91" s="189"/>
-      <c r="BF91" s="189"/>
-      <c r="BG91" s="189"/>
-      <c r="BH91" s="189"/>
-      <c r="BI91" s="189"/>
-      <c r="BJ91" s="189"/>
-      <c r="BK91" s="189"/>
-      <c r="BL91" s="189"/>
-      <c r="BM91" s="189"/>
-      <c r="BN91" s="189"/>
-      <c r="BO91" s="189"/>
-      <c r="BP91" s="189"/>
-      <c r="BQ91" s="189"/>
-      <c r="BR91" s="189"/>
-      <c r="BS91" s="189"/>
-      <c r="BT91" s="190"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
+      <c r="G91" s="220"/>
+      <c r="H91" s="220"/>
+      <c r="I91" s="220"/>
+      <c r="J91" s="220"/>
+      <c r="K91" s="220"/>
+      <c r="L91" s="220"/>
+      <c r="M91" s="220"/>
+      <c r="N91" s="220"/>
+      <c r="O91" s="220"/>
+      <c r="P91" s="220"/>
+      <c r="Q91" s="220"/>
+      <c r="R91" s="220"/>
+      <c r="S91" s="220"/>
+      <c r="T91" s="220"/>
+      <c r="U91" s="220"/>
+      <c r="V91" s="220"/>
+      <c r="W91" s="220"/>
+      <c r="X91" s="220"/>
+      <c r="Y91" s="220"/>
+      <c r="Z91" s="220"/>
+      <c r="AA91" s="220"/>
+      <c r="AB91" s="220"/>
+      <c r="AC91" s="220"/>
+      <c r="AD91" s="220"/>
+      <c r="AE91" s="220"/>
+      <c r="AF91" s="220"/>
+      <c r="AG91" s="220"/>
+      <c r="AH91" s="220"/>
+      <c r="AI91" s="220"/>
+      <c r="AJ91" s="220"/>
+      <c r="AK91" s="220"/>
+      <c r="AL91" s="220"/>
+      <c r="AM91" s="220"/>
+      <c r="AN91" s="220"/>
+      <c r="AO91" s="220"/>
+      <c r="AP91" s="220"/>
+      <c r="AQ91" s="220"/>
+      <c r="AR91" s="220"/>
+      <c r="AS91" s="220"/>
+      <c r="AT91" s="220"/>
+      <c r="AU91" s="220"/>
+      <c r="AV91" s="220"/>
+      <c r="AW91" s="220"/>
+      <c r="AX91" s="220"/>
+      <c r="AY91" s="220"/>
+      <c r="AZ91" s="220"/>
+      <c r="BA91" s="220"/>
+      <c r="BB91" s="220"/>
+      <c r="BC91" s="220"/>
+      <c r="BD91" s="220"/>
+      <c r="BE91" s="220"/>
+      <c r="BF91" s="220"/>
+      <c r="BG91" s="220"/>
+      <c r="BH91" s="220"/>
+      <c r="BI91" s="220"/>
+      <c r="BJ91" s="220"/>
+      <c r="BK91" s="220"/>
+      <c r="BL91" s="220"/>
+      <c r="BM91" s="220"/>
+      <c r="BN91" s="220"/>
+      <c r="BO91" s="220"/>
+      <c r="BP91" s="220"/>
+      <c r="BQ91" s="220"/>
+      <c r="BR91" s="220"/>
+      <c r="BS91" s="220"/>
+      <c r="BT91" s="225"/>
     </row>
     <row r="92" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="111">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B92" s="188"/>
-      <c r="C92" s="189"/>
-      <c r="D92" s="189"/>
-      <c r="E92" s="189"/>
-      <c r="F92" s="189"/>
-      <c r="G92" s="189"/>
-      <c r="H92" s="189"/>
-      <c r="I92" s="189"/>
-      <c r="J92" s="189"/>
-      <c r="K92" s="189"/>
-      <c r="L92" s="189"/>
-      <c r="M92" s="189"/>
-      <c r="N92" s="189"/>
-      <c r="O92" s="189"/>
-      <c r="P92" s="189"/>
-      <c r="Q92" s="189"/>
-      <c r="R92" s="189"/>
-      <c r="S92" s="189"/>
-      <c r="T92" s="189"/>
-      <c r="U92" s="189"/>
-      <c r="V92" s="189"/>
-      <c r="W92" s="189"/>
-      <c r="X92" s="189"/>
-      <c r="Y92" s="189"/>
-      <c r="Z92" s="189"/>
-      <c r="AA92" s="189"/>
-      <c r="AB92" s="189"/>
-      <c r="AC92" s="189"/>
-      <c r="AD92" s="189"/>
-      <c r="AE92" s="189"/>
-      <c r="AF92" s="189"/>
-      <c r="AG92" s="189"/>
-      <c r="AH92" s="189"/>
-      <c r="AI92" s="189"/>
-      <c r="AJ92" s="189"/>
-      <c r="AK92" s="189"/>
-      <c r="AL92" s="189"/>
-      <c r="AM92" s="189"/>
-      <c r="AN92" s="189"/>
-      <c r="AO92" s="189"/>
-      <c r="AP92" s="189"/>
-      <c r="AQ92" s="189"/>
-      <c r="AR92" s="189"/>
-      <c r="AS92" s="189"/>
-      <c r="AT92" s="189"/>
-      <c r="AU92" s="189"/>
-      <c r="AV92" s="189"/>
-      <c r="AW92" s="189"/>
-      <c r="AX92" s="189"/>
-      <c r="AY92" s="189"/>
-      <c r="AZ92" s="189"/>
-      <c r="BA92" s="189"/>
-      <c r="BB92" s="189"/>
-      <c r="BC92" s="189"/>
-      <c r="BD92" s="189"/>
-      <c r="BE92" s="189"/>
-      <c r="BF92" s="189"/>
-      <c r="BG92" s="189"/>
-      <c r="BH92" s="189"/>
-      <c r="BI92" s="189"/>
-      <c r="BJ92" s="189"/>
-      <c r="BK92" s="189"/>
-      <c r="BL92" s="189"/>
-      <c r="BM92" s="189"/>
-      <c r="BN92" s="189"/>
-      <c r="BO92" s="189"/>
-      <c r="BP92" s="189"/>
-      <c r="BQ92" s="189"/>
-      <c r="BR92" s="189"/>
-      <c r="BS92" s="189"/>
-      <c r="BT92" s="190"/>
+      <c r="B92" s="219"/>
+      <c r="C92" s="220"/>
+      <c r="D92" s="220"/>
+      <c r="E92" s="220"/>
+      <c r="F92" s="220"/>
+      <c r="G92" s="220"/>
+      <c r="H92" s="220"/>
+      <c r="I92" s="220"/>
+      <c r="J92" s="220"/>
+      <c r="K92" s="220"/>
+      <c r="L92" s="220"/>
+      <c r="M92" s="220"/>
+      <c r="N92" s="220"/>
+      <c r="O92" s="220"/>
+      <c r="P92" s="220"/>
+      <c r="Q92" s="220"/>
+      <c r="R92" s="220"/>
+      <c r="S92" s="220"/>
+      <c r="T92" s="220"/>
+      <c r="U92" s="220"/>
+      <c r="V92" s="220"/>
+      <c r="W92" s="220"/>
+      <c r="X92" s="220"/>
+      <c r="Y92" s="220"/>
+      <c r="Z92" s="220"/>
+      <c r="AA92" s="220"/>
+      <c r="AB92" s="220"/>
+      <c r="AC92" s="220"/>
+      <c r="AD92" s="220"/>
+      <c r="AE92" s="220"/>
+      <c r="AF92" s="220"/>
+      <c r="AG92" s="220"/>
+      <c r="AH92" s="220"/>
+      <c r="AI92" s="220"/>
+      <c r="AJ92" s="220"/>
+      <c r="AK92" s="220"/>
+      <c r="AL92" s="220"/>
+      <c r="AM92" s="220"/>
+      <c r="AN92" s="220"/>
+      <c r="AO92" s="220"/>
+      <c r="AP92" s="220"/>
+      <c r="AQ92" s="220"/>
+      <c r="AR92" s="220"/>
+      <c r="AS92" s="220"/>
+      <c r="AT92" s="220"/>
+      <c r="AU92" s="220"/>
+      <c r="AV92" s="220"/>
+      <c r="AW92" s="220"/>
+      <c r="AX92" s="220"/>
+      <c r="AY92" s="220"/>
+      <c r="AZ92" s="220"/>
+      <c r="BA92" s="220"/>
+      <c r="BB92" s="220"/>
+      <c r="BC92" s="220"/>
+      <c r="BD92" s="220"/>
+      <c r="BE92" s="220"/>
+      <c r="BF92" s="220"/>
+      <c r="BG92" s="220"/>
+      <c r="BH92" s="220"/>
+      <c r="BI92" s="220"/>
+      <c r="BJ92" s="220"/>
+      <c r="BK92" s="220"/>
+      <c r="BL92" s="220"/>
+      <c r="BM92" s="220"/>
+      <c r="BN92" s="220"/>
+      <c r="BO92" s="220"/>
+      <c r="BP92" s="220"/>
+      <c r="BQ92" s="220"/>
+      <c r="BR92" s="220"/>
+      <c r="BS92" s="220"/>
+      <c r="BT92" s="225"/>
     </row>
     <row r="93" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="111">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B93" s="188"/>
-      <c r="C93" s="189"/>
-      <c r="D93" s="189"/>
-      <c r="E93" s="189"/>
-      <c r="F93" s="189"/>
-      <c r="G93" s="189"/>
-      <c r="H93" s="189"/>
-      <c r="I93" s="189"/>
-      <c r="J93" s="189"/>
-      <c r="K93" s="189"/>
-      <c r="L93" s="189"/>
-      <c r="M93" s="189"/>
-      <c r="N93" s="189"/>
-      <c r="O93" s="189"/>
-      <c r="P93" s="189"/>
-      <c r="Q93" s="189"/>
-      <c r="R93" s="189"/>
-      <c r="S93" s="189"/>
-      <c r="T93" s="189"/>
-      <c r="U93" s="189"/>
-      <c r="V93" s="189"/>
-      <c r="W93" s="189"/>
-      <c r="X93" s="189"/>
-      <c r="Y93" s="189"/>
-      <c r="Z93" s="189"/>
-      <c r="AA93" s="189"/>
-      <c r="AB93" s="189"/>
-      <c r="AC93" s="189"/>
-      <c r="AD93" s="189"/>
-      <c r="AE93" s="189"/>
-      <c r="AF93" s="189"/>
-      <c r="AG93" s="189"/>
-      <c r="AH93" s="189"/>
-      <c r="AI93" s="189"/>
-      <c r="AJ93" s="189"/>
-      <c r="AK93" s="189"/>
-      <c r="AL93" s="189"/>
-      <c r="AM93" s="189"/>
-      <c r="AN93" s="189"/>
-      <c r="AO93" s="189"/>
-      <c r="AP93" s="189"/>
-      <c r="AQ93" s="189"/>
-      <c r="AR93" s="189"/>
-      <c r="AS93" s="189"/>
-      <c r="AT93" s="189"/>
-      <c r="AU93" s="189"/>
-      <c r="AV93" s="189"/>
-      <c r="AW93" s="189"/>
-      <c r="AX93" s="189"/>
-      <c r="AY93" s="189"/>
-      <c r="AZ93" s="189"/>
-      <c r="BA93" s="189"/>
-      <c r="BB93" s="189"/>
-      <c r="BC93" s="189"/>
-      <c r="BD93" s="189"/>
-      <c r="BE93" s="189"/>
-      <c r="BF93" s="189"/>
-      <c r="BG93" s="189"/>
-      <c r="BH93" s="189"/>
-      <c r="BI93" s="189"/>
-      <c r="BJ93" s="189"/>
-      <c r="BK93" s="189"/>
-      <c r="BL93" s="189"/>
-      <c r="BM93" s="189"/>
-      <c r="BN93" s="189"/>
-      <c r="BO93" s="189"/>
-      <c r="BP93" s="189"/>
-      <c r="BQ93" s="189"/>
-      <c r="BR93" s="189"/>
-      <c r="BS93" s="189"/>
-      <c r="BT93" s="190"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="220"/>
+      <c r="D93" s="220"/>
+      <c r="E93" s="220"/>
+      <c r="F93" s="220"/>
+      <c r="G93" s="220"/>
+      <c r="H93" s="220"/>
+      <c r="I93" s="220"/>
+      <c r="J93" s="220"/>
+      <c r="K93" s="220"/>
+      <c r="L93" s="220"/>
+      <c r="M93" s="220"/>
+      <c r="N93" s="220"/>
+      <c r="O93" s="220"/>
+      <c r="P93" s="220"/>
+      <c r="Q93" s="220"/>
+      <c r="R93" s="220"/>
+      <c r="S93" s="220"/>
+      <c r="T93" s="220"/>
+      <c r="U93" s="220"/>
+      <c r="V93" s="220"/>
+      <c r="W93" s="220"/>
+      <c r="X93" s="220"/>
+      <c r="Y93" s="220"/>
+      <c r="Z93" s="220"/>
+      <c r="AA93" s="220"/>
+      <c r="AB93" s="220"/>
+      <c r="AC93" s="220"/>
+      <c r="AD93" s="220"/>
+      <c r="AE93" s="220"/>
+      <c r="AF93" s="220"/>
+      <c r="AG93" s="220"/>
+      <c r="AH93" s="220"/>
+      <c r="AI93" s="220"/>
+      <c r="AJ93" s="220"/>
+      <c r="AK93" s="220"/>
+      <c r="AL93" s="220"/>
+      <c r="AM93" s="220"/>
+      <c r="AN93" s="220"/>
+      <c r="AO93" s="220"/>
+      <c r="AP93" s="220"/>
+      <c r="AQ93" s="220"/>
+      <c r="AR93" s="220"/>
+      <c r="AS93" s="220"/>
+      <c r="AT93" s="220"/>
+      <c r="AU93" s="220"/>
+      <c r="AV93" s="220"/>
+      <c r="AW93" s="220"/>
+      <c r="AX93" s="220"/>
+      <c r="AY93" s="220"/>
+      <c r="AZ93" s="220"/>
+      <c r="BA93" s="220"/>
+      <c r="BB93" s="220"/>
+      <c r="BC93" s="220"/>
+      <c r="BD93" s="220"/>
+      <c r="BE93" s="220"/>
+      <c r="BF93" s="220"/>
+      <c r="BG93" s="220"/>
+      <c r="BH93" s="220"/>
+      <c r="BI93" s="220"/>
+      <c r="BJ93" s="220"/>
+      <c r="BK93" s="220"/>
+      <c r="BL93" s="220"/>
+      <c r="BM93" s="220"/>
+      <c r="BN93" s="220"/>
+      <c r="BO93" s="220"/>
+      <c r="BP93" s="220"/>
+      <c r="BQ93" s="220"/>
+      <c r="BR93" s="220"/>
+      <c r="BS93" s="220"/>
+      <c r="BT93" s="225"/>
     </row>
     <row r="94" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="111">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B94" s="191"/>
-      <c r="C94" s="192"/>
-      <c r="D94" s="192"/>
-      <c r="E94" s="192"/>
-      <c r="F94" s="192"/>
-      <c r="G94" s="192"/>
-      <c r="H94" s="192"/>
-      <c r="I94" s="192"/>
-      <c r="J94" s="192"/>
-      <c r="K94" s="192"/>
-      <c r="L94" s="192"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="192"/>
-      <c r="O94" s="192"/>
-      <c r="P94" s="192"/>
-      <c r="Q94" s="192"/>
-      <c r="R94" s="192"/>
-      <c r="S94" s="192"/>
-      <c r="T94" s="192"/>
-      <c r="U94" s="192"/>
-      <c r="V94" s="192"/>
-      <c r="W94" s="192"/>
-      <c r="X94" s="192"/>
-      <c r="Y94" s="192"/>
-      <c r="Z94" s="192"/>
-      <c r="AA94" s="192"/>
-      <c r="AB94" s="192"/>
-      <c r="AC94" s="192"/>
-      <c r="AD94" s="192"/>
-      <c r="AE94" s="192"/>
-      <c r="AF94" s="192"/>
-      <c r="AG94" s="192"/>
-      <c r="AH94" s="192"/>
-      <c r="AI94" s="192"/>
-      <c r="AJ94" s="192"/>
-      <c r="AK94" s="192"/>
-      <c r="AL94" s="192"/>
-      <c r="AM94" s="192"/>
-      <c r="AN94" s="192"/>
-      <c r="AO94" s="192"/>
-      <c r="AP94" s="192"/>
-      <c r="AQ94" s="192"/>
-      <c r="AR94" s="192"/>
-      <c r="AS94" s="192"/>
-      <c r="AT94" s="192"/>
-      <c r="AU94" s="192"/>
-      <c r="AV94" s="192"/>
-      <c r="AW94" s="192"/>
-      <c r="AX94" s="192"/>
-      <c r="AY94" s="192"/>
-      <c r="AZ94" s="192"/>
-      <c r="BA94" s="192"/>
-      <c r="BB94" s="192"/>
-      <c r="BC94" s="192"/>
-      <c r="BD94" s="192"/>
-      <c r="BE94" s="192"/>
-      <c r="BF94" s="192"/>
-      <c r="BG94" s="192"/>
-      <c r="BH94" s="192"/>
-      <c r="BI94" s="192"/>
-      <c r="BJ94" s="192"/>
-      <c r="BK94" s="192"/>
-      <c r="BL94" s="192"/>
-      <c r="BM94" s="192"/>
-      <c r="BN94" s="192"/>
-      <c r="BO94" s="192"/>
-      <c r="BP94" s="192"/>
-      <c r="BQ94" s="192"/>
-      <c r="BR94" s="192"/>
-      <c r="BS94" s="192"/>
-      <c r="BT94" s="193"/>
+      <c r="B94" s="221"/>
+      <c r="C94" s="222"/>
+      <c r="D94" s="222"/>
+      <c r="E94" s="222"/>
+      <c r="F94" s="222"/>
+      <c r="G94" s="222"/>
+      <c r="H94" s="222"/>
+      <c r="I94" s="222"/>
+      <c r="J94" s="222"/>
+      <c r="K94" s="222"/>
+      <c r="L94" s="222"/>
+      <c r="M94" s="222"/>
+      <c r="N94" s="222"/>
+      <c r="O94" s="222"/>
+      <c r="P94" s="222"/>
+      <c r="Q94" s="222"/>
+      <c r="R94" s="222"/>
+      <c r="S94" s="222"/>
+      <c r="T94" s="222"/>
+      <c r="U94" s="222"/>
+      <c r="V94" s="222"/>
+      <c r="W94" s="222"/>
+      <c r="X94" s="222"/>
+      <c r="Y94" s="222"/>
+      <c r="Z94" s="222"/>
+      <c r="AA94" s="222"/>
+      <c r="AB94" s="222"/>
+      <c r="AC94" s="222"/>
+      <c r="AD94" s="222"/>
+      <c r="AE94" s="222"/>
+      <c r="AF94" s="222"/>
+      <c r="AG94" s="222"/>
+      <c r="AH94" s="222"/>
+      <c r="AI94" s="222"/>
+      <c r="AJ94" s="222"/>
+      <c r="AK94" s="222"/>
+      <c r="AL94" s="222"/>
+      <c r="AM94" s="222"/>
+      <c r="AN94" s="222"/>
+      <c r="AO94" s="222"/>
+      <c r="AP94" s="222"/>
+      <c r="AQ94" s="222"/>
+      <c r="AR94" s="222"/>
+      <c r="AS94" s="222"/>
+      <c r="AT94" s="222"/>
+      <c r="AU94" s="222"/>
+      <c r="AV94" s="222"/>
+      <c r="AW94" s="222"/>
+      <c r="AX94" s="222"/>
+      <c r="AY94" s="222"/>
+      <c r="AZ94" s="222"/>
+      <c r="BA94" s="222"/>
+      <c r="BB94" s="222"/>
+      <c r="BC94" s="222"/>
+      <c r="BD94" s="222"/>
+      <c r="BE94" s="222"/>
+      <c r="BF94" s="222"/>
+      <c r="BG94" s="222"/>
+      <c r="BH94" s="222"/>
+      <c r="BI94" s="222"/>
+      <c r="BJ94" s="222"/>
+      <c r="BK94" s="222"/>
+      <c r="BL94" s="222"/>
+      <c r="BM94" s="222"/>
+      <c r="BN94" s="222"/>
+      <c r="BO94" s="222"/>
+      <c r="BP94" s="222"/>
+      <c r="BQ94" s="222"/>
+      <c r="BR94" s="222"/>
+      <c r="BS94" s="222"/>
+      <c r="BT94" s="226"/>
     </row>
     <row r="95" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="20"/>
@@ -15194,8 +15204,8 @@
       <c r="AD110" s="39"/>
       <c r="AE110" s="39"/>
       <c r="AF110" s="39"/>
-      <c r="AG110" s="202"/>
-      <c r="AH110" s="202"/>
+      <c r="AG110" s="214"/>
+      <c r="AH110" s="214"/>
       <c r="AI110" s="149"/>
       <c r="AJ110" s="149"/>
       <c r="AK110" s="149"/>
@@ -15556,8 +15566,8 @@
       <c r="J115" s="19"/>
       <c r="K115" s="39"/>
       <c r="L115" s="39"/>
-      <c r="M115" s="202"/>
-      <c r="N115" s="202"/>
+      <c r="M115" s="214"/>
+      <c r="N115" s="214"/>
       <c r="O115" s="149"/>
       <c r="P115" s="149"/>
       <c r="Q115" s="149"/>
@@ -15911,10 +15921,10 @@
       <c r="BG119" s="19"/>
       <c r="BH119" s="19"/>
       <c r="BI119" s="39"/>
-      <c r="BJ119" s="200" t="s">
+      <c r="BJ119" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="BK119" s="200"/>
+      <c r="BK119" s="212"/>
       <c r="BL119" s="47"/>
       <c r="BM119" s="39"/>
       <c r="BN119" s="39"/>
@@ -15989,8 +15999,8 @@
       <c r="BG120" s="51"/>
       <c r="BH120" s="51"/>
       <c r="BI120" s="51"/>
-      <c r="BJ120" s="200"/>
-      <c r="BK120" s="200"/>
+      <c r="BJ120" s="212"/>
+      <c r="BK120" s="212"/>
       <c r="BL120" s="154"/>
       <c r="BM120" s="51"/>
       <c r="BN120" s="51"/>
@@ -16016,10 +16026,10 @@
       <c r="J121" s="39"/>
       <c r="K121" s="39"/>
       <c r="L121" s="39"/>
-      <c r="M121" s="203" t="s">
+      <c r="M121" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="N121" s="203"/>
+      <c r="N121" s="215"/>
       <c r="O121" s="39"/>
       <c r="P121" s="39"/>
       <c r="Q121" s="80"/>
@@ -16038,10 +16048,10 @@
       <c r="AD121" s="58"/>
       <c r="AE121" s="58"/>
       <c r="AF121" s="58"/>
-      <c r="AG121" s="204" t="s">
+      <c r="AG121" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="AH121" s="204"/>
+      <c r="AH121" s="216"/>
       <c r="AI121" s="58"/>
       <c r="AJ121" s="58"/>
       <c r="AK121" s="58"/>
@@ -16069,8 +16079,8 @@
       <c r="BG121" s="58"/>
       <c r="BH121" s="58"/>
       <c r="BI121" s="59"/>
-      <c r="BJ121" s="201"/>
-      <c r="BK121" s="200"/>
+      <c r="BJ121" s="213"/>
+      <c r="BK121" s="212"/>
       <c r="BL121" s="127"/>
       <c r="BM121" s="130"/>
       <c r="BN121" s="131"/>
@@ -16145,8 +16155,8 @@
       <c r="BG122" s="73"/>
       <c r="BH122" s="73"/>
       <c r="BI122" s="60"/>
-      <c r="BJ122" s="201"/>
-      <c r="BK122" s="200"/>
+      <c r="BJ122" s="213"/>
+      <c r="BK122" s="212"/>
       <c r="BL122" s="128"/>
       <c r="BM122" s="116"/>
       <c r="BN122" s="60"/>
@@ -16315,307 +16325,307 @@
       <c r="A125" s="112">
         <v>27</v>
       </c>
-      <c r="B125" s="188" t="s">
+      <c r="B125" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="C125" s="189"/>
-      <c r="D125" s="189"/>
-      <c r="E125" s="189"/>
-      <c r="F125" s="189"/>
-      <c r="G125" s="189"/>
-      <c r="H125" s="189"/>
-      <c r="I125" s="189"/>
-      <c r="J125" s="189"/>
-      <c r="K125" s="189"/>
-      <c r="L125" s="189"/>
-      <c r="M125" s="189"/>
-      <c r="N125" s="189"/>
-      <c r="O125" s="189"/>
-      <c r="P125" s="189"/>
-      <c r="Q125" s="189"/>
-      <c r="R125" s="189"/>
-      <c r="S125" s="189"/>
-      <c r="T125" s="189"/>
-      <c r="U125" s="189"/>
-      <c r="V125" s="189"/>
-      <c r="W125" s="189"/>
-      <c r="X125" s="189"/>
-      <c r="Y125" s="189"/>
-      <c r="Z125" s="189"/>
-      <c r="AA125" s="189"/>
-      <c r="AB125" s="189"/>
-      <c r="AC125" s="189"/>
-      <c r="AD125" s="189"/>
-      <c r="AE125" s="189"/>
-      <c r="AF125" s="189"/>
-      <c r="AG125" s="189"/>
-      <c r="AH125" s="189"/>
-      <c r="AI125" s="189"/>
-      <c r="AJ125" s="189"/>
-      <c r="AK125" s="189"/>
-      <c r="AL125" s="189"/>
-      <c r="AM125" s="189"/>
-      <c r="AN125" s="189"/>
-      <c r="AO125" s="189"/>
-      <c r="AP125" s="189"/>
-      <c r="AQ125" s="189"/>
-      <c r="AR125" s="189"/>
-      <c r="AS125" s="189"/>
-      <c r="AT125" s="189"/>
-      <c r="AU125" s="189"/>
-      <c r="AV125" s="189"/>
-      <c r="AW125" s="189"/>
-      <c r="AX125" s="189"/>
-      <c r="AY125" s="189"/>
-      <c r="AZ125" s="189"/>
-      <c r="BA125" s="189"/>
-      <c r="BB125" s="189"/>
-      <c r="BC125" s="189"/>
-      <c r="BD125" s="189"/>
-      <c r="BE125" s="189"/>
-      <c r="BF125" s="189"/>
-      <c r="BG125" s="189"/>
-      <c r="BH125" s="189"/>
-      <c r="BI125" s="189"/>
-      <c r="BJ125" s="189"/>
-      <c r="BK125" s="189"/>
-      <c r="BL125" s="189"/>
-      <c r="BM125" s="189"/>
-      <c r="BN125" s="189"/>
-      <c r="BO125" s="189"/>
-      <c r="BP125" s="189"/>
-      <c r="BQ125" s="189"/>
-      <c r="BR125" s="189"/>
-      <c r="BS125" s="189"/>
-      <c r="BT125" s="190"/>
+      <c r="C125" s="220"/>
+      <c r="D125" s="220"/>
+      <c r="E125" s="220"/>
+      <c r="F125" s="220"/>
+      <c r="G125" s="220"/>
+      <c r="H125" s="220"/>
+      <c r="I125" s="220"/>
+      <c r="J125" s="220"/>
+      <c r="K125" s="220"/>
+      <c r="L125" s="220"/>
+      <c r="M125" s="220"/>
+      <c r="N125" s="220"/>
+      <c r="O125" s="220"/>
+      <c r="P125" s="220"/>
+      <c r="Q125" s="220"/>
+      <c r="R125" s="220"/>
+      <c r="S125" s="220"/>
+      <c r="T125" s="220"/>
+      <c r="U125" s="220"/>
+      <c r="V125" s="220"/>
+      <c r="W125" s="220"/>
+      <c r="X125" s="220"/>
+      <c r="Y125" s="220"/>
+      <c r="Z125" s="220"/>
+      <c r="AA125" s="220"/>
+      <c r="AB125" s="220"/>
+      <c r="AC125" s="220"/>
+      <c r="AD125" s="220"/>
+      <c r="AE125" s="220"/>
+      <c r="AF125" s="220"/>
+      <c r="AG125" s="220"/>
+      <c r="AH125" s="220"/>
+      <c r="AI125" s="220"/>
+      <c r="AJ125" s="220"/>
+      <c r="AK125" s="220"/>
+      <c r="AL125" s="220"/>
+      <c r="AM125" s="220"/>
+      <c r="AN125" s="220"/>
+      <c r="AO125" s="220"/>
+      <c r="AP125" s="220"/>
+      <c r="AQ125" s="220"/>
+      <c r="AR125" s="220"/>
+      <c r="AS125" s="220"/>
+      <c r="AT125" s="220"/>
+      <c r="AU125" s="220"/>
+      <c r="AV125" s="220"/>
+      <c r="AW125" s="220"/>
+      <c r="AX125" s="220"/>
+      <c r="AY125" s="220"/>
+      <c r="AZ125" s="220"/>
+      <c r="BA125" s="220"/>
+      <c r="BB125" s="220"/>
+      <c r="BC125" s="220"/>
+      <c r="BD125" s="220"/>
+      <c r="BE125" s="220"/>
+      <c r="BF125" s="220"/>
+      <c r="BG125" s="220"/>
+      <c r="BH125" s="220"/>
+      <c r="BI125" s="220"/>
+      <c r="BJ125" s="220"/>
+      <c r="BK125" s="220"/>
+      <c r="BL125" s="220"/>
+      <c r="BM125" s="220"/>
+      <c r="BN125" s="220"/>
+      <c r="BO125" s="220"/>
+      <c r="BP125" s="220"/>
+      <c r="BQ125" s="220"/>
+      <c r="BR125" s="220"/>
+      <c r="BS125" s="220"/>
+      <c r="BT125" s="225"/>
     </row>
     <row r="126" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="111">
         <v>28</v>
       </c>
-      <c r="B126" s="188"/>
-      <c r="C126" s="189"/>
-      <c r="D126" s="189"/>
-      <c r="E126" s="189"/>
-      <c r="F126" s="189"/>
-      <c r="G126" s="189"/>
-      <c r="H126" s="189"/>
-      <c r="I126" s="189"/>
-      <c r="J126" s="189"/>
-      <c r="K126" s="189"/>
-      <c r="L126" s="189"/>
-      <c r="M126" s="189"/>
-      <c r="N126" s="189"/>
-      <c r="O126" s="189"/>
-      <c r="P126" s="189"/>
-      <c r="Q126" s="189"/>
-      <c r="R126" s="189"/>
-      <c r="S126" s="189"/>
-      <c r="T126" s="189"/>
-      <c r="U126" s="189"/>
-      <c r="V126" s="189"/>
-      <c r="W126" s="189"/>
-      <c r="X126" s="189"/>
-      <c r="Y126" s="189"/>
-      <c r="Z126" s="189"/>
-      <c r="AA126" s="189"/>
-      <c r="AB126" s="189"/>
-      <c r="AC126" s="189"/>
-      <c r="AD126" s="189"/>
-      <c r="AE126" s="189"/>
-      <c r="AF126" s="189"/>
-      <c r="AG126" s="189"/>
-      <c r="AH126" s="189"/>
-      <c r="AI126" s="189"/>
-      <c r="AJ126" s="189"/>
-      <c r="AK126" s="189"/>
-      <c r="AL126" s="189"/>
-      <c r="AM126" s="189"/>
-      <c r="AN126" s="189"/>
-      <c r="AO126" s="189"/>
-      <c r="AP126" s="189"/>
-      <c r="AQ126" s="189"/>
-      <c r="AR126" s="189"/>
-      <c r="AS126" s="189"/>
-      <c r="AT126" s="189"/>
-      <c r="AU126" s="189"/>
-      <c r="AV126" s="189"/>
-      <c r="AW126" s="189"/>
-      <c r="AX126" s="189"/>
-      <c r="AY126" s="189"/>
-      <c r="AZ126" s="189"/>
-      <c r="BA126" s="189"/>
-      <c r="BB126" s="189"/>
-      <c r="BC126" s="189"/>
-      <c r="BD126" s="189"/>
-      <c r="BE126" s="189"/>
-      <c r="BF126" s="189"/>
-      <c r="BG126" s="189"/>
-      <c r="BH126" s="189"/>
-      <c r="BI126" s="189"/>
-      <c r="BJ126" s="189"/>
-      <c r="BK126" s="189"/>
-      <c r="BL126" s="189"/>
-      <c r="BM126" s="189"/>
-      <c r="BN126" s="189"/>
-      <c r="BO126" s="189"/>
-      <c r="BP126" s="189"/>
-      <c r="BQ126" s="189"/>
-      <c r="BR126" s="189"/>
-      <c r="BS126" s="189"/>
-      <c r="BT126" s="190"/>
+      <c r="B126" s="219"/>
+      <c r="C126" s="220"/>
+      <c r="D126" s="220"/>
+      <c r="E126" s="220"/>
+      <c r="F126" s="220"/>
+      <c r="G126" s="220"/>
+      <c r="H126" s="220"/>
+      <c r="I126" s="220"/>
+      <c r="J126" s="220"/>
+      <c r="K126" s="220"/>
+      <c r="L126" s="220"/>
+      <c r="M126" s="220"/>
+      <c r="N126" s="220"/>
+      <c r="O126" s="220"/>
+      <c r="P126" s="220"/>
+      <c r="Q126" s="220"/>
+      <c r="R126" s="220"/>
+      <c r="S126" s="220"/>
+      <c r="T126" s="220"/>
+      <c r="U126" s="220"/>
+      <c r="V126" s="220"/>
+      <c r="W126" s="220"/>
+      <c r="X126" s="220"/>
+      <c r="Y126" s="220"/>
+      <c r="Z126" s="220"/>
+      <c r="AA126" s="220"/>
+      <c r="AB126" s="220"/>
+      <c r="AC126" s="220"/>
+      <c r="AD126" s="220"/>
+      <c r="AE126" s="220"/>
+      <c r="AF126" s="220"/>
+      <c r="AG126" s="220"/>
+      <c r="AH126" s="220"/>
+      <c r="AI126" s="220"/>
+      <c r="AJ126" s="220"/>
+      <c r="AK126" s="220"/>
+      <c r="AL126" s="220"/>
+      <c r="AM126" s="220"/>
+      <c r="AN126" s="220"/>
+      <c r="AO126" s="220"/>
+      <c r="AP126" s="220"/>
+      <c r="AQ126" s="220"/>
+      <c r="AR126" s="220"/>
+      <c r="AS126" s="220"/>
+      <c r="AT126" s="220"/>
+      <c r="AU126" s="220"/>
+      <c r="AV126" s="220"/>
+      <c r="AW126" s="220"/>
+      <c r="AX126" s="220"/>
+      <c r="AY126" s="220"/>
+      <c r="AZ126" s="220"/>
+      <c r="BA126" s="220"/>
+      <c r="BB126" s="220"/>
+      <c r="BC126" s="220"/>
+      <c r="BD126" s="220"/>
+      <c r="BE126" s="220"/>
+      <c r="BF126" s="220"/>
+      <c r="BG126" s="220"/>
+      <c r="BH126" s="220"/>
+      <c r="BI126" s="220"/>
+      <c r="BJ126" s="220"/>
+      <c r="BK126" s="220"/>
+      <c r="BL126" s="220"/>
+      <c r="BM126" s="220"/>
+      <c r="BN126" s="220"/>
+      <c r="BO126" s="220"/>
+      <c r="BP126" s="220"/>
+      <c r="BQ126" s="220"/>
+      <c r="BR126" s="220"/>
+      <c r="BS126" s="220"/>
+      <c r="BT126" s="225"/>
     </row>
     <row r="127" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="112">
         <v>29</v>
       </c>
-      <c r="B127" s="188"/>
-      <c r="C127" s="189"/>
-      <c r="D127" s="189"/>
-      <c r="E127" s="189"/>
-      <c r="F127" s="189"/>
-      <c r="G127" s="189"/>
-      <c r="H127" s="189"/>
-      <c r="I127" s="189"/>
-      <c r="J127" s="189"/>
-      <c r="K127" s="189"/>
-      <c r="L127" s="189"/>
-      <c r="M127" s="189"/>
-      <c r="N127" s="189"/>
-      <c r="O127" s="189"/>
-      <c r="P127" s="189"/>
-      <c r="Q127" s="189"/>
-      <c r="R127" s="189"/>
-      <c r="S127" s="189"/>
-      <c r="T127" s="189"/>
-      <c r="U127" s="189"/>
-      <c r="V127" s="189"/>
-      <c r="W127" s="189"/>
-      <c r="X127" s="189"/>
-      <c r="Y127" s="189"/>
-      <c r="Z127" s="189"/>
-      <c r="AA127" s="189"/>
-      <c r="AB127" s="189"/>
-      <c r="AC127" s="189"/>
-      <c r="AD127" s="189"/>
-      <c r="AE127" s="189"/>
-      <c r="AF127" s="189"/>
-      <c r="AG127" s="189"/>
-      <c r="AH127" s="189"/>
-      <c r="AI127" s="189"/>
-      <c r="AJ127" s="189"/>
-      <c r="AK127" s="189"/>
-      <c r="AL127" s="189"/>
-      <c r="AM127" s="189"/>
-      <c r="AN127" s="189"/>
-      <c r="AO127" s="189"/>
-      <c r="AP127" s="189"/>
-      <c r="AQ127" s="189"/>
-      <c r="AR127" s="189"/>
-      <c r="AS127" s="189"/>
-      <c r="AT127" s="189"/>
-      <c r="AU127" s="189"/>
-      <c r="AV127" s="189"/>
-      <c r="AW127" s="189"/>
-      <c r="AX127" s="189"/>
-      <c r="AY127" s="189"/>
-      <c r="AZ127" s="189"/>
-      <c r="BA127" s="189"/>
-      <c r="BB127" s="189"/>
-      <c r="BC127" s="189"/>
-      <c r="BD127" s="189"/>
-      <c r="BE127" s="189"/>
-      <c r="BF127" s="189"/>
-      <c r="BG127" s="189"/>
-      <c r="BH127" s="189"/>
-      <c r="BI127" s="189"/>
-      <c r="BJ127" s="189"/>
-      <c r="BK127" s="189"/>
-      <c r="BL127" s="189"/>
-      <c r="BM127" s="189"/>
-      <c r="BN127" s="189"/>
-      <c r="BO127" s="189"/>
-      <c r="BP127" s="189"/>
-      <c r="BQ127" s="189"/>
-      <c r="BR127" s="189"/>
-      <c r="BS127" s="189"/>
-      <c r="BT127" s="190"/>
+      <c r="B127" s="219"/>
+      <c r="C127" s="220"/>
+      <c r="D127" s="220"/>
+      <c r="E127" s="220"/>
+      <c r="F127" s="220"/>
+      <c r="G127" s="220"/>
+      <c r="H127" s="220"/>
+      <c r="I127" s="220"/>
+      <c r="J127" s="220"/>
+      <c r="K127" s="220"/>
+      <c r="L127" s="220"/>
+      <c r="M127" s="220"/>
+      <c r="N127" s="220"/>
+      <c r="O127" s="220"/>
+      <c r="P127" s="220"/>
+      <c r="Q127" s="220"/>
+      <c r="R127" s="220"/>
+      <c r="S127" s="220"/>
+      <c r="T127" s="220"/>
+      <c r="U127" s="220"/>
+      <c r="V127" s="220"/>
+      <c r="W127" s="220"/>
+      <c r="X127" s="220"/>
+      <c r="Y127" s="220"/>
+      <c r="Z127" s="220"/>
+      <c r="AA127" s="220"/>
+      <c r="AB127" s="220"/>
+      <c r="AC127" s="220"/>
+      <c r="AD127" s="220"/>
+      <c r="AE127" s="220"/>
+      <c r="AF127" s="220"/>
+      <c r="AG127" s="220"/>
+      <c r="AH127" s="220"/>
+      <c r="AI127" s="220"/>
+      <c r="AJ127" s="220"/>
+      <c r="AK127" s="220"/>
+      <c r="AL127" s="220"/>
+      <c r="AM127" s="220"/>
+      <c r="AN127" s="220"/>
+      <c r="AO127" s="220"/>
+      <c r="AP127" s="220"/>
+      <c r="AQ127" s="220"/>
+      <c r="AR127" s="220"/>
+      <c r="AS127" s="220"/>
+      <c r="AT127" s="220"/>
+      <c r="AU127" s="220"/>
+      <c r="AV127" s="220"/>
+      <c r="AW127" s="220"/>
+      <c r="AX127" s="220"/>
+      <c r="AY127" s="220"/>
+      <c r="AZ127" s="220"/>
+      <c r="BA127" s="220"/>
+      <c r="BB127" s="220"/>
+      <c r="BC127" s="220"/>
+      <c r="BD127" s="220"/>
+      <c r="BE127" s="220"/>
+      <c r="BF127" s="220"/>
+      <c r="BG127" s="220"/>
+      <c r="BH127" s="220"/>
+      <c r="BI127" s="220"/>
+      <c r="BJ127" s="220"/>
+      <c r="BK127" s="220"/>
+      <c r="BL127" s="220"/>
+      <c r="BM127" s="220"/>
+      <c r="BN127" s="220"/>
+      <c r="BO127" s="220"/>
+      <c r="BP127" s="220"/>
+      <c r="BQ127" s="220"/>
+      <c r="BR127" s="220"/>
+      <c r="BS127" s="220"/>
+      <c r="BT127" s="225"/>
     </row>
     <row r="128" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="111">
         <v>30</v>
       </c>
-      <c r="B128" s="191"/>
-      <c r="C128" s="192"/>
-      <c r="D128" s="192"/>
-      <c r="E128" s="192"/>
-      <c r="F128" s="192"/>
-      <c r="G128" s="192"/>
-      <c r="H128" s="192"/>
-      <c r="I128" s="192"/>
-      <c r="J128" s="192"/>
-      <c r="K128" s="192"/>
-      <c r="L128" s="192"/>
-      <c r="M128" s="192"/>
-      <c r="N128" s="192"/>
-      <c r="O128" s="192"/>
-      <c r="P128" s="192"/>
-      <c r="Q128" s="192"/>
-      <c r="R128" s="192"/>
-      <c r="S128" s="192"/>
-      <c r="T128" s="192"/>
-      <c r="U128" s="192"/>
-      <c r="V128" s="192"/>
-      <c r="W128" s="192"/>
-      <c r="X128" s="192"/>
-      <c r="Y128" s="192"/>
-      <c r="Z128" s="192"/>
-      <c r="AA128" s="192"/>
-      <c r="AB128" s="192"/>
-      <c r="AC128" s="192"/>
-      <c r="AD128" s="192"/>
-      <c r="AE128" s="192"/>
-      <c r="AF128" s="192"/>
-      <c r="AG128" s="192"/>
-      <c r="AH128" s="192"/>
-      <c r="AI128" s="192"/>
-      <c r="AJ128" s="192"/>
-      <c r="AK128" s="192"/>
-      <c r="AL128" s="192"/>
-      <c r="AM128" s="192"/>
-      <c r="AN128" s="192"/>
-      <c r="AO128" s="192"/>
-      <c r="AP128" s="192"/>
-      <c r="AQ128" s="192"/>
-      <c r="AR128" s="192"/>
-      <c r="AS128" s="192"/>
-      <c r="AT128" s="192"/>
-      <c r="AU128" s="192"/>
-      <c r="AV128" s="192"/>
-      <c r="AW128" s="192"/>
-      <c r="AX128" s="192"/>
-      <c r="AY128" s="192"/>
-      <c r="AZ128" s="192"/>
-      <c r="BA128" s="192"/>
-      <c r="BB128" s="192"/>
-      <c r="BC128" s="192"/>
-      <c r="BD128" s="192"/>
-      <c r="BE128" s="192"/>
-      <c r="BF128" s="192"/>
-      <c r="BG128" s="192"/>
-      <c r="BH128" s="192"/>
-      <c r="BI128" s="192"/>
-      <c r="BJ128" s="192"/>
-      <c r="BK128" s="192"/>
-      <c r="BL128" s="192"/>
-      <c r="BM128" s="192"/>
-      <c r="BN128" s="192"/>
-      <c r="BO128" s="192"/>
-      <c r="BP128" s="192"/>
-      <c r="BQ128" s="192"/>
-      <c r="BR128" s="192"/>
-      <c r="BS128" s="192"/>
-      <c r="BT128" s="193"/>
+      <c r="B128" s="221"/>
+      <c r="C128" s="222"/>
+      <c r="D128" s="222"/>
+      <c r="E128" s="222"/>
+      <c r="F128" s="222"/>
+      <c r="G128" s="222"/>
+      <c r="H128" s="222"/>
+      <c r="I128" s="222"/>
+      <c r="J128" s="222"/>
+      <c r="K128" s="222"/>
+      <c r="L128" s="222"/>
+      <c r="M128" s="222"/>
+      <c r="N128" s="222"/>
+      <c r="O128" s="222"/>
+      <c r="P128" s="222"/>
+      <c r="Q128" s="222"/>
+      <c r="R128" s="222"/>
+      <c r="S128" s="222"/>
+      <c r="T128" s="222"/>
+      <c r="U128" s="222"/>
+      <c r="V128" s="222"/>
+      <c r="W128" s="222"/>
+      <c r="X128" s="222"/>
+      <c r="Y128" s="222"/>
+      <c r="Z128" s="222"/>
+      <c r="AA128" s="222"/>
+      <c r="AB128" s="222"/>
+      <c r="AC128" s="222"/>
+      <c r="AD128" s="222"/>
+      <c r="AE128" s="222"/>
+      <c r="AF128" s="222"/>
+      <c r="AG128" s="222"/>
+      <c r="AH128" s="222"/>
+      <c r="AI128" s="222"/>
+      <c r="AJ128" s="222"/>
+      <c r="AK128" s="222"/>
+      <c r="AL128" s="222"/>
+      <c r="AM128" s="222"/>
+      <c r="AN128" s="222"/>
+      <c r="AO128" s="222"/>
+      <c r="AP128" s="222"/>
+      <c r="AQ128" s="222"/>
+      <c r="AR128" s="222"/>
+      <c r="AS128" s="222"/>
+      <c r="AT128" s="222"/>
+      <c r="AU128" s="222"/>
+      <c r="AV128" s="222"/>
+      <c r="AW128" s="222"/>
+      <c r="AX128" s="222"/>
+      <c r="AY128" s="222"/>
+      <c r="AZ128" s="222"/>
+      <c r="BA128" s="222"/>
+      <c r="BB128" s="222"/>
+      <c r="BC128" s="222"/>
+      <c r="BD128" s="222"/>
+      <c r="BE128" s="222"/>
+      <c r="BF128" s="222"/>
+      <c r="BG128" s="222"/>
+      <c r="BH128" s="222"/>
+      <c r="BI128" s="222"/>
+      <c r="BJ128" s="222"/>
+      <c r="BK128" s="222"/>
+      <c r="BL128" s="222"/>
+      <c r="BM128" s="222"/>
+      <c r="BN128" s="222"/>
+      <c r="BO128" s="222"/>
+      <c r="BP128" s="222"/>
+      <c r="BQ128" s="222"/>
+      <c r="BR128" s="222"/>
+      <c r="BS128" s="222"/>
+      <c r="BT128" s="226"/>
     </row>
     <row r="129" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="20"/>
@@ -17377,10 +17387,10 @@
       <c r="V137" s="132"/>
       <c r="W137" s="132"/>
       <c r="X137" s="132"/>
-      <c r="Y137" s="183">
+      <c r="Y137" s="209">
         <v>1</v>
       </c>
-      <c r="Z137" s="184"/>
+      <c r="Z137" s="210"/>
       <c r="AA137" s="132"/>
       <c r="AB137" s="132"/>
       <c r="AC137" s="132"/>
@@ -17389,10 +17399,10 @@
       <c r="AF137" s="132"/>
       <c r="AG137" s="132"/>
       <c r="AH137" s="132"/>
-      <c r="AI137" s="183">
+      <c r="AI137" s="209">
         <v>1</v>
       </c>
-      <c r="AJ137" s="184"/>
+      <c r="AJ137" s="210"/>
       <c r="AK137" s="132"/>
       <c r="AL137" s="132"/>
       <c r="AM137" s="132"/>
@@ -17401,10 +17411,10 @@
       <c r="AP137" s="132"/>
       <c r="AQ137" s="132"/>
       <c r="AR137" s="132"/>
-      <c r="AS137" s="183">
+      <c r="AS137" s="209">
         <v>1</v>
       </c>
-      <c r="AT137" s="184"/>
+      <c r="AT137" s="210"/>
       <c r="AU137" s="132"/>
       <c r="AV137" s="132"/>
       <c r="AW137" s="1"/>
@@ -17413,10 +17423,10 @@
       <c r="AZ137" s="132"/>
       <c r="BA137" s="132"/>
       <c r="BB137" s="132"/>
-      <c r="BC137" s="183">
+      <c r="BC137" s="209">
         <v>1</v>
       </c>
-      <c r="BD137" s="184"/>
+      <c r="BD137" s="210"/>
       <c r="BE137" s="132"/>
       <c r="BF137" s="132"/>
       <c r="BG137" s="133"/>
@@ -17468,10 +17478,10 @@
       <c r="AA138" s="132"/>
       <c r="AB138" s="132"/>
       <c r="AC138" s="132"/>
-      <c r="AD138" s="183">
+      <c r="AD138" s="209">
         <v>1</v>
       </c>
-      <c r="AE138" s="184"/>
+      <c r="AE138" s="210"/>
       <c r="AF138" s="132"/>
       <c r="AG138" s="132"/>
       <c r="AH138" s="132"/>
@@ -17480,10 +17490,10 @@
       <c r="AK138" s="132"/>
       <c r="AL138" s="132"/>
       <c r="AM138" s="132"/>
-      <c r="AN138" s="183">
+      <c r="AN138" s="209">
         <v>1</v>
       </c>
-      <c r="AO138" s="184"/>
+      <c r="AO138" s="210"/>
       <c r="AP138" s="132"/>
       <c r="AQ138" s="132"/>
       <c r="AR138" s="132"/>
@@ -17492,10 +17502,10 @@
       <c r="AU138" s="132"/>
       <c r="AV138" s="132"/>
       <c r="AW138" s="1"/>
-      <c r="AX138" s="183">
+      <c r="AX138" s="209">
         <v>1</v>
       </c>
-      <c r="AY138" s="184"/>
+      <c r="AY138" s="210"/>
       <c r="AZ138" s="132"/>
       <c r="BA138" s="132"/>
       <c r="BB138" s="132"/>
@@ -17774,15 +17784,15 @@
       <c r="O142" s="19"/>
       <c r="P142" s="19"/>
       <c r="Q142" s="39"/>
-      <c r="R142" s="206"/>
-      <c r="S142" s="206"/>
+      <c r="R142" s="176"/>
+      <c r="S142" s="176"/>
       <c r="T142" s="157"/>
       <c r="U142" s="157"/>
       <c r="V142" s="162"/>
       <c r="W142" s="162"/>
       <c r="X142" s="132"/>
-      <c r="Y142" s="183"/>
-      <c r="Z142" s="184"/>
+      <c r="Y142" s="209"/>
+      <c r="Z142" s="210"/>
       <c r="AA142" s="132"/>
       <c r="AB142" s="132"/>
       <c r="AC142" s="132"/>
@@ -17791,8 +17801,8 @@
       <c r="AF142" s="132"/>
       <c r="AG142" s="132"/>
       <c r="AH142" s="132"/>
-      <c r="AI142" s="183"/>
-      <c r="AJ142" s="184"/>
+      <c r="AI142" s="209"/>
+      <c r="AJ142" s="210"/>
       <c r="AK142" s="132"/>
       <c r="AL142" s="132"/>
       <c r="AM142" s="132"/>
@@ -17801,8 +17811,8 @@
       <c r="AP142" s="132"/>
       <c r="AQ142" s="132"/>
       <c r="AR142" s="132"/>
-      <c r="AS142" s="183"/>
-      <c r="AT142" s="184"/>
+      <c r="AS142" s="209"/>
+      <c r="AT142" s="210"/>
       <c r="AU142" s="132"/>
       <c r="AV142" s="132"/>
       <c r="AW142" s="1"/>
@@ -17811,8 +17821,8 @@
       <c r="AZ142" s="132"/>
       <c r="BA142" s="132"/>
       <c r="BB142" s="132"/>
-      <c r="BC142" s="183"/>
-      <c r="BD142" s="184"/>
+      <c r="BC142" s="209"/>
+      <c r="BD142" s="210"/>
       <c r="BE142" s="132"/>
       <c r="BF142" s="132"/>
       <c r="BG142" s="132"/>
@@ -17864,8 +17874,8 @@
       <c r="AA143" s="132"/>
       <c r="AB143" s="132"/>
       <c r="AC143" s="132"/>
-      <c r="AD143" s="194"/>
-      <c r="AE143" s="194"/>
+      <c r="AD143" s="211"/>
+      <c r="AE143" s="211"/>
       <c r="AF143" s="132"/>
       <c r="AG143" s="132"/>
       <c r="AH143" s="132"/>
@@ -17874,8 +17884,8 @@
       <c r="AK143" s="132"/>
       <c r="AL143" s="132"/>
       <c r="AM143" s="132"/>
-      <c r="AN143" s="194"/>
-      <c r="AO143" s="194"/>
+      <c r="AN143" s="211"/>
+      <c r="AO143" s="211"/>
       <c r="AP143" s="132"/>
       <c r="AQ143" s="132"/>
       <c r="AR143" s="132"/>
@@ -17884,8 +17894,8 @@
       <c r="AU143" s="132"/>
       <c r="AV143" s="132"/>
       <c r="AW143" s="1"/>
-      <c r="AX143" s="194"/>
-      <c r="AY143" s="194"/>
+      <c r="AX143" s="211"/>
+      <c r="AY143" s="211"/>
       <c r="AZ143" s="132"/>
       <c r="BA143" s="132"/>
       <c r="BB143" s="132"/>
@@ -17932,55 +17942,55 @@
       <c r="Q144" s="173"/>
       <c r="R144" s="173"/>
       <c r="S144" s="173"/>
-      <c r="T144" s="194" t="s">
+      <c r="T144" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="U144" s="194"/>
-      <c r="V144" s="194"/>
-      <c r="W144" s="194"/>
-      <c r="X144" s="194"/>
-      <c r="Y144" s="194"/>
-      <c r="Z144" s="194"/>
-      <c r="AA144" s="194"/>
-      <c r="AB144" s="194"/>
-      <c r="AC144" s="194"/>
-      <c r="AD144" s="194"/>
-      <c r="AE144" s="194"/>
-      <c r="AF144" s="194"/>
-      <c r="AG144" s="194"/>
-      <c r="AH144" s="194"/>
-      <c r="AI144" s="194"/>
-      <c r="AJ144" s="194"/>
-      <c r="AK144" s="194"/>
-      <c r="AL144" s="194"/>
-      <c r="AM144" s="194"/>
-      <c r="AN144" s="194"/>
-      <c r="AO144" s="194"/>
-      <c r="AP144" s="194"/>
-      <c r="AQ144" s="194"/>
-      <c r="AR144" s="194"/>
-      <c r="AS144" s="194"/>
-      <c r="AT144" s="194"/>
-      <c r="AU144" s="194"/>
-      <c r="AV144" s="194"/>
-      <c r="AW144" s="194"/>
-      <c r="AX144" s="194"/>
-      <c r="AY144" s="194"/>
-      <c r="AZ144" s="194"/>
-      <c r="BA144" s="194"/>
-      <c r="BB144" s="194"/>
-      <c r="BC144" s="194"/>
-      <c r="BD144" s="194"/>
-      <c r="BE144" s="194"/>
-      <c r="BF144" s="194"/>
-      <c r="BG144" s="194"/>
-      <c r="BH144" s="194"/>
-      <c r="BI144" s="194"/>
-      <c r="BJ144" s="194"/>
-      <c r="BK144" s="194"/>
-      <c r="BL144" s="194"/>
-      <c r="BM144" s="194"/>
-      <c r="BN144" s="195"/>
+      <c r="U144" s="211"/>
+      <c r="V144" s="211"/>
+      <c r="W144" s="211"/>
+      <c r="X144" s="211"/>
+      <c r="Y144" s="211"/>
+      <c r="Z144" s="211"/>
+      <c r="AA144" s="211"/>
+      <c r="AB144" s="211"/>
+      <c r="AC144" s="211"/>
+      <c r="AD144" s="211"/>
+      <c r="AE144" s="211"/>
+      <c r="AF144" s="211"/>
+      <c r="AG144" s="211"/>
+      <c r="AH144" s="211"/>
+      <c r="AI144" s="211"/>
+      <c r="AJ144" s="211"/>
+      <c r="AK144" s="211"/>
+      <c r="AL144" s="211"/>
+      <c r="AM144" s="211"/>
+      <c r="AN144" s="211"/>
+      <c r="AO144" s="211"/>
+      <c r="AP144" s="211"/>
+      <c r="AQ144" s="211"/>
+      <c r="AR144" s="211"/>
+      <c r="AS144" s="211"/>
+      <c r="AT144" s="211"/>
+      <c r="AU144" s="211"/>
+      <c r="AV144" s="211"/>
+      <c r="AW144" s="211"/>
+      <c r="AX144" s="211"/>
+      <c r="AY144" s="211"/>
+      <c r="AZ144" s="211"/>
+      <c r="BA144" s="211"/>
+      <c r="BB144" s="211"/>
+      <c r="BC144" s="211"/>
+      <c r="BD144" s="211"/>
+      <c r="BE144" s="211"/>
+      <c r="BF144" s="211"/>
+      <c r="BG144" s="211"/>
+      <c r="BH144" s="211"/>
+      <c r="BI144" s="211"/>
+      <c r="BJ144" s="211"/>
+      <c r="BK144" s="211"/>
+      <c r="BL144" s="211"/>
+      <c r="BM144" s="211"/>
+      <c r="BN144" s="230"/>
       <c r="BO144" s="139"/>
       <c r="BP144" s="139"/>
       <c r="BQ144" s="139"/>
@@ -18012,53 +18022,53 @@
       <c r="Q145" s="173"/>
       <c r="R145" s="173"/>
       <c r="S145" s="173"/>
-      <c r="T145" s="194"/>
-      <c r="U145" s="194"/>
-      <c r="V145" s="194"/>
-      <c r="W145" s="194"/>
-      <c r="X145" s="194"/>
-      <c r="Y145" s="194"/>
-      <c r="Z145" s="194"/>
-      <c r="AA145" s="194"/>
-      <c r="AB145" s="194"/>
-      <c r="AC145" s="194"/>
-      <c r="AD145" s="194"/>
-      <c r="AE145" s="194"/>
-      <c r="AF145" s="194"/>
-      <c r="AG145" s="194"/>
-      <c r="AH145" s="194"/>
-      <c r="AI145" s="194"/>
-      <c r="AJ145" s="194"/>
-      <c r="AK145" s="194"/>
-      <c r="AL145" s="194"/>
-      <c r="AM145" s="194"/>
-      <c r="AN145" s="194"/>
-      <c r="AO145" s="194"/>
-      <c r="AP145" s="194"/>
-      <c r="AQ145" s="194"/>
-      <c r="AR145" s="194"/>
-      <c r="AS145" s="194"/>
-      <c r="AT145" s="194"/>
-      <c r="AU145" s="194"/>
-      <c r="AV145" s="194"/>
-      <c r="AW145" s="194"/>
-      <c r="AX145" s="194"/>
-      <c r="AY145" s="194"/>
-      <c r="AZ145" s="194"/>
-      <c r="BA145" s="194"/>
-      <c r="BB145" s="194"/>
-      <c r="BC145" s="194"/>
-      <c r="BD145" s="194"/>
-      <c r="BE145" s="194"/>
-      <c r="BF145" s="194"/>
-      <c r="BG145" s="194"/>
-      <c r="BH145" s="194"/>
-      <c r="BI145" s="194"/>
-      <c r="BJ145" s="194"/>
-      <c r="BK145" s="194"/>
-      <c r="BL145" s="194"/>
-      <c r="BM145" s="194"/>
-      <c r="BN145" s="195"/>
+      <c r="T145" s="211"/>
+      <c r="U145" s="211"/>
+      <c r="V145" s="211"/>
+      <c r="W145" s="211"/>
+      <c r="X145" s="211"/>
+      <c r="Y145" s="211"/>
+      <c r="Z145" s="211"/>
+      <c r="AA145" s="211"/>
+      <c r="AB145" s="211"/>
+      <c r="AC145" s="211"/>
+      <c r="AD145" s="211"/>
+      <c r="AE145" s="211"/>
+      <c r="AF145" s="211"/>
+      <c r="AG145" s="211"/>
+      <c r="AH145" s="211"/>
+      <c r="AI145" s="211"/>
+      <c r="AJ145" s="211"/>
+      <c r="AK145" s="211"/>
+      <c r="AL145" s="211"/>
+      <c r="AM145" s="211"/>
+      <c r="AN145" s="211"/>
+      <c r="AO145" s="211"/>
+      <c r="AP145" s="211"/>
+      <c r="AQ145" s="211"/>
+      <c r="AR145" s="211"/>
+      <c r="AS145" s="211"/>
+      <c r="AT145" s="211"/>
+      <c r="AU145" s="211"/>
+      <c r="AV145" s="211"/>
+      <c r="AW145" s="211"/>
+      <c r="AX145" s="211"/>
+      <c r="AY145" s="211"/>
+      <c r="AZ145" s="211"/>
+      <c r="BA145" s="211"/>
+      <c r="BB145" s="211"/>
+      <c r="BC145" s="211"/>
+      <c r="BD145" s="211"/>
+      <c r="BE145" s="211"/>
+      <c r="BF145" s="211"/>
+      <c r="BG145" s="211"/>
+      <c r="BH145" s="211"/>
+      <c r="BI145" s="211"/>
+      <c r="BJ145" s="211"/>
+      <c r="BK145" s="211"/>
+      <c r="BL145" s="211"/>
+      <c r="BM145" s="211"/>
+      <c r="BN145" s="230"/>
       <c r="BO145" s="139"/>
       <c r="BP145" s="139"/>
       <c r="BQ145" s="139"/>
@@ -18318,38 +18328,38 @@
       <c r="K149" s="133"/>
       <c r="L149" s="132"/>
       <c r="M149" s="132"/>
-      <c r="N149" s="183"/>
-      <c r="O149" s="184"/>
+      <c r="N149" s="209"/>
+      <c r="O149" s="210"/>
       <c r="P149" s="136"/>
       <c r="Q149" s="136"/>
       <c r="R149" s="136"/>
       <c r="S149" s="132"/>
-      <c r="T149" s="183"/>
-      <c r="U149" s="184"/>
+      <c r="T149" s="209"/>
+      <c r="U149" s="210"/>
       <c r="V149" s="136"/>
       <c r="W149" s="136"/>
       <c r="X149" s="136"/>
       <c r="Y149" s="132"/>
-      <c r="Z149" s="183"/>
-      <c r="AA149" s="184"/>
+      <c r="Z149" s="209"/>
+      <c r="AA149" s="210"/>
       <c r="AB149" s="136"/>
       <c r="AC149" s="136"/>
       <c r="AD149" s="136"/>
       <c r="AE149" s="132"/>
-      <c r="AF149" s="183"/>
-      <c r="AG149" s="184"/>
+      <c r="AF149" s="209"/>
+      <c r="AG149" s="210"/>
       <c r="AH149" s="136"/>
       <c r="AI149" s="136"/>
       <c r="AJ149" s="136"/>
       <c r="AK149" s="132"/>
-      <c r="AL149" s="183"/>
-      <c r="AM149" s="184"/>
+      <c r="AL149" s="209"/>
+      <c r="AM149" s="210"/>
       <c r="AN149" s="136"/>
       <c r="AO149" s="136"/>
       <c r="AP149" s="136"/>
       <c r="AQ149" s="132"/>
-      <c r="AR149" s="183"/>
-      <c r="AS149" s="184"/>
+      <c r="AR149" s="209"/>
+      <c r="AS149" s="210"/>
       <c r="AT149" s="136"/>
       <c r="AU149" s="136"/>
       <c r="AV149" s="136"/>
@@ -18618,73 +18628,73 @@
       <c r="A153" s="112">
         <v>21</v>
       </c>
-      <c r="B153" s="185" t="s">
+      <c r="B153" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="C153" s="186"/>
-      <c r="D153" s="186"/>
-      <c r="E153" s="186"/>
-      <c r="F153" s="186"/>
-      <c r="G153" s="186"/>
-      <c r="H153" s="186"/>
-      <c r="I153" s="186"/>
-      <c r="J153" s="186"/>
-      <c r="K153" s="186"/>
-      <c r="L153" s="186"/>
-      <c r="M153" s="186"/>
-      <c r="N153" s="186"/>
-      <c r="O153" s="186"/>
-      <c r="P153" s="186"/>
-      <c r="Q153" s="186"/>
-      <c r="R153" s="186"/>
-      <c r="S153" s="186"/>
-      <c r="T153" s="186"/>
-      <c r="U153" s="186"/>
-      <c r="V153" s="186"/>
-      <c r="W153" s="186"/>
-      <c r="X153" s="186"/>
-      <c r="Y153" s="186"/>
-      <c r="Z153" s="186"/>
-      <c r="AA153" s="186"/>
-      <c r="AB153" s="186"/>
-      <c r="AC153" s="186"/>
-      <c r="AD153" s="186"/>
-      <c r="AE153" s="186"/>
-      <c r="AF153" s="186"/>
-      <c r="AG153" s="186"/>
-      <c r="AH153" s="186"/>
-      <c r="AI153" s="186"/>
-      <c r="AJ153" s="186"/>
-      <c r="AK153" s="186"/>
-      <c r="AL153" s="186"/>
-      <c r="AM153" s="186"/>
-      <c r="AN153" s="186"/>
-      <c r="AO153" s="186"/>
-      <c r="AP153" s="186"/>
-      <c r="AQ153" s="186"/>
-      <c r="AR153" s="186"/>
-      <c r="AS153" s="186"/>
-      <c r="AT153" s="186"/>
-      <c r="AU153" s="186"/>
-      <c r="AV153" s="186"/>
-      <c r="AW153" s="186"/>
-      <c r="AX153" s="186"/>
-      <c r="AY153" s="186"/>
-      <c r="AZ153" s="186"/>
-      <c r="BA153" s="186"/>
-      <c r="BB153" s="186"/>
-      <c r="BC153" s="186"/>
-      <c r="BD153" s="186"/>
-      <c r="BE153" s="186"/>
-      <c r="BF153" s="186"/>
-      <c r="BG153" s="186"/>
-      <c r="BH153" s="186"/>
-      <c r="BI153" s="186"/>
-      <c r="BJ153" s="186"/>
-      <c r="BK153" s="186"/>
-      <c r="BL153" s="186"/>
-      <c r="BM153" s="186"/>
-      <c r="BN153" s="187"/>
+      <c r="C153" s="228"/>
+      <c r="D153" s="228"/>
+      <c r="E153" s="228"/>
+      <c r="F153" s="228"/>
+      <c r="G153" s="228"/>
+      <c r="H153" s="228"/>
+      <c r="I153" s="228"/>
+      <c r="J153" s="228"/>
+      <c r="K153" s="228"/>
+      <c r="L153" s="228"/>
+      <c r="M153" s="228"/>
+      <c r="N153" s="228"/>
+      <c r="O153" s="228"/>
+      <c r="P153" s="228"/>
+      <c r="Q153" s="228"/>
+      <c r="R153" s="228"/>
+      <c r="S153" s="228"/>
+      <c r="T153" s="228"/>
+      <c r="U153" s="228"/>
+      <c r="V153" s="228"/>
+      <c r="W153" s="228"/>
+      <c r="X153" s="228"/>
+      <c r="Y153" s="228"/>
+      <c r="Z153" s="228"/>
+      <c r="AA153" s="228"/>
+      <c r="AB153" s="228"/>
+      <c r="AC153" s="228"/>
+      <c r="AD153" s="228"/>
+      <c r="AE153" s="228"/>
+      <c r="AF153" s="228"/>
+      <c r="AG153" s="228"/>
+      <c r="AH153" s="228"/>
+      <c r="AI153" s="228"/>
+      <c r="AJ153" s="228"/>
+      <c r="AK153" s="228"/>
+      <c r="AL153" s="228"/>
+      <c r="AM153" s="228"/>
+      <c r="AN153" s="228"/>
+      <c r="AO153" s="228"/>
+      <c r="AP153" s="228"/>
+      <c r="AQ153" s="228"/>
+      <c r="AR153" s="228"/>
+      <c r="AS153" s="228"/>
+      <c r="AT153" s="228"/>
+      <c r="AU153" s="228"/>
+      <c r="AV153" s="228"/>
+      <c r="AW153" s="228"/>
+      <c r="AX153" s="228"/>
+      <c r="AY153" s="228"/>
+      <c r="AZ153" s="228"/>
+      <c r="BA153" s="228"/>
+      <c r="BB153" s="228"/>
+      <c r="BC153" s="228"/>
+      <c r="BD153" s="228"/>
+      <c r="BE153" s="228"/>
+      <c r="BF153" s="228"/>
+      <c r="BG153" s="228"/>
+      <c r="BH153" s="228"/>
+      <c r="BI153" s="228"/>
+      <c r="BJ153" s="228"/>
+      <c r="BK153" s="228"/>
+      <c r="BL153" s="228"/>
+      <c r="BM153" s="228"/>
+      <c r="BN153" s="229"/>
       <c r="BO153" s="140"/>
       <c r="BP153" s="140"/>
       <c r="BQ153" s="140"/>
@@ -18698,71 +18708,71 @@
       <c r="A154" s="111">
         <v>22</v>
       </c>
-      <c r="B154" s="188"/>
-      <c r="C154" s="189"/>
-      <c r="D154" s="189"/>
-      <c r="E154" s="189"/>
-      <c r="F154" s="189"/>
-      <c r="G154" s="189"/>
-      <c r="H154" s="189"/>
-      <c r="I154" s="189"/>
-      <c r="J154" s="189"/>
-      <c r="K154" s="189"/>
-      <c r="L154" s="189"/>
-      <c r="M154" s="189"/>
-      <c r="N154" s="189"/>
-      <c r="O154" s="189"/>
-      <c r="P154" s="189"/>
-      <c r="Q154" s="189"/>
-      <c r="R154" s="189"/>
-      <c r="S154" s="189"/>
-      <c r="T154" s="189"/>
-      <c r="U154" s="189"/>
-      <c r="V154" s="189"/>
-      <c r="W154" s="189"/>
-      <c r="X154" s="189"/>
-      <c r="Y154" s="189"/>
-      <c r="Z154" s="189"/>
-      <c r="AA154" s="189"/>
-      <c r="AB154" s="189"/>
-      <c r="AC154" s="189"/>
-      <c r="AD154" s="189"/>
-      <c r="AE154" s="189"/>
-      <c r="AF154" s="189"/>
-      <c r="AG154" s="189"/>
-      <c r="AH154" s="189"/>
-      <c r="AI154" s="189"/>
-      <c r="AJ154" s="189"/>
-      <c r="AK154" s="189"/>
-      <c r="AL154" s="189"/>
-      <c r="AM154" s="189"/>
-      <c r="AN154" s="189"/>
-      <c r="AO154" s="189"/>
-      <c r="AP154" s="189"/>
-      <c r="AQ154" s="189"/>
-      <c r="AR154" s="189"/>
-      <c r="AS154" s="189"/>
-      <c r="AT154" s="189"/>
-      <c r="AU154" s="189"/>
-      <c r="AV154" s="189"/>
-      <c r="AW154" s="189"/>
-      <c r="AX154" s="189"/>
-      <c r="AY154" s="189"/>
-      <c r="AZ154" s="189"/>
-      <c r="BA154" s="189"/>
-      <c r="BB154" s="189"/>
-      <c r="BC154" s="189"/>
-      <c r="BD154" s="189"/>
-      <c r="BE154" s="189"/>
-      <c r="BF154" s="189"/>
-      <c r="BG154" s="189"/>
-      <c r="BH154" s="189"/>
-      <c r="BI154" s="189"/>
-      <c r="BJ154" s="189"/>
-      <c r="BK154" s="189"/>
-      <c r="BL154" s="189"/>
-      <c r="BM154" s="189"/>
-      <c r="BN154" s="190"/>
+      <c r="B154" s="219"/>
+      <c r="C154" s="220"/>
+      <c r="D154" s="220"/>
+      <c r="E154" s="220"/>
+      <c r="F154" s="220"/>
+      <c r="G154" s="220"/>
+      <c r="H154" s="220"/>
+      <c r="I154" s="220"/>
+      <c r="J154" s="220"/>
+      <c r="K154" s="220"/>
+      <c r="L154" s="220"/>
+      <c r="M154" s="220"/>
+      <c r="N154" s="220"/>
+      <c r="O154" s="220"/>
+      <c r="P154" s="220"/>
+      <c r="Q154" s="220"/>
+      <c r="R154" s="220"/>
+      <c r="S154" s="220"/>
+      <c r="T154" s="220"/>
+      <c r="U154" s="220"/>
+      <c r="V154" s="220"/>
+      <c r="W154" s="220"/>
+      <c r="X154" s="220"/>
+      <c r="Y154" s="220"/>
+      <c r="Z154" s="220"/>
+      <c r="AA154" s="220"/>
+      <c r="AB154" s="220"/>
+      <c r="AC154" s="220"/>
+      <c r="AD154" s="220"/>
+      <c r="AE154" s="220"/>
+      <c r="AF154" s="220"/>
+      <c r="AG154" s="220"/>
+      <c r="AH154" s="220"/>
+      <c r="AI154" s="220"/>
+      <c r="AJ154" s="220"/>
+      <c r="AK154" s="220"/>
+      <c r="AL154" s="220"/>
+      <c r="AM154" s="220"/>
+      <c r="AN154" s="220"/>
+      <c r="AO154" s="220"/>
+      <c r="AP154" s="220"/>
+      <c r="AQ154" s="220"/>
+      <c r="AR154" s="220"/>
+      <c r="AS154" s="220"/>
+      <c r="AT154" s="220"/>
+      <c r="AU154" s="220"/>
+      <c r="AV154" s="220"/>
+      <c r="AW154" s="220"/>
+      <c r="AX154" s="220"/>
+      <c r="AY154" s="220"/>
+      <c r="AZ154" s="220"/>
+      <c r="BA154" s="220"/>
+      <c r="BB154" s="220"/>
+      <c r="BC154" s="220"/>
+      <c r="BD154" s="220"/>
+      <c r="BE154" s="220"/>
+      <c r="BF154" s="220"/>
+      <c r="BG154" s="220"/>
+      <c r="BH154" s="220"/>
+      <c r="BI154" s="220"/>
+      <c r="BJ154" s="220"/>
+      <c r="BK154" s="220"/>
+      <c r="BL154" s="220"/>
+      <c r="BM154" s="220"/>
+      <c r="BN154" s="225"/>
       <c r="BO154" s="140"/>
       <c r="BP154" s="140"/>
       <c r="BQ154" s="140"/>
@@ -18776,71 +18786,71 @@
       <c r="A155" s="112">
         <v>23</v>
       </c>
-      <c r="B155" s="188"/>
-      <c r="C155" s="189"/>
-      <c r="D155" s="189"/>
-      <c r="E155" s="189"/>
-      <c r="F155" s="189"/>
-      <c r="G155" s="189"/>
-      <c r="H155" s="189"/>
-      <c r="I155" s="189"/>
-      <c r="J155" s="189"/>
-      <c r="K155" s="189"/>
-      <c r="L155" s="189"/>
-      <c r="M155" s="189"/>
-      <c r="N155" s="189"/>
-      <c r="O155" s="189"/>
-      <c r="P155" s="189"/>
-      <c r="Q155" s="189"/>
-      <c r="R155" s="189"/>
-      <c r="S155" s="189"/>
-      <c r="T155" s="189"/>
-      <c r="U155" s="189"/>
-      <c r="V155" s="189"/>
-      <c r="W155" s="189"/>
-      <c r="X155" s="189"/>
-      <c r="Y155" s="189"/>
-      <c r="Z155" s="189"/>
-      <c r="AA155" s="189"/>
-      <c r="AB155" s="189"/>
-      <c r="AC155" s="189"/>
-      <c r="AD155" s="189"/>
-      <c r="AE155" s="189"/>
-      <c r="AF155" s="189"/>
-      <c r="AG155" s="189"/>
-      <c r="AH155" s="189"/>
-      <c r="AI155" s="189"/>
-      <c r="AJ155" s="189"/>
-      <c r="AK155" s="189"/>
-      <c r="AL155" s="189"/>
-      <c r="AM155" s="189"/>
-      <c r="AN155" s="189"/>
-      <c r="AO155" s="189"/>
-      <c r="AP155" s="189"/>
-      <c r="AQ155" s="189"/>
-      <c r="AR155" s="189"/>
-      <c r="AS155" s="189"/>
-      <c r="AT155" s="189"/>
-      <c r="AU155" s="189"/>
-      <c r="AV155" s="189"/>
-      <c r="AW155" s="189"/>
-      <c r="AX155" s="189"/>
-      <c r="AY155" s="189"/>
-      <c r="AZ155" s="189"/>
-      <c r="BA155" s="189"/>
-      <c r="BB155" s="189"/>
-      <c r="BC155" s="189"/>
-      <c r="BD155" s="189"/>
-      <c r="BE155" s="189"/>
-      <c r="BF155" s="189"/>
-      <c r="BG155" s="189"/>
-      <c r="BH155" s="189"/>
-      <c r="BI155" s="189"/>
-      <c r="BJ155" s="189"/>
-      <c r="BK155" s="189"/>
-      <c r="BL155" s="189"/>
-      <c r="BM155" s="189"/>
-      <c r="BN155" s="190"/>
+      <c r="B155" s="219"/>
+      <c r="C155" s="220"/>
+      <c r="D155" s="220"/>
+      <c r="E155" s="220"/>
+      <c r="F155" s="220"/>
+      <c r="G155" s="220"/>
+      <c r="H155" s="220"/>
+      <c r="I155" s="220"/>
+      <c r="J155" s="220"/>
+      <c r="K155" s="220"/>
+      <c r="L155" s="220"/>
+      <c r="M155" s="220"/>
+      <c r="N155" s="220"/>
+      <c r="O155" s="220"/>
+      <c r="P155" s="220"/>
+      <c r="Q155" s="220"/>
+      <c r="R155" s="220"/>
+      <c r="S155" s="220"/>
+      <c r="T155" s="220"/>
+      <c r="U155" s="220"/>
+      <c r="V155" s="220"/>
+      <c r="W155" s="220"/>
+      <c r="X155" s="220"/>
+      <c r="Y155" s="220"/>
+      <c r="Z155" s="220"/>
+      <c r="AA155" s="220"/>
+      <c r="AB155" s="220"/>
+      <c r="AC155" s="220"/>
+      <c r="AD155" s="220"/>
+      <c r="AE155" s="220"/>
+      <c r="AF155" s="220"/>
+      <c r="AG155" s="220"/>
+      <c r="AH155" s="220"/>
+      <c r="AI155" s="220"/>
+      <c r="AJ155" s="220"/>
+      <c r="AK155" s="220"/>
+      <c r="AL155" s="220"/>
+      <c r="AM155" s="220"/>
+      <c r="AN155" s="220"/>
+      <c r="AO155" s="220"/>
+      <c r="AP155" s="220"/>
+      <c r="AQ155" s="220"/>
+      <c r="AR155" s="220"/>
+      <c r="AS155" s="220"/>
+      <c r="AT155" s="220"/>
+      <c r="AU155" s="220"/>
+      <c r="AV155" s="220"/>
+      <c r="AW155" s="220"/>
+      <c r="AX155" s="220"/>
+      <c r="AY155" s="220"/>
+      <c r="AZ155" s="220"/>
+      <c r="BA155" s="220"/>
+      <c r="BB155" s="220"/>
+      <c r="BC155" s="220"/>
+      <c r="BD155" s="220"/>
+      <c r="BE155" s="220"/>
+      <c r="BF155" s="220"/>
+      <c r="BG155" s="220"/>
+      <c r="BH155" s="220"/>
+      <c r="BI155" s="220"/>
+      <c r="BJ155" s="220"/>
+      <c r="BK155" s="220"/>
+      <c r="BL155" s="220"/>
+      <c r="BM155" s="220"/>
+      <c r="BN155" s="225"/>
       <c r="BO155" s="140"/>
       <c r="BP155" s="140"/>
       <c r="BQ155" s="140"/>
@@ -18854,71 +18864,71 @@
       <c r="A156" s="111">
         <v>24</v>
       </c>
-      <c r="B156" s="191"/>
-      <c r="C156" s="192"/>
-      <c r="D156" s="192"/>
-      <c r="E156" s="192"/>
-      <c r="F156" s="192"/>
-      <c r="G156" s="192"/>
-      <c r="H156" s="192"/>
-      <c r="I156" s="192"/>
-      <c r="J156" s="192"/>
-      <c r="K156" s="192"/>
-      <c r="L156" s="192"/>
-      <c r="M156" s="192"/>
-      <c r="N156" s="192"/>
-      <c r="O156" s="192"/>
-      <c r="P156" s="192"/>
-      <c r="Q156" s="192"/>
-      <c r="R156" s="192"/>
-      <c r="S156" s="192"/>
-      <c r="T156" s="192"/>
-      <c r="U156" s="192"/>
-      <c r="V156" s="192"/>
-      <c r="W156" s="192"/>
-      <c r="X156" s="192"/>
-      <c r="Y156" s="192"/>
-      <c r="Z156" s="192"/>
-      <c r="AA156" s="192"/>
-      <c r="AB156" s="192"/>
-      <c r="AC156" s="192"/>
-      <c r="AD156" s="192"/>
-      <c r="AE156" s="192"/>
-      <c r="AF156" s="192"/>
-      <c r="AG156" s="192"/>
-      <c r="AH156" s="192"/>
-      <c r="AI156" s="192"/>
-      <c r="AJ156" s="192"/>
-      <c r="AK156" s="192"/>
-      <c r="AL156" s="192"/>
-      <c r="AM156" s="192"/>
-      <c r="AN156" s="192"/>
-      <c r="AO156" s="192"/>
-      <c r="AP156" s="192"/>
-      <c r="AQ156" s="192"/>
-      <c r="AR156" s="192"/>
-      <c r="AS156" s="192"/>
-      <c r="AT156" s="192"/>
-      <c r="AU156" s="192"/>
-      <c r="AV156" s="192"/>
-      <c r="AW156" s="192"/>
-      <c r="AX156" s="192"/>
-      <c r="AY156" s="192"/>
-      <c r="AZ156" s="192"/>
-      <c r="BA156" s="192"/>
-      <c r="BB156" s="192"/>
-      <c r="BC156" s="192"/>
-      <c r="BD156" s="192"/>
-      <c r="BE156" s="192"/>
-      <c r="BF156" s="192"/>
-      <c r="BG156" s="192"/>
-      <c r="BH156" s="192"/>
-      <c r="BI156" s="192"/>
-      <c r="BJ156" s="192"/>
-      <c r="BK156" s="192"/>
-      <c r="BL156" s="192"/>
-      <c r="BM156" s="192"/>
-      <c r="BN156" s="193"/>
+      <c r="B156" s="221"/>
+      <c r="C156" s="222"/>
+      <c r="D156" s="222"/>
+      <c r="E156" s="222"/>
+      <c r="F156" s="222"/>
+      <c r="G156" s="222"/>
+      <c r="H156" s="222"/>
+      <c r="I156" s="222"/>
+      <c r="J156" s="222"/>
+      <c r="K156" s="222"/>
+      <c r="L156" s="222"/>
+      <c r="M156" s="222"/>
+      <c r="N156" s="222"/>
+      <c r="O156" s="222"/>
+      <c r="P156" s="222"/>
+      <c r="Q156" s="222"/>
+      <c r="R156" s="222"/>
+      <c r="S156" s="222"/>
+      <c r="T156" s="222"/>
+      <c r="U156" s="222"/>
+      <c r="V156" s="222"/>
+      <c r="W156" s="222"/>
+      <c r="X156" s="222"/>
+      <c r="Y156" s="222"/>
+      <c r="Z156" s="222"/>
+      <c r="AA156" s="222"/>
+      <c r="AB156" s="222"/>
+      <c r="AC156" s="222"/>
+      <c r="AD156" s="222"/>
+      <c r="AE156" s="222"/>
+      <c r="AF156" s="222"/>
+      <c r="AG156" s="222"/>
+      <c r="AH156" s="222"/>
+      <c r="AI156" s="222"/>
+      <c r="AJ156" s="222"/>
+      <c r="AK156" s="222"/>
+      <c r="AL156" s="222"/>
+      <c r="AM156" s="222"/>
+      <c r="AN156" s="222"/>
+      <c r="AO156" s="222"/>
+      <c r="AP156" s="222"/>
+      <c r="AQ156" s="222"/>
+      <c r="AR156" s="222"/>
+      <c r="AS156" s="222"/>
+      <c r="AT156" s="222"/>
+      <c r="AU156" s="222"/>
+      <c r="AV156" s="222"/>
+      <c r="AW156" s="222"/>
+      <c r="AX156" s="222"/>
+      <c r="AY156" s="222"/>
+      <c r="AZ156" s="222"/>
+      <c r="BA156" s="222"/>
+      <c r="BB156" s="222"/>
+      <c r="BC156" s="222"/>
+      <c r="BD156" s="222"/>
+      <c r="BE156" s="222"/>
+      <c r="BF156" s="222"/>
+      <c r="BG156" s="222"/>
+      <c r="BH156" s="222"/>
+      <c r="BI156" s="222"/>
+      <c r="BJ156" s="222"/>
+      <c r="BK156" s="222"/>
+      <c r="BL156" s="222"/>
+      <c r="BM156" s="222"/>
+      <c r="BN156" s="226"/>
       <c r="BO156" s="140"/>
       <c r="BP156" s="140"/>
       <c r="BQ156" s="140"/>
@@ -19117,844 +19127,480 @@
       <c r="BI159" s="20"/>
       <c r="BJ159" s="20"/>
     </row>
-    <row r="160" spans="1:74" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B160" s="113">
-        <v>0</v>
-      </c>
-      <c r="C160" s="113">
-        <v>1</v>
-      </c>
-      <c r="D160" s="113">
-        <v>2</v>
-      </c>
-      <c r="E160" s="113">
-        <v>3</v>
-      </c>
-      <c r="F160" s="113">
-        <v>4</v>
-      </c>
-      <c r="G160" s="113">
-        <v>5</v>
-      </c>
-      <c r="H160" s="113">
-        <v>6</v>
-      </c>
-      <c r="I160" s="113">
-        <v>7</v>
-      </c>
-      <c r="J160" s="113">
-        <v>8</v>
-      </c>
-      <c r="K160" s="113">
-        <v>9</v>
-      </c>
-      <c r="L160" s="113">
-        <v>10</v>
-      </c>
-      <c r="M160" s="113">
-        <v>11</v>
-      </c>
-      <c r="N160" s="113">
-        <v>12</v>
-      </c>
-      <c r="O160" s="113">
-        <v>13</v>
-      </c>
-      <c r="P160" s="113">
-        <v>14</v>
-      </c>
-      <c r="Q160" s="113">
-        <v>15</v>
-      </c>
-      <c r="R160" s="113">
-        <v>16</v>
-      </c>
-      <c r="S160" s="113">
-        <v>17</v>
-      </c>
-      <c r="T160" s="113">
-        <v>18</v>
-      </c>
-      <c r="U160" s="113">
-        <v>19</v>
-      </c>
-      <c r="V160" s="113">
-        <v>20</v>
-      </c>
-      <c r="W160" s="113">
-        <v>21</v>
-      </c>
-      <c r="X160" s="113">
-        <v>22</v>
-      </c>
-      <c r="Y160" s="113">
-        <v>23</v>
-      </c>
-      <c r="Z160" s="113">
-        <v>24</v>
-      </c>
-      <c r="AA160" s="113">
-        <v>25</v>
-      </c>
-      <c r="AB160" s="113">
-        <v>26</v>
-      </c>
-      <c r="AC160" s="113">
-        <v>27</v>
-      </c>
-      <c r="AD160" s="113">
-        <v>28</v>
-      </c>
-      <c r="AE160" s="113">
-        <v>29</v>
-      </c>
-      <c r="AF160" s="113">
-        <v>30</v>
-      </c>
-      <c r="AG160" s="113">
-        <v>31</v>
-      </c>
-      <c r="AH160" s="113">
-        <v>32</v>
-      </c>
-      <c r="AI160" s="113">
-        <v>33</v>
-      </c>
-      <c r="AJ160" s="113">
-        <v>34</v>
-      </c>
-      <c r="AK160" s="113">
-        <v>35</v>
-      </c>
-      <c r="AL160" s="113">
-        <v>36</v>
-      </c>
-      <c r="AM160" s="113">
-        <v>37</v>
-      </c>
-      <c r="AN160" s="113">
-        <v>38</v>
-      </c>
-      <c r="AO160" s="113">
-        <v>39</v>
-      </c>
-      <c r="AP160" s="113">
-        <v>40</v>
-      </c>
-      <c r="AQ160" s="113">
-        <v>41</v>
-      </c>
-      <c r="AR160" s="113">
-        <v>42</v>
-      </c>
-      <c r="AS160" s="113">
-        <v>43</v>
-      </c>
-      <c r="AT160" s="113">
-        <v>44</v>
-      </c>
-      <c r="AU160" s="113">
-        <v>45</v>
-      </c>
-      <c r="AV160" s="113">
-        <v>46</v>
-      </c>
-      <c r="AW160" s="113">
-        <v>47</v>
-      </c>
-      <c r="AX160" s="113">
-        <v>48</v>
-      </c>
-      <c r="AY160" s="113">
-        <v>49</v>
-      </c>
-      <c r="AZ160" s="113">
-        <v>50</v>
-      </c>
-      <c r="BA160" s="113">
-        <v>51</v>
-      </c>
-      <c r="BB160" s="113">
-        <v>52</v>
-      </c>
-      <c r="BC160" s="113">
-        <v>53</v>
-      </c>
-      <c r="BD160" s="113">
-        <v>54</v>
-      </c>
-      <c r="BE160" s="113">
-        <v>55</v>
-      </c>
-      <c r="BF160" s="113">
-        <v>56</v>
-      </c>
-      <c r="BG160" s="113">
-        <v>57</v>
-      </c>
-      <c r="BH160" s="113">
-        <v>58</v>
-      </c>
-      <c r="BI160" s="113">
-        <v>59</v>
-      </c>
-      <c r="BJ160" s="113">
-        <v>60</v>
-      </c>
-      <c r="BK160" s="113">
-        <v>61</v>
-      </c>
-      <c r="BL160" s="113">
-        <v>62</v>
-      </c>
-      <c r="BM160" s="113">
-        <v>63</v>
-      </c>
-      <c r="BN160" s="113">
-        <v>64</v>
-      </c>
-      <c r="BO160" s="113">
-        <v>65</v>
-      </c>
-      <c r="BP160" s="113">
-        <v>66</v>
-      </c>
-      <c r="BQ160" s="113">
-        <v>67</v>
-      </c>
-      <c r="BR160" s="113">
-        <v>68</v>
-      </c>
-      <c r="BS160" s="113">
-        <v>69</v>
-      </c>
-      <c r="BT160" s="113">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="161" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="111">
         <v>0</v>
       </c>
-      <c r="B161" s="84"/>
-      <c r="C161" s="67"/>
-      <c r="D161" s="67"/>
-      <c r="E161" s="67"/>
-      <c r="F161" s="67"/>
-      <c r="G161" s="67"/>
-      <c r="H161" s="67"/>
-      <c r="I161" s="67"/>
-      <c r="J161" s="67"/>
-      <c r="K161" s="67"/>
-      <c r="L161" s="67"/>
-      <c r="M161" s="67"/>
-      <c r="N161" s="67"/>
-      <c r="O161" s="67"/>
-      <c r="P161" s="67"/>
-      <c r="Q161" s="67"/>
-      <c r="R161" s="67"/>
-      <c r="S161" s="67"/>
-      <c r="T161" s="67"/>
-      <c r="U161" s="67"/>
-      <c r="V161" s="67"/>
-      <c r="W161" s="67"/>
-      <c r="X161" s="67"/>
-      <c r="Y161" s="67"/>
-      <c r="Z161" s="67"/>
-      <c r="AA161" s="67"/>
-      <c r="AB161" s="67"/>
-      <c r="AC161" s="67"/>
-      <c r="AD161" s="67"/>
-      <c r="AE161" s="67"/>
-      <c r="AF161" s="67"/>
-      <c r="AG161" s="67"/>
-      <c r="AH161" s="67"/>
-      <c r="AI161" s="67"/>
-      <c r="AJ161" s="67"/>
-      <c r="AK161" s="67"/>
-      <c r="AL161" s="67"/>
-      <c r="AM161" s="67"/>
-      <c r="AN161" s="67"/>
-      <c r="AO161" s="67"/>
-      <c r="AP161" s="67"/>
-      <c r="AQ161" s="67"/>
-      <c r="AR161" s="67"/>
-      <c r="AS161" s="67"/>
-      <c r="AT161" s="67"/>
-      <c r="AU161" s="67"/>
-      <c r="AV161" s="67"/>
-      <c r="AW161" s="67"/>
-      <c r="AX161" s="67"/>
-      <c r="AY161" s="67"/>
-      <c r="AZ161" s="67"/>
-      <c r="BA161" s="67"/>
-      <c r="BB161" s="67"/>
-      <c r="BC161" s="67"/>
-      <c r="BD161" s="67"/>
-      <c r="BE161" s="67"/>
-      <c r="BF161" s="67"/>
-      <c r="BG161" s="67"/>
-      <c r="BH161" s="67"/>
-      <c r="BI161" s="67"/>
-      <c r="BJ161" s="67"/>
-      <c r="BK161" s="67"/>
-      <c r="BL161" s="67"/>
-      <c r="BM161" s="67"/>
-      <c r="BN161" s="67"/>
-      <c r="BO161" s="67"/>
-      <c r="BP161" s="67"/>
-      <c r="BQ161" s="67"/>
-      <c r="BR161" s="67"/>
-      <c r="BS161" s="67"/>
-      <c r="BT161" s="85"/>
-    </row>
-    <row r="162" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="111">
         <v>1</v>
       </c>
-      <c r="B162" s="70"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
-      <c r="O162" s="19"/>
-      <c r="P162" s="19"/>
-      <c r="Q162" s="19"/>
-      <c r="R162" s="19"/>
-      <c r="S162" s="19"/>
-      <c r="T162" s="19"/>
-      <c r="U162" s="19"/>
-      <c r="V162" s="19"/>
-      <c r="W162" s="19"/>
-      <c r="X162" s="19"/>
-      <c r="Y162" s="19"/>
-      <c r="Z162" s="19"/>
-      <c r="AA162" s="19"/>
-      <c r="AB162" s="19"/>
-      <c r="AC162" s="19"/>
-      <c r="AD162" s="19"/>
-      <c r="AE162" s="19"/>
-      <c r="AF162" s="19"/>
-      <c r="AG162" s="19"/>
-      <c r="AH162" s="19"/>
-      <c r="AI162" s="19"/>
-      <c r="AJ162" s="19"/>
-      <c r="AK162" s="19"/>
-      <c r="AL162" s="19"/>
-      <c r="AM162" s="19"/>
-      <c r="AN162" s="19"/>
-      <c r="AO162" s="19"/>
-      <c r="AP162" s="19"/>
-      <c r="AQ162" s="19"/>
-      <c r="AR162" s="19"/>
-      <c r="AS162" s="19"/>
-      <c r="AT162" s="19"/>
-      <c r="AU162" s="19"/>
-      <c r="AV162" s="19"/>
-      <c r="AW162" s="19"/>
-      <c r="AX162" s="19"/>
-      <c r="AY162" s="19"/>
-      <c r="AZ162" s="19"/>
-      <c r="BA162" s="19"/>
-      <c r="BB162" s="19"/>
-      <c r="BC162" s="19"/>
-      <c r="BD162" s="19"/>
-      <c r="BE162" s="19"/>
-      <c r="BF162" s="19"/>
-      <c r="BG162" s="19"/>
-      <c r="BH162" s="19"/>
-      <c r="BI162" s="19"/>
-      <c r="BJ162" s="19"/>
-      <c r="BK162" s="19"/>
-      <c r="BL162" s="19"/>
-      <c r="BM162" s="19"/>
-      <c r="BN162" s="19"/>
-      <c r="BO162" s="19"/>
-      <c r="BP162" s="19"/>
-      <c r="BQ162" s="19"/>
-      <c r="BR162" s="19"/>
-      <c r="BS162" s="19"/>
-      <c r="BT162" s="27"/>
-    </row>
-    <row r="163" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="111">
         <v>2</v>
       </c>
-      <c r="B163" s="70"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
-      <c r="N163" s="19"/>
-      <c r="O163" s="19"/>
-      <c r="P163" s="19"/>
-      <c r="Q163" s="19"/>
-      <c r="R163" s="19"/>
-      <c r="S163" s="19"/>
-      <c r="T163" s="19"/>
-      <c r="U163" s="19"/>
-      <c r="V163" s="19"/>
-      <c r="W163" s="19"/>
-      <c r="X163" s="19"/>
-      <c r="Y163" s="19"/>
-      <c r="Z163" s="19"/>
-      <c r="AA163" s="19"/>
-      <c r="AB163" s="19"/>
-      <c r="AC163" s="19"/>
-      <c r="AD163" s="19"/>
-      <c r="AE163" s="19"/>
-      <c r="AF163" s="19"/>
-      <c r="AG163" s="19"/>
-      <c r="AH163" s="19"/>
-      <c r="AI163" s="19"/>
-      <c r="AJ163" s="19"/>
-      <c r="AK163" s="19"/>
-      <c r="AL163" s="19"/>
-      <c r="AM163" s="19"/>
-      <c r="AN163" s="19"/>
-      <c r="AO163" s="19"/>
-      <c r="AP163" s="19"/>
-      <c r="AQ163" s="19"/>
-      <c r="AR163" s="19"/>
-      <c r="AS163" s="19"/>
-      <c r="AT163" s="19"/>
-      <c r="AU163" s="19"/>
-      <c r="AV163" s="19"/>
-      <c r="AW163" s="19"/>
-      <c r="AX163" s="19"/>
-      <c r="AY163" s="19"/>
-      <c r="AZ163" s="19"/>
-      <c r="BA163" s="19"/>
-      <c r="BB163" s="19"/>
-      <c r="BC163" s="19"/>
-      <c r="BD163" s="19"/>
-      <c r="BE163" s="19"/>
-      <c r="BF163" s="19"/>
-      <c r="BG163" s="19"/>
-      <c r="BH163" s="19"/>
-      <c r="BI163" s="19"/>
-      <c r="BJ163" s="19"/>
-      <c r="BK163" s="19"/>
-      <c r="BL163" s="19"/>
-      <c r="BM163" s="19"/>
-      <c r="BN163" s="19"/>
-      <c r="BO163" s="19"/>
-      <c r="BP163" s="19"/>
-      <c r="BQ163" s="19"/>
-      <c r="BR163" s="19"/>
-      <c r="BS163" s="19"/>
-      <c r="BT163" s="27"/>
-    </row>
-    <row r="164" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    </row>
+    <row r="164" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="111">
         <v>3</v>
       </c>
-      <c r="B164" s="70"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
-      <c r="F164" s="39"/>
-      <c r="G164" s="39"/>
-      <c r="H164" s="39"/>
-      <c r="I164" s="39"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="39"/>
-      <c r="M164" s="39"/>
-      <c r="N164" s="39"/>
-      <c r="O164" s="39"/>
-      <c r="P164" s="39"/>
-      <c r="Q164" s="39"/>
-      <c r="R164" s="19"/>
-      <c r="S164" s="19"/>
-      <c r="T164" s="39"/>
-      <c r="U164" s="39"/>
-      <c r="V164" s="39"/>
-      <c r="W164" s="39"/>
-      <c r="X164" s="39"/>
-      <c r="Y164" s="39"/>
-      <c r="Z164" s="19"/>
-      <c r="AA164" s="19"/>
-      <c r="AB164" s="39"/>
-      <c r="AC164" s="39"/>
-      <c r="AD164" s="39"/>
-      <c r="AE164" s="39"/>
-      <c r="AF164" s="39"/>
-      <c r="AG164" s="39"/>
-      <c r="AH164" s="19"/>
-      <c r="AI164" s="19"/>
-      <c r="AJ164" s="39"/>
-      <c r="AK164" s="39"/>
-      <c r="AL164" s="213"/>
-      <c r="AM164" s="214"/>
-      <c r="AN164" s="214"/>
-      <c r="AO164" s="214"/>
-      <c r="AP164" s="215"/>
-      <c r="AQ164" s="215"/>
-      <c r="AR164" s="213"/>
-      <c r="AS164" s="213"/>
-      <c r="AT164" s="213"/>
-      <c r="AU164" s="213"/>
-      <c r="AV164" s="213"/>
-      <c r="AW164" s="213"/>
-      <c r="AX164" s="215"/>
-      <c r="AY164" s="215"/>
-      <c r="AZ164" s="213"/>
-      <c r="BA164" s="213"/>
-      <c r="BB164" s="213"/>
-      <c r="BC164" s="213"/>
-      <c r="BD164" s="213"/>
-      <c r="BE164" s="213"/>
-      <c r="BF164" s="215"/>
-      <c r="BG164" s="215"/>
-      <c r="BH164" s="213"/>
-      <c r="BI164" s="213"/>
-      <c r="BJ164" s="213"/>
-      <c r="BK164" s="213"/>
-      <c r="BL164" s="213"/>
-      <c r="BM164" s="213"/>
-      <c r="BN164" s="19"/>
-      <c r="BO164" s="19"/>
-      <c r="BP164" s="39"/>
-      <c r="BQ164" s="39"/>
-      <c r="BR164" s="39"/>
-      <c r="BS164" s="39"/>
-      <c r="BT164" s="27"/>
-    </row>
-    <row r="165" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    </row>
+    <row r="165" spans="1:74" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="111">
         <v>4</v>
       </c>
-      <c r="B165" s="70"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
-      <c r="F165" s="39"/>
-      <c r="G165" s="39"/>
-      <c r="H165" s="39"/>
-      <c r="I165" s="39"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="39"/>
-      <c r="M165" s="39"/>
-      <c r="N165" s="39"/>
-      <c r="O165" s="39"/>
-      <c r="P165" s="39"/>
-      <c r="Q165" s="39"/>
-      <c r="R165" s="200" t="s">
+      <c r="B165" s="113">
+        <v>0</v>
+      </c>
+      <c r="C165" s="113">
+        <v>1</v>
+      </c>
+      <c r="D165" s="113">
+        <v>2</v>
+      </c>
+      <c r="E165" s="113">
+        <v>3</v>
+      </c>
+      <c r="F165" s="113">
+        <v>4</v>
+      </c>
+      <c r="G165" s="113">
+        <v>5</v>
+      </c>
+      <c r="H165" s="113">
+        <v>6</v>
+      </c>
+      <c r="I165" s="113">
+        <v>7</v>
+      </c>
+      <c r="J165" s="113">
+        <v>8</v>
+      </c>
+      <c r="K165" s="113">
+        <v>9</v>
+      </c>
+      <c r="L165" s="113">
+        <v>10</v>
+      </c>
+      <c r="M165" s="113">
+        <v>11</v>
+      </c>
+      <c r="N165" s="113">
+        <v>12</v>
+      </c>
+      <c r="O165" s="113">
+        <v>13</v>
+      </c>
+      <c r="P165" s="113">
+        <v>14</v>
+      </c>
+      <c r="Q165" s="113">
+        <v>15</v>
+      </c>
+      <c r="R165" s="113">
+        <v>16</v>
+      </c>
+      <c r="S165" s="113">
+        <v>17</v>
+      </c>
+      <c r="T165" s="113">
+        <v>18</v>
+      </c>
+      <c r="U165" s="113">
+        <v>19</v>
+      </c>
+      <c r="V165" s="113">
+        <v>20</v>
+      </c>
+      <c r="W165" s="113">
+        <v>21</v>
+      </c>
+      <c r="X165" s="113">
+        <v>22</v>
+      </c>
+      <c r="Y165" s="113">
+        <v>23</v>
+      </c>
+      <c r="Z165" s="113">
+        <v>24</v>
+      </c>
+      <c r="AA165" s="113">
+        <v>25</v>
+      </c>
+      <c r="AB165" s="113">
+        <v>26</v>
+      </c>
+      <c r="AC165" s="113">
         <v>27</v>
       </c>
-      <c r="S165" s="200"/>
-      <c r="T165" s="39"/>
-      <c r="U165" s="39"/>
-      <c r="V165" s="39"/>
-      <c r="W165" s="39"/>
-      <c r="X165" s="39"/>
-      <c r="Y165" s="39"/>
-      <c r="Z165" s="210"/>
-      <c r="AA165" s="210"/>
-      <c r="AB165" s="39"/>
-      <c r="AC165" s="39"/>
-      <c r="AD165" s="39"/>
-      <c r="AE165" s="39"/>
-      <c r="AF165" s="39"/>
-      <c r="AG165" s="39"/>
-      <c r="AH165" s="19"/>
-      <c r="AI165" s="19"/>
-      <c r="AJ165" s="39"/>
-      <c r="AK165" s="39"/>
-      <c r="AL165" s="213"/>
-      <c r="AM165" s="214"/>
-      <c r="AN165" s="214"/>
-      <c r="AO165" s="214"/>
-      <c r="AP165" s="213"/>
-      <c r="AQ165" s="213"/>
-      <c r="AR165" s="213"/>
-      <c r="AS165" s="213"/>
-      <c r="AT165" s="213"/>
-      <c r="AU165" s="213"/>
-      <c r="AV165" s="213"/>
-      <c r="AW165" s="213"/>
-      <c r="AX165" s="213"/>
-      <c r="AY165" s="213"/>
-      <c r="AZ165" s="213"/>
-      <c r="BA165" s="213"/>
-      <c r="BB165" s="213"/>
-      <c r="BC165" s="213"/>
-      <c r="BD165" s="213"/>
-      <c r="BE165" s="213"/>
-      <c r="BF165" s="213"/>
-      <c r="BG165" s="213"/>
-      <c r="BH165" s="213"/>
-      <c r="BI165" s="213"/>
-      <c r="BJ165" s="213"/>
-      <c r="BK165" s="213"/>
-      <c r="BL165" s="213"/>
-      <c r="BM165" s="213"/>
-      <c r="BN165" s="19"/>
-      <c r="BO165" s="19"/>
-      <c r="BP165" s="39"/>
-      <c r="BQ165" s="39"/>
-      <c r="BR165" s="39"/>
-      <c r="BS165" s="39"/>
-      <c r="BT165" s="27"/>
-    </row>
-    <row r="166" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="AD165" s="113">
+        <v>28</v>
+      </c>
+      <c r="AE165" s="113">
+        <v>29</v>
+      </c>
+      <c r="AF165" s="113">
+        <v>30</v>
+      </c>
+      <c r="AG165" s="113">
+        <v>31</v>
+      </c>
+      <c r="AH165" s="113">
+        <v>32</v>
+      </c>
+      <c r="AI165" s="113">
+        <v>33</v>
+      </c>
+      <c r="AJ165" s="113">
+        <v>34</v>
+      </c>
+      <c r="AK165" s="113">
+        <v>35</v>
+      </c>
+      <c r="AL165" s="113">
+        <v>36</v>
+      </c>
+      <c r="AM165" s="113">
+        <v>37</v>
+      </c>
+      <c r="AN165" s="113">
+        <v>38</v>
+      </c>
+      <c r="AO165" s="113">
+        <v>39</v>
+      </c>
+      <c r="AP165" s="113">
+        <v>40</v>
+      </c>
+      <c r="AQ165" s="113">
+        <v>41</v>
+      </c>
+      <c r="AR165" s="113">
+        <v>42</v>
+      </c>
+      <c r="AS165" s="113">
+        <v>43</v>
+      </c>
+      <c r="AT165" s="113">
+        <v>44</v>
+      </c>
+      <c r="AU165" s="113">
+        <v>45</v>
+      </c>
+      <c r="AV165" s="113">
+        <v>46</v>
+      </c>
+      <c r="AW165" s="113">
+        <v>47</v>
+      </c>
+      <c r="AX165" s="113">
+        <v>48</v>
+      </c>
+      <c r="AY165" s="113">
+        <v>49</v>
+      </c>
+      <c r="AZ165" s="113">
+        <v>50</v>
+      </c>
+      <c r="BA165" s="113">
+        <v>51</v>
+      </c>
+      <c r="BB165" s="113">
+        <v>52</v>
+      </c>
+      <c r="BC165" s="113">
+        <v>53</v>
+      </c>
+      <c r="BD165" s="113">
+        <v>54</v>
+      </c>
+      <c r="BE165" s="113">
+        <v>55</v>
+      </c>
+      <c r="BF165" s="113">
+        <v>56</v>
+      </c>
+      <c r="BG165" s="113">
+        <v>57</v>
+      </c>
+      <c r="BH165" s="113">
+        <v>58</v>
+      </c>
+      <c r="BI165" s="113">
+        <v>59</v>
+      </c>
+      <c r="BJ165" s="113">
+        <v>60</v>
+      </c>
+      <c r="BK165" s="113">
+        <v>61</v>
+      </c>
+      <c r="BL165" s="113">
+        <v>62</v>
+      </c>
+      <c r="BM165" s="113">
+        <v>63</v>
+      </c>
+      <c r="BN165" s="113">
+        <v>64</v>
+      </c>
+      <c r="BO165" s="113">
+        <v>65</v>
+      </c>
+      <c r="BP165" s="113">
+        <v>66</v>
+      </c>
+      <c r="BQ165" s="113">
+        <v>67</v>
+      </c>
+      <c r="BR165" s="113">
+        <v>68</v>
+      </c>
+      <c r="BS165" s="113">
+        <v>69</v>
+      </c>
+      <c r="BT165" s="113">
+        <v>70</v>
+      </c>
+      <c r="BU165" s="231"/>
+      <c r="BV165" s="231"/>
+    </row>
+    <row r="166" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="111">
-        <v>5</v>
-      </c>
-      <c r="B166" s="70"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="115"/>
-      <c r="G166" s="115"/>
-      <c r="H166" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="I166" s="115"/>
-      <c r="J166" s="117"/>
-      <c r="K166" s="117"/>
-      <c r="L166" s="115"/>
-      <c r="M166" s="115"/>
-      <c r="N166" s="115"/>
-      <c r="O166" s="115"/>
-      <c r="P166" s="115"/>
-      <c r="Q166" s="115"/>
-      <c r="R166" s="200"/>
-      <c r="S166" s="200"/>
-      <c r="T166" s="115"/>
-      <c r="U166" s="115"/>
-      <c r="V166" s="115"/>
-      <c r="W166" s="115"/>
-      <c r="X166" s="115"/>
-      <c r="Y166" s="115"/>
-      <c r="Z166" s="205"/>
-      <c r="AA166" s="205"/>
-      <c r="AB166" s="115"/>
-      <c r="AC166" s="115"/>
-      <c r="AD166" s="115"/>
-      <c r="AE166" s="115"/>
-      <c r="AF166" s="115"/>
-      <c r="AG166" s="115"/>
-      <c r="AH166" s="117"/>
-      <c r="AI166" s="117"/>
-      <c r="AJ166" s="115"/>
-      <c r="AK166" s="115"/>
-      <c r="AL166" s="1"/>
-      <c r="AM166" s="1"/>
-      <c r="AN166" s="217"/>
-      <c r="AO166" s="217"/>
-      <c r="AP166" s="217"/>
-      <c r="AQ166" s="217"/>
-      <c r="AR166" s="217"/>
-      <c r="AS166" s="217"/>
-      <c r="AT166" s="217"/>
-      <c r="AU166" s="217"/>
-      <c r="AV166" s="217"/>
-      <c r="AW166" s="217"/>
-      <c r="AX166" s="217"/>
-      <c r="AY166" s="217"/>
-      <c r="AZ166" s="217"/>
-      <c r="BA166" s="217"/>
-      <c r="BB166" s="1"/>
-      <c r="BC166" s="1"/>
-      <c r="BD166" s="217"/>
-      <c r="BE166" s="217"/>
-      <c r="BF166" s="217"/>
-      <c r="BG166" s="213"/>
-      <c r="BH166" s="213"/>
-      <c r="BI166" s="213"/>
-      <c r="BJ166" s="213"/>
-      <c r="BK166" s="213"/>
-      <c r="BL166" s="213"/>
-      <c r="BM166" s="213"/>
+        <v>0</v>
+      </c>
+      <c r="B166" s="84"/>
+      <c r="C166" s="67"/>
+      <c r="D166" s="67"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="67"/>
+      <c r="H166" s="67"/>
+      <c r="I166" s="67"/>
+      <c r="J166" s="67"/>
+      <c r="K166" s="67"/>
+      <c r="L166" s="67"/>
+      <c r="M166" s="67"/>
+      <c r="N166" s="67"/>
+      <c r="O166" s="67"/>
+      <c r="P166" s="67"/>
+      <c r="Q166" s="67"/>
+      <c r="R166" s="67"/>
+      <c r="S166" s="67"/>
+      <c r="T166" s="67"/>
+      <c r="U166" s="67"/>
+      <c r="V166" s="67"/>
+      <c r="W166" s="67"/>
+      <c r="X166" s="67"/>
+      <c r="Y166" s="67"/>
+      <c r="Z166" s="67"/>
+      <c r="AA166" s="67"/>
+      <c r="AB166" s="67"/>
+      <c r="AC166" s="67"/>
+      <c r="AD166" s="67"/>
+      <c r="AE166" s="67"/>
+      <c r="AF166" s="67"/>
+      <c r="AG166" s="67"/>
+      <c r="AH166" s="67"/>
+      <c r="AI166" s="67"/>
+      <c r="AJ166" s="19"/>
+      <c r="AK166" s="19"/>
+      <c r="AL166" s="19"/>
+      <c r="AM166" s="19"/>
+      <c r="AN166" s="19"/>
+      <c r="AO166" s="19"/>
+      <c r="AP166" s="19"/>
+      <c r="AQ166" s="19"/>
+      <c r="AR166" s="19"/>
+      <c r="AS166" s="19"/>
+      <c r="AT166" s="19"/>
+      <c r="AU166" s="19"/>
+      <c r="AV166" s="19"/>
+      <c r="AW166" s="19"/>
+      <c r="AX166" s="19"/>
+      <c r="AY166" s="19"/>
+      <c r="AZ166" s="19"/>
+      <c r="BA166" s="19"/>
+      <c r="BB166" s="19"/>
+      <c r="BC166" s="19"/>
+      <c r="BD166" s="19"/>
+      <c r="BE166" s="19"/>
+      <c r="BF166" s="19"/>
+      <c r="BG166" s="19"/>
+      <c r="BH166" s="19"/>
+      <c r="BI166" s="19"/>
+      <c r="BJ166" s="19"/>
+      <c r="BK166" s="19"/>
+      <c r="BL166" s="19"/>
+      <c r="BM166" s="19"/>
       <c r="BN166" s="19"/>
       <c r="BO166" s="19"/>
-      <c r="BP166" s="39"/>
-      <c r="BQ166" s="230" t="s">
-        <v>40</v>
-      </c>
-      <c r="BR166" s="62"/>
-      <c r="BS166" s="39"/>
+      <c r="BP166" s="19"/>
+      <c r="BQ166" s="19"/>
+      <c r="BR166" s="19"/>
+      <c r="BS166" s="19"/>
       <c r="BT166" s="27"/>
     </row>
-    <row r="167" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="167" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="111">
-        <v>6</v>
+        <f>A166+1</f>
+        <v>1</v>
       </c>
       <c r="B167" s="70"/>
       <c r="C167" s="19"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
-      <c r="F167" s="115"/>
-      <c r="G167" s="115"/>
-      <c r="H167" s="115"/>
-      <c r="I167" s="115"/>
-      <c r="J167" s="117"/>
-      <c r="K167" s="117"/>
-      <c r="L167" s="115"/>
-      <c r="M167" s="115"/>
-      <c r="N167" s="115"/>
-      <c r="O167" s="115"/>
-      <c r="P167" s="115"/>
-      <c r="Q167" s="115"/>
-      <c r="R167" s="201"/>
-      <c r="S167" s="200"/>
-      <c r="T167" s="115"/>
-      <c r="U167" s="115"/>
-      <c r="V167" s="115"/>
-      <c r="W167" s="115"/>
-      <c r="X167" s="115"/>
-      <c r="Y167" s="115"/>
-      <c r="Z167" s="205"/>
-      <c r="AA167" s="205"/>
-      <c r="AB167" s="115"/>
-      <c r="AC167" s="115"/>
-      <c r="AD167" s="115"/>
-      <c r="AE167" s="115"/>
-      <c r="AF167" s="115"/>
-      <c r="AG167" s="115"/>
-      <c r="AH167" s="117"/>
-      <c r="AI167" s="117"/>
-      <c r="AJ167" s="115"/>
-      <c r="AK167" s="115"/>
-      <c r="AL167" s="1"/>
-      <c r="AM167" s="1"/>
-      <c r="AN167" s="217"/>
-      <c r="AO167" s="217"/>
-      <c r="AP167" s="217"/>
-      <c r="AQ167" s="217"/>
-      <c r="AR167" s="217"/>
-      <c r="AS167" s="217"/>
-      <c r="AT167" s="217"/>
-      <c r="AU167" s="217"/>
-      <c r="AV167" s="217"/>
-      <c r="AW167" s="217"/>
-      <c r="AX167" s="217"/>
-      <c r="AY167" s="217"/>
-      <c r="AZ167" s="217"/>
-      <c r="BA167" s="217"/>
-      <c r="BB167" s="1"/>
-      <c r="BC167" s="1"/>
-      <c r="BD167" s="217"/>
-      <c r="BE167" s="217"/>
-      <c r="BF167" s="217"/>
-      <c r="BG167" s="213"/>
-      <c r="BH167" s="213"/>
-      <c r="BI167" s="213"/>
-      <c r="BJ167" s="213"/>
-      <c r="BK167" s="213"/>
-      <c r="BL167" s="213"/>
-      <c r="BM167" s="213"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="19"/>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="19"/>
+      <c r="S167" s="19"/>
+      <c r="T167" s="19"/>
+      <c r="U167" s="19"/>
+      <c r="V167" s="19"/>
+      <c r="W167" s="19"/>
+      <c r="X167" s="19"/>
+      <c r="Y167" s="19"/>
+      <c r="Z167" s="19"/>
+      <c r="AA167" s="19"/>
+      <c r="AB167" s="19"/>
+      <c r="AC167" s="19"/>
+      <c r="AD167" s="19"/>
+      <c r="AE167" s="19"/>
+      <c r="AF167" s="19"/>
+      <c r="AG167" s="19"/>
+      <c r="AH167" s="19"/>
+      <c r="AI167" s="19"/>
+      <c r="AJ167" s="19"/>
+      <c r="AK167" s="19"/>
+      <c r="AL167" s="19"/>
+      <c r="AM167" s="19"/>
+      <c r="AN167" s="19"/>
+      <c r="AO167" s="19"/>
+      <c r="AP167" s="19"/>
+      <c r="AQ167" s="19"/>
+      <c r="AR167" s="19"/>
+      <c r="AS167" s="19"/>
+      <c r="AT167" s="19"/>
+      <c r="AU167" s="19"/>
+      <c r="AV167" s="19"/>
+      <c r="AW167" s="19"/>
+      <c r="AX167" s="19"/>
+      <c r="AY167" s="19"/>
+      <c r="AZ167" s="19"/>
+      <c r="BA167" s="19"/>
+      <c r="BB167" s="19"/>
+      <c r="BC167" s="19"/>
+      <c r="BD167" s="19"/>
+      <c r="BE167" s="19"/>
+      <c r="BF167" s="19"/>
+      <c r="BG167" s="19"/>
+      <c r="BH167" s="19"/>
+      <c r="BI167" s="19"/>
+      <c r="BJ167" s="19"/>
+      <c r="BK167" s="19"/>
+      <c r="BL167" s="19"/>
+      <c r="BM167" s="19"/>
       <c r="BN167" s="19"/>
       <c r="BO167" s="19"/>
-      <c r="BP167" s="39"/>
-      <c r="BQ167" s="62"/>
-      <c r="BR167" s="62"/>
-      <c r="BS167" s="39"/>
+      <c r="BP167" s="19"/>
+      <c r="BQ167" s="19"/>
+      <c r="BR167" s="19"/>
+      <c r="BS167" s="19"/>
       <c r="BT167" s="27"/>
     </row>
-    <row r="168" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="168" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A168" s="111">
-        <v>7</v>
+        <f t="shared" ref="A168:A191" si="2">A167+1</f>
+        <v>2</v>
       </c>
       <c r="B168" s="70"/>
       <c r="C168" s="19"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
-      <c r="F168" s="115"/>
-      <c r="G168" s="115"/>
-      <c r="H168" s="115"/>
-      <c r="I168" s="115"/>
-      <c r="J168" s="117"/>
-      <c r="K168" s="117"/>
-      <c r="L168" s="115"/>
-      <c r="M168" s="115"/>
-      <c r="N168" s="115"/>
-      <c r="O168" s="115"/>
-      <c r="P168" s="115"/>
-      <c r="Q168" s="115"/>
-      <c r="R168" s="201"/>
-      <c r="S168" s="200"/>
-      <c r="T168" s="115"/>
-      <c r="U168" s="115"/>
-      <c r="V168" s="115"/>
-      <c r="W168" s="115"/>
-      <c r="X168" s="115"/>
-      <c r="Y168" s="115"/>
-      <c r="Z168" s="205"/>
-      <c r="AA168" s="205"/>
-      <c r="AB168" s="115"/>
-      <c r="AC168" s="115"/>
-      <c r="AD168" s="115"/>
-      <c r="AE168" s="115"/>
-      <c r="AF168" s="115"/>
-      <c r="AG168" s="115"/>
-      <c r="AH168" s="117"/>
-      <c r="AI168" s="117"/>
-      <c r="AJ168" s="115"/>
-      <c r="AK168" s="115"/>
-      <c r="AL168" s="217"/>
-      <c r="AM168" s="217"/>
-      <c r="AN168" s="217"/>
-      <c r="AO168" s="217"/>
-      <c r="AP168" s="217"/>
-      <c r="AQ168" s="217"/>
-      <c r="AR168" s="217"/>
-      <c r="AS168" s="217"/>
-      <c r="AT168" s="225" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU168" s="225"/>
-      <c r="AV168" s="217"/>
-      <c r="AW168" s="217"/>
-      <c r="AX168" s="217"/>
-      <c r="AY168" s="217"/>
-      <c r="AZ168" s="217"/>
-      <c r="BA168" s="217"/>
-      <c r="BB168" s="216" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC168" s="216"/>
-      <c r="BD168" s="217"/>
-      <c r="BE168" s="217"/>
-      <c r="BF168" s="217"/>
-      <c r="BG168" s="213"/>
-      <c r="BH168" s="213"/>
-      <c r="BI168" s="213"/>
-      <c r="BJ168" s="229" t="s">
-        <v>38</v>
-      </c>
-      <c r="BK168" s="229"/>
-      <c r="BL168" s="213"/>
-      <c r="BM168" s="213"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="19"/>
+      <c r="R168" s="19"/>
+      <c r="S168" s="19"/>
+      <c r="T168" s="19"/>
+      <c r="U168" s="19"/>
+      <c r="V168" s="19"/>
+      <c r="W168" s="19"/>
+      <c r="X168" s="19"/>
+      <c r="Y168" s="19"/>
+      <c r="Z168" s="19"/>
+      <c r="AA168" s="19"/>
+      <c r="AB168" s="19"/>
+      <c r="AC168" s="19"/>
+      <c r="AD168" s="19"/>
+      <c r="AE168" s="19"/>
+      <c r="AF168" s="19"/>
+      <c r="AG168" s="19"/>
+      <c r="AH168" s="19"/>
+      <c r="AI168" s="19"/>
+      <c r="AJ168" s="117"/>
+      <c r="AK168" s="117"/>
+      <c r="AL168" s="19"/>
+      <c r="AM168" s="19"/>
+      <c r="AN168" s="187"/>
+      <c r="AO168" s="187"/>
+      <c r="AP168" s="187"/>
+      <c r="AQ168" s="187"/>
+      <c r="AR168" s="187"/>
+      <c r="AS168" s="187"/>
+      <c r="AT168" s="187"/>
+      <c r="AU168" s="187"/>
+      <c r="AV168" s="187"/>
+      <c r="AW168" s="187"/>
+      <c r="AX168" s="187"/>
+      <c r="AY168" s="187"/>
+      <c r="AZ168" s="187"/>
+      <c r="BA168" s="187"/>
+      <c r="BB168" s="19"/>
+      <c r="BC168" s="19"/>
+      <c r="BD168" s="187"/>
+      <c r="BE168" s="187"/>
+      <c r="BF168" s="187"/>
+      <c r="BG168" s="184"/>
+      <c r="BH168" s="184"/>
+      <c r="BI168" s="184"/>
+      <c r="BJ168" s="184"/>
+      <c r="BK168" s="184"/>
+      <c r="BL168" s="184"/>
+      <c r="BM168" s="184"/>
       <c r="BN168" s="19"/>
       <c r="BO168" s="19"/>
-      <c r="BP168" s="39"/>
-      <c r="BQ168" s="39"/>
-      <c r="BR168" s="39"/>
-      <c r="BS168" s="39"/>
+      <c r="BP168" s="19"/>
+      <c r="BQ168" s="19"/>
+      <c r="BR168" s="19"/>
+      <c r="BS168" s="19"/>
       <c r="BT168" s="27"/>
     </row>
-    <row r="169" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="169" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A169" s="111">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="B169" s="70"/>
       <c r="C169" s="19"/>
@@ -19962,26 +19608,26 @@
       <c r="E169" s="39"/>
       <c r="F169" s="115"/>
       <c r="G169" s="115"/>
-      <c r="H169" s="115"/>
+      <c r="H169" s="1"/>
       <c r="I169" s="115"/>
       <c r="J169" s="117"/>
       <c r="K169" s="117"/>
-      <c r="L169" s="115"/>
+      <c r="L169" s="117"/>
       <c r="M169" s="115"/>
       <c r="N169" s="115"/>
       <c r="O169" s="115"/>
       <c r="P169" s="115"/>
       <c r="Q169" s="115"/>
-      <c r="R169" s="117"/>
-      <c r="S169" s="117"/>
+      <c r="R169" s="174"/>
+      <c r="S169" s="174"/>
       <c r="T169" s="115"/>
       <c r="U169" s="115"/>
       <c r="V169" s="115"/>
       <c r="W169" s="115"/>
       <c r="X169" s="115"/>
       <c r="Y169" s="115"/>
-      <c r="Z169" s="117"/>
-      <c r="AA169" s="117"/>
+      <c r="Z169" s="19"/>
+      <c r="AA169" s="19"/>
       <c r="AB169" s="115"/>
       <c r="AC169" s="115"/>
       <c r="AD169" s="115"/>
@@ -19990,199 +19636,212 @@
       <c r="AG169" s="115"/>
       <c r="AH169" s="117"/>
       <c r="AI169" s="117"/>
-      <c r="AJ169" s="115"/>
+      <c r="AJ169" s="117"/>
       <c r="AK169" s="115"/>
-      <c r="AL169" s="217"/>
-      <c r="AM169" s="217"/>
-      <c r="AN169" s="217"/>
-      <c r="AO169" s="217"/>
-      <c r="AP169" s="218"/>
-      <c r="AQ169" s="218"/>
-      <c r="AR169" s="217"/>
-      <c r="AS169" s="217"/>
-      <c r="AT169" s="225"/>
-      <c r="AU169" s="225"/>
-      <c r="AV169" s="217"/>
-      <c r="AW169" s="217"/>
-      <c r="AX169" s="218"/>
-      <c r="AY169" s="218"/>
-      <c r="AZ169" s="217"/>
-      <c r="BA169" s="217"/>
-      <c r="BB169" s="216"/>
-      <c r="BC169" s="216"/>
-      <c r="BD169" s="217"/>
-      <c r="BE169" s="217"/>
-      <c r="BF169" s="218"/>
-      <c r="BG169" s="215"/>
-      <c r="BH169" s="213"/>
-      <c r="BI169" s="213"/>
-      <c r="BJ169" s="229"/>
-      <c r="BK169" s="229"/>
-      <c r="BL169" s="213"/>
-      <c r="BM169" s="213"/>
+      <c r="AL169" s="1"/>
+      <c r="AM169" s="1"/>
+      <c r="AN169" s="186"/>
+      <c r="AO169" s="186"/>
+      <c r="AP169" s="186"/>
+      <c r="AQ169" s="186"/>
+      <c r="AR169" s="186"/>
+      <c r="AS169" s="186"/>
+      <c r="AT169" s="186"/>
+      <c r="AU169" s="186"/>
+      <c r="AV169" s="186"/>
+      <c r="AW169" s="186"/>
+      <c r="AX169" s="186"/>
+      <c r="AY169" s="186"/>
+      <c r="AZ169" s="186"/>
+      <c r="BA169" s="186"/>
+      <c r="BB169" s="1"/>
+      <c r="BC169" s="1"/>
+      <c r="BD169" s="186"/>
+      <c r="BE169" s="186"/>
+      <c r="BF169" s="186"/>
+      <c r="BG169" s="183"/>
+      <c r="BH169" s="183"/>
+      <c r="BI169" s="183"/>
+      <c r="BJ169" s="183"/>
+      <c r="BK169" s="183"/>
+      <c r="BL169" s="183"/>
+      <c r="BM169" s="184"/>
       <c r="BN169" s="19"/>
       <c r="BO169" s="19"/>
       <c r="BP169" s="39"/>
-      <c r="BQ169" s="39"/>
-      <c r="BR169" s="39"/>
+      <c r="BQ169" s="1"/>
+      <c r="BR169" s="1"/>
       <c r="BS169" s="39"/>
       <c r="BT169" s="27"/>
     </row>
-    <row r="170" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="170" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A170" s="111">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="B170" s="70"/>
       <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="210"/>
-      <c r="F170" s="205"/>
-      <c r="G170" s="205"/>
-      <c r="H170" s="205"/>
-      <c r="I170" s="117"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="115"/>
+      <c r="G170" s="115"/>
+      <c r="H170" s="115"/>
+      <c r="I170" s="115"/>
       <c r="J170" s="117"/>
-      <c r="K170" s="208"/>
-      <c r="L170" s="208"/>
-      <c r="M170" s="208"/>
-      <c r="N170" s="208"/>
-      <c r="O170" s="212"/>
-      <c r="P170" s="212"/>
-      <c r="Q170" s="208"/>
-      <c r="R170" s="208"/>
-      <c r="S170" s="208"/>
-      <c r="T170" s="208"/>
-      <c r="U170" s="208"/>
-      <c r="V170" s="208"/>
-      <c r="W170" s="208"/>
-      <c r="X170" s="208"/>
-      <c r="Y170" s="208"/>
-      <c r="Z170" s="208"/>
-      <c r="AA170" s="208"/>
-      <c r="AB170" s="208"/>
-      <c r="AC170" s="208"/>
-      <c r="AD170" s="1"/>
-      <c r="AE170" s="208"/>
-      <c r="AF170" s="208"/>
-      <c r="AG170" s="208"/>
-      <c r="AH170" s="208"/>
-      <c r="AI170" s="208"/>
-      <c r="AJ170" s="208"/>
-      <c r="AK170" s="207"/>
-      <c r="AL170" s="221"/>
-      <c r="AM170" s="221"/>
-      <c r="AN170" s="221"/>
-      <c r="AO170" s="219"/>
-      <c r="AP170" s="219"/>
-      <c r="AQ170" s="219"/>
-      <c r="AR170" s="219"/>
-      <c r="AS170" s="219"/>
-      <c r="AT170" s="219"/>
-      <c r="AU170" s="219"/>
-      <c r="AV170" s="219"/>
-      <c r="AW170" s="219"/>
-      <c r="AX170" s="219"/>
-      <c r="AY170" s="219"/>
-      <c r="AZ170" s="219"/>
-      <c r="BA170" s="219"/>
-      <c r="BB170" s="219"/>
-      <c r="BC170" s="219"/>
-      <c r="BD170" s="219"/>
-      <c r="BE170" s="219"/>
-      <c r="BF170" s="219"/>
-      <c r="BG170" s="220"/>
-      <c r="BH170" s="220"/>
-      <c r="BI170" s="220"/>
-      <c r="BJ170" s="220"/>
-      <c r="BK170" s="220"/>
-      <c r="BL170" s="220"/>
-      <c r="BM170" s="220"/>
-      <c r="BN170" s="150"/>
-      <c r="BO170" s="150"/>
-      <c r="BP170" s="149"/>
-      <c r="BQ170" s="39"/>
-      <c r="BR170" s="39"/>
+      <c r="K170" s="117"/>
+      <c r="L170" s="117"/>
+      <c r="M170" s="115"/>
+      <c r="N170" s="115"/>
+      <c r="O170" s="115"/>
+      <c r="P170" s="115"/>
+      <c r="Q170" s="115"/>
+      <c r="R170" s="174"/>
+      <c r="S170" s="174"/>
+      <c r="T170" s="115"/>
+      <c r="U170" s="115"/>
+      <c r="V170" s="115"/>
+      <c r="W170" s="115"/>
+      <c r="X170" s="115"/>
+      <c r="Y170" s="115"/>
+      <c r="Z170" s="19"/>
+      <c r="AA170" s="19"/>
+      <c r="AB170" s="115"/>
+      <c r="AC170" s="115"/>
+      <c r="AD170" s="115"/>
+      <c r="AE170" s="115"/>
+      <c r="AF170" s="115"/>
+      <c r="AG170" s="115"/>
+      <c r="AH170" s="117"/>
+      <c r="AI170" s="117"/>
+      <c r="AJ170" s="117"/>
+      <c r="AK170" s="115"/>
+      <c r="AL170" s="186"/>
+      <c r="AM170" s="186"/>
+      <c r="AN170" s="186"/>
+      <c r="AO170" s="186"/>
+      <c r="AP170" s="186"/>
+      <c r="AQ170" s="186"/>
+      <c r="AR170" s="186"/>
+      <c r="AS170" s="186"/>
+      <c r="AT170" s="194" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU170" s="194"/>
+      <c r="AV170" s="186"/>
+      <c r="AW170" s="186"/>
+      <c r="AX170" s="186"/>
+      <c r="AY170" s="186"/>
+      <c r="AZ170" s="186"/>
+      <c r="BA170" s="186"/>
+      <c r="BB170" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC170" s="185"/>
+      <c r="BD170" s="186"/>
+      <c r="BE170" s="186"/>
+      <c r="BF170" s="186"/>
+      <c r="BG170" s="183"/>
+      <c r="BH170" s="183"/>
+      <c r="BI170" s="183"/>
+      <c r="BJ170" s="198" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK170" s="198"/>
+      <c r="BL170" s="183"/>
+      <c r="BM170" s="184"/>
+      <c r="BN170" s="19"/>
+      <c r="BO170" s="19"/>
+      <c r="BP170" s="39"/>
+      <c r="BQ170" s="199" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR170" s="62"/>
       <c r="BS170" s="39"/>
       <c r="BT170" s="27"/>
     </row>
-    <row r="171" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="171" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A171" s="111">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="B171" s="70"/>
       <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="210"/>
-      <c r="F171" s="205"/>
-      <c r="G171" s="205"/>
-      <c r="H171" s="205"/>
-      <c r="I171" s="117"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
+      <c r="F171" s="115"/>
+      <c r="G171" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H171" s="115"/>
+      <c r="I171" s="115"/>
       <c r="J171" s="117"/>
-      <c r="K171" s="208"/>
-      <c r="L171" s="208"/>
-      <c r="M171" s="208"/>
-      <c r="N171" s="208"/>
-      <c r="O171" s="212"/>
-      <c r="P171" s="212"/>
-      <c r="Q171" s="208"/>
-      <c r="R171" s="208"/>
-      <c r="S171" s="208"/>
-      <c r="T171" s="208"/>
-      <c r="U171" s="208"/>
-      <c r="V171" s="208"/>
-      <c r="W171" s="208"/>
-      <c r="X171" s="208"/>
-      <c r="Y171" s="208"/>
-      <c r="Z171" s="208"/>
-      <c r="AA171" s="208"/>
-      <c r="AB171" s="208"/>
-      <c r="AC171" s="208"/>
-      <c r="AD171" s="1"/>
-      <c r="AE171" s="208"/>
-      <c r="AF171" s="208"/>
-      <c r="AG171" s="208"/>
-      <c r="AH171" s="208"/>
-      <c r="AI171" s="208"/>
-      <c r="AJ171" s="208"/>
-      <c r="AK171" s="207"/>
-      <c r="AL171" s="221"/>
-      <c r="AM171" s="221"/>
-      <c r="AN171" s="221"/>
-      <c r="AO171" s="219"/>
-      <c r="AP171" s="219"/>
-      <c r="AQ171" s="219"/>
-      <c r="AR171" s="219"/>
-      <c r="AS171" s="219"/>
-      <c r="AT171" s="219"/>
-      <c r="AU171" s="219"/>
-      <c r="AV171" s="219"/>
-      <c r="AW171" s="219"/>
-      <c r="AX171" s="219"/>
-      <c r="AY171" s="219"/>
-      <c r="AZ171" s="219"/>
-      <c r="BA171" s="219"/>
-      <c r="BB171" s="219"/>
-      <c r="BC171" s="219"/>
-      <c r="BD171" s="219"/>
-      <c r="BE171" s="219"/>
-      <c r="BF171" s="219"/>
-      <c r="BG171" s="220"/>
-      <c r="BH171" s="220"/>
-      <c r="BI171" s="220"/>
-      <c r="BJ171" s="220"/>
-      <c r="BK171" s="220"/>
-      <c r="BL171" s="220"/>
-      <c r="BM171" s="220"/>
-      <c r="BN171" s="150"/>
-      <c r="BO171" s="150"/>
-      <c r="BP171" s="149"/>
-      <c r="BQ171" s="39"/>
-      <c r="BR171" s="39"/>
+      <c r="K171" s="117"/>
+      <c r="L171" s="117"/>
+      <c r="M171" s="115"/>
+      <c r="N171" s="115"/>
+      <c r="O171" s="115"/>
+      <c r="P171" s="115"/>
+      <c r="Q171" s="115"/>
+      <c r="R171" s="174"/>
+      <c r="S171" s="174"/>
+      <c r="T171" s="115"/>
+      <c r="U171" s="115"/>
+      <c r="V171" s="115"/>
+      <c r="W171" s="115"/>
+      <c r="X171" s="115"/>
+      <c r="Y171" s="115"/>
+      <c r="Z171" s="180"/>
+      <c r="AA171" s="180"/>
+      <c r="AB171" s="115"/>
+      <c r="AC171" s="115"/>
+      <c r="AD171" s="115"/>
+      <c r="AE171" s="115"/>
+      <c r="AF171" s="115"/>
+      <c r="AG171" s="115"/>
+      <c r="AH171" s="117"/>
+      <c r="AI171" s="117"/>
+      <c r="AJ171" s="117"/>
+      <c r="AK171" s="115"/>
+      <c r="AL171" s="186"/>
+      <c r="AM171" s="186"/>
+      <c r="AN171" s="186"/>
+      <c r="AO171" s="186"/>
+      <c r="AP171" s="186"/>
+      <c r="AQ171" s="186"/>
+      <c r="AR171" s="186"/>
+      <c r="AS171" s="186"/>
+      <c r="AT171" s="194"/>
+      <c r="AU171" s="194"/>
+      <c r="AV171" s="186"/>
+      <c r="AW171" s="186"/>
+      <c r="AX171" s="186"/>
+      <c r="AY171" s="186"/>
+      <c r="AZ171" s="186"/>
+      <c r="BA171" s="186"/>
+      <c r="BB171" s="185"/>
+      <c r="BC171" s="185"/>
+      <c r="BD171" s="186"/>
+      <c r="BE171" s="186"/>
+      <c r="BF171" s="186"/>
+      <c r="BG171" s="183"/>
+      <c r="BH171" s="183"/>
+      <c r="BI171" s="183"/>
+      <c r="BJ171" s="198"/>
+      <c r="BK171" s="198"/>
+      <c r="BL171" s="183"/>
+      <c r="BM171" s="184"/>
+      <c r="BN171" s="19"/>
+      <c r="BO171" s="19"/>
+      <c r="BP171" s="39"/>
+      <c r="BQ171" s="62"/>
+      <c r="BR171" s="62"/>
       <c r="BS171" s="39"/>
       <c r="BT171" s="27"/>
     </row>
-    <row r="172" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="172" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A172" s="111">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="B172" s="70"/>
       <c r="C172" s="19"/>
@@ -20193,61 +19852,61 @@
       <c r="H172" s="115"/>
       <c r="I172" s="115"/>
       <c r="J172" s="117"/>
-      <c r="K172" s="208"/>
-      <c r="L172" s="207"/>
-      <c r="M172" s="207"/>
-      <c r="N172" s="207"/>
-      <c r="O172" s="207"/>
-      <c r="P172" s="207"/>
-      <c r="Q172" s="207"/>
+      <c r="K172" s="117"/>
+      <c r="L172" s="117"/>
+      <c r="M172" s="115"/>
+      <c r="N172" s="115"/>
+      <c r="O172" s="115"/>
+      <c r="P172" s="115"/>
+      <c r="Q172" s="115"/>
       <c r="R172" s="117"/>
       <c r="S172" s="117"/>
-      <c r="T172" s="115"/>
+      <c r="T172" s="117"/>
       <c r="U172" s="115"/>
       <c r="V172" s="115"/>
       <c r="W172" s="115"/>
       <c r="X172" s="115"/>
       <c r="Y172" s="115"/>
-      <c r="Z172" s="117"/>
-      <c r="AA172" s="117"/>
+      <c r="Z172" s="180"/>
+      <c r="AA172" s="180"/>
       <c r="AB172" s="115"/>
-      <c r="AC172" s="1"/>
+      <c r="AC172" s="115"/>
       <c r="AD172" s="115"/>
       <c r="AE172" s="115"/>
       <c r="AF172" s="115"/>
       <c r="AG172" s="115"/>
       <c r="AH172" s="117"/>
       <c r="AI172" s="117"/>
-      <c r="AJ172" s="115"/>
-      <c r="AK172" s="115"/>
-      <c r="AL172" s="217"/>
-      <c r="AM172" s="217"/>
-      <c r="AN172" s="217"/>
-      <c r="AO172" s="217"/>
-      <c r="AP172" s="219"/>
-      <c r="AQ172" s="219"/>
-      <c r="AR172" s="221"/>
-      <c r="AS172" s="221"/>
-      <c r="AT172" s="221"/>
-      <c r="AU172" s="221"/>
-      <c r="AV172" s="221"/>
-      <c r="AW172" s="221"/>
-      <c r="AX172" s="219"/>
-      <c r="AY172" s="219"/>
-      <c r="AZ172" s="221"/>
-      <c r="BA172" s="221"/>
-      <c r="BB172" s="221"/>
-      <c r="BC172" s="221"/>
-      <c r="BD172" s="221"/>
-      <c r="BE172" s="221"/>
-      <c r="BF172" s="219"/>
-      <c r="BG172" s="220"/>
-      <c r="BH172" s="222"/>
-      <c r="BI172" s="222"/>
-      <c r="BJ172" s="222"/>
-      <c r="BK172" s="222"/>
-      <c r="BL172" s="222"/>
-      <c r="BM172" s="222"/>
+      <c r="AJ172" s="178"/>
+      <c r="AK172" s="177"/>
+      <c r="AL172" s="190"/>
+      <c r="AM172" s="190"/>
+      <c r="AN172" s="190"/>
+      <c r="AO172" s="190"/>
+      <c r="AP172" s="188"/>
+      <c r="AQ172" s="188"/>
+      <c r="AR172" s="188"/>
+      <c r="AS172" s="188"/>
+      <c r="AT172" s="188"/>
+      <c r="AU172" s="188"/>
+      <c r="AV172" s="188"/>
+      <c r="AW172" s="188"/>
+      <c r="AX172" s="188"/>
+      <c r="AY172" s="188"/>
+      <c r="AZ172" s="188"/>
+      <c r="BA172" s="188"/>
+      <c r="BB172" s="188"/>
+      <c r="BC172" s="188"/>
+      <c r="BD172" s="188"/>
+      <c r="BE172" s="188"/>
+      <c r="BF172" s="188"/>
+      <c r="BG172" s="189"/>
+      <c r="BH172" s="189"/>
+      <c r="BI172" s="189"/>
+      <c r="BJ172" s="189"/>
+      <c r="BK172" s="189"/>
+      <c r="BL172" s="189"/>
+      <c r="BM172" s="189"/>
       <c r="BN172" s="150"/>
       <c r="BO172" s="150"/>
       <c r="BP172" s="149"/>
@@ -20256,74 +19915,75 @@
       <c r="BS172" s="39"/>
       <c r="BT172" s="27"/>
     </row>
-    <row r="173" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="173" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A173" s="111">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="B173" s="70"/>
       <c r="C173" s="19"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
-      <c r="F173" s="115"/>
-      <c r="G173" s="115"/>
-      <c r="H173" s="115"/>
-      <c r="I173" s="115"/>
-      <c r="J173" s="115"/>
-      <c r="K173" s="207"/>
-      <c r="L173" s="207"/>
-      <c r="M173" s="207"/>
-      <c r="N173" s="207"/>
-      <c r="O173" s="207"/>
-      <c r="P173" s="207"/>
-      <c r="Q173" s="207"/>
-      <c r="R173" s="117"/>
-      <c r="S173" s="117"/>
-      <c r="T173" s="115"/>
-      <c r="U173" s="115"/>
-      <c r="V173" s="115"/>
-      <c r="W173" s="115"/>
-      <c r="X173" s="115"/>
-      <c r="Y173" s="115"/>
-      <c r="Z173" s="115"/>
-      <c r="AA173" s="115"/>
-      <c r="AB173" s="115"/>
-      <c r="AC173" s="115"/>
-      <c r="AD173" s="115"/>
-      <c r="AE173" s="115"/>
-      <c r="AF173" s="115"/>
-      <c r="AG173" s="115"/>
-      <c r="AH173" s="115"/>
-      <c r="AI173" s="115"/>
-      <c r="AJ173" s="115"/>
-      <c r="AK173" s="115"/>
-      <c r="AL173" s="217"/>
-      <c r="AM173" s="217"/>
-      <c r="AN173" s="217"/>
-      <c r="AO173" s="217"/>
-      <c r="AP173" s="219"/>
-      <c r="AQ173" s="219"/>
-      <c r="AR173" s="221"/>
-      <c r="AS173" s="221"/>
-      <c r="AT173" s="221"/>
-      <c r="AU173" s="221"/>
-      <c r="AV173" s="221"/>
-      <c r="AW173" s="221"/>
-      <c r="AX173" s="221"/>
-      <c r="AY173" s="221"/>
-      <c r="AZ173" s="221"/>
-      <c r="BA173" s="221"/>
-      <c r="BB173" s="221"/>
-      <c r="BC173" s="221"/>
-      <c r="BD173" s="221"/>
-      <c r="BE173" s="221"/>
-      <c r="BF173" s="219"/>
-      <c r="BG173" s="220"/>
-      <c r="BH173" s="222"/>
-      <c r="BI173" s="222"/>
-      <c r="BJ173" s="222"/>
-      <c r="BK173" s="222"/>
-      <c r="BL173" s="222"/>
-      <c r="BM173" s="222"/>
+      <c r="D173" s="180"/>
+      <c r="E173" s="180"/>
+      <c r="F173" s="175"/>
+      <c r="G173" s="175"/>
+      <c r="H173" s="117"/>
+      <c r="I173" s="117"/>
+      <c r="J173" s="117"/>
+      <c r="K173" s="178"/>
+      <c r="L173" s="178"/>
+      <c r="M173" s="178"/>
+      <c r="N173" s="178"/>
+      <c r="O173" s="182"/>
+      <c r="P173" s="182"/>
+      <c r="Q173" s="178"/>
+      <c r="R173" s="178"/>
+      <c r="S173" s="178"/>
+      <c r="T173" s="178"/>
+      <c r="U173" s="178"/>
+      <c r="V173" s="178"/>
+      <c r="W173" s="178"/>
+      <c r="X173" s="178"/>
+      <c r="Y173" s="178"/>
+      <c r="Z173" s="178"/>
+      <c r="AA173" s="178"/>
+      <c r="AB173" s="178"/>
+      <c r="AC173" s="178"/>
+      <c r="AD173" s="1"/>
+      <c r="AE173" s="177"/>
+      <c r="AF173" s="178"/>
+      <c r="AG173" s="178"/>
+      <c r="AH173" s="178"/>
+      <c r="AI173" s="178"/>
+      <c r="AJ173" s="178"/>
+      <c r="AK173" s="177"/>
+      <c r="AL173" s="190"/>
+      <c r="AM173" s="190"/>
+      <c r="AN173" s="190"/>
+      <c r="AO173" s="190"/>
+      <c r="AP173" s="188"/>
+      <c r="AQ173" s="188"/>
+      <c r="AR173" s="188"/>
+      <c r="AS173" s="188"/>
+      <c r="AT173" s="188"/>
+      <c r="AU173" s="188"/>
+      <c r="AV173" s="188"/>
+      <c r="AW173" s="188"/>
+      <c r="AX173" s="188"/>
+      <c r="AY173" s="188"/>
+      <c r="AZ173" s="188"/>
+      <c r="BA173" s="188"/>
+      <c r="BB173" s="188"/>
+      <c r="BC173" s="188"/>
+      <c r="BD173" s="188"/>
+      <c r="BE173" s="188"/>
+      <c r="BF173" s="188"/>
+      <c r="BG173" s="189"/>
+      <c r="BH173" s="189"/>
+      <c r="BI173" s="189"/>
+      <c r="BJ173" s="189"/>
+      <c r="BK173" s="189"/>
+      <c r="BL173" s="189"/>
+      <c r="BM173" s="189"/>
       <c r="BN173" s="150"/>
       <c r="BO173" s="150"/>
       <c r="BP173" s="149"/>
@@ -20332,76 +19992,75 @@
       <c r="BS173" s="39"/>
       <c r="BT173" s="27"/>
     </row>
-    <row r="174" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="174" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A174" s="111">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="19"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="117"/>
-      <c r="G174" s="115"/>
-      <c r="H174" s="115"/>
-      <c r="I174" s="115"/>
-      <c r="J174" s="115"/>
-      <c r="K174" s="207"/>
-      <c r="L174" s="207"/>
-      <c r="M174" s="207"/>
-      <c r="N174" s="207"/>
-      <c r="O174" s="208"/>
-      <c r="P174" s="208"/>
-      <c r="Q174" s="207"/>
-      <c r="R174" s="117"/>
-      <c r="S174" s="208"/>
-      <c r="T174" s="207"/>
-      <c r="U174" s="207"/>
-      <c r="V174" s="208"/>
-      <c r="W174" s="208"/>
-      <c r="X174" s="207"/>
-      <c r="Y174" s="207"/>
-      <c r="Z174" s="207"/>
-      <c r="AA174" s="207"/>
-      <c r="AB174" s="207"/>
-      <c r="AC174" s="207"/>
-      <c r="AD174" s="115"/>
-      <c r="AE174" s="207"/>
-      <c r="AF174" s="207"/>
-      <c r="AG174" s="207"/>
-      <c r="AH174" s="207"/>
-      <c r="AI174" s="207"/>
-      <c r="AJ174" s="207"/>
-      <c r="AK174" s="207"/>
-      <c r="AL174" s="223" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM174" s="223"/>
-      <c r="AN174" s="221"/>
-      <c r="AO174" s="221"/>
-      <c r="AP174" s="219"/>
-      <c r="AQ174" s="219"/>
-      <c r="AR174" s="221"/>
-      <c r="AS174" s="221"/>
-      <c r="AT174" s="221"/>
-      <c r="AU174" s="221"/>
-      <c r="AV174" s="221"/>
-      <c r="AW174" s="221"/>
-      <c r="AX174" s="221"/>
-      <c r="AY174" s="221"/>
-      <c r="AZ174" s="221"/>
-      <c r="BA174" s="221"/>
-      <c r="BB174" s="221"/>
-      <c r="BC174" s="221"/>
-      <c r="BD174" s="221"/>
-      <c r="BE174" s="221"/>
-      <c r="BF174" s="219"/>
-      <c r="BG174" s="220"/>
-      <c r="BH174" s="222"/>
-      <c r="BI174" s="222"/>
-      <c r="BJ174" s="222"/>
-      <c r="BK174" s="222"/>
-      <c r="BL174" s="222"/>
-      <c r="BM174" s="222"/>
+      <c r="D174" s="180"/>
+      <c r="E174" s="180"/>
+      <c r="F174" s="175"/>
+      <c r="G174" s="175"/>
+      <c r="H174" s="117"/>
+      <c r="I174" s="117"/>
+      <c r="J174" s="117"/>
+      <c r="K174" s="178"/>
+      <c r="L174" s="178"/>
+      <c r="M174" s="178"/>
+      <c r="N174" s="178"/>
+      <c r="O174" s="182"/>
+      <c r="P174" s="182"/>
+      <c r="Q174" s="178"/>
+      <c r="R174" s="178"/>
+      <c r="S174" s="178"/>
+      <c r="T174" s="178"/>
+      <c r="U174" s="178"/>
+      <c r="V174" s="178"/>
+      <c r="W174" s="178"/>
+      <c r="X174" s="178"/>
+      <c r="Y174" s="178"/>
+      <c r="Z174" s="178"/>
+      <c r="AA174" s="178"/>
+      <c r="AB174" s="178"/>
+      <c r="AC174" s="178"/>
+      <c r="AD174" s="1"/>
+      <c r="AE174" s="177"/>
+      <c r="AF174" s="178"/>
+      <c r="AG174" s="178"/>
+      <c r="AH174" s="178"/>
+      <c r="AI174" s="178"/>
+      <c r="AJ174" s="117"/>
+      <c r="AK174" s="115"/>
+      <c r="AL174" s="186"/>
+      <c r="AM174" s="186"/>
+      <c r="AN174" s="186"/>
+      <c r="AO174" s="186"/>
+      <c r="AP174" s="188"/>
+      <c r="AQ174" s="188"/>
+      <c r="AR174" s="188"/>
+      <c r="AS174" s="190"/>
+      <c r="AT174" s="190"/>
+      <c r="AU174" s="190"/>
+      <c r="AV174" s="190"/>
+      <c r="AW174" s="190"/>
+      <c r="AX174" s="190"/>
+      <c r="AY174" s="190"/>
+      <c r="AZ174" s="190"/>
+      <c r="BA174" s="190"/>
+      <c r="BB174" s="190"/>
+      <c r="BC174" s="190"/>
+      <c r="BD174" s="190"/>
+      <c r="BE174" s="188"/>
+      <c r="BF174" s="188"/>
+      <c r="BG174" s="189"/>
+      <c r="BH174" s="191"/>
+      <c r="BI174" s="191"/>
+      <c r="BJ174" s="191"/>
+      <c r="BK174" s="191"/>
+      <c r="BL174" s="191"/>
+      <c r="BM174" s="189"/>
       <c r="BN174" s="150"/>
       <c r="BO174" s="150"/>
       <c r="BP174" s="149"/>
@@ -20410,74 +20069,77 @@
       <c r="BS174" s="39"/>
       <c r="BT174" s="27"/>
     </row>
-    <row r="175" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="175" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A175" s="111">
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="B175" s="70"/>
       <c r="C175" s="19"/>
       <c r="D175" s="39"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="117"/>
+      <c r="E175" s="39"/>
+      <c r="F175" s="115"/>
       <c r="G175" s="115"/>
       <c r="H175" s="115"/>
       <c r="I175" s="115"/>
       <c r="J175" s="115"/>
-      <c r="K175" s="207"/>
-      <c r="L175" s="207"/>
-      <c r="M175" s="207"/>
-      <c r="N175" s="207"/>
-      <c r="O175" s="208"/>
-      <c r="P175" s="208"/>
-      <c r="Q175" s="207"/>
+      <c r="K175" s="177"/>
+      <c r="L175" s="177"/>
+      <c r="M175" s="177"/>
+      <c r="N175" s="177"/>
+      <c r="O175" s="177"/>
+      <c r="P175" s="177"/>
+      <c r="Q175" s="177"/>
       <c r="R175" s="117"/>
-      <c r="S175" s="208"/>
-      <c r="T175" s="207"/>
-      <c r="U175" s="207"/>
-      <c r="V175" s="208"/>
-      <c r="W175" s="208"/>
-      <c r="X175" s="207"/>
-      <c r="Y175" s="207"/>
-      <c r="Z175" s="207"/>
-      <c r="AA175" s="207"/>
-      <c r="AB175" s="207"/>
-      <c r="AC175" s="207"/>
+      <c r="S175" s="117"/>
+      <c r="T175" s="117"/>
+      <c r="U175" s="115"/>
+      <c r="V175" s="115"/>
+      <c r="W175" s="115"/>
+      <c r="X175" s="115"/>
+      <c r="Y175" s="115"/>
+      <c r="Z175" s="115"/>
+      <c r="AA175" s="115"/>
+      <c r="AB175" s="115"/>
+      <c r="AC175" s="115"/>
       <c r="AD175" s="115"/>
-      <c r="AE175" s="207"/>
-      <c r="AF175" s="207"/>
-      <c r="AG175" s="207"/>
-      <c r="AH175" s="207"/>
-      <c r="AI175" s="207"/>
-      <c r="AJ175" s="207"/>
-      <c r="AK175" s="207"/>
-      <c r="AL175" s="223"/>
-      <c r="AM175" s="223"/>
-      <c r="AN175" s="221"/>
-      <c r="AO175" s="221"/>
-      <c r="AP175" s="219"/>
-      <c r="AQ175" s="219"/>
-      <c r="AR175" s="221"/>
-      <c r="AS175" s="221"/>
-      <c r="AT175" s="221"/>
-      <c r="AU175" s="221"/>
-      <c r="AV175" s="221"/>
-      <c r="AW175" s="221"/>
-      <c r="AX175" s="221"/>
-      <c r="AY175" s="221"/>
-      <c r="AZ175" s="221"/>
-      <c r="BA175" s="221"/>
-      <c r="BB175" s="221"/>
-      <c r="BC175" s="221"/>
-      <c r="BD175" s="221"/>
-      <c r="BE175" s="221"/>
-      <c r="BF175" s="219"/>
-      <c r="BG175" s="220"/>
-      <c r="BH175" s="222"/>
-      <c r="BI175" s="222"/>
-      <c r="BJ175" s="222"/>
-      <c r="BK175" s="222"/>
-      <c r="BL175" s="222"/>
-      <c r="BM175" s="222"/>
+      <c r="AE175" s="115"/>
+      <c r="AF175" s="115"/>
+      <c r="AG175" s="115"/>
+      <c r="AH175" s="115"/>
+      <c r="AI175" s="115"/>
+      <c r="AJ175" s="177"/>
+      <c r="AK175" s="177"/>
+      <c r="AL175" s="192" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM175" s="192"/>
+      <c r="AN175" s="190"/>
+      <c r="AO175" s="190"/>
+      <c r="AP175" s="188"/>
+      <c r="AQ175" s="188"/>
+      <c r="AR175" s="188"/>
+      <c r="AS175" s="190"/>
+      <c r="AT175" s="190"/>
+      <c r="AU175" s="190"/>
+      <c r="AV175" s="190"/>
+      <c r="AW175" s="190"/>
+      <c r="AX175" s="190"/>
+      <c r="AY175" s="190"/>
+      <c r="AZ175" s="190"/>
+      <c r="BA175" s="190"/>
+      <c r="BB175" s="190"/>
+      <c r="BC175" s="190"/>
+      <c r="BD175" s="190"/>
+      <c r="BE175" s="188"/>
+      <c r="BF175" s="188"/>
+      <c r="BG175" s="189"/>
+      <c r="BH175" s="191"/>
+      <c r="BI175" s="191"/>
+      <c r="BJ175" s="191"/>
+      <c r="BK175" s="191"/>
+      <c r="BL175" s="191"/>
+      <c r="BM175" s="189"/>
       <c r="BN175" s="150"/>
       <c r="BO175" s="150"/>
       <c r="BP175" s="149"/>
@@ -20486,80 +20148,75 @@
       <c r="BS175" s="39"/>
       <c r="BT175" s="27"/>
     </row>
-    <row r="176" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="176" spans="1:74" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A176" s="111">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="B176" s="70"/>
       <c r="C176" s="19"/>
       <c r="D176" s="39"/>
-      <c r="E176" s="39"/>
-      <c r="F176" s="115"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="117"/>
       <c r="G176" s="115"/>
       <c r="H176" s="115"/>
-      <c r="I176" s="209"/>
+      <c r="I176" s="115"/>
       <c r="J176" s="115"/>
-      <c r="K176" s="207"/>
-      <c r="L176" s="207"/>
-      <c r="M176" s="207"/>
-      <c r="N176" s="207"/>
-      <c r="O176" s="207"/>
-      <c r="P176" s="207"/>
-      <c r="Q176" s="207"/>
-      <c r="R176" s="208"/>
-      <c r="S176" s="208"/>
-      <c r="T176" s="207"/>
-      <c r="U176" s="207"/>
-      <c r="V176" s="207"/>
-      <c r="W176" s="207"/>
-      <c r="X176" s="207"/>
-      <c r="Y176" s="207"/>
-      <c r="Z176" s="207"/>
-      <c r="AA176" s="207"/>
-      <c r="AB176" s="207"/>
-      <c r="AC176" s="207"/>
-      <c r="AD176" s="207"/>
-      <c r="AE176" s="207"/>
-      <c r="AF176" s="207"/>
-      <c r="AG176" s="207"/>
-      <c r="AH176" s="207"/>
-      <c r="AI176" s="207"/>
-      <c r="AJ176" s="207"/>
-      <c r="AK176" s="207"/>
-      <c r="AL176" s="1"/>
-      <c r="AM176" s="1"/>
-      <c r="AN176" s="221"/>
-      <c r="AO176" s="221"/>
-      <c r="AP176" s="219"/>
-      <c r="AQ176" s="219"/>
-      <c r="AR176" s="221"/>
-      <c r="AS176" s="221"/>
-      <c r="AT176" s="226" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU176" s="226"/>
-      <c r="AV176" s="221"/>
-      <c r="AW176" s="221"/>
-      <c r="AX176" s="221"/>
-      <c r="AY176" s="221"/>
-      <c r="AZ176" s="221"/>
-      <c r="BA176" s="221"/>
-      <c r="BB176" s="224"/>
-      <c r="BC176" s="224" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD176" s="221"/>
-      <c r="BE176" s="221"/>
-      <c r="BF176" s="219"/>
-      <c r="BG176" s="220"/>
-      <c r="BH176" s="222"/>
-      <c r="BI176" s="222"/>
-      <c r="BJ176" s="227" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK176" s="227"/>
-      <c r="BL176" s="222"/>
-      <c r="BM176" s="222"/>
+      <c r="K176" s="177"/>
+      <c r="L176" s="177"/>
+      <c r="M176" s="177"/>
+      <c r="N176" s="177"/>
+      <c r="O176" s="178"/>
+      <c r="P176" s="178"/>
+      <c r="Q176" s="177"/>
+      <c r="R176" s="117"/>
+      <c r="S176" s="178"/>
+      <c r="T176" s="178"/>
+      <c r="U176" s="177"/>
+      <c r="V176" s="178"/>
+      <c r="W176" s="178"/>
+      <c r="X176" s="177"/>
+      <c r="Y176" s="177"/>
+      <c r="Z176" s="177"/>
+      <c r="AA176" s="177"/>
+      <c r="AB176" s="177"/>
+      <c r="AC176" s="177"/>
+      <c r="AD176" s="115"/>
+      <c r="AE176" s="177"/>
+      <c r="AF176" s="177"/>
+      <c r="AG176" s="177"/>
+      <c r="AH176" s="177"/>
+      <c r="AI176" s="177"/>
+      <c r="AJ176" s="177"/>
+      <c r="AK176" s="177"/>
+      <c r="AL176" s="192"/>
+      <c r="AM176" s="192"/>
+      <c r="AN176" s="190"/>
+      <c r="AO176" s="190"/>
+      <c r="AP176" s="188"/>
+      <c r="AQ176" s="188"/>
+      <c r="AR176" s="188"/>
+      <c r="AS176" s="190"/>
+      <c r="AT176" s="190"/>
+      <c r="AU176" s="190"/>
+      <c r="AV176" s="190"/>
+      <c r="AW176" s="190"/>
+      <c r="AX176" s="190"/>
+      <c r="AY176" s="190"/>
+      <c r="AZ176" s="190"/>
+      <c r="BA176" s="190"/>
+      <c r="BB176" s="190"/>
+      <c r="BC176" s="190"/>
+      <c r="BD176" s="190"/>
+      <c r="BE176" s="188"/>
+      <c r="BF176" s="188"/>
+      <c r="BG176" s="189"/>
+      <c r="BH176" s="191"/>
+      <c r="BI176" s="191"/>
+      <c r="BJ176" s="191"/>
+      <c r="BK176" s="191"/>
+      <c r="BL176" s="191"/>
+      <c r="BM176" s="189"/>
       <c r="BN176" s="150"/>
       <c r="BO176" s="150"/>
       <c r="BP176" s="149"/>
@@ -20570,72 +20227,79 @@
     </row>
     <row r="177" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A177" s="111">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="B177" s="70"/>
       <c r="C177" s="19"/>
       <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
-      <c r="F177" s="115"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="117"/>
       <c r="G177" s="115"/>
       <c r="H177" s="115"/>
       <c r="I177" s="115"/>
-      <c r="J177" s="117"/>
-      <c r="K177" s="208"/>
-      <c r="L177" s="207"/>
-      <c r="M177" s="207"/>
-      <c r="N177" s="207"/>
-      <c r="O177" s="207"/>
-      <c r="P177" s="207"/>
-      <c r="Q177" s="207"/>
-      <c r="R177" s="208"/>
-      <c r="S177" s="208"/>
-      <c r="T177" s="207"/>
-      <c r="U177" s="207"/>
-      <c r="V177" s="207"/>
-      <c r="W177" s="207"/>
-      <c r="X177" s="207"/>
-      <c r="Y177" s="207"/>
-      <c r="Z177" s="208"/>
-      <c r="AA177" s="208"/>
-      <c r="AB177" s="207"/>
-      <c r="AC177" s="207"/>
-      <c r="AD177" s="207"/>
-      <c r="AE177" s="207"/>
-      <c r="AF177" s="207"/>
-      <c r="AG177" s="207"/>
-      <c r="AH177" s="208"/>
-      <c r="AI177" s="208"/>
-      <c r="AJ177" s="207"/>
-      <c r="AK177" s="207"/>
+      <c r="J177" s="115"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="178"/>
+      <c r="M177" s="178"/>
+      <c r="N177" s="177"/>
+      <c r="O177" s="178"/>
+      <c r="P177" s="178"/>
+      <c r="Q177" s="177"/>
+      <c r="R177" s="117"/>
+      <c r="S177" s="178"/>
+      <c r="T177" s="178"/>
+      <c r="U177" s="177"/>
+      <c r="V177" s="178"/>
+      <c r="W177" s="178"/>
+      <c r="X177" s="177"/>
+      <c r="Y177" s="177"/>
+      <c r="Z177" s="177"/>
+      <c r="AA177" s="177"/>
+      <c r="AB177" s="177"/>
+      <c r="AC177" s="177"/>
+      <c r="AD177" s="115"/>
+      <c r="AE177" s="177"/>
+      <c r="AF177" s="177"/>
+      <c r="AG177" s="177"/>
+      <c r="AH177" s="177"/>
+      <c r="AI177" s="177"/>
+      <c r="AJ177" s="177"/>
+      <c r="AK177" s="177"/>
       <c r="AL177" s="1"/>
       <c r="AM177" s="1"/>
-      <c r="AN177" s="221"/>
-      <c r="AO177" s="221"/>
-      <c r="AP177" s="219"/>
-      <c r="AQ177" s="219"/>
-      <c r="AR177" s="221"/>
-      <c r="AS177" s="221"/>
-      <c r="AT177" s="226"/>
-      <c r="AU177" s="226"/>
-      <c r="AV177" s="221"/>
-      <c r="AW177" s="221"/>
-      <c r="AX177" s="219"/>
-      <c r="AY177" s="219"/>
-      <c r="AZ177" s="221"/>
-      <c r="BA177" s="221"/>
-      <c r="BB177" s="224"/>
-      <c r="BC177" s="224"/>
-      <c r="BD177" s="221"/>
-      <c r="BE177" s="221"/>
-      <c r="BF177" s="219"/>
-      <c r="BG177" s="220"/>
-      <c r="BH177" s="222"/>
-      <c r="BI177" s="222"/>
-      <c r="BJ177" s="227"/>
-      <c r="BK177" s="227"/>
-      <c r="BL177" s="222"/>
-      <c r="BM177" s="222"/>
+      <c r="AN177" s="190"/>
+      <c r="AO177" s="190"/>
+      <c r="AP177" s="188"/>
+      <c r="AQ177" s="188"/>
+      <c r="AR177" s="188"/>
+      <c r="AS177" s="190"/>
+      <c r="AT177" s="195" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU177" s="195"/>
+      <c r="AV177" s="190"/>
+      <c r="AW177" s="190"/>
+      <c r="AX177" s="190"/>
+      <c r="AY177" s="190"/>
+      <c r="AZ177" s="190"/>
+      <c r="BA177" s="190"/>
+      <c r="BB177" s="193"/>
+      <c r="BC177" s="193" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD177" s="190"/>
+      <c r="BE177" s="188"/>
+      <c r="BF177" s="188"/>
+      <c r="BG177" s="189"/>
+      <c r="BH177" s="191"/>
+      <c r="BI177" s="191"/>
+      <c r="BJ177" s="196" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK177" s="196"/>
+      <c r="BL177" s="191"/>
+      <c r="BM177" s="189"/>
       <c r="BN177" s="150"/>
       <c r="BO177" s="150"/>
       <c r="BP177" s="149"/>
@@ -20646,72 +20310,73 @@
     </row>
     <row r="178" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A178" s="111">
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="B178" s="70"/>
       <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="210"/>
-      <c r="F178" s="205"/>
-      <c r="G178" s="205"/>
-      <c r="H178" s="205"/>
-      <c r="I178" s="117"/>
-      <c r="J178" s="117"/>
-      <c r="K178" s="208"/>
-      <c r="L178" s="208"/>
-      <c r="M178" s="208"/>
-      <c r="N178" s="212"/>
-      <c r="O178" s="212"/>
-      <c r="P178" s="208"/>
-      <c r="Q178" s="208"/>
-      <c r="R178" s="208"/>
-      <c r="S178" s="208"/>
-      <c r="T178" s="208"/>
-      <c r="U178" s="208"/>
-      <c r="V178" s="212"/>
-      <c r="W178" s="212"/>
-      <c r="X178" s="208"/>
-      <c r="Y178" s="208"/>
-      <c r="Z178" s="208"/>
-      <c r="AA178" s="208"/>
-      <c r="AB178" s="212"/>
-      <c r="AC178" s="212"/>
-      <c r="AD178" s="212"/>
-      <c r="AE178" s="212"/>
-      <c r="AF178" s="212"/>
-      <c r="AG178" s="212"/>
-      <c r="AH178" s="208"/>
-      <c r="AI178" s="208"/>
-      <c r="AJ178" s="208"/>
-      <c r="AK178" s="208"/>
-      <c r="AL178" s="219"/>
-      <c r="AM178" s="219"/>
-      <c r="AN178" s="219"/>
-      <c r="AO178" s="219"/>
-      <c r="AP178" s="219"/>
-      <c r="AQ178" s="219"/>
-      <c r="AR178" s="219"/>
-      <c r="AS178" s="219"/>
-      <c r="AT178" s="219"/>
-      <c r="AU178" s="219"/>
-      <c r="AV178" s="219"/>
-      <c r="AW178" s="219"/>
-      <c r="AX178" s="219"/>
-      <c r="AY178" s="219"/>
-      <c r="AZ178" s="219"/>
-      <c r="BA178" s="219"/>
-      <c r="BB178" s="219"/>
-      <c r="BC178" s="219"/>
-      <c r="BD178" s="219"/>
-      <c r="BE178" s="219"/>
-      <c r="BF178" s="219"/>
-      <c r="BG178" s="220"/>
-      <c r="BH178" s="220"/>
-      <c r="BI178" s="220"/>
-      <c r="BJ178" s="220"/>
-      <c r="BK178" s="220"/>
-      <c r="BL178" s="220"/>
-      <c r="BM178" s="220"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
+      <c r="F178" s="115"/>
+      <c r="G178" s="115"/>
+      <c r="H178" s="115"/>
+      <c r="I178" s="179"/>
+      <c r="J178" s="115"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="178"/>
+      <c r="M178" s="178"/>
+      <c r="N178" s="177"/>
+      <c r="O178" s="177"/>
+      <c r="P178" s="177"/>
+      <c r="Q178" s="177"/>
+      <c r="R178" s="178"/>
+      <c r="S178" s="178"/>
+      <c r="T178" s="178"/>
+      <c r="U178" s="177"/>
+      <c r="V178" s="177"/>
+      <c r="W178" s="177"/>
+      <c r="X178" s="177"/>
+      <c r="Y178" s="177"/>
+      <c r="Z178" s="177"/>
+      <c r="AA178" s="177"/>
+      <c r="AB178" s="177"/>
+      <c r="AC178" s="177"/>
+      <c r="AD178" s="177"/>
+      <c r="AE178" s="177"/>
+      <c r="AF178" s="177"/>
+      <c r="AG178" s="177"/>
+      <c r="AH178" s="177"/>
+      <c r="AI178" s="177"/>
+      <c r="AJ178" s="177"/>
+      <c r="AK178" s="177"/>
+      <c r="AL178" s="1"/>
+      <c r="AM178" s="1"/>
+      <c r="AN178" s="190"/>
+      <c r="AO178" s="190"/>
+      <c r="AP178" s="188"/>
+      <c r="AQ178" s="188"/>
+      <c r="AR178" s="188"/>
+      <c r="AS178" s="190"/>
+      <c r="AT178" s="195"/>
+      <c r="AU178" s="195"/>
+      <c r="AV178" s="190"/>
+      <c r="AW178" s="190"/>
+      <c r="AX178" s="190"/>
+      <c r="AY178" s="190"/>
+      <c r="AZ178" s="190"/>
+      <c r="BA178" s="190"/>
+      <c r="BB178" s="193"/>
+      <c r="BC178" s="193"/>
+      <c r="BD178" s="190"/>
+      <c r="BE178" s="188"/>
+      <c r="BF178" s="188"/>
+      <c r="BG178" s="189"/>
+      <c r="BH178" s="191"/>
+      <c r="BI178" s="191"/>
+      <c r="BJ178" s="196"/>
+      <c r="BK178" s="196"/>
+      <c r="BL178" s="191"/>
+      <c r="BM178" s="189"/>
       <c r="BN178" s="150"/>
       <c r="BO178" s="150"/>
       <c r="BP178" s="149"/>
@@ -20722,72 +20387,73 @@
     </row>
     <row r="179" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A179" s="111">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="B179" s="70"/>
       <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="210"/>
-      <c r="F179" s="210"/>
-      <c r="G179" s="210"/>
-      <c r="H179" s="210"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="150"/>
-      <c r="L179" s="150"/>
-      <c r="M179" s="150"/>
-      <c r="N179" s="211"/>
-      <c r="O179" s="211"/>
-      <c r="P179" s="150"/>
-      <c r="Q179" s="150"/>
-      <c r="R179" s="150"/>
-      <c r="S179" s="150"/>
-      <c r="T179" s="150"/>
-      <c r="U179" s="150"/>
-      <c r="V179" s="211"/>
-      <c r="W179" s="211"/>
-      <c r="X179" s="150"/>
-      <c r="Y179" s="150"/>
-      <c r="Z179" s="150"/>
-      <c r="AA179" s="150"/>
-      <c r="AB179" s="211"/>
-      <c r="AC179" s="211"/>
-      <c r="AD179" s="211"/>
-      <c r="AE179" s="211"/>
-      <c r="AF179" s="211"/>
-      <c r="AG179" s="211"/>
-      <c r="AH179" s="150"/>
-      <c r="AI179" s="150"/>
-      <c r="AJ179" s="150"/>
-      <c r="AK179" s="150"/>
-      <c r="AL179" s="220"/>
-      <c r="AM179" s="220"/>
-      <c r="AN179" s="220"/>
-      <c r="AO179" s="220"/>
-      <c r="AP179" s="220"/>
-      <c r="AQ179" s="220"/>
-      <c r="AR179" s="220"/>
-      <c r="AS179" s="220"/>
-      <c r="AT179" s="220"/>
-      <c r="AU179" s="220"/>
-      <c r="AV179" s="220"/>
-      <c r="AW179" s="220"/>
-      <c r="AX179" s="220"/>
-      <c r="AY179" s="220"/>
-      <c r="AZ179" s="220"/>
-      <c r="BA179" s="220"/>
-      <c r="BB179" s="220"/>
-      <c r="BC179" s="220"/>
-      <c r="BD179" s="220"/>
-      <c r="BE179" s="220"/>
-      <c r="BF179" s="220"/>
-      <c r="BG179" s="220"/>
-      <c r="BH179" s="220"/>
-      <c r="BI179" s="220"/>
-      <c r="BJ179" s="220"/>
-      <c r="BK179" s="220"/>
-      <c r="BL179" s="220"/>
-      <c r="BM179" s="220"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="115"/>
+      <c r="G179" s="115"/>
+      <c r="H179" s="115"/>
+      <c r="I179" s="115"/>
+      <c r="J179" s="115"/>
+      <c r="K179" s="177"/>
+      <c r="L179" s="177"/>
+      <c r="M179" s="177"/>
+      <c r="N179" s="177"/>
+      <c r="O179" s="177"/>
+      <c r="P179" s="177"/>
+      <c r="Q179" s="177"/>
+      <c r="R179" s="178"/>
+      <c r="S179" s="178"/>
+      <c r="T179" s="178"/>
+      <c r="U179" s="177"/>
+      <c r="V179" s="177"/>
+      <c r="W179" s="177"/>
+      <c r="X179" s="177"/>
+      <c r="Y179" s="177"/>
+      <c r="Z179" s="177"/>
+      <c r="AA179" s="177"/>
+      <c r="AB179" s="177"/>
+      <c r="AC179" s="177"/>
+      <c r="AD179" s="177"/>
+      <c r="AE179" s="177"/>
+      <c r="AF179" s="177"/>
+      <c r="AG179" s="177"/>
+      <c r="AH179" s="178"/>
+      <c r="AI179" s="178"/>
+      <c r="AJ179" s="178"/>
+      <c r="AK179" s="178"/>
+      <c r="AL179" s="188"/>
+      <c r="AM179" s="188"/>
+      <c r="AN179" s="188"/>
+      <c r="AO179" s="188"/>
+      <c r="AP179" s="188"/>
+      <c r="AQ179" s="188"/>
+      <c r="AR179" s="188"/>
+      <c r="AS179" s="188"/>
+      <c r="AT179" s="188"/>
+      <c r="AU179" s="188"/>
+      <c r="AV179" s="188"/>
+      <c r="AW179" s="188"/>
+      <c r="AX179" s="188"/>
+      <c r="AY179" s="188"/>
+      <c r="AZ179" s="188"/>
+      <c r="BA179" s="188"/>
+      <c r="BB179" s="188"/>
+      <c r="BC179" s="188"/>
+      <c r="BD179" s="188"/>
+      <c r="BE179" s="188"/>
+      <c r="BF179" s="188"/>
+      <c r="BG179" s="189"/>
+      <c r="BH179" s="189"/>
+      <c r="BI179" s="189"/>
+      <c r="BJ179" s="189"/>
+      <c r="BK179" s="189"/>
+      <c r="BL179" s="189"/>
+      <c r="BM179" s="189"/>
       <c r="BN179" s="150"/>
       <c r="BO179" s="150"/>
       <c r="BP179" s="149"/>
@@ -20798,72 +20464,73 @@
     </row>
     <row r="180" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A180" s="111">
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="B180" s="70"/>
       <c r="C180" s="19"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="39"/>
-      <c r="F180" s="39"/>
-      <c r="G180" s="39"/>
-      <c r="H180" s="39"/>
-      <c r="I180" s="39"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="150"/>
-      <c r="L180" s="149"/>
-      <c r="M180" s="149"/>
-      <c r="N180" s="149"/>
-      <c r="O180" s="149"/>
-      <c r="P180" s="149"/>
-      <c r="Q180" s="149"/>
-      <c r="R180" s="150"/>
-      <c r="S180" s="150"/>
-      <c r="T180" s="149"/>
-      <c r="U180" s="149"/>
-      <c r="V180" s="149"/>
-      <c r="W180" s="149"/>
-      <c r="X180" s="149"/>
-      <c r="Y180" s="149"/>
-      <c r="Z180" s="150"/>
-      <c r="AA180" s="150"/>
-      <c r="AB180" s="149"/>
-      <c r="AC180" s="149"/>
-      <c r="AD180" s="149"/>
-      <c r="AE180" s="149"/>
-      <c r="AF180" s="149"/>
-      <c r="AG180" s="149"/>
-      <c r="AH180" s="150"/>
-      <c r="AI180" s="150"/>
-      <c r="AJ180" s="149"/>
-      <c r="AK180" s="149"/>
-      <c r="AL180" s="222"/>
-      <c r="AM180" s="222"/>
-      <c r="AN180" s="222"/>
-      <c r="AO180" s="222"/>
-      <c r="AP180" s="220"/>
-      <c r="AQ180" s="220"/>
-      <c r="AR180" s="222"/>
-      <c r="AS180" s="222"/>
-      <c r="AT180" s="222"/>
-      <c r="AU180" s="222"/>
-      <c r="AV180" s="222"/>
-      <c r="AW180" s="222"/>
-      <c r="AX180" s="220"/>
-      <c r="AY180" s="220"/>
-      <c r="AZ180" s="222"/>
-      <c r="BA180" s="222"/>
-      <c r="BB180" s="222"/>
-      <c r="BC180" s="222"/>
-      <c r="BD180" s="222"/>
-      <c r="BE180" s="222"/>
-      <c r="BF180" s="220"/>
-      <c r="BG180" s="220"/>
-      <c r="BH180" s="222"/>
-      <c r="BI180" s="222"/>
-      <c r="BJ180" s="222"/>
-      <c r="BK180" s="222"/>
-      <c r="BL180" s="222"/>
-      <c r="BM180" s="222"/>
+      <c r="D180" s="180"/>
+      <c r="E180" s="180"/>
+      <c r="F180" s="175"/>
+      <c r="G180" s="175"/>
+      <c r="H180" s="117"/>
+      <c r="I180" s="117"/>
+      <c r="J180" s="117"/>
+      <c r="K180" s="178"/>
+      <c r="L180" s="178"/>
+      <c r="M180" s="178"/>
+      <c r="N180" s="182"/>
+      <c r="O180" s="182"/>
+      <c r="P180" s="178"/>
+      <c r="Q180" s="178"/>
+      <c r="R180" s="178"/>
+      <c r="S180" s="178"/>
+      <c r="T180" s="178"/>
+      <c r="U180" s="178"/>
+      <c r="V180" s="182"/>
+      <c r="W180" s="182"/>
+      <c r="X180" s="178"/>
+      <c r="Y180" s="178"/>
+      <c r="Z180" s="178"/>
+      <c r="AA180" s="178"/>
+      <c r="AB180" s="182"/>
+      <c r="AC180" s="182"/>
+      <c r="AD180" s="182"/>
+      <c r="AE180" s="182"/>
+      <c r="AF180" s="182"/>
+      <c r="AG180" s="182"/>
+      <c r="AH180" s="178"/>
+      <c r="AI180" s="178"/>
+      <c r="AJ180" s="150"/>
+      <c r="AK180" s="150"/>
+      <c r="AL180" s="189"/>
+      <c r="AM180" s="189"/>
+      <c r="AN180" s="189"/>
+      <c r="AO180" s="189"/>
+      <c r="AP180" s="189"/>
+      <c r="AQ180" s="189"/>
+      <c r="AR180" s="189"/>
+      <c r="AS180" s="189"/>
+      <c r="AT180" s="189"/>
+      <c r="AU180" s="189"/>
+      <c r="AV180" s="189"/>
+      <c r="AW180" s="189"/>
+      <c r="AX180" s="189"/>
+      <c r="AY180" s="189"/>
+      <c r="AZ180" s="189"/>
+      <c r="BA180" s="189"/>
+      <c r="BB180" s="189"/>
+      <c r="BC180" s="189"/>
+      <c r="BD180" s="189"/>
+      <c r="BE180" s="189"/>
+      <c r="BF180" s="189"/>
+      <c r="BG180" s="189"/>
+      <c r="BH180" s="189"/>
+      <c r="BI180" s="189"/>
+      <c r="BJ180" s="189"/>
+      <c r="BK180" s="189"/>
+      <c r="BL180" s="189"/>
+      <c r="BM180" s="189"/>
       <c r="BN180" s="150"/>
       <c r="BO180" s="150"/>
       <c r="BP180" s="149"/>
@@ -20874,72 +20541,73 @@
     </row>
     <row r="181" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A181" s="111">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="B181" s="70"/>
       <c r="C181" s="19"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="39"/>
-      <c r="F181" s="39"/>
-      <c r="G181" s="39"/>
-      <c r="H181" s="39"/>
-      <c r="I181" s="39"/>
-      <c r="J181" s="210"/>
-      <c r="K181" s="211"/>
-      <c r="L181" s="149"/>
-      <c r="M181" s="149"/>
-      <c r="N181" s="149"/>
-      <c r="O181" s="149"/>
-      <c r="P181" s="149"/>
-      <c r="Q181" s="149"/>
+      <c r="D181" s="180"/>
+      <c r="E181" s="180"/>
+      <c r="F181" s="180"/>
+      <c r="G181" s="180"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="150"/>
+      <c r="L181" s="150"/>
+      <c r="M181" s="150"/>
+      <c r="N181" s="181"/>
+      <c r="O181" s="181"/>
+      <c r="P181" s="150"/>
+      <c r="Q181" s="150"/>
       <c r="R181" s="150"/>
       <c r="S181" s="150"/>
-      <c r="T181" s="149"/>
-      <c r="U181" s="149"/>
-      <c r="V181" s="149"/>
-      <c r="W181" s="149"/>
-      <c r="X181" s="149"/>
-      <c r="Y181" s="149"/>
-      <c r="Z181" s="149"/>
-      <c r="AA181" s="149"/>
-      <c r="AB181" s="149"/>
-      <c r="AC181" s="149"/>
-      <c r="AD181" s="149"/>
-      <c r="AE181" s="149"/>
-      <c r="AF181" s="149"/>
-      <c r="AG181" s="149"/>
+      <c r="T181" s="150"/>
+      <c r="U181" s="150"/>
+      <c r="V181" s="181"/>
+      <c r="W181" s="181"/>
+      <c r="X181" s="150"/>
+      <c r="Y181" s="150"/>
+      <c r="Z181" s="150"/>
+      <c r="AA181" s="150"/>
+      <c r="AB181" s="181"/>
+      <c r="AC181" s="181"/>
+      <c r="AD181" s="181"/>
+      <c r="AE181" s="181"/>
+      <c r="AF181" s="181"/>
+      <c r="AG181" s="181"/>
       <c r="AH181" s="150"/>
       <c r="AI181" s="150"/>
-      <c r="AJ181" s="149"/>
+      <c r="AJ181" s="150"/>
       <c r="AK181" s="149"/>
-      <c r="AL181" s="222"/>
-      <c r="AM181" s="222"/>
-      <c r="AN181" s="222"/>
-      <c r="AO181" s="222"/>
-      <c r="AP181" s="228"/>
-      <c r="AQ181" s="228"/>
-      <c r="AR181" s="222"/>
-      <c r="AS181" s="222"/>
-      <c r="AT181" s="222"/>
-      <c r="AU181" s="222"/>
-      <c r="AV181" s="222"/>
-      <c r="AW181" s="222"/>
-      <c r="AX181" s="220"/>
-      <c r="AY181" s="220"/>
-      <c r="AZ181" s="222"/>
-      <c r="BA181" s="222"/>
-      <c r="BB181" s="222"/>
-      <c r="BC181" s="222"/>
-      <c r="BD181" s="222"/>
-      <c r="BE181" s="222"/>
-      <c r="BF181" s="222"/>
-      <c r="BG181" s="222"/>
-      <c r="BH181" s="222"/>
-      <c r="BI181" s="222"/>
-      <c r="BJ181" s="222"/>
-      <c r="BK181" s="222"/>
-      <c r="BL181" s="222"/>
-      <c r="BM181" s="222"/>
+      <c r="AL181" s="191"/>
+      <c r="AM181" s="191"/>
+      <c r="AN181" s="191"/>
+      <c r="AO181" s="191"/>
+      <c r="AP181" s="197"/>
+      <c r="AQ181" s="197"/>
+      <c r="AR181" s="191"/>
+      <c r="AS181" s="191"/>
+      <c r="AT181" s="191"/>
+      <c r="AU181" s="191"/>
+      <c r="AV181" s="191"/>
+      <c r="AW181" s="191"/>
+      <c r="AX181" s="189"/>
+      <c r="AY181" s="189"/>
+      <c r="AZ181" s="189"/>
+      <c r="BA181" s="191"/>
+      <c r="BB181" s="191"/>
+      <c r="BC181" s="191"/>
+      <c r="BD181" s="191"/>
+      <c r="BE181" s="191"/>
+      <c r="BF181" s="191"/>
+      <c r="BG181" s="191"/>
+      <c r="BH181" s="191"/>
+      <c r="BI181" s="191"/>
+      <c r="BJ181" s="191"/>
+      <c r="BK181" s="191"/>
+      <c r="BL181" s="191"/>
+      <c r="BM181" s="189"/>
       <c r="BN181" s="150"/>
       <c r="BO181" s="150"/>
       <c r="BP181" s="149"/>
@@ -20949,8 +20617,9 @@
       <c r="BT181" s="27"/>
     </row>
     <row r="182" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A182" s="112">
-        <v>21</v>
+      <c r="A182" s="111">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="B182" s="70"/>
       <c r="C182" s="19"/>
@@ -20960,8 +20629,8 @@
       <c r="G182" s="39"/>
       <c r="H182" s="39"/>
       <c r="I182" s="39"/>
-      <c r="J182" s="210"/>
-      <c r="K182" s="211"/>
+      <c r="J182" s="180"/>
+      <c r="K182" s="181"/>
       <c r="L182" s="149"/>
       <c r="M182" s="149"/>
       <c r="N182" s="149"/>
@@ -20970,10 +20639,10 @@
       <c r="Q182" s="149"/>
       <c r="R182" s="150"/>
       <c r="S182" s="150"/>
-      <c r="T182" s="149"/>
+      <c r="T182" s="150"/>
       <c r="U182" s="149"/>
-      <c r="V182" s="150"/>
-      <c r="W182" s="150"/>
+      <c r="V182" s="149"/>
+      <c r="W182" s="149"/>
       <c r="X182" s="149"/>
       <c r="Y182" s="149"/>
       <c r="Z182" s="149"/>
@@ -20985,37 +20654,37 @@
       <c r="AF182" s="149"/>
       <c r="AG182" s="149"/>
       <c r="AH182" s="150"/>
-      <c r="AI182" s="19"/>
-      <c r="AJ182" s="1"/>
+      <c r="AI182" s="150"/>
+      <c r="AJ182" s="150"/>
       <c r="AK182" s="149"/>
-      <c r="AL182" s="222"/>
-      <c r="AM182" s="222"/>
-      <c r="AN182" s="222"/>
-      <c r="AO182" s="222"/>
-      <c r="AP182" s="228"/>
-      <c r="AQ182" s="228"/>
-      <c r="AR182" s="222"/>
-      <c r="AS182" s="222"/>
-      <c r="AT182" s="222"/>
-      <c r="AU182" s="222"/>
-      <c r="AV182" s="222"/>
-      <c r="AW182" s="222"/>
-      <c r="AX182" s="220"/>
-      <c r="AY182" s="220"/>
-      <c r="AZ182" s="222"/>
-      <c r="BA182" s="222"/>
-      <c r="BB182" s="222"/>
-      <c r="BC182" s="222"/>
-      <c r="BD182" s="222"/>
-      <c r="BE182" s="222"/>
-      <c r="BF182" s="222"/>
-      <c r="BG182" s="222"/>
-      <c r="BH182" s="222"/>
-      <c r="BI182" s="222"/>
-      <c r="BJ182" s="222"/>
-      <c r="BK182" s="222"/>
-      <c r="BL182" s="222"/>
-      <c r="BM182" s="222"/>
+      <c r="AL182" s="191"/>
+      <c r="AM182" s="191"/>
+      <c r="AN182" s="191"/>
+      <c r="AO182" s="191"/>
+      <c r="AP182" s="197"/>
+      <c r="AQ182" s="197"/>
+      <c r="AR182" s="191"/>
+      <c r="AS182" s="191"/>
+      <c r="AT182" s="191"/>
+      <c r="AU182" s="191"/>
+      <c r="AV182" s="191"/>
+      <c r="AW182" s="191"/>
+      <c r="AX182" s="189"/>
+      <c r="AY182" s="189"/>
+      <c r="AZ182" s="189"/>
+      <c r="BA182" s="191"/>
+      <c r="BB182" s="191"/>
+      <c r="BC182" s="191"/>
+      <c r="BD182" s="191"/>
+      <c r="BE182" s="191"/>
+      <c r="BF182" s="191"/>
+      <c r="BG182" s="191"/>
+      <c r="BH182" s="191"/>
+      <c r="BI182" s="191"/>
+      <c r="BJ182" s="191"/>
+      <c r="BK182" s="191"/>
+      <c r="BL182" s="191"/>
+      <c r="BM182" s="189"/>
       <c r="BN182" s="150"/>
       <c r="BO182" s="150"/>
       <c r="BP182" s="149"/>
@@ -21024,9 +20693,10 @@
       <c r="BS182" s="39"/>
       <c r="BT182" s="27"/>
     </row>
-    <row r="183" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="183" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A183" s="111">
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B183" s="70"/>
       <c r="C183" s="19"/>
@@ -21036,8 +20706,8 @@
       <c r="G183" s="39"/>
       <c r="H183" s="39"/>
       <c r="I183" s="39"/>
-      <c r="J183" s="210"/>
-      <c r="K183" s="211"/>
+      <c r="J183" s="180"/>
+      <c r="K183" s="181"/>
       <c r="L183" s="149"/>
       <c r="M183" s="149"/>
       <c r="N183" s="150"/>
@@ -21046,13 +20716,13 @@
       <c r="Q183" s="149"/>
       <c r="R183" s="150"/>
       <c r="S183" s="150"/>
-      <c r="T183" s="149"/>
+      <c r="T183" s="150"/>
       <c r="U183" s="149"/>
       <c r="V183" s="150"/>
       <c r="W183" s="150"/>
       <c r="X183" s="149"/>
-      <c r="Y183" s="149"/>
-      <c r="Z183" s="149"/>
+      <c r="Y183" s="234"/>
+      <c r="Z183" s="234"/>
       <c r="AA183" s="149"/>
       <c r="AB183" s="149"/>
       <c r="AC183" s="149"/>
@@ -21062,36 +20732,36 @@
       <c r="AG183" s="149"/>
       <c r="AH183" s="150"/>
       <c r="AI183" s="19"/>
-      <c r="AJ183" s="1"/>
+      <c r="AJ183" s="19"/>
       <c r="AK183" s="149"/>
-      <c r="AL183" s="222"/>
-      <c r="AM183" s="222"/>
-      <c r="AN183" s="222"/>
-      <c r="AO183" s="222"/>
-      <c r="AP183" s="228"/>
-      <c r="AQ183" s="228"/>
-      <c r="AR183" s="222"/>
-      <c r="AS183" s="222"/>
-      <c r="AT183" s="222"/>
-      <c r="AU183" s="222"/>
-      <c r="AV183" s="222"/>
-      <c r="AW183" s="222"/>
-      <c r="AX183" s="220"/>
-      <c r="AY183" s="220"/>
-      <c r="AZ183" s="222"/>
-      <c r="BA183" s="222"/>
-      <c r="BB183" s="222"/>
-      <c r="BC183" s="222"/>
-      <c r="BD183" s="222"/>
-      <c r="BE183" s="222"/>
-      <c r="BF183" s="222"/>
-      <c r="BG183" s="222"/>
-      <c r="BH183" s="222"/>
-      <c r="BI183" s="222"/>
-      <c r="BJ183" s="222"/>
-      <c r="BK183" s="222"/>
-      <c r="BL183" s="222"/>
-      <c r="BM183" s="222"/>
+      <c r="AL183" s="191"/>
+      <c r="AM183" s="191"/>
+      <c r="AN183" s="191"/>
+      <c r="AO183" s="191"/>
+      <c r="AP183" s="197"/>
+      <c r="AQ183" s="197"/>
+      <c r="AR183" s="191"/>
+      <c r="AS183" s="191"/>
+      <c r="AT183" s="191"/>
+      <c r="AU183" s="191"/>
+      <c r="AV183" s="191"/>
+      <c r="AW183" s="191"/>
+      <c r="AX183" s="189"/>
+      <c r="AY183" s="189"/>
+      <c r="AZ183" s="189"/>
+      <c r="BA183" s="191"/>
+      <c r="BB183" s="191"/>
+      <c r="BC183" s="191"/>
+      <c r="BD183" s="191"/>
+      <c r="BE183" s="191"/>
+      <c r="BF183" s="191"/>
+      <c r="BG183" s="191"/>
+      <c r="BH183" s="191"/>
+      <c r="BI183" s="191"/>
+      <c r="BJ183" s="191"/>
+      <c r="BK183" s="191"/>
+      <c r="BL183" s="191"/>
+      <c r="BM183" s="189"/>
       <c r="BN183" s="150"/>
       <c r="BO183" s="150"/>
       <c r="BP183" s="149"/>
@@ -21101,19 +20771,20 @@
       <c r="BT183" s="27"/>
     </row>
     <row r="184" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A184" s="112">
-        <v>23</v>
+      <c r="A184" s="111">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="B184" s="70"/>
       <c r="C184" s="19"/>
       <c r="D184" s="39"/>
-      <c r="E184" s="62"/>
+      <c r="E184" s="39"/>
       <c r="F184" s="39"/>
       <c r="G184" s="39"/>
       <c r="H184" s="39"/>
       <c r="I184" s="39"/>
-      <c r="J184" s="210"/>
-      <c r="K184" s="211"/>
+      <c r="J184" s="180"/>
+      <c r="K184" s="181"/>
       <c r="L184" s="149"/>
       <c r="M184" s="149"/>
       <c r="N184" s="150"/>
@@ -21122,14 +20793,14 @@
       <c r="Q184" s="149"/>
       <c r="R184" s="150"/>
       <c r="S184" s="150"/>
-      <c r="T184" s="149"/>
+      <c r="T184" s="150"/>
       <c r="U184" s="149"/>
-      <c r="V184" s="1"/>
-      <c r="W184" s="1"/>
-      <c r="X184" s="149"/>
-      <c r="Y184" s="149"/>
-      <c r="Z184" s="149"/>
-      <c r="AA184" s="149"/>
+      <c r="V184" s="19"/>
+      <c r="W184" s="19"/>
+      <c r="X184" s="232"/>
+      <c r="Y184" s="236"/>
+      <c r="Z184" s="237"/>
+      <c r="AA184" s="233"/>
       <c r="AB184" s="149"/>
       <c r="AC184" s="149"/>
       <c r="AD184" s="149"/>
@@ -21138,44 +20809,44 @@
       <c r="AG184" s="149"/>
       <c r="AH184" s="150"/>
       <c r="AI184" s="150"/>
-      <c r="AJ184" s="149"/>
+      <c r="AJ184" s="150"/>
       <c r="AK184" s="149"/>
-      <c r="AL184" s="216" t="s">
+      <c r="AL184" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="AM184" s="216"/>
-      <c r="AN184" s="222"/>
-      <c r="AO184" s="222"/>
-      <c r="AP184" s="228"/>
-      <c r="AQ184" s="228"/>
-      <c r="AR184" s="222"/>
-      <c r="AS184" s="222"/>
-      <c r="AT184" s="224" t="s">
+      <c r="AM184" s="185"/>
+      <c r="AN184" s="191"/>
+      <c r="AO184" s="191"/>
+      <c r="AP184" s="197"/>
+      <c r="AQ184" s="197"/>
+      <c r="AR184" s="191"/>
+      <c r="AS184" s="191"/>
+      <c r="AT184" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="AU184" s="224"/>
-      <c r="AV184" s="222"/>
-      <c r="AW184" s="222"/>
-      <c r="AX184" s="220"/>
-      <c r="AY184" s="220"/>
-      <c r="AZ184" s="222"/>
-      <c r="BA184" s="222"/>
-      <c r="BB184" s="227" t="s">
+      <c r="AU184" s="193"/>
+      <c r="AV184" s="191"/>
+      <c r="AW184" s="191"/>
+      <c r="AX184" s="189"/>
+      <c r="AY184" s="189"/>
+      <c r="AZ184" s="189"/>
+      <c r="BA184" s="191"/>
+      <c r="BB184" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="BC184" s="227"/>
-      <c r="BD184" s="222"/>
-      <c r="BE184" s="222"/>
-      <c r="BF184" s="222"/>
-      <c r="BG184" s="222"/>
-      <c r="BH184" s="222"/>
-      <c r="BI184" s="222"/>
-      <c r="BJ184" s="223" t="s">
+      <c r="BC184" s="196"/>
+      <c r="BD184" s="191"/>
+      <c r="BE184" s="191"/>
+      <c r="BF184" s="191"/>
+      <c r="BG184" s="191"/>
+      <c r="BH184" s="191"/>
+      <c r="BI184" s="191"/>
+      <c r="BJ184" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="BK184" s="223"/>
-      <c r="BL184" s="222"/>
-      <c r="BM184" s="222"/>
+      <c r="BK184" s="192"/>
+      <c r="BL184" s="191"/>
+      <c r="BM184" s="189"/>
       <c r="BN184" s="150"/>
       <c r="BO184" s="150"/>
       <c r="BP184" s="149"/>
@@ -21184,9 +20855,10 @@
       <c r="BS184" s="39"/>
       <c r="BT184" s="27"/>
     </row>
-    <row r="185" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="185" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A185" s="111">
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="B185" s="70"/>
       <c r="C185" s="19"/>
@@ -21198,7 +20870,7 @@
       <c r="I185" s="39"/>
       <c r="J185" s="19"/>
       <c r="K185" s="150"/>
-      <c r="L185" s="149"/>
+      <c r="L185" s="150"/>
       <c r="M185" s="149"/>
       <c r="N185" s="149"/>
       <c r="O185" s="149"/>
@@ -21206,14 +20878,14 @@
       <c r="Q185" s="149"/>
       <c r="R185" s="150"/>
       <c r="S185" s="150"/>
-      <c r="T185" s="149"/>
+      <c r="T185" s="150"/>
       <c r="U185" s="149"/>
       <c r="V185" s="149"/>
       <c r="W185" s="149"/>
-      <c r="X185" s="149"/>
-      <c r="Y185" s="149"/>
-      <c r="Z185" s="150"/>
-      <c r="AA185" s="150"/>
+      <c r="X185" s="232"/>
+      <c r="Y185" s="238"/>
+      <c r="Z185" s="239"/>
+      <c r="AA185" s="233"/>
       <c r="AB185" s="149"/>
       <c r="AC185" s="149"/>
       <c r="AD185" s="149"/>
@@ -21222,36 +20894,36 @@
       <c r="AG185" s="149"/>
       <c r="AH185" s="150"/>
       <c r="AI185" s="150"/>
-      <c r="AJ185" s="149"/>
+      <c r="AJ185" s="150"/>
       <c r="AK185" s="149"/>
-      <c r="AL185" s="216"/>
-      <c r="AM185" s="216"/>
-      <c r="AN185" s="222"/>
-      <c r="AO185" s="222"/>
-      <c r="AP185" s="220"/>
-      <c r="AQ185" s="220"/>
-      <c r="AR185" s="222"/>
-      <c r="AS185" s="222"/>
-      <c r="AT185" s="224"/>
-      <c r="AU185" s="224"/>
-      <c r="AV185" s="222"/>
-      <c r="AW185" s="222"/>
-      <c r="AX185" s="220"/>
-      <c r="AY185" s="220"/>
-      <c r="AZ185" s="222"/>
-      <c r="BA185" s="222"/>
-      <c r="BB185" s="227"/>
-      <c r="BC185" s="227"/>
-      <c r="BD185" s="222"/>
-      <c r="BE185" s="222"/>
-      <c r="BF185" s="220"/>
-      <c r="BG185" s="220"/>
-      <c r="BH185" s="222"/>
-      <c r="BI185" s="222"/>
-      <c r="BJ185" s="223"/>
-      <c r="BK185" s="223"/>
-      <c r="BL185" s="222"/>
-      <c r="BM185" s="222"/>
+      <c r="AL185" s="185"/>
+      <c r="AM185" s="185"/>
+      <c r="AN185" s="191"/>
+      <c r="AO185" s="191"/>
+      <c r="AP185" s="197"/>
+      <c r="AQ185" s="197"/>
+      <c r="AR185" s="191"/>
+      <c r="AS185" s="191"/>
+      <c r="AT185" s="193"/>
+      <c r="AU185" s="193"/>
+      <c r="AV185" s="191"/>
+      <c r="AW185" s="191"/>
+      <c r="AX185" s="189"/>
+      <c r="AY185" s="189"/>
+      <c r="AZ185" s="189"/>
+      <c r="BA185" s="191"/>
+      <c r="BB185" s="196"/>
+      <c r="BC185" s="196"/>
+      <c r="BD185" s="191"/>
+      <c r="BE185" s="191"/>
+      <c r="BF185" s="191"/>
+      <c r="BG185" s="191"/>
+      <c r="BH185" s="191"/>
+      <c r="BI185" s="191"/>
+      <c r="BJ185" s="192"/>
+      <c r="BK185" s="192"/>
+      <c r="BL185" s="191"/>
+      <c r="BM185" s="189"/>
       <c r="BN185" s="150"/>
       <c r="BO185" s="150"/>
       <c r="BP185" s="149"/>
@@ -21261,8 +20933,9 @@
       <c r="BT185" s="27"/>
     </row>
     <row r="186" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="112">
-        <v>25</v>
+      <c r="A186" s="111">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="B186" s="70"/>
       <c r="C186" s="19"/>
@@ -21287,8 +20960,8 @@
       <c r="V186" s="150"/>
       <c r="W186" s="150"/>
       <c r="X186" s="150"/>
-      <c r="Y186" s="150"/>
-      <c r="Z186" s="150"/>
+      <c r="Y186" s="235"/>
+      <c r="Z186" s="235"/>
       <c r="AA186" s="150"/>
       <c r="AB186" s="150"/>
       <c r="AC186" s="150"/>
@@ -21338,7 +21011,8 @@
     </row>
     <row r="187" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="111">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="B187" s="86"/>
       <c r="C187" s="72"/>
@@ -21413,310 +21087,314 @@
       <c r="BT187" s="76"/>
     </row>
     <row r="188" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="112">
-        <v>27</v>
-      </c>
-      <c r="B188" s="188" t="s">
+      <c r="A188" s="111">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B188" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="C188" s="189"/>
-      <c r="D188" s="189"/>
-      <c r="E188" s="189"/>
-      <c r="F188" s="189"/>
-      <c r="G188" s="189"/>
-      <c r="H188" s="189"/>
-      <c r="I188" s="189"/>
-      <c r="J188" s="189"/>
-      <c r="K188" s="189"/>
-      <c r="L188" s="189"/>
-      <c r="M188" s="189"/>
-      <c r="N188" s="189"/>
-      <c r="O188" s="189"/>
-      <c r="P188" s="189"/>
-      <c r="Q188" s="189"/>
-      <c r="R188" s="189"/>
-      <c r="S188" s="189"/>
-      <c r="T188" s="189"/>
-      <c r="U188" s="189"/>
-      <c r="V188" s="189"/>
-      <c r="W188" s="189"/>
-      <c r="X188" s="189"/>
-      <c r="Y188" s="189"/>
-      <c r="Z188" s="189"/>
-      <c r="AA188" s="189"/>
-      <c r="AB188" s="189"/>
-      <c r="AC188" s="189"/>
-      <c r="AD188" s="189"/>
-      <c r="AE188" s="189"/>
-      <c r="AF188" s="189"/>
-      <c r="AG188" s="189"/>
-      <c r="AH188" s="189"/>
-      <c r="AI188" s="189"/>
-      <c r="AJ188" s="189"/>
-      <c r="AK188" s="189"/>
-      <c r="AL188" s="189"/>
-      <c r="AM188" s="189"/>
-      <c r="AN188" s="189"/>
-      <c r="AO188" s="189"/>
-      <c r="AP188" s="189"/>
-      <c r="AQ188" s="189"/>
-      <c r="AR188" s="189"/>
-      <c r="AS188" s="189"/>
-      <c r="AT188" s="189"/>
-      <c r="AU188" s="189"/>
-      <c r="AV188" s="189"/>
-      <c r="AW188" s="189"/>
-      <c r="AX188" s="189"/>
-      <c r="AY188" s="189"/>
-      <c r="AZ188" s="189"/>
-      <c r="BA188" s="189"/>
-      <c r="BB188" s="189"/>
-      <c r="BC188" s="189"/>
-      <c r="BD188" s="189"/>
-      <c r="BE188" s="189"/>
-      <c r="BF188" s="189"/>
-      <c r="BG188" s="189"/>
-      <c r="BH188" s="189"/>
-      <c r="BI188" s="189"/>
-      <c r="BJ188" s="189"/>
-      <c r="BK188" s="189"/>
-      <c r="BL188" s="189"/>
-      <c r="BM188" s="189"/>
-      <c r="BN188" s="189"/>
-      <c r="BO188" s="189"/>
-      <c r="BP188" s="189"/>
-      <c r="BQ188" s="189"/>
-      <c r="BR188" s="189"/>
-      <c r="BS188" s="189"/>
-      <c r="BT188" s="190"/>
+      <c r="C188" s="220"/>
+      <c r="D188" s="220"/>
+      <c r="E188" s="220"/>
+      <c r="F188" s="220"/>
+      <c r="G188" s="220"/>
+      <c r="H188" s="220"/>
+      <c r="I188" s="220"/>
+      <c r="J188" s="220"/>
+      <c r="K188" s="220"/>
+      <c r="L188" s="220"/>
+      <c r="M188" s="220"/>
+      <c r="N188" s="220"/>
+      <c r="O188" s="220"/>
+      <c r="P188" s="220"/>
+      <c r="Q188" s="220"/>
+      <c r="R188" s="220"/>
+      <c r="S188" s="220"/>
+      <c r="T188" s="220"/>
+      <c r="U188" s="220"/>
+      <c r="V188" s="220"/>
+      <c r="W188" s="220"/>
+      <c r="X188" s="220"/>
+      <c r="Y188" s="220"/>
+      <c r="Z188" s="220"/>
+      <c r="AA188" s="220"/>
+      <c r="AB188" s="220"/>
+      <c r="AC188" s="220"/>
+      <c r="AD188" s="220"/>
+      <c r="AE188" s="220"/>
+      <c r="AF188" s="220"/>
+      <c r="AG188" s="220"/>
+      <c r="AH188" s="220"/>
+      <c r="AI188" s="220"/>
+      <c r="AJ188" s="220"/>
+      <c r="AK188" s="220"/>
+      <c r="AL188" s="220"/>
+      <c r="AM188" s="220"/>
+      <c r="AN188" s="220"/>
+      <c r="AO188" s="220"/>
+      <c r="AP188" s="220"/>
+      <c r="AQ188" s="220"/>
+      <c r="AR188" s="220"/>
+      <c r="AS188" s="220"/>
+      <c r="AT188" s="220"/>
+      <c r="AU188" s="220"/>
+      <c r="AV188" s="220"/>
+      <c r="AW188" s="220"/>
+      <c r="AX188" s="220"/>
+      <c r="AY188" s="220"/>
+      <c r="AZ188" s="220"/>
+      <c r="BA188" s="220"/>
+      <c r="BB188" s="220"/>
+      <c r="BC188" s="220"/>
+      <c r="BD188" s="220"/>
+      <c r="BE188" s="220"/>
+      <c r="BF188" s="220"/>
+      <c r="BG188" s="220"/>
+      <c r="BH188" s="220"/>
+      <c r="BI188" s="220"/>
+      <c r="BJ188" s="220"/>
+      <c r="BK188" s="220"/>
+      <c r="BL188" s="220"/>
+      <c r="BM188" s="220"/>
+      <c r="BN188" s="220"/>
+      <c r="BO188" s="220"/>
+      <c r="BP188" s="220"/>
+      <c r="BQ188" s="220"/>
+      <c r="BR188" s="220"/>
+      <c r="BS188" s="220"/>
+      <c r="BT188" s="225"/>
     </row>
     <row r="189" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="111">
-        <v>28</v>
-      </c>
-      <c r="B189" s="188"/>
-      <c r="C189" s="189"/>
-      <c r="D189" s="189"/>
-      <c r="E189" s="189"/>
-      <c r="F189" s="189"/>
-      <c r="G189" s="189"/>
-      <c r="H189" s="189"/>
-      <c r="I189" s="189"/>
-      <c r="J189" s="189"/>
-      <c r="K189" s="189"/>
-      <c r="L189" s="189"/>
-      <c r="M189" s="189"/>
-      <c r="N189" s="189"/>
-      <c r="O189" s="189"/>
-      <c r="P189" s="189"/>
-      <c r="Q189" s="189"/>
-      <c r="R189" s="189"/>
-      <c r="S189" s="189"/>
-      <c r="T189" s="189"/>
-      <c r="U189" s="189"/>
-      <c r="V189" s="189"/>
-      <c r="W189" s="189"/>
-      <c r="X189" s="189"/>
-      <c r="Y189" s="189"/>
-      <c r="Z189" s="189"/>
-      <c r="AA189" s="189"/>
-      <c r="AB189" s="189"/>
-      <c r="AC189" s="189"/>
-      <c r="AD189" s="189"/>
-      <c r="AE189" s="189"/>
-      <c r="AF189" s="189"/>
-      <c r="AG189" s="189"/>
-      <c r="AH189" s="189"/>
-      <c r="AI189" s="189"/>
-      <c r="AJ189" s="189"/>
-      <c r="AK189" s="189"/>
-      <c r="AL189" s="189"/>
-      <c r="AM189" s="189"/>
-      <c r="AN189" s="189"/>
-      <c r="AO189" s="189"/>
-      <c r="AP189" s="189"/>
-      <c r="AQ189" s="189"/>
-      <c r="AR189" s="189"/>
-      <c r="AS189" s="189"/>
-      <c r="AT189" s="189"/>
-      <c r="AU189" s="189"/>
-      <c r="AV189" s="189"/>
-      <c r="AW189" s="189"/>
-      <c r="AX189" s="189"/>
-      <c r="AY189" s="189"/>
-      <c r="AZ189" s="189"/>
-      <c r="BA189" s="189"/>
-      <c r="BB189" s="189"/>
-      <c r="BC189" s="189"/>
-      <c r="BD189" s="189"/>
-      <c r="BE189" s="189"/>
-      <c r="BF189" s="189"/>
-      <c r="BG189" s="189"/>
-      <c r="BH189" s="189"/>
-      <c r="BI189" s="189"/>
-      <c r="BJ189" s="189"/>
-      <c r="BK189" s="189"/>
-      <c r="BL189" s="189"/>
-      <c r="BM189" s="189"/>
-      <c r="BN189" s="189"/>
-      <c r="BO189" s="189"/>
-      <c r="BP189" s="189"/>
-      <c r="BQ189" s="189"/>
-      <c r="BR189" s="189"/>
-      <c r="BS189" s="189"/>
-      <c r="BT189" s="190"/>
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B189" s="219"/>
+      <c r="C189" s="220"/>
+      <c r="D189" s="220"/>
+      <c r="E189" s="220"/>
+      <c r="F189" s="220"/>
+      <c r="G189" s="220"/>
+      <c r="H189" s="220"/>
+      <c r="I189" s="220"/>
+      <c r="J189" s="220"/>
+      <c r="K189" s="220"/>
+      <c r="L189" s="220"/>
+      <c r="M189" s="220"/>
+      <c r="N189" s="220"/>
+      <c r="O189" s="220"/>
+      <c r="P189" s="220"/>
+      <c r="Q189" s="220"/>
+      <c r="R189" s="220"/>
+      <c r="S189" s="220"/>
+      <c r="T189" s="220"/>
+      <c r="U189" s="220"/>
+      <c r="V189" s="220"/>
+      <c r="W189" s="220"/>
+      <c r="X189" s="220"/>
+      <c r="Y189" s="220"/>
+      <c r="Z189" s="220"/>
+      <c r="AA189" s="220"/>
+      <c r="AB189" s="220"/>
+      <c r="AC189" s="220"/>
+      <c r="AD189" s="220"/>
+      <c r="AE189" s="220"/>
+      <c r="AF189" s="220"/>
+      <c r="AG189" s="220"/>
+      <c r="AH189" s="220"/>
+      <c r="AI189" s="220"/>
+      <c r="AJ189" s="220"/>
+      <c r="AK189" s="220"/>
+      <c r="AL189" s="220"/>
+      <c r="AM189" s="220"/>
+      <c r="AN189" s="220"/>
+      <c r="AO189" s="220"/>
+      <c r="AP189" s="220"/>
+      <c r="AQ189" s="220"/>
+      <c r="AR189" s="220"/>
+      <c r="AS189" s="220"/>
+      <c r="AT189" s="220"/>
+      <c r="AU189" s="220"/>
+      <c r="AV189" s="220"/>
+      <c r="AW189" s="220"/>
+      <c r="AX189" s="220"/>
+      <c r="AY189" s="220"/>
+      <c r="AZ189" s="220"/>
+      <c r="BA189" s="220"/>
+      <c r="BB189" s="220"/>
+      <c r="BC189" s="220"/>
+      <c r="BD189" s="220"/>
+      <c r="BE189" s="220"/>
+      <c r="BF189" s="220"/>
+      <c r="BG189" s="220"/>
+      <c r="BH189" s="220"/>
+      <c r="BI189" s="220"/>
+      <c r="BJ189" s="220"/>
+      <c r="BK189" s="220"/>
+      <c r="BL189" s="220"/>
+      <c r="BM189" s="220"/>
+      <c r="BN189" s="220"/>
+      <c r="BO189" s="220"/>
+      <c r="BP189" s="220"/>
+      <c r="BQ189" s="220"/>
+      <c r="BR189" s="220"/>
+      <c r="BS189" s="220"/>
+      <c r="BT189" s="225"/>
     </row>
     <row r="190" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="112">
-        <v>29</v>
-      </c>
-      <c r="B190" s="188"/>
-      <c r="C190" s="189"/>
-      <c r="D190" s="189"/>
-      <c r="E190" s="189"/>
-      <c r="F190" s="189"/>
-      <c r="G190" s="189"/>
-      <c r="H190" s="189"/>
-      <c r="I190" s="189"/>
-      <c r="J190" s="189"/>
-      <c r="K190" s="189"/>
-      <c r="L190" s="189"/>
-      <c r="M190" s="189"/>
-      <c r="N190" s="189"/>
-      <c r="O190" s="189"/>
-      <c r="P190" s="189"/>
-      <c r="Q190" s="189"/>
-      <c r="R190" s="189"/>
-      <c r="S190" s="189"/>
-      <c r="T190" s="189"/>
-      <c r="U190" s="189"/>
-      <c r="V190" s="189"/>
-      <c r="W190" s="189"/>
-      <c r="X190" s="189"/>
-      <c r="Y190" s="189"/>
-      <c r="Z190" s="189"/>
-      <c r="AA190" s="189"/>
-      <c r="AB190" s="189"/>
-      <c r="AC190" s="189"/>
-      <c r="AD190" s="189"/>
-      <c r="AE190" s="189"/>
-      <c r="AF190" s="189"/>
-      <c r="AG190" s="189"/>
-      <c r="AH190" s="189"/>
-      <c r="AI190" s="189"/>
-      <c r="AJ190" s="189"/>
-      <c r="AK190" s="189"/>
-      <c r="AL190" s="189"/>
-      <c r="AM190" s="189"/>
-      <c r="AN190" s="189"/>
-      <c r="AO190" s="189"/>
-      <c r="AP190" s="189"/>
-      <c r="AQ190" s="189"/>
-      <c r="AR190" s="189"/>
-      <c r="AS190" s="189"/>
-      <c r="AT190" s="189"/>
-      <c r="AU190" s="189"/>
-      <c r="AV190" s="189"/>
-      <c r="AW190" s="189"/>
-      <c r="AX190" s="189"/>
-      <c r="AY190" s="189"/>
-      <c r="AZ190" s="189"/>
-      <c r="BA190" s="189"/>
-      <c r="BB190" s="189"/>
-      <c r="BC190" s="189"/>
-      <c r="BD190" s="189"/>
-      <c r="BE190" s="189"/>
-      <c r="BF190" s="189"/>
-      <c r="BG190" s="189"/>
-      <c r="BH190" s="189"/>
-      <c r="BI190" s="189"/>
-      <c r="BJ190" s="189"/>
-      <c r="BK190" s="189"/>
-      <c r="BL190" s="189"/>
-      <c r="BM190" s="189"/>
-      <c r="BN190" s="189"/>
-      <c r="BO190" s="189"/>
-      <c r="BP190" s="189"/>
-      <c r="BQ190" s="189"/>
-      <c r="BR190" s="189"/>
-      <c r="BS190" s="189"/>
-      <c r="BT190" s="190"/>
+      <c r="A190" s="111">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B190" s="219"/>
+      <c r="C190" s="220"/>
+      <c r="D190" s="220"/>
+      <c r="E190" s="220"/>
+      <c r="F190" s="220"/>
+      <c r="G190" s="220"/>
+      <c r="H190" s="220"/>
+      <c r="I190" s="220"/>
+      <c r="J190" s="220"/>
+      <c r="K190" s="220"/>
+      <c r="L190" s="220"/>
+      <c r="M190" s="220"/>
+      <c r="N190" s="220"/>
+      <c r="O190" s="220"/>
+      <c r="P190" s="220"/>
+      <c r="Q190" s="220"/>
+      <c r="R190" s="220"/>
+      <c r="S190" s="220"/>
+      <c r="T190" s="220"/>
+      <c r="U190" s="220"/>
+      <c r="V190" s="220"/>
+      <c r="W190" s="220"/>
+      <c r="X190" s="220"/>
+      <c r="Y190" s="220"/>
+      <c r="Z190" s="220"/>
+      <c r="AA190" s="220"/>
+      <c r="AB190" s="220"/>
+      <c r="AC190" s="220"/>
+      <c r="AD190" s="220"/>
+      <c r="AE190" s="220"/>
+      <c r="AF190" s="220"/>
+      <c r="AG190" s="220"/>
+      <c r="AH190" s="220"/>
+      <c r="AI190" s="220"/>
+      <c r="AJ190" s="220"/>
+      <c r="AK190" s="220"/>
+      <c r="AL190" s="220"/>
+      <c r="AM190" s="220"/>
+      <c r="AN190" s="220"/>
+      <c r="AO190" s="220"/>
+      <c r="AP190" s="220"/>
+      <c r="AQ190" s="220"/>
+      <c r="AR190" s="220"/>
+      <c r="AS190" s="220"/>
+      <c r="AT190" s="220"/>
+      <c r="AU190" s="220"/>
+      <c r="AV190" s="220"/>
+      <c r="AW190" s="220"/>
+      <c r="AX190" s="220"/>
+      <c r="AY190" s="220"/>
+      <c r="AZ190" s="220"/>
+      <c r="BA190" s="220"/>
+      <c r="BB190" s="220"/>
+      <c r="BC190" s="220"/>
+      <c r="BD190" s="220"/>
+      <c r="BE190" s="220"/>
+      <c r="BF190" s="220"/>
+      <c r="BG190" s="220"/>
+      <c r="BH190" s="220"/>
+      <c r="BI190" s="220"/>
+      <c r="BJ190" s="220"/>
+      <c r="BK190" s="220"/>
+      <c r="BL190" s="220"/>
+      <c r="BM190" s="220"/>
+      <c r="BN190" s="220"/>
+      <c r="BO190" s="220"/>
+      <c r="BP190" s="220"/>
+      <c r="BQ190" s="220"/>
+      <c r="BR190" s="220"/>
+      <c r="BS190" s="220"/>
+      <c r="BT190" s="225"/>
     </row>
     <row r="191" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="111">
-        <v>30</v>
-      </c>
-      <c r="B191" s="191"/>
-      <c r="C191" s="192"/>
-      <c r="D191" s="192"/>
-      <c r="E191" s="192"/>
-      <c r="F191" s="192"/>
-      <c r="G191" s="192"/>
-      <c r="H191" s="192"/>
-      <c r="I191" s="192"/>
-      <c r="J191" s="192"/>
-      <c r="K191" s="192"/>
-      <c r="L191" s="192"/>
-      <c r="M191" s="192"/>
-      <c r="N191" s="192"/>
-      <c r="O191" s="192"/>
-      <c r="P191" s="192"/>
-      <c r="Q191" s="192"/>
-      <c r="R191" s="192"/>
-      <c r="S191" s="192"/>
-      <c r="T191" s="192"/>
-      <c r="U191" s="192"/>
-      <c r="V191" s="192"/>
-      <c r="W191" s="192"/>
-      <c r="X191" s="192"/>
-      <c r="Y191" s="192"/>
-      <c r="Z191" s="192"/>
-      <c r="AA191" s="192"/>
-      <c r="AB191" s="192"/>
-      <c r="AC191" s="192"/>
-      <c r="AD191" s="192"/>
-      <c r="AE191" s="192"/>
-      <c r="AF191" s="192"/>
-      <c r="AG191" s="192"/>
-      <c r="AH191" s="192"/>
-      <c r="AI191" s="192"/>
-      <c r="AJ191" s="192"/>
-      <c r="AK191" s="192"/>
-      <c r="AL191" s="192"/>
-      <c r="AM191" s="192"/>
-      <c r="AN191" s="192"/>
-      <c r="AO191" s="192"/>
-      <c r="AP191" s="192"/>
-      <c r="AQ191" s="192"/>
-      <c r="AR191" s="192"/>
-      <c r="AS191" s="192"/>
-      <c r="AT191" s="192"/>
-      <c r="AU191" s="192"/>
-      <c r="AV191" s="192"/>
-      <c r="AW191" s="192"/>
-      <c r="AX191" s="192"/>
-      <c r="AY191" s="192"/>
-      <c r="AZ191" s="192"/>
-      <c r="BA191" s="192"/>
-      <c r="BB191" s="192"/>
-      <c r="BC191" s="192"/>
-      <c r="BD191" s="192"/>
-      <c r="BE191" s="192"/>
-      <c r="BF191" s="192"/>
-      <c r="BG191" s="192"/>
-      <c r="BH191" s="192"/>
-      <c r="BI191" s="192"/>
-      <c r="BJ191" s="192"/>
-      <c r="BK191" s="192"/>
-      <c r="BL191" s="192"/>
-      <c r="BM191" s="192"/>
-      <c r="BN191" s="192"/>
-      <c r="BO191" s="192"/>
-      <c r="BP191" s="192"/>
-      <c r="BQ191" s="192"/>
-      <c r="BR191" s="192"/>
-      <c r="BS191" s="192"/>
-      <c r="BT191" s="193"/>
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B191" s="221"/>
+      <c r="C191" s="222"/>
+      <c r="D191" s="222"/>
+      <c r="E191" s="222"/>
+      <c r="F191" s="222"/>
+      <c r="G191" s="222"/>
+      <c r="H191" s="222"/>
+      <c r="I191" s="222"/>
+      <c r="J191" s="222"/>
+      <c r="K191" s="222"/>
+      <c r="L191" s="222"/>
+      <c r="M191" s="222"/>
+      <c r="N191" s="222"/>
+      <c r="O191" s="222"/>
+      <c r="P191" s="222"/>
+      <c r="Q191" s="222"/>
+      <c r="R191" s="222"/>
+      <c r="S191" s="222"/>
+      <c r="T191" s="222"/>
+      <c r="U191" s="222"/>
+      <c r="V191" s="222"/>
+      <c r="W191" s="222"/>
+      <c r="X191" s="222"/>
+      <c r="Y191" s="222"/>
+      <c r="Z191" s="222"/>
+      <c r="AA191" s="222"/>
+      <c r="AB191" s="222"/>
+      <c r="AC191" s="222"/>
+      <c r="AD191" s="222"/>
+      <c r="AE191" s="222"/>
+      <c r="AF191" s="222"/>
+      <c r="AG191" s="222"/>
+      <c r="AH191" s="222"/>
+      <c r="AI191" s="222"/>
+      <c r="AJ191" s="222"/>
+      <c r="AK191" s="222"/>
+      <c r="AL191" s="222"/>
+      <c r="AM191" s="222"/>
+      <c r="AN191" s="222"/>
+      <c r="AO191" s="222"/>
+      <c r="AP191" s="222"/>
+      <c r="AQ191" s="222"/>
+      <c r="AR191" s="222"/>
+      <c r="AS191" s="222"/>
+      <c r="AT191" s="222"/>
+      <c r="AU191" s="222"/>
+      <c r="AV191" s="222"/>
+      <c r="AW191" s="222"/>
+      <c r="AX191" s="222"/>
+      <c r="AY191" s="222"/>
+      <c r="AZ191" s="222"/>
+      <c r="BA191" s="222"/>
+      <c r="BB191" s="222"/>
+      <c r="BC191" s="222"/>
+      <c r="BD191" s="222"/>
+      <c r="BE191" s="222"/>
+      <c r="BF191" s="222"/>
+      <c r="BG191" s="222"/>
+      <c r="BH191" s="222"/>
+      <c r="BI191" s="222"/>
+      <c r="BJ191" s="222"/>
+      <c r="BK191" s="222"/>
+      <c r="BL191" s="222"/>
+      <c r="BM191" s="222"/>
+      <c r="BN191" s="222"/>
+      <c r="BO191" s="222"/>
+      <c r="BP191" s="222"/>
+      <c r="BQ191" s="222"/>
+      <c r="BR191" s="222"/>
+      <c r="BS191" s="222"/>
+      <c r="BT191" s="226"/>
     </row>
     <row r="192" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="20"/>
@@ -24178,307 +23856,307 @@
       <c r="A223" s="112">
         <v>27</v>
       </c>
-      <c r="B223" s="188" t="s">
+      <c r="B223" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="C223" s="189"/>
-      <c r="D223" s="189"/>
-      <c r="E223" s="189"/>
-      <c r="F223" s="189"/>
-      <c r="G223" s="189"/>
-      <c r="H223" s="189"/>
-      <c r="I223" s="189"/>
-      <c r="J223" s="189"/>
-      <c r="K223" s="189"/>
-      <c r="L223" s="189"/>
-      <c r="M223" s="189"/>
-      <c r="N223" s="189"/>
-      <c r="O223" s="189"/>
-      <c r="P223" s="189"/>
-      <c r="Q223" s="189"/>
-      <c r="R223" s="189"/>
-      <c r="S223" s="189"/>
-      <c r="T223" s="189"/>
-      <c r="U223" s="189"/>
-      <c r="V223" s="189"/>
-      <c r="W223" s="189"/>
-      <c r="X223" s="189"/>
-      <c r="Y223" s="189"/>
-      <c r="Z223" s="189"/>
-      <c r="AA223" s="189"/>
-      <c r="AB223" s="189"/>
-      <c r="AC223" s="189"/>
-      <c r="AD223" s="189"/>
-      <c r="AE223" s="189"/>
-      <c r="AF223" s="189"/>
-      <c r="AG223" s="189"/>
-      <c r="AH223" s="189"/>
-      <c r="AI223" s="189"/>
-      <c r="AJ223" s="189"/>
-      <c r="AK223" s="189"/>
-      <c r="AL223" s="189"/>
-      <c r="AM223" s="189"/>
-      <c r="AN223" s="189"/>
-      <c r="AO223" s="189"/>
-      <c r="AP223" s="189"/>
-      <c r="AQ223" s="189"/>
-      <c r="AR223" s="189"/>
-      <c r="AS223" s="189"/>
-      <c r="AT223" s="189"/>
-      <c r="AU223" s="189"/>
-      <c r="AV223" s="189"/>
-      <c r="AW223" s="189"/>
-      <c r="AX223" s="189"/>
-      <c r="AY223" s="189"/>
-      <c r="AZ223" s="189"/>
-      <c r="BA223" s="189"/>
-      <c r="BB223" s="189"/>
-      <c r="BC223" s="189"/>
-      <c r="BD223" s="189"/>
-      <c r="BE223" s="189"/>
-      <c r="BF223" s="189"/>
-      <c r="BG223" s="189"/>
-      <c r="BH223" s="189"/>
-      <c r="BI223" s="189"/>
-      <c r="BJ223" s="189"/>
-      <c r="BK223" s="189"/>
-      <c r="BL223" s="189"/>
-      <c r="BM223" s="189"/>
-      <c r="BN223" s="189"/>
-      <c r="BO223" s="189"/>
-      <c r="BP223" s="189"/>
-      <c r="BQ223" s="189"/>
-      <c r="BR223" s="189"/>
-      <c r="BS223" s="189"/>
-      <c r="BT223" s="190"/>
+      <c r="C223" s="220"/>
+      <c r="D223" s="220"/>
+      <c r="E223" s="220"/>
+      <c r="F223" s="220"/>
+      <c r="G223" s="220"/>
+      <c r="H223" s="220"/>
+      <c r="I223" s="220"/>
+      <c r="J223" s="220"/>
+      <c r="K223" s="220"/>
+      <c r="L223" s="220"/>
+      <c r="M223" s="220"/>
+      <c r="N223" s="220"/>
+      <c r="O223" s="220"/>
+      <c r="P223" s="220"/>
+      <c r="Q223" s="220"/>
+      <c r="R223" s="220"/>
+      <c r="S223" s="220"/>
+      <c r="T223" s="220"/>
+      <c r="U223" s="220"/>
+      <c r="V223" s="220"/>
+      <c r="W223" s="220"/>
+      <c r="X223" s="220"/>
+      <c r="Y223" s="220"/>
+      <c r="Z223" s="220"/>
+      <c r="AA223" s="220"/>
+      <c r="AB223" s="220"/>
+      <c r="AC223" s="220"/>
+      <c r="AD223" s="220"/>
+      <c r="AE223" s="220"/>
+      <c r="AF223" s="220"/>
+      <c r="AG223" s="220"/>
+      <c r="AH223" s="220"/>
+      <c r="AI223" s="220"/>
+      <c r="AJ223" s="220"/>
+      <c r="AK223" s="220"/>
+      <c r="AL223" s="220"/>
+      <c r="AM223" s="220"/>
+      <c r="AN223" s="220"/>
+      <c r="AO223" s="220"/>
+      <c r="AP223" s="220"/>
+      <c r="AQ223" s="220"/>
+      <c r="AR223" s="220"/>
+      <c r="AS223" s="220"/>
+      <c r="AT223" s="220"/>
+      <c r="AU223" s="220"/>
+      <c r="AV223" s="220"/>
+      <c r="AW223" s="220"/>
+      <c r="AX223" s="220"/>
+      <c r="AY223" s="220"/>
+      <c r="AZ223" s="220"/>
+      <c r="BA223" s="220"/>
+      <c r="BB223" s="220"/>
+      <c r="BC223" s="220"/>
+      <c r="BD223" s="220"/>
+      <c r="BE223" s="220"/>
+      <c r="BF223" s="220"/>
+      <c r="BG223" s="220"/>
+      <c r="BH223" s="220"/>
+      <c r="BI223" s="220"/>
+      <c r="BJ223" s="220"/>
+      <c r="BK223" s="220"/>
+      <c r="BL223" s="220"/>
+      <c r="BM223" s="220"/>
+      <c r="BN223" s="220"/>
+      <c r="BO223" s="220"/>
+      <c r="BP223" s="220"/>
+      <c r="BQ223" s="220"/>
+      <c r="BR223" s="220"/>
+      <c r="BS223" s="220"/>
+      <c r="BT223" s="225"/>
     </row>
     <row r="224" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="111">
         <v>28</v>
       </c>
-      <c r="B224" s="188"/>
-      <c r="C224" s="189"/>
-      <c r="D224" s="189"/>
-      <c r="E224" s="189"/>
-      <c r="F224" s="189"/>
-      <c r="G224" s="189"/>
-      <c r="H224" s="189"/>
-      <c r="I224" s="189"/>
-      <c r="J224" s="189"/>
-      <c r="K224" s="189"/>
-      <c r="L224" s="189"/>
-      <c r="M224" s="189"/>
-      <c r="N224" s="189"/>
-      <c r="O224" s="189"/>
-      <c r="P224" s="189"/>
-      <c r="Q224" s="189"/>
-      <c r="R224" s="189"/>
-      <c r="S224" s="189"/>
-      <c r="T224" s="189"/>
-      <c r="U224" s="189"/>
-      <c r="V224" s="189"/>
-      <c r="W224" s="189"/>
-      <c r="X224" s="189"/>
-      <c r="Y224" s="189"/>
-      <c r="Z224" s="189"/>
-      <c r="AA224" s="189"/>
-      <c r="AB224" s="189"/>
-      <c r="AC224" s="189"/>
-      <c r="AD224" s="189"/>
-      <c r="AE224" s="189"/>
-      <c r="AF224" s="189"/>
-      <c r="AG224" s="189"/>
-      <c r="AH224" s="189"/>
-      <c r="AI224" s="189"/>
-      <c r="AJ224" s="189"/>
-      <c r="AK224" s="189"/>
-      <c r="AL224" s="189"/>
-      <c r="AM224" s="189"/>
-      <c r="AN224" s="189"/>
-      <c r="AO224" s="189"/>
-      <c r="AP224" s="189"/>
-      <c r="AQ224" s="189"/>
-      <c r="AR224" s="189"/>
-      <c r="AS224" s="189"/>
-      <c r="AT224" s="189"/>
-      <c r="AU224" s="189"/>
-      <c r="AV224" s="189"/>
-      <c r="AW224" s="189"/>
-      <c r="AX224" s="189"/>
-      <c r="AY224" s="189"/>
-      <c r="AZ224" s="189"/>
-      <c r="BA224" s="189"/>
-      <c r="BB224" s="189"/>
-      <c r="BC224" s="189"/>
-      <c r="BD224" s="189"/>
-      <c r="BE224" s="189"/>
-      <c r="BF224" s="189"/>
-      <c r="BG224" s="189"/>
-      <c r="BH224" s="189"/>
-      <c r="BI224" s="189"/>
-      <c r="BJ224" s="189"/>
-      <c r="BK224" s="189"/>
-      <c r="BL224" s="189"/>
-      <c r="BM224" s="189"/>
-      <c r="BN224" s="189"/>
-      <c r="BO224" s="189"/>
-      <c r="BP224" s="189"/>
-      <c r="BQ224" s="189"/>
-      <c r="BR224" s="189"/>
-      <c r="BS224" s="189"/>
-      <c r="BT224" s="190"/>
+      <c r="B224" s="219"/>
+      <c r="C224" s="220"/>
+      <c r="D224" s="220"/>
+      <c r="E224" s="220"/>
+      <c r="F224" s="220"/>
+      <c r="G224" s="220"/>
+      <c r="H224" s="220"/>
+      <c r="I224" s="220"/>
+      <c r="J224" s="220"/>
+      <c r="K224" s="220"/>
+      <c r="L224" s="220"/>
+      <c r="M224" s="220"/>
+      <c r="N224" s="220"/>
+      <c r="O224" s="220"/>
+      <c r="P224" s="220"/>
+      <c r="Q224" s="220"/>
+      <c r="R224" s="220"/>
+      <c r="S224" s="220"/>
+      <c r="T224" s="220"/>
+      <c r="U224" s="220"/>
+      <c r="V224" s="220"/>
+      <c r="W224" s="220"/>
+      <c r="X224" s="220"/>
+      <c r="Y224" s="220"/>
+      <c r="Z224" s="220"/>
+      <c r="AA224" s="220"/>
+      <c r="AB224" s="220"/>
+      <c r="AC224" s="220"/>
+      <c r="AD224" s="220"/>
+      <c r="AE224" s="220"/>
+      <c r="AF224" s="220"/>
+      <c r="AG224" s="220"/>
+      <c r="AH224" s="220"/>
+      <c r="AI224" s="220"/>
+      <c r="AJ224" s="220"/>
+      <c r="AK224" s="220"/>
+      <c r="AL224" s="220"/>
+      <c r="AM224" s="220"/>
+      <c r="AN224" s="220"/>
+      <c r="AO224" s="220"/>
+      <c r="AP224" s="220"/>
+      <c r="AQ224" s="220"/>
+      <c r="AR224" s="220"/>
+      <c r="AS224" s="220"/>
+      <c r="AT224" s="220"/>
+      <c r="AU224" s="220"/>
+      <c r="AV224" s="220"/>
+      <c r="AW224" s="220"/>
+      <c r="AX224" s="220"/>
+      <c r="AY224" s="220"/>
+      <c r="AZ224" s="220"/>
+      <c r="BA224" s="220"/>
+      <c r="BB224" s="220"/>
+      <c r="BC224" s="220"/>
+      <c r="BD224" s="220"/>
+      <c r="BE224" s="220"/>
+      <c r="BF224" s="220"/>
+      <c r="BG224" s="220"/>
+      <c r="BH224" s="220"/>
+      <c r="BI224" s="220"/>
+      <c r="BJ224" s="220"/>
+      <c r="BK224" s="220"/>
+      <c r="BL224" s="220"/>
+      <c r="BM224" s="220"/>
+      <c r="BN224" s="220"/>
+      <c r="BO224" s="220"/>
+      <c r="BP224" s="220"/>
+      <c r="BQ224" s="220"/>
+      <c r="BR224" s="220"/>
+      <c r="BS224" s="220"/>
+      <c r="BT224" s="225"/>
     </row>
     <row r="225" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="112">
         <v>29</v>
       </c>
-      <c r="B225" s="188"/>
-      <c r="C225" s="189"/>
-      <c r="D225" s="189"/>
-      <c r="E225" s="189"/>
-      <c r="F225" s="189"/>
-      <c r="G225" s="189"/>
-      <c r="H225" s="189"/>
-      <c r="I225" s="189"/>
-      <c r="J225" s="189"/>
-      <c r="K225" s="189"/>
-      <c r="L225" s="189"/>
-      <c r="M225" s="189"/>
-      <c r="N225" s="189"/>
-      <c r="O225" s="189"/>
-      <c r="P225" s="189"/>
-      <c r="Q225" s="189"/>
-      <c r="R225" s="189"/>
-      <c r="S225" s="189"/>
-      <c r="T225" s="189"/>
-      <c r="U225" s="189"/>
-      <c r="V225" s="189"/>
-      <c r="W225" s="189"/>
-      <c r="X225" s="189"/>
-      <c r="Y225" s="189"/>
-      <c r="Z225" s="189"/>
-      <c r="AA225" s="189"/>
-      <c r="AB225" s="189"/>
-      <c r="AC225" s="189"/>
-      <c r="AD225" s="189"/>
-      <c r="AE225" s="189"/>
-      <c r="AF225" s="189"/>
-      <c r="AG225" s="189"/>
-      <c r="AH225" s="189"/>
-      <c r="AI225" s="189"/>
-      <c r="AJ225" s="189"/>
-      <c r="AK225" s="189"/>
-      <c r="AL225" s="189"/>
-      <c r="AM225" s="189"/>
-      <c r="AN225" s="189"/>
-      <c r="AO225" s="189"/>
-      <c r="AP225" s="189"/>
-      <c r="AQ225" s="189"/>
-      <c r="AR225" s="189"/>
-      <c r="AS225" s="189"/>
-      <c r="AT225" s="189"/>
-      <c r="AU225" s="189"/>
-      <c r="AV225" s="189"/>
-      <c r="AW225" s="189"/>
-      <c r="AX225" s="189"/>
-      <c r="AY225" s="189"/>
-      <c r="AZ225" s="189"/>
-      <c r="BA225" s="189"/>
-      <c r="BB225" s="189"/>
-      <c r="BC225" s="189"/>
-      <c r="BD225" s="189"/>
-      <c r="BE225" s="189"/>
-      <c r="BF225" s="189"/>
-      <c r="BG225" s="189"/>
-      <c r="BH225" s="189"/>
-      <c r="BI225" s="189"/>
-      <c r="BJ225" s="189"/>
-      <c r="BK225" s="189"/>
-      <c r="BL225" s="189"/>
-      <c r="BM225" s="189"/>
-      <c r="BN225" s="189"/>
-      <c r="BO225" s="189"/>
-      <c r="BP225" s="189"/>
-      <c r="BQ225" s="189"/>
-      <c r="BR225" s="189"/>
-      <c r="BS225" s="189"/>
-      <c r="BT225" s="190"/>
+      <c r="B225" s="219"/>
+      <c r="C225" s="220"/>
+      <c r="D225" s="220"/>
+      <c r="E225" s="220"/>
+      <c r="F225" s="220"/>
+      <c r="G225" s="220"/>
+      <c r="H225" s="220"/>
+      <c r="I225" s="220"/>
+      <c r="J225" s="220"/>
+      <c r="K225" s="220"/>
+      <c r="L225" s="220"/>
+      <c r="M225" s="220"/>
+      <c r="N225" s="220"/>
+      <c r="O225" s="220"/>
+      <c r="P225" s="220"/>
+      <c r="Q225" s="220"/>
+      <c r="R225" s="220"/>
+      <c r="S225" s="220"/>
+      <c r="T225" s="220"/>
+      <c r="U225" s="220"/>
+      <c r="V225" s="220"/>
+      <c r="W225" s="220"/>
+      <c r="X225" s="220"/>
+      <c r="Y225" s="220"/>
+      <c r="Z225" s="220"/>
+      <c r="AA225" s="220"/>
+      <c r="AB225" s="220"/>
+      <c r="AC225" s="220"/>
+      <c r="AD225" s="220"/>
+      <c r="AE225" s="220"/>
+      <c r="AF225" s="220"/>
+      <c r="AG225" s="220"/>
+      <c r="AH225" s="220"/>
+      <c r="AI225" s="220"/>
+      <c r="AJ225" s="220"/>
+      <c r="AK225" s="220"/>
+      <c r="AL225" s="220"/>
+      <c r="AM225" s="220"/>
+      <c r="AN225" s="220"/>
+      <c r="AO225" s="220"/>
+      <c r="AP225" s="220"/>
+      <c r="AQ225" s="220"/>
+      <c r="AR225" s="220"/>
+      <c r="AS225" s="220"/>
+      <c r="AT225" s="220"/>
+      <c r="AU225" s="220"/>
+      <c r="AV225" s="220"/>
+      <c r="AW225" s="220"/>
+      <c r="AX225" s="220"/>
+      <c r="AY225" s="220"/>
+      <c r="AZ225" s="220"/>
+      <c r="BA225" s="220"/>
+      <c r="BB225" s="220"/>
+      <c r="BC225" s="220"/>
+      <c r="BD225" s="220"/>
+      <c r="BE225" s="220"/>
+      <c r="BF225" s="220"/>
+      <c r="BG225" s="220"/>
+      <c r="BH225" s="220"/>
+      <c r="BI225" s="220"/>
+      <c r="BJ225" s="220"/>
+      <c r="BK225" s="220"/>
+      <c r="BL225" s="220"/>
+      <c r="BM225" s="220"/>
+      <c r="BN225" s="220"/>
+      <c r="BO225" s="220"/>
+      <c r="BP225" s="220"/>
+      <c r="BQ225" s="220"/>
+      <c r="BR225" s="220"/>
+      <c r="BS225" s="220"/>
+      <c r="BT225" s="225"/>
     </row>
     <row r="226" spans="1:72" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="111">
         <v>30</v>
       </c>
-      <c r="B226" s="191"/>
-      <c r="C226" s="192"/>
-      <c r="D226" s="192"/>
-      <c r="E226" s="192"/>
-      <c r="F226" s="192"/>
-      <c r="G226" s="192"/>
-      <c r="H226" s="192"/>
-      <c r="I226" s="192"/>
-      <c r="J226" s="192"/>
-      <c r="K226" s="192"/>
-      <c r="L226" s="192"/>
-      <c r="M226" s="192"/>
-      <c r="N226" s="192"/>
-      <c r="O226" s="192"/>
-      <c r="P226" s="192"/>
-      <c r="Q226" s="192"/>
-      <c r="R226" s="192"/>
-      <c r="S226" s="192"/>
-      <c r="T226" s="192"/>
-      <c r="U226" s="192"/>
-      <c r="V226" s="192"/>
-      <c r="W226" s="192"/>
-      <c r="X226" s="192"/>
-      <c r="Y226" s="192"/>
-      <c r="Z226" s="192"/>
-      <c r="AA226" s="192"/>
-      <c r="AB226" s="192"/>
-      <c r="AC226" s="192"/>
-      <c r="AD226" s="192"/>
-      <c r="AE226" s="192"/>
-      <c r="AF226" s="192"/>
-      <c r="AG226" s="192"/>
-      <c r="AH226" s="192"/>
-      <c r="AI226" s="192"/>
-      <c r="AJ226" s="192"/>
-      <c r="AK226" s="192"/>
-      <c r="AL226" s="192"/>
-      <c r="AM226" s="192"/>
-      <c r="AN226" s="192"/>
-      <c r="AO226" s="192"/>
-      <c r="AP226" s="192"/>
-      <c r="AQ226" s="192"/>
-      <c r="AR226" s="192"/>
-      <c r="AS226" s="192"/>
-      <c r="AT226" s="192"/>
-      <c r="AU226" s="192"/>
-      <c r="AV226" s="192"/>
-      <c r="AW226" s="192"/>
-      <c r="AX226" s="192"/>
-      <c r="AY226" s="192"/>
-      <c r="AZ226" s="192"/>
-      <c r="BA226" s="192"/>
-      <c r="BB226" s="192"/>
-      <c r="BC226" s="192"/>
-      <c r="BD226" s="192"/>
-      <c r="BE226" s="192"/>
-      <c r="BF226" s="192"/>
-      <c r="BG226" s="192"/>
-      <c r="BH226" s="192"/>
-      <c r="BI226" s="192"/>
-      <c r="BJ226" s="192"/>
-      <c r="BK226" s="192"/>
-      <c r="BL226" s="192"/>
-      <c r="BM226" s="192"/>
-      <c r="BN226" s="192"/>
-      <c r="BO226" s="192"/>
-      <c r="BP226" s="192"/>
-      <c r="BQ226" s="192"/>
-      <c r="BR226" s="192"/>
-      <c r="BS226" s="192"/>
-      <c r="BT226" s="193"/>
+      <c r="B226" s="221"/>
+      <c r="C226" s="222"/>
+      <c r="D226" s="222"/>
+      <c r="E226" s="222"/>
+      <c r="F226" s="222"/>
+      <c r="G226" s="222"/>
+      <c r="H226" s="222"/>
+      <c r="I226" s="222"/>
+      <c r="J226" s="222"/>
+      <c r="K226" s="222"/>
+      <c r="L226" s="222"/>
+      <c r="M226" s="222"/>
+      <c r="N226" s="222"/>
+      <c r="O226" s="222"/>
+      <c r="P226" s="222"/>
+      <c r="Q226" s="222"/>
+      <c r="R226" s="222"/>
+      <c r="S226" s="222"/>
+      <c r="T226" s="222"/>
+      <c r="U226" s="222"/>
+      <c r="V226" s="222"/>
+      <c r="W226" s="222"/>
+      <c r="X226" s="222"/>
+      <c r="Y226" s="222"/>
+      <c r="Z226" s="222"/>
+      <c r="AA226" s="222"/>
+      <c r="AB226" s="222"/>
+      <c r="AC226" s="222"/>
+      <c r="AD226" s="222"/>
+      <c r="AE226" s="222"/>
+      <c r="AF226" s="222"/>
+      <c r="AG226" s="222"/>
+      <c r="AH226" s="222"/>
+      <c r="AI226" s="222"/>
+      <c r="AJ226" s="222"/>
+      <c r="AK226" s="222"/>
+      <c r="AL226" s="222"/>
+      <c r="AM226" s="222"/>
+      <c r="AN226" s="222"/>
+      <c r="AO226" s="222"/>
+      <c r="AP226" s="222"/>
+      <c r="AQ226" s="222"/>
+      <c r="AR226" s="222"/>
+      <c r="AS226" s="222"/>
+      <c r="AT226" s="222"/>
+      <c r="AU226" s="222"/>
+      <c r="AV226" s="222"/>
+      <c r="AW226" s="222"/>
+      <c r="AX226" s="222"/>
+      <c r="AY226" s="222"/>
+      <c r="AZ226" s="222"/>
+      <c r="BA226" s="222"/>
+      <c r="BB226" s="222"/>
+      <c r="BC226" s="222"/>
+      <c r="BD226" s="222"/>
+      <c r="BE226" s="222"/>
+      <c r="BF226" s="222"/>
+      <c r="BG226" s="222"/>
+      <c r="BH226" s="222"/>
+      <c r="BI226" s="222"/>
+      <c r="BJ226" s="222"/>
+      <c r="BK226" s="222"/>
+      <c r="BL226" s="222"/>
+      <c r="BM226" s="222"/>
+      <c r="BN226" s="222"/>
+      <c r="BO226" s="222"/>
+      <c r="BP226" s="222"/>
+      <c r="BQ226" s="222"/>
+      <c r="BR226" s="222"/>
+      <c r="BS226" s="222"/>
+      <c r="BT226" s="226"/>
     </row>
     <row r="227" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="20"/>
@@ -29269,15 +28947,20 @@
       <c r="BJ302" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AX138:AY138"/>
-    <mergeCell ref="AX143:AY143"/>
-    <mergeCell ref="BC137:BD137"/>
-    <mergeCell ref="R165:S168"/>
-    <mergeCell ref="AN138:AO138"/>
-    <mergeCell ref="AS137:AT137"/>
-    <mergeCell ref="AS142:AT142"/>
-    <mergeCell ref="AL149:AM149"/>
+  <mergeCells count="33">
+    <mergeCell ref="B188:BT191"/>
+    <mergeCell ref="B223:BT226"/>
+    <mergeCell ref="AR149:AS149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="T149:U149"/>
+    <mergeCell ref="Z149:AA149"/>
+    <mergeCell ref="AF149:AG149"/>
+    <mergeCell ref="B29:AO32"/>
+    <mergeCell ref="B65:BT68"/>
+    <mergeCell ref="B91:BT94"/>
+    <mergeCell ref="B125:BT128"/>
+    <mergeCell ref="BJ119:BK122"/>
+    <mergeCell ref="AG110:AH110"/>
     <mergeCell ref="M115:N115"/>
     <mergeCell ref="M121:N121"/>
     <mergeCell ref="AG121:AH121"/>
@@ -29288,22 +28971,16 @@
     <mergeCell ref="AD143:AE143"/>
     <mergeCell ref="AI137:AJ137"/>
     <mergeCell ref="AI142:AJ142"/>
-    <mergeCell ref="B29:AO32"/>
-    <mergeCell ref="B65:BT68"/>
-    <mergeCell ref="B91:BT94"/>
-    <mergeCell ref="B125:BT128"/>
-    <mergeCell ref="BJ119:BK122"/>
-    <mergeCell ref="AG110:AH110"/>
+    <mergeCell ref="AX138:AY138"/>
+    <mergeCell ref="AX143:AY143"/>
+    <mergeCell ref="BC137:BD137"/>
+    <mergeCell ref="AN138:AO138"/>
+    <mergeCell ref="AS137:AT137"/>
+    <mergeCell ref="AS142:AT142"/>
+    <mergeCell ref="AL149:AM149"/>
     <mergeCell ref="BC142:BD142"/>
     <mergeCell ref="B153:BN156"/>
     <mergeCell ref="T144:BN145"/>
-    <mergeCell ref="B188:BT191"/>
-    <mergeCell ref="B223:BT226"/>
-    <mergeCell ref="AR149:AS149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="T149:U149"/>
-    <mergeCell ref="Z149:AA149"/>
-    <mergeCell ref="AF149:AG149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
